--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -16651,10 +16651,10 @@
     </row>
     <row r="562">
       <c r="A562" t="str">
-        <v>(caṟ)kuruvē tuṇai</v>
+        <v>({Christian cross}={pcs}) kuruvē tuṇai</v>
       </c>
       <c r="B562" t="str">
-        <v>caṟkuruvē tuṇai</v>
+        <v>{Christian cross}={pcs} kuruvē tuṇai</v>
       </c>
       <c r="C562" t="str">
         <v>Indien 489</v>

--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -423,7 +423,7 @@
         <v>Private collection</v>
       </c>
       <c r="E2" t="str">
-        <v>Nāṉanaṭcēttiramālai</v>
+        <v>Ñāṉanaṭcēttiramālai</v>
       </c>
       <c r="F2" t="str">
         <v>U2</v>
@@ -432,7 +432,7 @@
         <v>folio 12v</v>
       </c>
       <c r="H2" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <v>0</v>
@@ -452,7 +452,7 @@
         <v>Private collection</v>
       </c>
       <c r="E3" t="str">
-        <v>Nāṉanaṭcēttiramālai</v>
+        <v>Ñāṉanaṭcēttiramālai</v>
       </c>
       <c r="F3" t="str">
         <v>U2</v>
@@ -461,7 +461,7 @@
         <v>folio 16r</v>
       </c>
       <c r="H3" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I3" t="str">
         <v>0</v>
@@ -481,7 +481,7 @@
         <v>Private collection</v>
       </c>
       <c r="E4" t="str">
-        <v>Nāṉanaṭcēttiramālai</v>
+        <v>Ñāṉanaṭcēttiramālai</v>
       </c>
       <c r="F4" t="str">
         <v>U2</v>
@@ -490,7 +490,7 @@
         <v>folio 20v</v>
       </c>
       <c r="H4" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I4" t="str">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>Private collection</v>
       </c>
       <c r="E5" t="str">
-        <v>Nāṉanaṭcēttiramālai</v>
+        <v>Ñāṉanaṭcēttiramālai</v>
       </c>
       <c r="F5" t="str">
         <v>U2</v>
@@ -519,7 +519,7 @@
         <v>folio 24r</v>
       </c>
       <c r="H5" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I5" t="str">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>Private collection</v>
       </c>
       <c r="E6" t="str">
-        <v>Nāṉanaṭcēttiramālai</v>
+        <v>Ñāṉanaṭcēttiramālai</v>
       </c>
       <c r="F6" t="str">
         <v>U2</v>
@@ -548,7 +548,7 @@
         <v>folio 24r</v>
       </c>
       <c r="H6" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I6" t="str">
         <v>0</v>
@@ -556,10 +556,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>tēva Āṇṭavaḷ tuṇai y- uṇṭāka-k kaṭavatu</v>
+        <v>tēva Āṇṭavaḷ tuṇai y-uṇṭāka-k kaṭavatu</v>
       </c>
       <c r="B7" t="str">
-        <v>tēva Āṇṭavaḷ tuṇai y uṇṭākak kaṭavatu</v>
+        <v>tēva Āṇṭavaḷ tuṇai yuṇṭākak kaṭavatu</v>
       </c>
       <c r="C7" t="str">
         <v>Bernolle 1</v>
@@ -568,16 +568,16 @@
         <v>Private collection</v>
       </c>
       <c r="E7" t="str">
-        <v>Nāṉanaṭcēttiramālai</v>
+        <v>Ñāṉanaṭcēttiramālai</v>
       </c>
       <c r="F7" t="str">
         <v>U2</v>
       </c>
       <c r="G7" t="str">
-        <v>folio 222v</v>
+        <v>folio 222r</v>
       </c>
       <c r="H7" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I7" t="str">
         <v>1</v>

--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I774"/>
+  <dimension ref="A1:I786"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19406,19 +19406,19 @@
     </row>
     <row r="657">
       <c r="A657" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>hari Om·</v>
       </c>
       <c r="B657" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>hari Om·</v>
       </c>
       <c r="C657" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D657" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E657" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F657" t="str">
         <v>U1</v>
@@ -19427,7 +19427,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H657" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I657" t="str">
         <v>0</v>
@@ -19435,19 +19435,19 @@
     </row>
     <row r="658">
       <c r="A658" t="str">
-        <v>tēvicakāyam•</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B658" t="str">
-        <v>tēvicakāyam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C658" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D658" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E658" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F658" t="str">
         <v>U1</v>
@@ -19456,7 +19456,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H658" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I658" t="str">
         <v>0</v>
@@ -19464,19 +19464,19 @@
     </row>
     <row r="659">
       <c r="A659" t="str">
-        <v>civam•</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="B659" t="str">
-        <v>civam</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="C659" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D659" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E659" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F659" t="str">
         <v>U1</v>
@@ -19485,7 +19485,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H659" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I659" t="str">
         <v>0</v>
@@ -19493,57 +19493,57 @@
     </row>
     <row r="660">
       <c r="A660" t="str">
-        <v>tirucciṟṟampalam•</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B660" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C660" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D660" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E660" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F660" t="str">
         <v>U1</v>
       </c>
       <c r="G660" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H660" t="str">
-        <v>main text area</v>
+        <v>left margin 1</v>
       </c>
       <c r="I660" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="str">
-        <v>tēvicakāyam</v>
+        <v>śrī-ṟāmaceyam</v>
       </c>
       <c r="B661" t="str">
-        <v>tēvicakāyam</v>
+        <v>śrīṟāmaceyam</v>
       </c>
       <c r="C661" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D661" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E661" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F661" t="str">
         <v>U1</v>
       </c>
       <c r="G661" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H661" t="str">
-        <v>main text area</v>
+        <v>left margin 1</v>
       </c>
       <c r="I661" t="str">
         <v>0</v>
@@ -19551,57 +19551,57 @@
     </row>
     <row r="662">
       <c r="A662" t="str">
-        <v>naṉṟāka</v>
+        <v>cāṟatāmpāḷ tuṇai</v>
       </c>
       <c r="B662" t="str">
-        <v>naṉṟāka</v>
+        <v>cāṟatāmpāḷ tuṇai</v>
       </c>
       <c r="C662" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D662" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E662" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F662" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G662" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H662" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I662" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="str">
-        <v>tēvicakāyam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B663" t="str">
-        <v>tēvicakāyam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C663" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D663" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E663" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F663" t="str">
         <v>U2</v>
       </c>
       <c r="G663" t="str">
-        <v>folio 11r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H663" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I663" t="str">
         <v>0</v>
@@ -19609,28 +19609,28 @@
     </row>
     <row r="664">
       <c r="A664" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>civamayam</v>
       </c>
       <c r="B664" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>civamayam</v>
       </c>
       <c r="C664" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D664" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E664" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F664" t="str">
         <v>U2</v>
       </c>
       <c r="G664" t="str">
-        <v>folio 11r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H664" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I664" t="str">
         <v>0</v>
@@ -19638,25 +19638,25 @@
     </row>
     <row r="665">
       <c r="A665" t="str">
-        <v>civar</v>
+        <v>vāṇikātēvi cakāyam</v>
       </c>
       <c r="B665" t="str">
-        <v>civar</v>
+        <v>vāṇikātēvi cakāyam</v>
       </c>
       <c r="C665" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D665" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E665" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F665" t="str">
         <v>U2</v>
       </c>
       <c r="G665" t="str">
-        <v>folio 11r</v>
+        <v>folio 117r</v>
       </c>
       <c r="H665" t="str">
         <v>main text area</v>
@@ -19667,28 +19667,28 @@
     </row>
     <row r="666">
       <c r="A666" t="str">
-        <v>civar</v>
+        <v>teṭcaṇāmūrtti-kiṟupai y-uṇṭāka tākavum</v>
       </c>
       <c r="B666" t="str">
-        <v>civar</v>
+        <v>teṭcaṇāmūrttikiṟupai yuṇṭāka tākavum</v>
       </c>
       <c r="C666" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D666" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E666" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F666" t="str">
         <v>U2</v>
       </c>
       <c r="G666" t="str">
-        <v>folio 12r</v>
+        <v>folio 117r</v>
       </c>
       <c r="H666" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I666" t="str">
         <v>0</v>
@@ -19696,68 +19696,68 @@
     </row>
     <row r="667">
       <c r="A667" t="str">
-        <v>Āṟumukam tuṇai</v>
+        <v>śrī-ṟā=ma-ceya=m</v>
       </c>
       <c r="B667" t="str">
-        <v>Āṟumukam tuṇai</v>
+        <v>śrīṟāmaceyam</v>
       </c>
       <c r="C667" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D667" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E667" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F667" t="str">
         <v>U2</v>
       </c>
       <c r="G667" t="str">
-        <v>folio 120r</v>
+        <v>folio 117r</v>
       </c>
       <c r="H667" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I667" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="str">
-        <v>Ampalat¿(tuṭu)?tu mayyar tuṇai-y-āka vēṇum</v>
+        <v>kuru-kiṟupai</v>
       </c>
       <c r="B668" t="str">
-        <v>Ampalattuṭutu mayyar tuṇaiyāka vēṇum</v>
+        <v>kurukiṟupai</v>
       </c>
       <c r="C668" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D668" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E668" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F668" t="str">
         <v>U2</v>
       </c>
       <c r="G668" t="str">
-        <v>folio 120r</v>
+        <v>folio 117r</v>
       </c>
       <c r="H668" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I668" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="str">
-        <v>tēvicakāya=m</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B669" t="str">
-        <v>tēvicakāyam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C669" t="str">
         <v>Indien 954</v>
@@ -19769,10 +19769,10 @@
         <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F669" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G669" t="str">
-        <v>folio 120r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H669" t="str">
         <v>left margin</v>
@@ -19783,10 +19783,10 @@
     </row>
     <row r="670">
       <c r="A670" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>tēvicakāyam•</v>
       </c>
       <c r="B670" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C670" t="str">
         <v>Indien 954</v>
@@ -19798,10 +19798,10 @@
         <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F670" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G670" t="str">
-        <v>folio 120r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H670" t="str">
         <v>left margin</v>
@@ -19812,10 +19812,10 @@
     </row>
     <row r="671">
       <c r="A671" t="str">
-        <v>kuru vāḻka</v>
+        <v>civam•</v>
       </c>
       <c r="B671" t="str">
-        <v>kuru vāḻka</v>
+        <v>civam</v>
       </c>
       <c r="C671" t="str">
         <v>Indien 954</v>
@@ -19827,10 +19827,10 @@
         <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F671" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G671" t="str">
-        <v>folio 120r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H671" t="str">
         <v>left margin</v>
@@ -19841,10 +19841,10 @@
     </row>
     <row r="672">
       <c r="A672" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>tirucciṟṟampalam•</v>
       </c>
       <c r="B672" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C672" t="str">
         <v>Indien 954</v>
@@ -19856,24 +19856,24 @@
         <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F672" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G672" t="str">
-        <v>folio 120r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H672" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I672" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="str">
-        <v>civar civar</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="B673" t="str">
-        <v>civar civar</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C673" t="str">
         <v>Indien 954</v>
@@ -19885,13 +19885,13 @@
         <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F673" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G673" t="str">
-        <v>folio 120r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H673" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I673" t="str">
         <v>0</v>
@@ -19899,10 +19899,10 @@
     </row>
     <row r="674">
       <c r="A674" t="str">
-        <v>tēvicakāyam•</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B674" t="str">
-        <v>tēvicakāyam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C674" t="str">
         <v>Indien 954</v>
@@ -19917,7 +19917,7 @@
         <v>U2</v>
       </c>
       <c r="G674" t="str">
-        <v>folio 120v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H674" t="str">
         <v>left margin</v>
@@ -19928,7 +19928,7 @@
     </row>
     <row r="675">
       <c r="A675" t="str">
-        <v>tēvicakāyam•</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="B675" t="str">
         <v>tēvicakāyam</v>
@@ -19943,13 +19943,13 @@
         <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F675" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G675" t="str">
-        <v>folio [1]r</v>
+        <v>folio 11r</v>
       </c>
       <c r="H675" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I675" t="str">
         <v>0</v>
@@ -19957,28 +19957,28 @@
     </row>
     <row r="676">
       <c r="A676" t="str">
-        <v>Āṉāti namastu</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B676" t="str">
-        <v>Āṉāti namastu</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C676" t="str">
-        <v>Indien 956</v>
+        <v>Indien 954</v>
       </c>
       <c r="D676" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E676" t="str">
-        <v>Tiruvēṅkaṭacatakam</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F676" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G676" t="str">
-        <v>folio [1]r</v>
+        <v>folio 11r</v>
       </c>
       <c r="H676" t="str">
-        <v>left margin 2</v>
+        <v>main text area</v>
       </c>
       <c r="I676" t="str">
         <v>0</v>
@@ -19986,28 +19986,28 @@
     </row>
     <row r="677">
       <c r="A677" t="str">
-        <v>naṉṟāka</v>
+        <v>civar</v>
       </c>
       <c r="B677" t="str">
-        <v>naṉṟāka</v>
+        <v>civar</v>
       </c>
       <c r="C677" t="str">
-        <v>Indien 956</v>
+        <v>Indien 954</v>
       </c>
       <c r="D677" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E677" t="str">
-        <v>Tiruvēṅkaṭacatakam</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F677" t="str">
         <v>U2</v>
       </c>
       <c r="G677" t="str">
-        <v>folio 1r</v>
+        <v>folio 11r</v>
       </c>
       <c r="H677" t="str">
-        <v>left margin 1</v>
+        <v>main text area</v>
       </c>
       <c r="I677" t="str">
         <v>0</v>
@@ -20015,25 +20015,25 @@
     </row>
     <row r="678">
       <c r="A678" t="str">
-        <v>śubham astu</v>
+        <v>civar</v>
       </c>
       <c r="B678" t="str">
-        <v>śubham astu</v>
+        <v>civar</v>
       </c>
       <c r="C678" t="str">
-        <v>Indien 962</v>
+        <v>Indien 954</v>
       </c>
       <c r="D678" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E678" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F678" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G678" t="str">
-        <v>folio [1]r</v>
+        <v>folio 12r</v>
       </c>
       <c r="H678" t="str">
         <v>left margin</v>
@@ -20044,57 +20044,57 @@
     </row>
     <row r="679">
       <c r="A679" t="str">
-        <v>civamaya=m</v>
+        <v>Āṟumukam tuṇai</v>
       </c>
       <c r="B679" t="str">
-        <v>civamayam</v>
+        <v>Āṟumukam tuṇai</v>
       </c>
       <c r="C679" t="str">
-        <v>Indien 962</v>
+        <v>Indien 954</v>
       </c>
       <c r="D679" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E679" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F679" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G679" t="str">
-        <v>folio [1]r</v>
+        <v>folio 120r</v>
       </c>
       <c r="H679" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I679" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="str">
-        <v>ve¿tti?-vēl tuṇai</v>
+        <v>Ampalat¿(tuṭu)?tu mayyar tuṇai-y-āka vēṇum</v>
       </c>
       <c r="B680" t="str">
-        <v>vettivēl tuṇai</v>
+        <v>Ampalattuṭutu mayyar tuṇaiyāka vēṇum</v>
       </c>
       <c r="C680" t="str">
-        <v>Indien 962</v>
+        <v>Indien 954</v>
       </c>
       <c r="D680" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E680" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F680" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G680" t="str">
-        <v>folio [1]r</v>
+        <v>folio 120r</v>
       </c>
       <c r="H680" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I680" t="str">
         <v>1</v>
@@ -20102,25 +20102,25 @@
     </row>
     <row r="681">
       <c r="A681" t="str">
-        <v>naṉṟāka</v>
+        <v>tēvicakāya=m</v>
       </c>
       <c r="B681" t="str">
-        <v>naṉṟāka</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C681" t="str">
-        <v>Indien 962</v>
+        <v>Indien 954</v>
       </c>
       <c r="D681" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E681" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F681" t="str">
-        <v>U2b</v>
+        <v>U2</v>
       </c>
       <c r="G681" t="str">
-        <v>folio 1r</v>
+        <v>folio 120r</v>
       </c>
       <c r="H681" t="str">
         <v>left margin</v>
@@ -20137,22 +20137,22 @@
         <v>tirucciṟṟampalam</v>
       </c>
       <c r="C682" t="str">
-        <v>Indien 962</v>
+        <v>Indien 954</v>
       </c>
       <c r="D682" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E682" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F682" t="str">
-        <v>U2b</v>
+        <v>U2</v>
       </c>
       <c r="G682" t="str">
-        <v>folio 38v</v>
+        <v>folio 120r</v>
       </c>
       <c r="H682" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I682" t="str">
         <v>0</v>
@@ -20160,83 +20160,83 @@
     </row>
     <row r="683">
       <c r="A683" t="str">
-        <v>ve¿tti?-vēl uṟṟa tuṇai</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="B683" t="str">
-        <v>vettivēl uṟṟa tuṇai</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="C683" t="str">
-        <v>Indien 962</v>
+        <v>Indien 954</v>
       </c>
       <c r="D683" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E683" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F683" t="str">
-        <v>U2b</v>
+        <v>U2</v>
       </c>
       <c r="G683" t="str">
-        <v>folio 38v</v>
+        <v>folio 120r</v>
       </c>
       <c r="H683" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I683" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="str">
-        <v>civamayam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B684" t="str">
-        <v>civamayam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C684" t="str">
-        <v>Indien 962</v>
+        <v>Indien 954</v>
       </c>
       <c r="D684" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E684" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F684" t="str">
-        <v>U2b</v>
+        <v>U2</v>
       </c>
       <c r="G684" t="str">
-        <v>folio 38v</v>
+        <v>folio 120r</v>
       </c>
       <c r="H684" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I684" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="str">
-        <v>viṉāyakāya namam</v>
+        <v>civar civar</v>
       </c>
       <c r="B685" t="str">
-        <v>viṉāyakāya namam</v>
+        <v>civar civar</v>
       </c>
       <c r="C685" t="str">
-        <v>Indien 983</v>
+        <v>Indien 954</v>
       </c>
       <c r="D685" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E685" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F685" t="str">
         <v>U2</v>
       </c>
       <c r="G685" t="str">
-        <v>folio [1]r</v>
+        <v>folio 120r</v>
       </c>
       <c r="H685" t="str">
         <v>left margin</v>
@@ -20247,25 +20247,25 @@
     </row>
     <row r="686">
       <c r="A686" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>tēvicakāyam•</v>
       </c>
       <c r="B686" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C686" t="str">
-        <v>Indien 983</v>
+        <v>Indien 954</v>
       </c>
       <c r="D686" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E686" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F686" t="str">
         <v>U2</v>
       </c>
       <c r="G686" t="str">
-        <v>folio [1]r</v>
+        <v>folio 120v</v>
       </c>
       <c r="H686" t="str">
         <v>left margin</v>
@@ -20276,28 +20276,28 @@
     </row>
     <row r="687">
       <c r="A687" t="str">
-        <v>vāṇi namos•tu {pcl}</v>
+        <v>tēvicakāyam•</v>
       </c>
       <c r="B687" t="str">
-        <v>vāṇi namostu {pcl}</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C687" t="str">
-        <v>Indien 983</v>
+        <v>Indien 954</v>
       </c>
       <c r="D687" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E687" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F687" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G687" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H687" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I687" t="str">
         <v>0</v>
@@ -20305,57 +20305,57 @@
     </row>
     <row r="688">
       <c r="A688" t="str">
-        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
+        <v>Āṉāti namastu</v>
       </c>
       <c r="B688" t="str">
-        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
+        <v>Āṉāti namastu</v>
       </c>
       <c r="C688" t="str">
-        <v>Indien 983</v>
+        <v>Indien 956</v>
       </c>
       <c r="D688" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E688" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Tiruvēṅkaṭacatakam</v>
       </c>
       <c r="F688" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G688" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H688" t="str">
-        <v>main text area</v>
+        <v>left margin 2</v>
       </c>
       <c r="I688" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B689" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C689" t="str">
-        <v>Indien 983</v>
+        <v>Indien 956</v>
       </c>
       <c r="D689" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E689" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Tiruvēṅkaṭacatakam</v>
       </c>
       <c r="F689" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G689" t="str">
         <v>folio 1r</v>
       </c>
       <c r="H689" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I689" t="str">
         <v>0</v>
@@ -20363,28 +20363,28 @@
     </row>
     <row r="690">
       <c r="A690" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>śubham astu</v>
       </c>
       <c r="B690" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>śubham astu</v>
       </c>
       <c r="C690" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D690" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E690" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F690" t="str">
-        <v>U3</v>
+        <v>U2a</v>
       </c>
       <c r="G690" t="str">
-        <v>folio 8v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H690" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I690" t="str">
         <v>0</v>
@@ -20392,28 +20392,28 @@
     </row>
     <row r="691">
       <c r="A691" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>civamaya=m</v>
       </c>
       <c r="B691" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>civamayam</v>
       </c>
       <c r="C691" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D691" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E691" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F691" t="str">
-        <v>U3</v>
+        <v>U2a</v>
       </c>
       <c r="G691" t="str">
-        <v>folio 26r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H691" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I691" t="str">
         <v>0</v>
@@ -20421,57 +20421,57 @@
     </row>
     <row r="692">
       <c r="A692" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>ve¿tti?-vēl tuṇai</v>
       </c>
       <c r="B692" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>vettivēl tuṇai</v>
       </c>
       <c r="C692" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D692" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E692" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F692" t="str">
-        <v>U3</v>
+        <v>U2a</v>
       </c>
       <c r="G692" t="str">
-        <v>folio 51v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H692" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I692" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="str">
-        <v>civamaya=m</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B693" t="str">
-        <v>civamayam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C693" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D693" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E693" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F693" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G693" t="str">
-        <v>folio 158v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H693" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I693" t="str">
         <v>0</v>
@@ -20479,28 +20479,28 @@
     </row>
     <row r="694">
       <c r="A694" t="str">
-        <v>tirucci¿tṟa?ṟṟampalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B694" t="str">
-        <v>tiruccitṟaṟṟampalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C694" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D694" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E694" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F694" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G694" t="str">
-        <v>folio 158v</v>
+        <v>folio 38v</v>
       </c>
       <c r="H694" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I694" t="str">
         <v>0</v>
@@ -20508,77 +20508,77 @@
     </row>
     <row r="695">
       <c r="A695" t="str">
-        <v>Al=lā Utavi ceyya-vēṇum</v>
+        <v>ve¿tti?-vēl uṟṟa tuṇai</v>
       </c>
       <c r="B695" t="str">
-        <v>Allā Utavi ceyyavēṇum</v>
+        <v>vettivēl uṟṟa tuṇai</v>
       </c>
       <c r="C695" t="str">
-        <v>Indien 987</v>
+        <v>Indien 962</v>
       </c>
       <c r="D695" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E695" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F695" t="str">
-        <v>U1</v>
+        <v>U2b</v>
       </c>
       <c r="G695" t="str">
-        <v>folio [1]r</v>
+        <v>folio 38v</v>
       </c>
       <c r="H695" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I695" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="str">
-        <v>caṟaṣpati tuṇai {pcl}</v>
+        <v>civamayam</v>
       </c>
       <c r="B696" t="str">
-        <v>caṟaṣpati tuṇai {pcl}</v>
+        <v>civamayam</v>
       </c>
       <c r="C696" t="str">
-        <v>Indien 987</v>
+        <v>Indien 962</v>
       </c>
       <c r="D696" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E696" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F696" t="str">
-        <v>U1</v>
+        <v>U2b</v>
       </c>
       <c r="G696" t="str">
-        <v>folio [1]r</v>
+        <v>folio 38v</v>
       </c>
       <c r="H696" t="str">
         <v>main text area</v>
       </c>
       <c r="I696" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="str">
-        <v>vicumi l=lāku ṟakimāṉi ṟakīm</v>
+        <v>viṉāyakāya namam</v>
       </c>
       <c r="B697" t="str">
-        <v>vicumi llāku ṟakimāṉi ṟakīm</v>
+        <v>viṉāyakāya namam</v>
       </c>
       <c r="C697" t="str">
-        <v>Indien 987</v>
+        <v>Indien 983</v>
       </c>
       <c r="D697" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E697" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F697" t="str">
         <v>U2</v>
@@ -20595,48 +20595,48 @@
     </row>
     <row r="698">
       <c r="A698" t="str">
-        <v>{pcs} kaṭavu⟨ḷ ⟩ ¿ku?tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B698" t="str">
-        <v>{pcs} kaṭavuḷ kutuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C698" t="str">
-        <v>Indien 989</v>
+        <v>Indien 983</v>
       </c>
       <c r="D698" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E698" t="str">
-        <v>Tamil Vocabulary</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F698" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G698" t="str">
-        <v>folio 1</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H698" t="str">
         <v>left margin</v>
       </c>
       <c r="I698" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="str">
-        <v>hariḥ | Om</v>
+        <v>vāṇi namos•tu {pcl}</v>
       </c>
       <c r="B699" t="str">
-        <v>hariḥ Om</v>
+        <v>vāṇi namostu {pcl}</v>
       </c>
       <c r="C699" t="str">
-        <v>Indien 991</v>
+        <v>Indien 983</v>
       </c>
       <c r="D699" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E699" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F699" t="str">
         <v>U2</v>
@@ -20645,7 +20645,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H699" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I699" t="str">
         <v>0</v>
@@ -20653,19 +20653,19 @@
     </row>
     <row r="700">
       <c r="A700" t="str">
-        <v>{pcs}kuruvē tuṇai</v>
+        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
       </c>
       <c r="B700" t="str">
-        <v>{pcs}kuruvē tuṇai</v>
+        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
       </c>
       <c r="C700" t="str">
-        <v>Indien 991</v>
+        <v>Indien 983</v>
       </c>
       <c r="D700" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E700" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F700" t="str">
         <v>U2</v>
@@ -20674,7 +20674,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H700" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I700" t="str">
         <v>1</v>
@@ -20682,144 +20682,144 @@
     </row>
     <row r="701">
       <c r="A701" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B701" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C701" t="str">
-        <v>Indien 991</v>
+        <v>Indien 983</v>
       </c>
       <c r="D701" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E701" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F701" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G701" t="str">
-        <v>folio 4r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H701" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I701" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="str">
-        <v>caravaṇapa-kuruvē {tuṇai}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B702" t="str">
-        <v>caravaṇapakuruvē {tuṇai}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C702" t="str">
-        <v>Indien 991</v>
+        <v>Indien 983</v>
       </c>
       <c r="D702" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E702" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F702" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G702" t="str">
-        <v>folio 4r</v>
+        <v>folio 8v</v>
       </c>
       <c r="H702" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I702" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="str">
-        <v>civacitamparam [...] tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B703" t="str">
-        <v>civacitamparam tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C703" t="str">
-        <v>Indien 991</v>
+        <v>Indien 983</v>
       </c>
       <c r="D703" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E703" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F703" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G703" t="str">
-        <v>folio 4r</v>
+        <v>folio 26r</v>
       </c>
       <c r="H703" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I703" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="str">
-        <v>paṭṭīcurar cuvāmi tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B704" t="str">
-        <v>paṭṭīcurar cuvāmi tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C704" t="str">
-        <v>Indien 991</v>
+        <v>Indien 983</v>
       </c>
       <c r="D704" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E704" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F704" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G704" t="str">
-        <v>folio 75r</v>
+        <v>folio 51v</v>
       </c>
       <c r="H704" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I704" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="str">
-        <v>civamayam</v>
+        <v>civamaya=m</v>
       </c>
       <c r="B705" t="str">
         <v>civamayam</v>
       </c>
       <c r="C705" t="str">
-        <v>Indien 991</v>
+        <v>Indien 983</v>
       </c>
       <c r="D705" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E705" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F705" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G705" t="str">
-        <v>folio 75r</v>
+        <v>folio 158v</v>
       </c>
       <c r="H705" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I705" t="str">
         <v>0</v>
@@ -20827,28 +20827,28 @@
     </row>
     <row r="706">
       <c r="A706" t="str">
-        <v>periyaṉāyakiyammaṉ muṟṟum</v>
+        <v>tirucci¿tṟa?ṟṟampalam</v>
       </c>
       <c r="B706" t="str">
-        <v>periyaṉāyakiyammaṉ muṟṟum</v>
+        <v>tiruccitṟaṟṟampalam</v>
       </c>
       <c r="C706" t="str">
-        <v>Indien 991</v>
+        <v>Indien 983</v>
       </c>
       <c r="D706" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E706" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F706" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G706" t="str">
-        <v>folio 77v</v>
+        <v>folio 158v</v>
       </c>
       <c r="H706" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I706" t="str">
         <v>0</v>
@@ -20856,57 +20856,57 @@
     </row>
     <row r="707">
       <c r="A707" t="str">
-        <v>civacuppaṟāyar {tuṇai}</v>
+        <v>Al=lā Utavi ceyya-vēṇum</v>
       </c>
       <c r="B707" t="str">
-        <v>civacuppaṟāyar {tuṇai}</v>
+        <v>Allā Utavi ceyyavēṇum</v>
       </c>
       <c r="C707" t="str">
-        <v>Indien 991</v>
+        <v>Indien 987</v>
       </c>
       <c r="D707" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E707" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F707" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G707" t="str">
-        <v>folio 77v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H707" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I707" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="str">
-        <v>kaṭavuḷ tuṇai</v>
+        <v>caṟaṣpati tuṇai {pcl}</v>
       </c>
       <c r="B708" t="str">
-        <v>kaṭavuḷ tuṇai</v>
+        <v>caṟaṣpati tuṇai {pcl}</v>
       </c>
       <c r="C708" t="str">
-        <v>Indien 992</v>
+        <v>Indien 987</v>
       </c>
       <c r="D708" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E708" t="str">
-        <v>Tēraiyar Vayittiyam 500</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F708" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G708" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H708" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I708" t="str">
         <v>1</v>
@@ -20914,19 +20914,19 @@
     </row>
     <row r="709">
       <c r="A709" t="str">
-        <v>kuru muṉṉirkkavum</v>
+        <v>vicumi l=lāku ṟakimāṉi ṟakīm</v>
       </c>
       <c r="B709" t="str">
-        <v>kuru muṉṉirkkavum</v>
+        <v>vicumi llāku ṟakimāṉi ṟakīm</v>
       </c>
       <c r="C709" t="str">
-        <v>Indien 992</v>
+        <v>Indien 987</v>
       </c>
       <c r="D709" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E709" t="str">
-        <v>Tēraiyar Vayittiyam 500</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F709" t="str">
         <v>U2</v>
@@ -20943,28 +20943,28 @@
     </row>
     <row r="710">
       <c r="A710" t="str">
-        <v>yēkaparāparavaṣttuvē tuṇai</v>
+        <v>{pcs} kaṭavu⟨ḷ ⟩ ¿ku?tuṇai</v>
       </c>
       <c r="B710" t="str">
-        <v>yēkaparāparavaṣttuvē tuṇai</v>
+        <v>{pcs} kaṭavuḷ kutuṇai</v>
       </c>
       <c r="C710" t="str">
-        <v>Indien 993</v>
+        <v>Indien 989</v>
       </c>
       <c r="D710" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E710" t="str">
-        <v>Cippāyika Vāttu Varicai Paḻakkuṟa Poṣttakam</v>
+        <v>Tamil Vocabulary</v>
       </c>
       <c r="F710" t="str">
         <v>U1</v>
       </c>
       <c r="G710" t="str">
-        <v>folio [1]r</v>
+        <v>folio 1</v>
       </c>
       <c r="H710" t="str">
-        <v>column 3</v>
+        <v>left margin</v>
       </c>
       <c r="I710" t="str">
         <v>1</v>
@@ -20972,28 +20972,28 @@
     </row>
     <row r="711">
       <c r="A711" t="str">
-        <v>śrīmatu Aṉantacuvāmi [...] kkavu=m</v>
+        <v>hariḥ | Om</v>
       </c>
       <c r="B711" t="str">
-        <v>śrīmatu Aṉantacuvāmi kkavum</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C711" t="str">
-        <v>Indien 1034a</v>
+        <v>Indien 991</v>
       </c>
       <c r="D711" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E711" t="str">
-        <v>TBC</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F711" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G711" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H711" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I711" t="str">
         <v>0</v>
@@ -21001,86 +21001,86 @@
     </row>
     <row r="712">
       <c r="A712" t="str">
-        <v>kuru [...] kkavu=m</v>
+        <v>{pcs}kuruvē tuṇai</v>
       </c>
       <c r="B712" t="str">
-        <v>kuru kkavum</v>
+        <v>{pcs}kuruvē tuṇai</v>
       </c>
       <c r="C712" t="str">
-        <v>Indien 1034a</v>
+        <v>Indien 991</v>
       </c>
       <c r="D712" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E712" t="str">
-        <v>TBC</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F712" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G712" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H712" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I712" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="str">
-        <v>Āṉantacuvāmi [...]</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B713" t="str">
-        <v>Āṉantacuvāmi</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C713" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 991</v>
       </c>
       <c r="D713" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E713" t="str">
-        <v>TBC</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F713" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G713" t="str">
-        <v>folio 1r</v>
+        <v>folio 4r</v>
       </c>
       <c r="H713" t="str">
-        <v>column 1</v>
+        <v>main text area</v>
       </c>
       <c r="I713" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="str">
-        <v>Āṟumuka tuṇai [...]</v>
+        <v>caravaṇapa-kuruvē {tuṇai}</v>
       </c>
       <c r="B714" t="str">
-        <v>Āṟumuka tuṇai</v>
+        <v>caravaṇapakuruvē {tuṇai}</v>
       </c>
       <c r="C714" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 991</v>
       </c>
       <c r="D714" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E714" t="str">
-        <v>TBC</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F714" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G714" t="str">
-        <v>folio 1r</v>
+        <v>folio 4r</v>
       </c>
       <c r="H714" t="str">
-        <v>column 1</v>
+        <v>main text area</v>
       </c>
       <c r="I714" t="str">
         <v>1</v>
@@ -21088,57 +21088,57 @@
     </row>
     <row r="715">
       <c r="A715" t="str">
-        <v>vellum kaiyam [...]</v>
+        <v>civacitamparam [...] tuṇai</v>
       </c>
       <c r="B715" t="str">
-        <v>vellum kaiyam</v>
+        <v>civacitamparam tuṇai</v>
       </c>
       <c r="C715" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 991</v>
       </c>
       <c r="D715" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E715" t="str">
-        <v>TBC</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F715" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G715" t="str">
-        <v>folio 1r</v>
+        <v>folio 4r</v>
       </c>
       <c r="H715" t="str">
-        <v>column 1</v>
+        <v>main text area</v>
       </c>
       <c r="I715" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="str">
-        <v>makā-kaṇapati tuṇai</v>
+        <v>paṭṭīcurar cuvāmi tuṇai</v>
       </c>
       <c r="B716" t="str">
-        <v>makākaṇapati tuṇai</v>
+        <v>paṭṭīcurar cuvāmi tuṇai</v>
       </c>
       <c r="C716" t="str">
-        <v>Indien 1034d</v>
+        <v>Indien 991</v>
       </c>
       <c r="D716" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E716" t="str">
-        <v>TBC</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F716" t="str">
         <v>U2</v>
       </c>
       <c r="G716" t="str">
-        <v>folio 25r</v>
+        <v>folio 75r</v>
       </c>
       <c r="H716" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I716" t="str">
         <v>1</v>
@@ -21146,57 +21146,57 @@
     </row>
     <row r="717">
       <c r="A717" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="B717" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="C717" t="str">
-        <v>Indien 1034d</v>
+        <v>Indien 991</v>
       </c>
       <c r="D717" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E717" t="str">
-        <v>TBC</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F717" t="str">
         <v>U2</v>
       </c>
       <c r="G717" t="str">
-        <v>folio 25r</v>
+        <v>folio 75r</v>
       </c>
       <c r="H717" t="str">
-        <v>column</v>
+        <v>main text area</v>
       </c>
       <c r="I717" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="str">
-        <v>śrī</v>
+        <v>periyaṉāyakiyammaṉ muṟṟum</v>
       </c>
       <c r="B718" t="str">
-        <v>śrī</v>
+        <v>periyaṉāyakiyammaṉ muṟṟum</v>
       </c>
       <c r="C718" t="str">
-        <v>Indien 1037</v>
+        <v>Indien 991</v>
       </c>
       <c r="D718" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E718" t="str">
-        <v>Talisman or Private Letter</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F718" t="str">
-        <v>seal</v>
+        <v>U2</v>
       </c>
       <c r="G718" t="str">
-        <v>folio [1r]</v>
+        <v>folio 77v</v>
       </c>
       <c r="H718" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I718" t="str">
         <v>0</v>
@@ -21204,51 +21204,51 @@
     </row>
     <row r="719">
       <c r="A719" t="str">
-        <v>hariḥ Om·</v>
+        <v>civacuppaṟāyar {tuṇai}</v>
       </c>
       <c r="B719" t="str">
-        <v>hariḥ Om·</v>
+        <v>civacuppaṟāyar {tuṇai}</v>
       </c>
       <c r="C719" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 991</v>
       </c>
       <c r="D719" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E719" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F719" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G719" t="str">
-        <v>folio [1]r</v>
+        <v>folio 77v</v>
       </c>
       <c r="H719" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I719" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="str">
-        <v>Em perumāṉār tunai</v>
+        <v>kaṭavuḷ tuṇai</v>
       </c>
       <c r="B720" t="str">
-        <v>Em perumāṉār tunai</v>
+        <v>kaṭavuḷ tuṇai</v>
       </c>
       <c r="C720" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 992</v>
       </c>
       <c r="D720" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E720" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>Tēraiyar Vayittiyam 500</v>
       </c>
       <c r="F720" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G720" t="str">
         <v>folio [1]r</v>
@@ -21257,33 +21257,33 @@
         <v>left margin</v>
       </c>
       <c r="I720" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="str">
-        <v>śrī-raṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
+        <v>kuru muṉṉirkkavum</v>
       </c>
       <c r="B721" t="str">
-        <v>śrīraṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
+        <v>kuru muṉṉirkkavum</v>
       </c>
       <c r="C721" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 992</v>
       </c>
       <c r="D721" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E721" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>Tēraiyar Vayittiyam 500</v>
       </c>
       <c r="F721" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G721" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H721" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I721" t="str">
         <v>0</v>
@@ -21291,57 +21291,57 @@
     </row>
     <row r="722">
       <c r="A722" t="str">
-        <v>naṉṟāka</v>
+        <v>yēkaparāparavaṣttuvē tuṇai</v>
       </c>
       <c r="B722" t="str">
-        <v>naṉṟāka</v>
+        <v>yēkaparāparavaṣttuvē tuṇai</v>
       </c>
       <c r="C722" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 993</v>
       </c>
       <c r="D722" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E722" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>Cippāyika Vāttu Varicai Paḻakkuṟa Poṣttakam</v>
       </c>
       <c r="F722" t="str">
-        <v>U2b</v>
+        <v>U1</v>
       </c>
       <c r="G722" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H722" t="str">
-        <v>left margin</v>
+        <v>column 3</v>
       </c>
       <c r="I722" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="str">
-        <v>civamayam</v>
+        <v>śrīmatu Aṉantacuvāmi [...] kkavu=m</v>
       </c>
       <c r="B723" t="str">
-        <v>civamayam</v>
+        <v>śrīmatu Aṉantacuvāmi kkavum</v>
       </c>
       <c r="C723" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034a</v>
       </c>
       <c r="D723" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E723" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F723" t="str">
-        <v>U2b</v>
+        <v>U1</v>
       </c>
       <c r="G723" t="str">
-        <v>folio 52v</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H723" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I723" t="str">
         <v>0</v>
@@ -21349,28 +21349,28 @@
     </row>
     <row r="724">
       <c r="A724" t="str">
-        <v>civamayam</v>
+        <v>kuru [...] kkavu=m</v>
       </c>
       <c r="B724" t="str">
-        <v>civamayam</v>
+        <v>kuru kkavum</v>
       </c>
       <c r="C724" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034a</v>
       </c>
       <c r="D724" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E724" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F724" t="str">
-        <v>U2b</v>
+        <v>U1</v>
       </c>
       <c r="G724" t="str">
-        <v>folio 52v</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H724" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I724" t="str">
         <v>0</v>
@@ -21378,86 +21378,86 @@
     </row>
     <row r="725">
       <c r="A725" t="str">
-        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
+        <v>Āṉantacuvāmi [...]</v>
       </c>
       <c r="B725" t="str">
-        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
+        <v>Āṉantacuvāmi</v>
       </c>
       <c r="C725" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D725" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E725" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F725" t="str">
-        <v>U2b</v>
+        <v>U1</v>
       </c>
       <c r="G725" t="str">
-        <v>folio 52v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H725" t="str">
-        <v>main text area</v>
+        <v>column 1</v>
       </c>
       <c r="I725" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>Āṟumuka tuṇai [...]</v>
       </c>
       <c r="B726" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>Āṟumuka tuṇai</v>
       </c>
       <c r="C726" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D726" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E726" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F726" t="str">
-        <v>U2b</v>
+        <v>U1</v>
       </c>
       <c r="G726" t="str">
-        <v>folio 70v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H726" t="str">
-        <v>left margin</v>
+        <v>column 1</v>
       </c>
       <c r="I726" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>vellum kaiyam [...]</v>
       </c>
       <c r="B727" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>vellum kaiyam</v>
       </c>
       <c r="C727" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D727" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E727" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F727" t="str">
-        <v>U2b</v>
+        <v>U1</v>
       </c>
       <c r="G727" t="str">
-        <v>folio 84r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H727" t="str">
-        <v>left margin</v>
+        <v>column 1</v>
       </c>
       <c r="I727" t="str">
         <v>0</v>
@@ -21465,86 +21465,86 @@
     </row>
     <row r="728">
       <c r="A728" t="str">
-        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>makā-kaṇapati tuṇai</v>
       </c>
       <c r="B728" t="str">
-        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>makākaṇapati tuṇai</v>
       </c>
       <c r="C728" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034d</v>
       </c>
       <c r="D728" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E728" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F728" t="str">
-        <v>U2b</v>
+        <v>U2</v>
       </c>
       <c r="G728" t="str">
-        <v>folio 95v</v>
+        <v>folio 25r</v>
       </c>
       <c r="H728" t="str">
         <v>left margin</v>
       </c>
       <c r="I728" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="str">
-        <v>[...]</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B729" t="str">
-        <v/>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C729" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034d</v>
       </c>
       <c r="D729" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E729" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F729" t="str">
-        <v>U2b</v>
+        <v>U2</v>
       </c>
       <c r="G729" t="str">
-        <v>folio 103.2r</v>
+        <v>folio 25r</v>
       </c>
       <c r="H729" t="str">
-        <v>left margin</v>
+        <v>column</v>
       </c>
       <c r="I729" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="str">
-        <v>[...]</v>
+        <v>śrī</v>
       </c>
       <c r="B730" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="C730" t="str">
+        <v>Indien 1037</v>
+      </c>
+      <c r="D730" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E730" t="str">
+        <v>Talisman or Private Letter</v>
+      </c>
+      <c r="F730" t="str">
+        <v>seal</v>
+      </c>
+      <c r="G730" t="str">
+        <v>folio [1r]</v>
+      </c>
+      <c r="H730" t="str">
         <v/>
-      </c>
-      <c r="C730" t="str">
-        <v>Indien 1039</v>
-      </c>
-      <c r="D730" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
-      </c>
-      <c r="E730" t="str">
-        <v>Cīraṅkappurāṇam</v>
-      </c>
-      <c r="F730" t="str">
-        <v>U2b</v>
-      </c>
-      <c r="G730" t="str">
-        <v>folio 108v</v>
-      </c>
-      <c r="H730" t="str">
-        <v>left margin</v>
       </c>
       <c r="I730" t="str">
         <v>0</v>
@@ -21552,10 +21552,10 @@
     </row>
     <row r="731">
       <c r="A731" t="str">
-        <v>[...]</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B731" t="str">
-        <v/>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C731" t="str">
         <v>Indien 1039</v>
@@ -21567,10 +21567,10 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F731" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G731" t="str">
-        <v>folio 112v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H731" t="str">
         <v>left margin</v>
@@ -21581,10 +21581,10 @@
     </row>
     <row r="732">
       <c r="A732" t="str">
-        <v>[...]</v>
+        <v>Em perumāṉār tunai</v>
       </c>
       <c r="B732" t="str">
-        <v/>
+        <v>Em perumāṉār tunai</v>
       </c>
       <c r="C732" t="str">
         <v>Indien 1039</v>
@@ -21596,10 +21596,10 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F732" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G732" t="str">
-        <v>folio 118r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H732" t="str">
         <v>left margin</v>
@@ -21610,10 +21610,10 @@
     </row>
     <row r="733">
       <c r="A733" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam [...]</v>
+        <v>śrī-raṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
       </c>
       <c r="B733" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>śrīraṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
       </c>
       <c r="C733" t="str">
         <v>Indien 1039</v>
@@ -21625,13 +21625,13 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F733" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G733" t="str">
-        <v>folio 124v</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H733" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I733" t="str">
         <v>0</v>
@@ -21639,10 +21639,10 @@
     </row>
     <row r="734">
       <c r="A734" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam [...]</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B734" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C734" t="str">
         <v>Indien 1039</v>
@@ -21657,7 +21657,7 @@
         <v>U2b</v>
       </c>
       <c r="G734" t="str">
-        <v>folio 139v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H734" t="str">
         <v>left margin</v>
@@ -21668,10 +21668,10 @@
     </row>
     <row r="735">
       <c r="A735" t="str">
-        <v>cuppaṟāyar tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="B735" t="str">
-        <v>cuppaṟāyar tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="C735" t="str">
         <v>Indien 1039</v>
@@ -21686,21 +21686,21 @@
         <v>U2b</v>
       </c>
       <c r="G735" t="str">
-        <v>folio 139v</v>
+        <v>folio 52v</v>
       </c>
       <c r="H735" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I735" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="str">
-        <v>murukar tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="B736" t="str">
-        <v>murukar tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="C736" t="str">
         <v>Indien 1039</v>
@@ -21715,21 +21715,21 @@
         <v>U2b</v>
       </c>
       <c r="G736" t="str">
-        <v>folio 139v</v>
+        <v>folio 52v</v>
       </c>
       <c r="H736" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I736" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="str">
-        <v>Āḻvār em perumāṉār centredtiruvaṭikaḷē caraṇam</v>
+        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
       </c>
       <c r="B737" t="str">
-        <v>Āḻvār em perumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
       </c>
       <c r="C737" t="str">
         <v>Indien 1039</v>
@@ -21744,21 +21744,21 @@
         <v>U2b</v>
       </c>
       <c r="G737" t="str">
-        <v>folio 157r</v>
+        <v>folio 52v</v>
       </c>
       <c r="H737" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I737" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="str">
-        <v>śrī-rā=ma-ceya=m</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B738" t="str">
-        <v>śrīrāmaceyam</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C738" t="str">
         <v>Indien 1039</v>
@@ -21773,7 +21773,7 @@
         <v>U2b</v>
       </c>
       <c r="G738" t="str">
-        <v>folio 166r</v>
+        <v>folio 70v</v>
       </c>
       <c r="H738" t="str">
         <v>left margin</v>
@@ -21784,10 +21784,10 @@
     </row>
     <row r="739">
       <c r="A739" t="str">
-        <v>śrī-rā=ma-ceyam·</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B739" t="str">
-        <v>śrīrāmaceyam·</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C739" t="str">
         <v>Indien 1039</v>
@@ -21802,7 +21802,7 @@
         <v>U2b</v>
       </c>
       <c r="G739" t="str">
-        <v>folio 167r</v>
+        <v>folio 84r</v>
       </c>
       <c r="H739" t="str">
         <v>left margin</v>
@@ -21813,10 +21813,10 @@
     </row>
     <row r="740">
       <c r="A740" t="str">
-        <v>[...]</v>
+        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B740" t="str">
-        <v/>
+        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C740" t="str">
         <v>Indien 1039</v>
@@ -21831,7 +21831,7 @@
         <v>U2b</v>
       </c>
       <c r="G740" t="str">
-        <v>folio 167v</v>
+        <v>folio 95v</v>
       </c>
       <c r="H740" t="str">
         <v>left margin</v>
@@ -21842,10 +21842,10 @@
     </row>
     <row r="741">
       <c r="A741" t="str">
-        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
+        <v>[...]</v>
       </c>
       <c r="B741" t="str">
-        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C741" t="str">
         <v>Indien 1039</v>
@@ -21860,7 +21860,7 @@
         <v>U2b</v>
       </c>
       <c r="G741" t="str">
-        <v>folio 174r</v>
+        <v>folio 103.2r</v>
       </c>
       <c r="H741" t="str">
         <v>left margin</v>
@@ -21889,7 +21889,7 @@
         <v>U2b</v>
       </c>
       <c r="G742" t="str">
-        <v>folio 203v</v>
+        <v>folio 108v</v>
       </c>
       <c r="H742" t="str">
         <v>left margin</v>
@@ -21900,10 +21900,10 @@
     </row>
     <row r="743">
       <c r="A743" t="str">
-        <v>śrīrā=maceyam</v>
+        <v>[...]</v>
       </c>
       <c r="B743" t="str">
-        <v>śrīrāmaceyam</v>
+        <v/>
       </c>
       <c r="C743" t="str">
         <v>Indien 1039</v>
@@ -21918,7 +21918,7 @@
         <v>U2b</v>
       </c>
       <c r="G743" t="str">
-        <v>folio 236v</v>
+        <v>folio 112v</v>
       </c>
       <c r="H743" t="str">
         <v>left margin</v>
@@ -21929,10 +21929,10 @@
     </row>
     <row r="744">
       <c r="A744" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>[...]</v>
       </c>
       <c r="B744" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C744" t="str">
         <v>Indien 1039</v>
@@ -21947,7 +21947,7 @@
         <v>U2b</v>
       </c>
       <c r="G744" t="str">
-        <v>folio 245v</v>
+        <v>folio 118r</v>
       </c>
       <c r="H744" t="str">
         <v>left margin</v>
@@ -21958,10 +21958,10 @@
     </row>
     <row r="745">
       <c r="A745" t="str">
-        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam [...]</v>
       </c>
       <c r="B745" t="str">
-        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C745" t="str">
         <v>Indien 1039</v>
@@ -21976,7 +21976,7 @@
         <v>U2b</v>
       </c>
       <c r="G745" t="str">
-        <v>folio 245v</v>
+        <v>folio 124v</v>
       </c>
       <c r="H745" t="str">
         <v>left margin</v>
@@ -21987,28 +21987,28 @@
     </row>
     <row r="746">
       <c r="A746" t="str">
-        <v>|| rāma ||</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam [...]</v>
       </c>
       <c r="B746" t="str">
-        <v>rāma</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C746" t="str">
-        <v>Chandra Shum Shere d.247</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D746" t="str">
-        <v>Bodleian Library, University of Oxford</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E746" t="str">
-        <v>Prakīrṇaprakāśa</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F746" t="str">
-        <v/>
+        <v>U2b</v>
       </c>
       <c r="G746" t="str">
-        <v/>
+        <v>folio 139v</v>
       </c>
       <c r="H746" t="str">
-        <v>marginal</v>
+        <v>left margin</v>
       </c>
       <c r="I746" t="str">
         <v>0</v>
@@ -22016,86 +22016,86 @@
     </row>
     <row r="747">
       <c r="A747" t="str">
-        <v>hariḥ Om</v>
+        <v>cuppaṟāyar tuṇai</v>
       </c>
       <c r="B747" t="str">
-        <v>hariḥ Om</v>
+        <v>cuppaṟāyar tuṇai</v>
       </c>
       <c r="C747" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D747" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E747" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F747" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G747" t="str">
-        <v>folio [1]r</v>
+        <v>folio 139v</v>
       </c>
       <c r="H747" t="str">
         <v>left margin</v>
       </c>
       <c r="I747" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="str">
-        <v>śrīvedavyāsāya ¿nmaḥ?namaḥ</v>
+        <v>murukar tuṇai</v>
       </c>
       <c r="B748" t="str">
-        <v>śrīvedavyāsāya nmaḥnamaḥ</v>
+        <v>murukar tuṇai</v>
       </c>
       <c r="C748" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D748" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E748" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F748" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G748" t="str">
-        <v>folio [1]r</v>
+        <v>folio 139v</v>
       </c>
       <c r="H748" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I748" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="str">
-        <v>śrīmahāsarasvatyai ¿nmaḥ?namaḥ</v>
+        <v>Āḻvār em perumāṉār centredtiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B749" t="str">
-        <v>śrīmahāsarasvatyai nmaḥnamaḥ</v>
+        <v>Āḻvār em perumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C749" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D749" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E749" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F749" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G749" t="str">
-        <v>folio [1]r</v>
+        <v>folio 157r</v>
       </c>
       <c r="H749" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I749" t="str">
         <v>0</v>
@@ -22103,28 +22103,28 @@
     </row>
     <row r="750">
       <c r="A750" t="str">
-        <v>Avighnam astu</v>
+        <v>śrī-rā=ma-ceya=m</v>
       </c>
       <c r="B750" t="str">
-        <v>Avighnam astu</v>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C750" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D750" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E750" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F750" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G750" t="str">
-        <v>folio [1]v</v>
+        <v>folio 166r</v>
       </c>
       <c r="H750" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I750" t="str">
         <v>0</v>
@@ -22132,25 +22132,25 @@
     </row>
     <row r="751">
       <c r="A751" t="str">
-        <v>hariḥ Om</v>
+        <v>śrī-rā=ma-ceyam·</v>
       </c>
       <c r="B751" t="str">
-        <v>hariḥ Om</v>
+        <v>śrīrāmaceyam·</v>
       </c>
       <c r="C751" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D751" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E751" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F751" t="str">
-        <v>U4</v>
+        <v>U2b</v>
       </c>
       <c r="G751" t="str">
-        <v>folio 1r</v>
+        <v>folio 167r</v>
       </c>
       <c r="H751" t="str">
         <v>left margin</v>
@@ -22161,25 +22161,25 @@
     </row>
     <row r="752">
       <c r="A752" t="str">
-        <v>Avighnam astu</v>
+        <v>[...]</v>
       </c>
       <c r="B752" t="str">
-        <v>Avighnam astu</v>
+        <v/>
       </c>
       <c r="C752" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D752" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E752" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F752" t="str">
-        <v>U4</v>
+        <v>U2b</v>
       </c>
       <c r="G752" t="str">
-        <v>folio 1r</v>
+        <v>folio 167v</v>
       </c>
       <c r="H752" t="str">
         <v>left margin</v>
@@ -22190,28 +22190,28 @@
     </row>
     <row r="753">
       <c r="A753" t="str">
-        <v>hariḥ Om·</v>
+        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B753" t="str">
-        <v>hariḥ Om·</v>
+        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C753" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D753" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E753" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F753" t="str">
-        <v>U4</v>
+        <v>U2b</v>
       </c>
       <c r="G753" t="str">
-        <v>folio 342r</v>
+        <v>folio 174r</v>
       </c>
       <c r="H753" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I753" t="str">
         <v>0</v>
@@ -22219,28 +22219,28 @@
     </row>
     <row r="754">
       <c r="A754" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>[...]</v>
       </c>
       <c r="B754" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v/>
       </c>
       <c r="C754" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D754" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E754" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F754" t="str">
-        <v>U4</v>
+        <v>U2b</v>
       </c>
       <c r="G754" t="str">
-        <v>folio 342r</v>
+        <v>folio 203v</v>
       </c>
       <c r="H754" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I754" t="str">
         <v>0</v>
@@ -22248,28 +22248,28 @@
     </row>
     <row r="755">
       <c r="A755" t="str">
-        <v>śrīgurubhyo namaḥ</v>
+        <v>śrīrā=maceyam</v>
       </c>
       <c r="B755" t="str">
-        <v>śrīgurubhyo namaḥ</v>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C755" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D755" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E755" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F755" t="str">
-        <v>U4</v>
+        <v>U2b</v>
       </c>
       <c r="G755" t="str">
-        <v>folio 342r</v>
+        <v>folio 236v</v>
       </c>
       <c r="H755" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I755" t="str">
         <v>0</v>
@@ -22277,28 +22277,28 @@
     </row>
     <row r="756">
       <c r="A756" t="str">
-        <v>śrīvedavyāsāya namaḥ</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B756" t="str">
-        <v>śrīvedavyāsāya namaḥ</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C756" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D756" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E756" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F756" t="str">
-        <v>U4</v>
+        <v>U2b</v>
       </c>
       <c r="G756" t="str">
-        <v>folio 342r</v>
+        <v>folio 245v</v>
       </c>
       <c r="H756" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I756" t="str">
         <v>0</v>
@@ -22306,28 +22306,28 @@
     </row>
     <row r="757">
       <c r="A757" t="str">
-        <v>Avighnam astu</v>
+        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B757" t="str">
-        <v>Avighnam astu</v>
+        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C757" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D757" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E757" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F757" t="str">
-        <v>U4</v>
+        <v>U2b</v>
       </c>
       <c r="G757" t="str">
-        <v>folio 342v</v>
+        <v>folio 245v</v>
       </c>
       <c r="H757" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I757" t="str">
         <v>0</v>
@@ -22335,28 +22335,28 @@
     </row>
     <row r="758">
       <c r="A758" t="str">
-        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
+        <v>|| rāma ||</v>
       </c>
       <c r="B758" t="str">
-        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
+        <v>rāma</v>
       </c>
       <c r="C758" t="str">
-        <v>Sanscrit 290</v>
+        <v>Chandra Shum Shere d.247</v>
       </c>
       <c r="D758" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bodleian Library, University of Oxford</v>
       </c>
       <c r="E758" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Prakīrṇaprakāśa</v>
       </c>
       <c r="F758" t="str">
-        <v>U4</v>
+        <v/>
       </c>
       <c r="G758" t="str">
-        <v>folio 342v</v>
+        <v/>
       </c>
       <c r="H758" t="str">
-        <v>main text area</v>
+        <v>marginal</v>
       </c>
       <c r="I758" t="str">
         <v>0</v>
@@ -22364,10 +22364,10 @@
     </row>
     <row r="759">
       <c r="A759" t="str">
-        <v>Om·</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B759" t="str">
-        <v>Om·</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C759" t="str">
         <v>Sanscrit 290</v>
@@ -22379,13 +22379,13 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F759" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G759" t="str">
-        <v>folio 342v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H759" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I759" t="str">
         <v>0</v>
@@ -22393,13 +22393,13 @@
     </row>
     <row r="760">
       <c r="A760" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīvedavyāsāya ¿nmaḥ?namaḥ</v>
       </c>
       <c r="B760" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīvedavyāsāya nmaḥnamaḥ</v>
       </c>
       <c r="C760" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D760" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -22408,13 +22408,13 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F760" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G760" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H760" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I760" t="str">
         <v>0</v>
@@ -22422,13 +22422,13 @@
     </row>
     <row r="761">
       <c r="A761" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīmahāsarasvatyai ¿nmaḥ?namaḥ</v>
       </c>
       <c r="B761" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīmahāsarasvatyai nmaḥnamaḥ</v>
       </c>
       <c r="C761" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D761" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -22437,10 +22437,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F761" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G761" t="str">
-        <v>folio 240v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H761" t="str">
         <v>main text area</v>
@@ -22451,13 +22451,13 @@
     </row>
     <row r="762">
       <c r="A762" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B762" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C762" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D762" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -22466,10 +22466,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F762" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G762" t="str">
-        <v>folio 240v</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H762" t="str">
         <v>main text area</v>
@@ -22480,13 +22480,13 @@
     </row>
     <row r="763">
       <c r="A763" t="str">
-        <v>śubham astu</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B763" t="str">
-        <v>śubham astu</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C763" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D763" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -22495,13 +22495,13 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F763" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G763" t="str">
-        <v>folio 240v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H763" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I763" t="str">
         <v>0</v>
@@ -22509,28 +22509,28 @@
     </row>
     <row r="764">
       <c r="A764" t="str">
-        <v>śrīḥ —</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B764" t="str">
-        <v>śrīḥ —</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C764" t="str">
-        <v>Sanscrit 612.1</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D764" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E764" t="str">
-        <v>Amarakośa with anonymous commentaries</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F764" t="str">
-        <v>U1</v>
+        <v>U4</v>
       </c>
       <c r="G764" t="str">
-        <v>initial folio, recto</v>
+        <v>folio 1r</v>
       </c>
       <c r="H764" t="str">
-        <v>beginning, marginal, left</v>
+        <v>left margin</v>
       </c>
       <c r="I764" t="str">
         <v>0</v>
@@ -22538,28 +22538,28 @@
     </row>
     <row r="765">
       <c r="A765" t="str">
-        <v>śrīḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B765" t="str">
-        <v>śrīḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C765" t="str">
-        <v>Sanscrit 612.1</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D765" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E765" t="str">
-        <v>Amarakośa with anonymous commentaries</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F765" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G765" t="str">
-        <v>folio 1v</v>
+        <v>folio 342r</v>
       </c>
       <c r="H765" t="str">
-        <v>beginning, marginal, right</v>
+        <v>main text area</v>
       </c>
       <c r="I765" t="str">
         <v>0</v>
@@ -22567,28 +22567,28 @@
     </row>
     <row r="766">
       <c r="A766" t="str">
-        <v>śrī</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="B766" t="str">
-        <v>śrī</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="C766" t="str">
-        <v>Sanscrit 616</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D766" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E766" t="str">
-        <v>Amarakośaviveka</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F766" t="str">
-        <v/>
+        <v>U4</v>
       </c>
       <c r="G766" t="str">
-        <v>1r</v>
+        <v>folio 342r</v>
       </c>
       <c r="H766" t="str">
-        <v>marginal</v>
+        <v>main text area</v>
       </c>
       <c r="I766" t="str">
         <v>0</v>
@@ -22596,28 +22596,28 @@
     </row>
     <row r="767">
       <c r="A767" t="str">
-        <v>śrīrāmaḥ</v>
+        <v>śrīgurubhyo namaḥ</v>
       </c>
       <c r="B767" t="str">
-        <v>śrīrāmaḥ</v>
+        <v>śrīgurubhyo namaḥ</v>
       </c>
       <c r="C767" t="str">
-        <v>Sanscrit 619</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D767" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E767" t="str">
-        <v>Amarakośakaumudī</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F767" t="str">
-        <v/>
+        <v>U4</v>
       </c>
       <c r="G767" t="str">
-        <v>folio 1, recto</v>
+        <v>folio 342r</v>
       </c>
       <c r="H767" t="str">
-        <v>beginning</v>
+        <v>main text area</v>
       </c>
       <c r="I767" t="str">
         <v>0</v>
@@ -22625,28 +22625,28 @@
     </row>
     <row r="768">
       <c r="A768" t="str">
-        <v>śrī</v>
+        <v>śrīvedavyāsāya namaḥ</v>
       </c>
       <c r="B768" t="str">
-        <v>śrī</v>
+        <v>śrīvedavyāsāya namaḥ</v>
       </c>
       <c r="C768" t="str">
-        <v>Sanscrit 1129</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D768" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E768" t="str">
-        <v>Indic Alphabets</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F768" t="str">
-        <v>U1a</v>
+        <v>U4</v>
       </c>
       <c r="G768" t="str">
-        <v>folio 1r</v>
+        <v>folio 342r</v>
       </c>
       <c r="H768" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I768" t="str">
         <v>0</v>
@@ -22654,28 +22654,28 @@
     </row>
     <row r="769">
       <c r="A769" t="str">
-        <v>śrī</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B769" t="str">
-        <v>śrī</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C769" t="str">
-        <v>Sanscrit 1146</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D769" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E769" t="str">
-        <v>Brahmasūtra</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F769" t="str">
-        <v/>
+        <v>U4</v>
       </c>
       <c r="G769" t="str">
-        <v>1r</v>
+        <v>folio 342v</v>
       </c>
       <c r="H769" t="str">
-        <v>marginal</v>
+        <v>main text area</v>
       </c>
       <c r="I769" t="str">
         <v>0</v>
@@ -22683,28 +22683,28 @@
     </row>
     <row r="770">
       <c r="A770" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
       </c>
       <c r="B770" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
       </c>
       <c r="C770" t="str">
-        <v>Sanscrit 1426</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D770" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E770" t="str">
-        <v>Three Vaiṣṇava hymns</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F770" t="str">
-        <v/>
+        <v>U4</v>
       </c>
       <c r="G770" t="str">
-        <v>2v</v>
+        <v>folio 342v</v>
       </c>
       <c r="H770" t="str">
-        <v>marginal</v>
+        <v>main text area</v>
       </c>
       <c r="I770" t="str">
         <v>0</v>
@@ -22712,28 +22712,28 @@
     </row>
     <row r="771">
       <c r="A771" t="str">
-        <v>śrīhariḥ</v>
+        <v>Om·</v>
       </c>
       <c r="B771" t="str">
-        <v>śrīhariḥ</v>
+        <v>Om·</v>
       </c>
       <c r="C771" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D771" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E771" t="str">
-        <v>Bengali fragments</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F771" t="str">
-        <v/>
+        <v>U4</v>
       </c>
       <c r="G771" t="str">
-        <v>folio 1r</v>
+        <v>folio 342v</v>
       </c>
       <c r="H771" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>main text area</v>
       </c>
       <c r="I771" t="str">
         <v>0</v>
@@ -22741,28 +22741,28 @@
     </row>
     <row r="772">
       <c r="A772" t="str">
-        <v>śrīhariḥ |</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B772" t="str">
-        <v>śrīhariḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C772" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D772" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E772" t="str">
-        <v>Bengali fragments</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F772" t="str">
         <v>U2</v>
       </c>
       <c r="G772" t="str">
-        <v>folio 2r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H772" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>left margin</v>
       </c>
       <c r="I772" t="str">
         <v>0</v>
@@ -22770,28 +22770,28 @@
     </row>
     <row r="773">
       <c r="A773" t="str">
-        <v>śrīhariḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B773" t="str">
-        <v>śrīhariḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C773" t="str">
-        <v>Sanscrit 1442.7a</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D773" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E773" t="str">
-        <v>Saṃkrāntadhanaviṣaya</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F773" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G773" t="str">
-        <v>folio 1r</v>
+        <v>folio 240v</v>
       </c>
       <c r="H773" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>main text area</v>
       </c>
       <c r="I773" t="str">
         <v>0</v>
@@ -22799,36 +22799,384 @@
     </row>
     <row r="774">
       <c r="A774" t="str">
-        <v>śrīhariḥ |</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="B774" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="C774" t="str">
-        <v>Sanscrit 1442.7b</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D774" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E774" t="str">
-        <v>Mahābhārata – Mokṣadharmaparvan</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F774" t="str">
         <v>U2</v>
       </c>
       <c r="G774" t="str">
+        <v>folio 240v</v>
+      </c>
+      <c r="H774" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I774" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="str">
+        <v>śubham astu</v>
+      </c>
+      <c r="B775" t="str">
+        <v>śubham astu</v>
+      </c>
+      <c r="C775" t="str">
+        <v>Sanscrit 291</v>
+      </c>
+      <c r="D775" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E775" t="str">
+        <v>Yajurveda Taittirīyasaṃhitā</v>
+      </c>
+      <c r="F775" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G775" t="str">
+        <v>folio 240v</v>
+      </c>
+      <c r="H775" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I775" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="str">
+        <v>śrīḥ —</v>
+      </c>
+      <c r="B776" t="str">
+        <v>śrīḥ —</v>
+      </c>
+      <c r="C776" t="str">
+        <v>Sanscrit 612.1</v>
+      </c>
+      <c r="D776" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E776" t="str">
+        <v>Amarakośa with anonymous commentaries</v>
+      </c>
+      <c r="F776" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G776" t="str">
+        <v>initial folio, recto</v>
+      </c>
+      <c r="H776" t="str">
+        <v>beginning, marginal, left</v>
+      </c>
+      <c r="I776" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="str">
+        <v>śrīḥ</v>
+      </c>
+      <c r="B777" t="str">
+        <v>śrīḥ</v>
+      </c>
+      <c r="C777" t="str">
+        <v>Sanscrit 612.1</v>
+      </c>
+      <c r="D777" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E777" t="str">
+        <v>Amarakośa with anonymous commentaries</v>
+      </c>
+      <c r="F777" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G777" t="str">
+        <v>folio 1v</v>
+      </c>
+      <c r="H777" t="str">
+        <v>beginning, marginal, right</v>
+      </c>
+      <c r="I777" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="B778" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="C778" t="str">
+        <v>Sanscrit 616</v>
+      </c>
+      <c r="D778" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+      </c>
+      <c r="E778" t="str">
+        <v>Amarakośaviveka</v>
+      </c>
+      <c r="F778" t="str">
+        <v/>
+      </c>
+      <c r="G778" t="str">
+        <v>1r</v>
+      </c>
+      <c r="H778" t="str">
+        <v>marginal</v>
+      </c>
+      <c r="I778" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="str">
+        <v>śrīrāmaḥ</v>
+      </c>
+      <c r="B779" t="str">
+        <v>śrīrāmaḥ</v>
+      </c>
+      <c r="C779" t="str">
+        <v>Sanscrit 619</v>
+      </c>
+      <c r="D779" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E779" t="str">
+        <v>Amarakośakaumudī</v>
+      </c>
+      <c r="F779" t="str">
+        <v/>
+      </c>
+      <c r="G779" t="str">
+        <v>folio 1, recto</v>
+      </c>
+      <c r="H779" t="str">
+        <v>beginning</v>
+      </c>
+      <c r="I779" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="B780" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="C780" t="str">
+        <v>Sanscrit 1129</v>
+      </c>
+      <c r="D780" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E780" t="str">
+        <v>Indic Alphabets</v>
+      </c>
+      <c r="F780" t="str">
+        <v>U1a</v>
+      </c>
+      <c r="G780" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H780" t="str">
+        <v/>
+      </c>
+      <c r="I780" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="B781" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="C781" t="str">
+        <v>Sanscrit 1146</v>
+      </c>
+      <c r="D781" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+      </c>
+      <c r="E781" t="str">
+        <v>Brahmasūtra</v>
+      </c>
+      <c r="F781" t="str">
+        <v/>
+      </c>
+      <c r="G781" t="str">
+        <v>1r</v>
+      </c>
+      <c r="H781" t="str">
+        <v>marginal</v>
+      </c>
+      <c r="I781" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="str">
+        <v>śrīrāmaḥ śaraṇaṃ</v>
+      </c>
+      <c r="B782" t="str">
+        <v>śrīrāmaḥ śaraṇaṃ</v>
+      </c>
+      <c r="C782" t="str">
+        <v>Sanscrit 1426</v>
+      </c>
+      <c r="D782" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+      </c>
+      <c r="E782" t="str">
+        <v>Three Vaiṣṇava hymns</v>
+      </c>
+      <c r="F782" t="str">
+        <v/>
+      </c>
+      <c r="G782" t="str">
+        <v>2v</v>
+      </c>
+      <c r="H782" t="str">
+        <v>marginal</v>
+      </c>
+      <c r="I782" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B783" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C783" t="str">
+        <v>Sanscrit 1442.7</v>
+      </c>
+      <c r="D783" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E783" t="str">
+        <v>Bengali fragments</v>
+      </c>
+      <c r="F783" t="str">
+        <v/>
+      </c>
+      <c r="G783" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H783" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I783" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="str">
+        <v>śrīhariḥ |</v>
+      </c>
+      <c r="B784" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C784" t="str">
+        <v>Sanscrit 1442.7</v>
+      </c>
+      <c r="D784" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E784" t="str">
+        <v>Bengali fragments</v>
+      </c>
+      <c r="F784" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G784" t="str">
         <v>folio 2r</v>
       </c>
-      <c r="H774" t="str">
+      <c r="H784" t="str">
         <v>beginning, marginal, top, left</v>
       </c>
-      <c r="I774" t="str">
+      <c r="I784" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B785" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C785" t="str">
+        <v>Sanscrit 1442.7a</v>
+      </c>
+      <c r="D785" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E785" t="str">
+        <v>Saṃkrāntadhanaviṣaya</v>
+      </c>
+      <c r="F785" t="str">
+        <v/>
+      </c>
+      <c r="G785" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H785" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I785" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="str">
+        <v>śrīhariḥ |</v>
+      </c>
+      <c r="B786" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C786" t="str">
+        <v>Sanscrit 1442.7b</v>
+      </c>
+      <c r="D786" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E786" t="str">
+        <v>Mahābhārata – Mokṣadharmaparvan</v>
+      </c>
+      <c r="F786" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G786" t="str">
+        <v>folio 2r</v>
+      </c>
+      <c r="H786" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I786" t="str">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I774"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I786"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I786"/>
+  <dimension ref="A1:I790"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20305,28 +20305,28 @@
     </row>
     <row r="688">
       <c r="A688" t="str">
-        <v>Āṉāti namastu</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B688" t="str">
-        <v>Āṉāti namastu</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C688" t="str">
-        <v>Indien 956</v>
+        <v>Indien 955</v>
       </c>
       <c r="D688" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E688" t="str">
-        <v>Tiruvēṅkaṭacatakam</v>
+        <v>Cīvakacintāmaṇi, part 1 of 2</v>
       </c>
       <c r="F688" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G688" t="str">
-        <v>folio [1]r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H688" t="str">
-        <v>left margin 2</v>
+        <v>left margin</v>
       </c>
       <c r="I688" t="str">
         <v>0</v>
@@ -20334,28 +20334,28 @@
     </row>
     <row r="689">
       <c r="A689" t="str">
-        <v>naṉṟāka</v>
+        <v>[...] śrīyo na=ma=ḥ</v>
       </c>
       <c r="B689" t="str">
-        <v>naṉṟāka</v>
+        <v>śrīyo nama=ḥ</v>
       </c>
       <c r="C689" t="str">
-        <v>Indien 956</v>
+        <v>Indien 955</v>
       </c>
       <c r="D689" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E689" t="str">
-        <v>Tiruvēṅkaṭacatakam</v>
+        <v>Cīvakacintāmaṇi, part 1 of 2</v>
       </c>
       <c r="F689" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G689" t="str">
-        <v>folio 1r</v>
+        <v>folio 142r</v>
       </c>
       <c r="H689" t="str">
-        <v>left margin 1</v>
+        <v>left margin</v>
       </c>
       <c r="I689" t="str">
         <v>0</v>
@@ -20363,25 +20363,25 @@
     </row>
     <row r="690">
       <c r="A690" t="str">
-        <v>śubham astu</v>
+        <v>Evvuyirattum potuvāṉ kaṭavuḷ pātamē caraṇa⟨m⟩</v>
       </c>
       <c r="B690" t="str">
-        <v>śubham astu</v>
+        <v>Evvuyirattum potuvāṉ kaṭavuḷ pātamē caraṇam</v>
       </c>
       <c r="C690" t="str">
-        <v>Indien 962</v>
+        <v>Indien 955</v>
       </c>
       <c r="D690" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E690" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Cīvakacintāmaṇi, part 1 of 2</v>
       </c>
       <c r="F690" t="str">
-        <v>U2a</v>
+        <v>U3</v>
       </c>
       <c r="G690" t="str">
-        <v>folio [1]r</v>
+        <v>folio 142r</v>
       </c>
       <c r="H690" t="str">
         <v>left margin</v>
@@ -20392,28 +20392,28 @@
     </row>
     <row r="691">
       <c r="A691" t="str">
-        <v>civamaya=m</v>
+        <v>Ōm·</v>
       </c>
       <c r="B691" t="str">
-        <v>civamayam</v>
+        <v>Ōm·</v>
       </c>
       <c r="C691" t="str">
-        <v>Indien 962</v>
+        <v>Indien 955</v>
       </c>
       <c r="D691" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E691" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Cīvakacintāmaṇi, part 1 of 2</v>
       </c>
       <c r="F691" t="str">
-        <v>U2a</v>
+        <v>U3</v>
       </c>
       <c r="G691" t="str">
-        <v>folio [1]r</v>
+        <v>folio 248v</v>
       </c>
       <c r="H691" t="str">
-        <v>main text area</v>
+        <v>left margin 2</v>
       </c>
       <c r="I691" t="str">
         <v>0</v>
@@ -20421,31 +20421,31 @@
     </row>
     <row r="692">
       <c r="A692" t="str">
-        <v>ve¿tti?-vēl tuṇai</v>
+        <v>Āṉāti namastu</v>
       </c>
       <c r="B692" t="str">
-        <v>vettivēl tuṇai</v>
+        <v>Āṉāti namastu</v>
       </c>
       <c r="C692" t="str">
-        <v>Indien 962</v>
+        <v>Indien 956</v>
       </c>
       <c r="D692" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E692" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Tiruvēṅkaṭacatakam</v>
       </c>
       <c r="F692" t="str">
-        <v>U2a</v>
+        <v>U1</v>
       </c>
       <c r="G692" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H692" t="str">
-        <v>main text area</v>
+        <v>left margin 2</v>
       </c>
       <c r="I692" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
@@ -20456,22 +20456,22 @@
         <v>naṉṟāka</v>
       </c>
       <c r="C693" t="str">
-        <v>Indien 962</v>
+        <v>Indien 956</v>
       </c>
       <c r="D693" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E693" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Tiruvēṅkaṭacatakam</v>
       </c>
       <c r="F693" t="str">
-        <v>U2b</v>
+        <v>U2</v>
       </c>
       <c r="G693" t="str">
         <v>folio 1r</v>
       </c>
       <c r="H693" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I693" t="str">
         <v>0</v>
@@ -20479,10 +20479,10 @@
     </row>
     <row r="694">
       <c r="A694" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>śubham astu</v>
       </c>
       <c r="B694" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>śubham astu</v>
       </c>
       <c r="C694" t="str">
         <v>Indien 962</v>
@@ -20494,13 +20494,13 @@
         <v>Veṅkaikkōvai</v>
       </c>
       <c r="F694" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G694" t="str">
-        <v>folio 38v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H694" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I694" t="str">
         <v>0</v>
@@ -20508,10 +20508,10 @@
     </row>
     <row r="695">
       <c r="A695" t="str">
-        <v>ve¿tti?-vēl uṟṟa tuṇai</v>
+        <v>civamaya=m</v>
       </c>
       <c r="B695" t="str">
-        <v>vettivēl uṟṟa tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="C695" t="str">
         <v>Indien 962</v>
@@ -20523,24 +20523,24 @@
         <v>Veṅkaikkōvai</v>
       </c>
       <c r="F695" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G695" t="str">
-        <v>folio 38v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H695" t="str">
         <v>main text area</v>
       </c>
       <c r="I695" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="str">
-        <v>civamayam</v>
+        <v>ve¿tti?-vēl tuṇai</v>
       </c>
       <c r="B696" t="str">
-        <v>civamayam</v>
+        <v>vettivēl tuṇai</v>
       </c>
       <c r="C696" t="str">
         <v>Indien 962</v>
@@ -20552,39 +20552,39 @@
         <v>Veṅkaikkōvai</v>
       </c>
       <c r="F696" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G696" t="str">
-        <v>folio 38v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H696" t="str">
         <v>main text area</v>
       </c>
       <c r="I696" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="str">
-        <v>viṉāyakāya namam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B697" t="str">
-        <v>viṉāyakāya namam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C697" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D697" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E697" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F697" t="str">
-        <v>U2</v>
+        <v>U2b</v>
       </c>
       <c r="G697" t="str">
-        <v>folio [1]r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H697" t="str">
         <v>left margin</v>
@@ -20601,22 +20601,22 @@
         <v>tirucciṟṟampalam</v>
       </c>
       <c r="C698" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D698" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E698" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F698" t="str">
-        <v>U2</v>
+        <v>U2b</v>
       </c>
       <c r="G698" t="str">
-        <v>folio [1]r</v>
+        <v>folio 38v</v>
       </c>
       <c r="H698" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I698" t="str">
         <v>0</v>
@@ -20624,68 +20624,68 @@
     </row>
     <row r="699">
       <c r="A699" t="str">
-        <v>vāṇi namos•tu {pcl}</v>
+        <v>ve¿tti?-vēl uṟṟa tuṇai</v>
       </c>
       <c r="B699" t="str">
-        <v>vāṇi namostu {pcl}</v>
+        <v>vettivēl uṟṟa tuṇai</v>
       </c>
       <c r="C699" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D699" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E699" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F699" t="str">
-        <v>U2</v>
+        <v>U2b</v>
       </c>
       <c r="G699" t="str">
-        <v>folio [1]r</v>
+        <v>folio 38v</v>
       </c>
       <c r="H699" t="str">
         <v>main text area</v>
       </c>
       <c r="I699" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="str">
-        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
+        <v>civamayam</v>
       </c>
       <c r="B700" t="str">
-        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
+        <v>civamayam</v>
       </c>
       <c r="C700" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D700" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E700" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F700" t="str">
-        <v>U2</v>
+        <v>U2b</v>
       </c>
       <c r="G700" t="str">
-        <v>folio [1]r</v>
+        <v>folio 38v</v>
       </c>
       <c r="H700" t="str">
         <v>main text area</v>
       </c>
       <c r="I700" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>viṉāyakāya namam</v>
       </c>
       <c r="B701" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>viṉāyakāya namam</v>
       </c>
       <c r="C701" t="str">
         <v>Indien 983</v>
@@ -20697,10 +20697,10 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F701" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G701" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H701" t="str">
         <v>left margin</v>
@@ -20726,13 +20726,13 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F702" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G702" t="str">
-        <v>folio 8v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H702" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I702" t="str">
         <v>0</v>
@@ -20740,10 +20740,10 @@
     </row>
     <row r="703">
       <c r="A703" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>vāṇi namos•tu {pcl}</v>
       </c>
       <c r="B703" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>vāṇi namostu {pcl}</v>
       </c>
       <c r="C703" t="str">
         <v>Indien 983</v>
@@ -20755,13 +20755,13 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F703" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G703" t="str">
-        <v>folio 26r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H703" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I703" t="str">
         <v>0</v>
@@ -20769,10 +20769,10 @@
     </row>
     <row r="704">
       <c r="A704" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
       </c>
       <c r="B704" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
       </c>
       <c r="C704" t="str">
         <v>Indien 983</v>
@@ -20784,24 +20784,24 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F704" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G704" t="str">
-        <v>folio 51v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H704" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I704" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="str">
-        <v>civamaya=m</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B705" t="str">
-        <v>civamayam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C705" t="str">
         <v>Indien 983</v>
@@ -20816,10 +20816,10 @@
         <v>U3</v>
       </c>
       <c r="G705" t="str">
-        <v>folio 158v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H705" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I705" t="str">
         <v>0</v>
@@ -20827,10 +20827,10 @@
     </row>
     <row r="706">
       <c r="A706" t="str">
-        <v>tirucci¿tṟa?ṟṟampalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B706" t="str">
-        <v>tiruccitṟaṟṟampalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C706" t="str">
         <v>Indien 983</v>
@@ -20845,7 +20845,7 @@
         <v>U3</v>
       </c>
       <c r="G706" t="str">
-        <v>folio 158v</v>
+        <v>folio 8v</v>
       </c>
       <c r="H706" t="str">
         <v/>
@@ -20856,28 +20856,28 @@
     </row>
     <row r="707">
       <c r="A707" t="str">
-        <v>Al=lā Utavi ceyya-vēṇum</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B707" t="str">
-        <v>Allā Utavi ceyyavēṇum</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C707" t="str">
-        <v>Indien 987</v>
+        <v>Indien 983</v>
       </c>
       <c r="D707" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E707" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F707" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G707" t="str">
-        <v>folio [1]r</v>
+        <v>folio 26r</v>
       </c>
       <c r="H707" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I707" t="str">
         <v>0</v>
@@ -20885,57 +20885,57 @@
     </row>
     <row r="708">
       <c r="A708" t="str">
-        <v>caṟaṣpati tuṇai {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B708" t="str">
-        <v>caṟaṣpati tuṇai {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C708" t="str">
-        <v>Indien 987</v>
+        <v>Indien 983</v>
       </c>
       <c r="D708" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E708" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F708" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G708" t="str">
-        <v>folio [1]r</v>
+        <v>folio 51v</v>
       </c>
       <c r="H708" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I708" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="str">
-        <v>vicumi l=lāku ṟakimāṉi ṟakīm</v>
+        <v>civamaya=m</v>
       </c>
       <c r="B709" t="str">
-        <v>vicumi llāku ṟakimāṉi ṟakīm</v>
+        <v>civamayam</v>
       </c>
       <c r="C709" t="str">
-        <v>Indien 987</v>
+        <v>Indien 983</v>
       </c>
       <c r="D709" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E709" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F709" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G709" t="str">
-        <v>folio [1]r</v>
+        <v>folio 158v</v>
       </c>
       <c r="H709" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I709" t="str">
         <v>0</v>
@@ -20943,51 +20943,51 @@
     </row>
     <row r="710">
       <c r="A710" t="str">
-        <v>{pcs} kaṭavu⟨ḷ ⟩ ¿ku?tuṇai</v>
+        <v>tirucci¿tṟa?ṟṟampalam</v>
       </c>
       <c r="B710" t="str">
-        <v>{pcs} kaṭavuḷ kutuṇai</v>
+        <v>tiruccitṟaṟṟampalam</v>
       </c>
       <c r="C710" t="str">
-        <v>Indien 989</v>
+        <v>Indien 983</v>
       </c>
       <c r="D710" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E710" t="str">
-        <v>Tamil Vocabulary</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F710" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G710" t="str">
-        <v>folio 1</v>
+        <v>folio 158v</v>
       </c>
       <c r="H710" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I710" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="str">
-        <v>hariḥ | Om</v>
+        <v>Al=lā Utavi ceyya-vēṇum</v>
       </c>
       <c r="B711" t="str">
-        <v>hariḥ Om</v>
+        <v>Allā Utavi ceyyavēṇum</v>
       </c>
       <c r="C711" t="str">
-        <v>Indien 991</v>
+        <v>Indien 987</v>
       </c>
       <c r="D711" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E711" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F711" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G711" t="str">
         <v>folio [1]r</v>
@@ -21001,28 +21001,28 @@
     </row>
     <row r="712">
       <c r="A712" t="str">
-        <v>{pcs}kuruvē tuṇai</v>
+        <v>caṟaṣpati tuṇai {pcl}</v>
       </c>
       <c r="B712" t="str">
-        <v>{pcs}kuruvē tuṇai</v>
+        <v>caṟaṣpati tuṇai {pcl}</v>
       </c>
       <c r="C712" t="str">
-        <v>Indien 991</v>
+        <v>Indien 987</v>
       </c>
       <c r="D712" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E712" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F712" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G712" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H712" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I712" t="str">
         <v>1</v>
@@ -21030,57 +21030,57 @@
     </row>
     <row r="713">
       <c r="A713" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>vicumi l=lāku ṟakimāṉi ṟakīm</v>
       </c>
       <c r="B713" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>vicumi llāku ṟakimāṉi ṟakīm</v>
       </c>
       <c r="C713" t="str">
-        <v>Indien 991</v>
+        <v>Indien 987</v>
       </c>
       <c r="D713" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E713" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F713" t="str">
         <v>U2</v>
       </c>
       <c r="G713" t="str">
-        <v>folio 4r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H713" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I713" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="str">
-        <v>caravaṇapa-kuruvē {tuṇai}</v>
+        <v>{pcs} kaṭavu⟨ḷ ⟩ ¿ku?tuṇai</v>
       </c>
       <c r="B714" t="str">
-        <v>caravaṇapakuruvē {tuṇai}</v>
+        <v>{pcs} kaṭavuḷ kutuṇai</v>
       </c>
       <c r="C714" t="str">
-        <v>Indien 991</v>
+        <v>Indien 989</v>
       </c>
       <c r="D714" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E714" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Tamil Vocabulary</v>
       </c>
       <c r="F714" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G714" t="str">
-        <v>folio 4r</v>
+        <v>folio 1</v>
       </c>
       <c r="H714" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I714" t="str">
         <v>1</v>
@@ -21088,10 +21088,10 @@
     </row>
     <row r="715">
       <c r="A715" t="str">
-        <v>civacitamparam [...] tuṇai</v>
+        <v>hariḥ | Om</v>
       </c>
       <c r="B715" t="str">
-        <v>civacitamparam tuṇai</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C715" t="str">
         <v>Indien 991</v>
@@ -21106,21 +21106,21 @@
         <v>U2</v>
       </c>
       <c r="G715" t="str">
-        <v>folio 4r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H715" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I715" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="str">
-        <v>paṭṭīcurar cuvāmi tuṇai</v>
+        <v>{pcs}kuruvē tuṇai</v>
       </c>
       <c r="B716" t="str">
-        <v>paṭṭīcurar cuvāmi tuṇai</v>
+        <v>{pcs}kuruvē tuṇai</v>
       </c>
       <c r="C716" t="str">
         <v>Indien 991</v>
@@ -21135,10 +21135,10 @@
         <v>U2</v>
       </c>
       <c r="G716" t="str">
-        <v>folio 75r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H716" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I716" t="str">
         <v>1</v>
@@ -21146,10 +21146,10 @@
     </row>
     <row r="717">
       <c r="A717" t="str">
-        <v>civamayam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B717" t="str">
-        <v>civamayam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C717" t="str">
         <v>Indien 991</v>
@@ -21164,21 +21164,21 @@
         <v>U2</v>
       </c>
       <c r="G717" t="str">
-        <v>folio 75r</v>
+        <v>folio 4r</v>
       </c>
       <c r="H717" t="str">
         <v>main text area</v>
       </c>
       <c r="I717" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="str">
-        <v>periyaṉāyakiyammaṉ muṟṟum</v>
+        <v>caravaṇapa-kuruvē {tuṇai}</v>
       </c>
       <c r="B718" t="str">
-        <v>periyaṉāyakiyammaṉ muṟṟum</v>
+        <v>caravaṇapakuruvē {tuṇai}</v>
       </c>
       <c r="C718" t="str">
         <v>Indien 991</v>
@@ -21193,21 +21193,21 @@
         <v>U2</v>
       </c>
       <c r="G718" t="str">
-        <v>folio 77v</v>
+        <v>folio 4r</v>
       </c>
       <c r="H718" t="str">
         <v>main text area</v>
       </c>
       <c r="I718" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="str">
-        <v>civacuppaṟāyar {tuṇai}</v>
+        <v>civacitamparam [...] tuṇai</v>
       </c>
       <c r="B719" t="str">
-        <v>civacuppaṟāyar {tuṇai}</v>
+        <v>civacitamparam tuṇai</v>
       </c>
       <c r="C719" t="str">
         <v>Indien 991</v>
@@ -21222,7 +21222,7 @@
         <v>U2</v>
       </c>
       <c r="G719" t="str">
-        <v>folio 77v</v>
+        <v>folio 4r</v>
       </c>
       <c r="H719" t="str">
         <v>main text area</v>
@@ -21233,28 +21233,28 @@
     </row>
     <row r="720">
       <c r="A720" t="str">
-        <v>kaṭavuḷ tuṇai</v>
+        <v>paṭṭīcurar cuvāmi tuṇai</v>
       </c>
       <c r="B720" t="str">
-        <v>kaṭavuḷ tuṇai</v>
+        <v>paṭṭīcurar cuvāmi tuṇai</v>
       </c>
       <c r="C720" t="str">
-        <v>Indien 992</v>
+        <v>Indien 991</v>
       </c>
       <c r="D720" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E720" t="str">
-        <v>Tēraiyar Vayittiyam 500</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F720" t="str">
         <v>U2</v>
       </c>
       <c r="G720" t="str">
-        <v>folio [1]r</v>
+        <v>folio 75r</v>
       </c>
       <c r="H720" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I720" t="str">
         <v>1</v>
@@ -21262,28 +21262,28 @@
     </row>
     <row r="721">
       <c r="A721" t="str">
-        <v>kuru muṉṉirkkavum</v>
+        <v>civamayam</v>
       </c>
       <c r="B721" t="str">
-        <v>kuru muṉṉirkkavum</v>
+        <v>civamayam</v>
       </c>
       <c r="C721" t="str">
-        <v>Indien 992</v>
+        <v>Indien 991</v>
       </c>
       <c r="D721" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E721" t="str">
-        <v>Tēraiyar Vayittiyam 500</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F721" t="str">
         <v>U2</v>
       </c>
       <c r="G721" t="str">
-        <v>folio [1]r</v>
+        <v>folio 75r</v>
       </c>
       <c r="H721" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I721" t="str">
         <v>0</v>
@@ -21291,115 +21291,115 @@
     </row>
     <row r="722">
       <c r="A722" t="str">
-        <v>yēkaparāparavaṣttuvē tuṇai</v>
+        <v>periyaṉāyakiyammaṉ muṟṟum</v>
       </c>
       <c r="B722" t="str">
-        <v>yēkaparāparavaṣttuvē tuṇai</v>
+        <v>periyaṉāyakiyammaṉ muṟṟum</v>
       </c>
       <c r="C722" t="str">
-        <v>Indien 993</v>
+        <v>Indien 991</v>
       </c>
       <c r="D722" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E722" t="str">
-        <v>Cippāyika Vāttu Varicai Paḻakkuṟa Poṣttakam</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F722" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G722" t="str">
-        <v>folio [1]r</v>
+        <v>folio 77v</v>
       </c>
       <c r="H722" t="str">
-        <v>column 3</v>
+        <v>main text area</v>
       </c>
       <c r="I722" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="str">
-        <v>śrīmatu Aṉantacuvāmi [...] kkavu=m</v>
+        <v>civacuppaṟāyar {tuṇai}</v>
       </c>
       <c r="B723" t="str">
-        <v>śrīmatu Aṉantacuvāmi kkavum</v>
+        <v>civacuppaṟāyar {tuṇai}</v>
       </c>
       <c r="C723" t="str">
-        <v>Indien 1034a</v>
+        <v>Indien 991</v>
       </c>
       <c r="D723" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E723" t="str">
-        <v>TBC</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F723" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G723" t="str">
-        <v>folio [1]v</v>
+        <v>folio 77v</v>
       </c>
       <c r="H723" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I723" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="str">
-        <v>kuru [...] kkavu=m</v>
+        <v>kaṭavuḷ tuṇai</v>
       </c>
       <c r="B724" t="str">
-        <v>kuru kkavum</v>
+        <v>kaṭavuḷ tuṇai</v>
       </c>
       <c r="C724" t="str">
-        <v>Indien 1034a</v>
+        <v>Indien 992</v>
       </c>
       <c r="D724" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E724" t="str">
-        <v>TBC</v>
+        <v>Tēraiyar Vayittiyam 500</v>
       </c>
       <c r="F724" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G724" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H724" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I724" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="str">
-        <v>Āṉantacuvāmi [...]</v>
+        <v>kuru muṉṉirkkavum</v>
       </c>
       <c r="B725" t="str">
-        <v>Āṉantacuvāmi</v>
+        <v>kuru muṉṉirkkavum</v>
       </c>
       <c r="C725" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 992</v>
       </c>
       <c r="D725" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E725" t="str">
-        <v>TBC</v>
+        <v>Tēraiyar Vayittiyam 500</v>
       </c>
       <c r="F725" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G725" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H725" t="str">
-        <v>column 1</v>
+        <v>left margin</v>
       </c>
       <c r="I725" t="str">
         <v>0</v>
@@ -21407,28 +21407,28 @@
     </row>
     <row r="726">
       <c r="A726" t="str">
-        <v>Āṟumuka tuṇai [...]</v>
+        <v>yēkaparāparavaṣttuvē tuṇai</v>
       </c>
       <c r="B726" t="str">
-        <v>Āṟumuka tuṇai</v>
+        <v>yēkaparāparavaṣttuvē tuṇai</v>
       </c>
       <c r="C726" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 993</v>
       </c>
       <c r="D726" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E726" t="str">
-        <v>TBC</v>
+        <v>Cippāyika Vāttu Varicai Paḻakkuṟa Poṣttakam</v>
       </c>
       <c r="F726" t="str">
         <v>U1</v>
       </c>
       <c r="G726" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H726" t="str">
-        <v>column 1</v>
+        <v>column 3</v>
       </c>
       <c r="I726" t="str">
         <v>1</v>
@@ -21436,13 +21436,13 @@
     </row>
     <row r="727">
       <c r="A727" t="str">
-        <v>vellum kaiyam [...]</v>
+        <v>śrīmatu Aṉantacuvāmi [...] kkavu=m</v>
       </c>
       <c r="B727" t="str">
-        <v>vellum kaiyam</v>
+        <v>śrīmatu Aṉantacuvāmi kkavum</v>
       </c>
       <c r="C727" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 1034a</v>
       </c>
       <c r="D727" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -21454,10 +21454,10 @@
         <v>U1</v>
       </c>
       <c r="G727" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H727" t="str">
-        <v>column 1</v>
+        <v/>
       </c>
       <c r="I727" t="str">
         <v>0</v>
@@ -21465,13 +21465,13 @@
     </row>
     <row r="728">
       <c r="A728" t="str">
-        <v>makā-kaṇapati tuṇai</v>
+        <v>kuru [...] kkavu=m</v>
       </c>
       <c r="B728" t="str">
-        <v>makākaṇapati tuṇai</v>
+        <v>kuru kkavum</v>
       </c>
       <c r="C728" t="str">
-        <v>Indien 1034d</v>
+        <v>Indien 1034a</v>
       </c>
       <c r="D728" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -21480,27 +21480,27 @@
         <v>TBC</v>
       </c>
       <c r="F728" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G728" t="str">
-        <v>folio 25r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H728" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I728" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>Āṉantacuvāmi [...]</v>
       </c>
       <c r="B729" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>Āṉantacuvāmi</v>
       </c>
       <c r="C729" t="str">
-        <v>Indien 1034d</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D729" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -21509,71 +21509,71 @@
         <v>TBC</v>
       </c>
       <c r="F729" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G729" t="str">
-        <v>folio 25r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H729" t="str">
-        <v>column</v>
+        <v>column 1</v>
       </c>
       <c r="I729" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="str">
-        <v>śrī</v>
+        <v>Āṟumuka tuṇai [...]</v>
       </c>
       <c r="B730" t="str">
-        <v>śrī</v>
+        <v>Āṟumuka tuṇai</v>
       </c>
       <c r="C730" t="str">
-        <v>Indien 1037</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D730" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E730" t="str">
-        <v>Talisman or Private Letter</v>
+        <v>TBC</v>
       </c>
       <c r="F730" t="str">
-        <v>seal</v>
+        <v>U1</v>
       </c>
       <c r="G730" t="str">
-        <v>folio [1r]</v>
+        <v>folio 1r</v>
       </c>
       <c r="H730" t="str">
-        <v/>
+        <v>column 1</v>
       </c>
       <c r="I730" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="str">
-        <v>hariḥ Om·</v>
+        <v>vellum kaiyam [...]</v>
       </c>
       <c r="B731" t="str">
-        <v>hariḥ Om·</v>
+        <v>vellum kaiyam</v>
       </c>
       <c r="C731" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D731" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E731" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F731" t="str">
-        <v>U2a</v>
+        <v>U1</v>
       </c>
       <c r="G731" t="str">
-        <v>folio [1]r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H731" t="str">
-        <v>left margin</v>
+        <v>column 1</v>
       </c>
       <c r="I731" t="str">
         <v>0</v>
@@ -21581,86 +21581,86 @@
     </row>
     <row r="732">
       <c r="A732" t="str">
-        <v>Em perumāṉār tunai</v>
+        <v>makā-kaṇapati tuṇai</v>
       </c>
       <c r="B732" t="str">
-        <v>Em perumāṉār tunai</v>
+        <v>makākaṇapati tuṇai</v>
       </c>
       <c r="C732" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034d</v>
       </c>
       <c r="D732" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E732" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F732" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G732" t="str">
-        <v>folio [1]r</v>
+        <v>folio 25r</v>
       </c>
       <c r="H732" t="str">
         <v>left margin</v>
       </c>
       <c r="I732" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="str">
-        <v>śrī-raṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B733" t="str">
-        <v>śrīraṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C733" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034d</v>
       </c>
       <c r="D733" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E733" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F733" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G733" t="str">
-        <v>folio [1]v</v>
+        <v>folio 25r</v>
       </c>
       <c r="H733" t="str">
-        <v>main text area</v>
+        <v>column</v>
       </c>
       <c r="I733" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="str">
-        <v>naṉṟāka</v>
+        <v>śrī</v>
       </c>
       <c r="B734" t="str">
-        <v>naṉṟāka</v>
+        <v>śrī</v>
       </c>
       <c r="C734" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1037</v>
       </c>
       <c r="D734" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E734" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>Talisman or Private Letter</v>
       </c>
       <c r="F734" t="str">
-        <v>U2b</v>
+        <v>seal</v>
       </c>
       <c r="G734" t="str">
-        <v>folio [1]r</v>
+        <v>folio [1r]</v>
       </c>
       <c r="H734" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I734" t="str">
         <v>0</v>
@@ -21668,10 +21668,10 @@
     </row>
     <row r="735">
       <c r="A735" t="str">
-        <v>civamayam</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B735" t="str">
-        <v>civamayam</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C735" t="str">
         <v>Indien 1039</v>
@@ -21683,13 +21683,13 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F735" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G735" t="str">
-        <v>folio 52v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H735" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I735" t="str">
         <v>0</v>
@@ -21697,10 +21697,10 @@
     </row>
     <row r="736">
       <c r="A736" t="str">
-        <v>civamayam</v>
+        <v>Em perumāṉār tunai</v>
       </c>
       <c r="B736" t="str">
-        <v>civamayam</v>
+        <v>Em perumāṉār tunai</v>
       </c>
       <c r="C736" t="str">
         <v>Indien 1039</v>
@@ -21712,13 +21712,13 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F736" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G736" t="str">
-        <v>folio 52v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H736" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I736" t="str">
         <v>0</v>
@@ -21726,10 +21726,10 @@
     </row>
     <row r="737">
       <c r="A737" t="str">
-        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
+        <v>śrī-raṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
       </c>
       <c r="B737" t="str">
-        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
+        <v>śrīraṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
       </c>
       <c r="C737" t="str">
         <v>Indien 1039</v>
@@ -21741,24 +21741,24 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F737" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G737" t="str">
-        <v>folio 52v</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H737" t="str">
         <v>main text area</v>
       </c>
       <c r="I737" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B738" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C738" t="str">
         <v>Indien 1039</v>
@@ -21773,7 +21773,7 @@
         <v>U2b</v>
       </c>
       <c r="G738" t="str">
-        <v>folio 70v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H738" t="str">
         <v>left margin</v>
@@ -21784,10 +21784,10 @@
     </row>
     <row r="739">
       <c r="A739" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>civamayam</v>
       </c>
       <c r="B739" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>civamayam</v>
       </c>
       <c r="C739" t="str">
         <v>Indien 1039</v>
@@ -21802,10 +21802,10 @@
         <v>U2b</v>
       </c>
       <c r="G739" t="str">
-        <v>folio 84r</v>
+        <v>folio 52v</v>
       </c>
       <c r="H739" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I739" t="str">
         <v>0</v>
@@ -21813,10 +21813,10 @@
     </row>
     <row r="740">
       <c r="A740" t="str">
-        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>civamayam</v>
       </c>
       <c r="B740" t="str">
-        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>civamayam</v>
       </c>
       <c r="C740" t="str">
         <v>Indien 1039</v>
@@ -21831,10 +21831,10 @@
         <v>U2b</v>
       </c>
       <c r="G740" t="str">
-        <v>folio 95v</v>
+        <v>folio 52v</v>
       </c>
       <c r="H740" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I740" t="str">
         <v>0</v>
@@ -21842,10 +21842,10 @@
     </row>
     <row r="741">
       <c r="A741" t="str">
-        <v>[...]</v>
+        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
       </c>
       <c r="B741" t="str">
-        <v/>
+        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
       </c>
       <c r="C741" t="str">
         <v>Indien 1039</v>
@@ -21860,21 +21860,21 @@
         <v>U2b</v>
       </c>
       <c r="G741" t="str">
-        <v>folio 103.2r</v>
+        <v>folio 52v</v>
       </c>
       <c r="H741" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I741" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="str">
-        <v>[...]</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B742" t="str">
-        <v/>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C742" t="str">
         <v>Indien 1039</v>
@@ -21889,7 +21889,7 @@
         <v>U2b</v>
       </c>
       <c r="G742" t="str">
-        <v>folio 108v</v>
+        <v>folio 70v</v>
       </c>
       <c r="H742" t="str">
         <v>left margin</v>
@@ -21900,10 +21900,10 @@
     </row>
     <row r="743">
       <c r="A743" t="str">
-        <v>[...]</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B743" t="str">
-        <v/>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C743" t="str">
         <v>Indien 1039</v>
@@ -21918,7 +21918,7 @@
         <v>U2b</v>
       </c>
       <c r="G743" t="str">
-        <v>folio 112v</v>
+        <v>folio 84r</v>
       </c>
       <c r="H743" t="str">
         <v>left margin</v>
@@ -21929,10 +21929,10 @@
     </row>
     <row r="744">
       <c r="A744" t="str">
-        <v>[...]</v>
+        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B744" t="str">
-        <v/>
+        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C744" t="str">
         <v>Indien 1039</v>
@@ -21947,7 +21947,7 @@
         <v>U2b</v>
       </c>
       <c r="G744" t="str">
-        <v>folio 118r</v>
+        <v>folio 95v</v>
       </c>
       <c r="H744" t="str">
         <v>left margin</v>
@@ -21958,10 +21958,10 @@
     </row>
     <row r="745">
       <c r="A745" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam [...]</v>
+        <v>[...]</v>
       </c>
       <c r="B745" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C745" t="str">
         <v>Indien 1039</v>
@@ -21976,7 +21976,7 @@
         <v>U2b</v>
       </c>
       <c r="G745" t="str">
-        <v>folio 124v</v>
+        <v>folio 103.2r</v>
       </c>
       <c r="H745" t="str">
         <v>left margin</v>
@@ -21987,10 +21987,10 @@
     </row>
     <row r="746">
       <c r="A746" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam [...]</v>
+        <v>[...]</v>
       </c>
       <c r="B746" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C746" t="str">
         <v>Indien 1039</v>
@@ -22005,7 +22005,7 @@
         <v>U2b</v>
       </c>
       <c r="G746" t="str">
-        <v>folio 139v</v>
+        <v>folio 108v</v>
       </c>
       <c r="H746" t="str">
         <v>left margin</v>
@@ -22016,10 +22016,10 @@
     </row>
     <row r="747">
       <c r="A747" t="str">
-        <v>cuppaṟāyar tuṇai</v>
+        <v>[...]</v>
       </c>
       <c r="B747" t="str">
-        <v>cuppaṟāyar tuṇai</v>
+        <v/>
       </c>
       <c r="C747" t="str">
         <v>Indien 1039</v>
@@ -22034,21 +22034,21 @@
         <v>U2b</v>
       </c>
       <c r="G747" t="str">
-        <v>folio 139v</v>
+        <v>folio 112v</v>
       </c>
       <c r="H747" t="str">
         <v>left margin</v>
       </c>
       <c r="I747" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="str">
-        <v>murukar tuṇai</v>
+        <v>[...]</v>
       </c>
       <c r="B748" t="str">
-        <v>murukar tuṇai</v>
+        <v/>
       </c>
       <c r="C748" t="str">
         <v>Indien 1039</v>
@@ -22063,21 +22063,21 @@
         <v>U2b</v>
       </c>
       <c r="G748" t="str">
-        <v>folio 139v</v>
+        <v>folio 118r</v>
       </c>
       <c r="H748" t="str">
         <v>left margin</v>
       </c>
       <c r="I748" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="str">
-        <v>Āḻvār em perumāṉār centredtiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam [...]</v>
       </c>
       <c r="B749" t="str">
-        <v>Āḻvār em perumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C749" t="str">
         <v>Indien 1039</v>
@@ -22092,7 +22092,7 @@
         <v>U2b</v>
       </c>
       <c r="G749" t="str">
-        <v>folio 157r</v>
+        <v>folio 124v</v>
       </c>
       <c r="H749" t="str">
         <v>left margin</v>
@@ -22103,10 +22103,10 @@
     </row>
     <row r="750">
       <c r="A750" t="str">
-        <v>śrī-rā=ma-ceya=m</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam [...]</v>
       </c>
       <c r="B750" t="str">
-        <v>śrīrāmaceyam</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C750" t="str">
         <v>Indien 1039</v>
@@ -22121,7 +22121,7 @@
         <v>U2b</v>
       </c>
       <c r="G750" t="str">
-        <v>folio 166r</v>
+        <v>folio 139v</v>
       </c>
       <c r="H750" t="str">
         <v>left margin</v>
@@ -22132,10 +22132,10 @@
     </row>
     <row r="751">
       <c r="A751" t="str">
-        <v>śrī-rā=ma-ceyam·</v>
+        <v>cuppaṟāyar tuṇai</v>
       </c>
       <c r="B751" t="str">
-        <v>śrīrāmaceyam·</v>
+        <v>cuppaṟāyar tuṇai</v>
       </c>
       <c r="C751" t="str">
         <v>Indien 1039</v>
@@ -22150,21 +22150,21 @@
         <v>U2b</v>
       </c>
       <c r="G751" t="str">
-        <v>folio 167r</v>
+        <v>folio 139v</v>
       </c>
       <c r="H751" t="str">
         <v>left margin</v>
       </c>
       <c r="I751" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="str">
-        <v>[...]</v>
+        <v>murukar tuṇai</v>
       </c>
       <c r="B752" t="str">
-        <v/>
+        <v>murukar tuṇai</v>
       </c>
       <c r="C752" t="str">
         <v>Indien 1039</v>
@@ -22179,21 +22179,21 @@
         <v>U2b</v>
       </c>
       <c r="G752" t="str">
-        <v>folio 167v</v>
+        <v>folio 139v</v>
       </c>
       <c r="H752" t="str">
         <v>left margin</v>
       </c>
       <c r="I752" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="str">
-        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvār em perumāṉār centredtiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B753" t="str">
-        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvār em perumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C753" t="str">
         <v>Indien 1039</v>
@@ -22208,7 +22208,7 @@
         <v>U2b</v>
       </c>
       <c r="G753" t="str">
-        <v>folio 174r</v>
+        <v>folio 157r</v>
       </c>
       <c r="H753" t="str">
         <v>left margin</v>
@@ -22219,10 +22219,10 @@
     </row>
     <row r="754">
       <c r="A754" t="str">
-        <v>[...]</v>
+        <v>śrī-rā=ma-ceya=m</v>
       </c>
       <c r="B754" t="str">
-        <v/>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C754" t="str">
         <v>Indien 1039</v>
@@ -22237,7 +22237,7 @@
         <v>U2b</v>
       </c>
       <c r="G754" t="str">
-        <v>folio 203v</v>
+        <v>folio 166r</v>
       </c>
       <c r="H754" t="str">
         <v>left margin</v>
@@ -22248,10 +22248,10 @@
     </row>
     <row r="755">
       <c r="A755" t="str">
-        <v>śrīrā=maceyam</v>
+        <v>śrī-rā=ma-ceyam·</v>
       </c>
       <c r="B755" t="str">
-        <v>śrīrāmaceyam</v>
+        <v>śrīrāmaceyam·</v>
       </c>
       <c r="C755" t="str">
         <v>Indien 1039</v>
@@ -22266,7 +22266,7 @@
         <v>U2b</v>
       </c>
       <c r="G755" t="str">
-        <v>folio 236v</v>
+        <v>folio 167r</v>
       </c>
       <c r="H755" t="str">
         <v>left margin</v>
@@ -22277,10 +22277,10 @@
     </row>
     <row r="756">
       <c r="A756" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>[...]</v>
       </c>
       <c r="B756" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C756" t="str">
         <v>Indien 1039</v>
@@ -22295,7 +22295,7 @@
         <v>U2b</v>
       </c>
       <c r="G756" t="str">
-        <v>folio 245v</v>
+        <v>folio 167v</v>
       </c>
       <c r="H756" t="str">
         <v>left margin</v>
@@ -22306,10 +22306,10 @@
     </row>
     <row r="757">
       <c r="A757" t="str">
-        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B757" t="str">
-        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C757" t="str">
         <v>Indien 1039</v>
@@ -22324,7 +22324,7 @@
         <v>U2b</v>
       </c>
       <c r="G757" t="str">
-        <v>folio 245v</v>
+        <v>folio 174r</v>
       </c>
       <c r="H757" t="str">
         <v>left margin</v>
@@ -22335,28 +22335,28 @@
     </row>
     <row r="758">
       <c r="A758" t="str">
-        <v>|| rāma ||</v>
+        <v>[...]</v>
       </c>
       <c r="B758" t="str">
-        <v>rāma</v>
+        <v/>
       </c>
       <c r="C758" t="str">
-        <v>Chandra Shum Shere d.247</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D758" t="str">
-        <v>Bodleian Library, University of Oxford</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E758" t="str">
-        <v>Prakīrṇaprakāśa</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F758" t="str">
-        <v/>
+        <v>U2b</v>
       </c>
       <c r="G758" t="str">
-        <v/>
+        <v>folio 203v</v>
       </c>
       <c r="H758" t="str">
-        <v>marginal</v>
+        <v>left margin</v>
       </c>
       <c r="I758" t="str">
         <v>0</v>
@@ -22364,25 +22364,25 @@
     </row>
     <row r="759">
       <c r="A759" t="str">
-        <v>hariḥ Om</v>
+        <v>śrīrā=maceyam</v>
       </c>
       <c r="B759" t="str">
-        <v>hariḥ Om</v>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C759" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D759" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E759" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F759" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G759" t="str">
-        <v>folio [1]r</v>
+        <v>folio 236v</v>
       </c>
       <c r="H759" t="str">
         <v>left margin</v>
@@ -22393,28 +22393,28 @@
     </row>
     <row r="760">
       <c r="A760" t="str">
-        <v>śrīvedavyāsāya ¿nmaḥ?namaḥ</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B760" t="str">
-        <v>śrīvedavyāsāya nmaḥnamaḥ</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C760" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D760" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E760" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F760" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G760" t="str">
-        <v>folio [1]r</v>
+        <v>folio 245v</v>
       </c>
       <c r="H760" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I760" t="str">
         <v>0</v>
@@ -22422,28 +22422,28 @@
     </row>
     <row r="761">
       <c r="A761" t="str">
-        <v>śrīmahāsarasvatyai ¿nmaḥ?namaḥ</v>
+        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B761" t="str">
-        <v>śrīmahāsarasvatyai nmaḥnamaḥ</v>
+        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C761" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D761" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E761" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F761" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G761" t="str">
-        <v>folio [1]r</v>
+        <v>folio 245v</v>
       </c>
       <c r="H761" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I761" t="str">
         <v>0</v>
@@ -22451,28 +22451,28 @@
     </row>
     <row r="762">
       <c r="A762" t="str">
-        <v>Avighnam astu</v>
+        <v>|| rāma ||</v>
       </c>
       <c r="B762" t="str">
-        <v>Avighnam astu</v>
+        <v>rāma</v>
       </c>
       <c r="C762" t="str">
-        <v>Sanscrit 290</v>
+        <v>Chandra Shum Shere d.247</v>
       </c>
       <c r="D762" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bodleian Library, University of Oxford</v>
       </c>
       <c r="E762" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Prakīrṇaprakāśa</v>
       </c>
       <c r="F762" t="str">
-        <v>U3</v>
+        <v/>
       </c>
       <c r="G762" t="str">
-        <v>folio [1]v</v>
+        <v/>
       </c>
       <c r="H762" t="str">
-        <v>main text area</v>
+        <v>marginal</v>
       </c>
       <c r="I762" t="str">
         <v>0</v>
@@ -22495,10 +22495,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F763" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G763" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H763" t="str">
         <v>left margin</v>
@@ -22509,10 +22509,10 @@
     </row>
     <row r="764">
       <c r="A764" t="str">
-        <v>Avighnam astu</v>
+        <v>śrīvedavyāsāya ¿nmaḥ?namaḥ</v>
       </c>
       <c r="B764" t="str">
-        <v>Avighnam astu</v>
+        <v>śrīvedavyāsāya nmaḥnamaḥ</v>
       </c>
       <c r="C764" t="str">
         <v>Sanscrit 290</v>
@@ -22524,13 +22524,13 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F764" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G764" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H764" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I764" t="str">
         <v>0</v>
@@ -22538,10 +22538,10 @@
     </row>
     <row r="765">
       <c r="A765" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīmahāsarasvatyai ¿nmaḥ?namaḥ</v>
       </c>
       <c r="B765" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīmahāsarasvatyai nmaḥnamaḥ</v>
       </c>
       <c r="C765" t="str">
         <v>Sanscrit 290</v>
@@ -22553,10 +22553,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F765" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G765" t="str">
-        <v>folio 342r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H765" t="str">
         <v>main text area</v>
@@ -22567,10 +22567,10 @@
     </row>
     <row r="766">
       <c r="A766" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B766" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C766" t="str">
         <v>Sanscrit 290</v>
@@ -22582,10 +22582,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F766" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G766" t="str">
-        <v>folio 342r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H766" t="str">
         <v>main text area</v>
@@ -22596,10 +22596,10 @@
     </row>
     <row r="767">
       <c r="A767" t="str">
-        <v>śrīgurubhyo namaḥ</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B767" t="str">
-        <v>śrīgurubhyo namaḥ</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C767" t="str">
         <v>Sanscrit 290</v>
@@ -22614,10 +22614,10 @@
         <v>U4</v>
       </c>
       <c r="G767" t="str">
-        <v>folio 342r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H767" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I767" t="str">
         <v>0</v>
@@ -22625,10 +22625,10 @@
     </row>
     <row r="768">
       <c r="A768" t="str">
-        <v>śrīvedavyāsāya namaḥ</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B768" t="str">
-        <v>śrīvedavyāsāya namaḥ</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C768" t="str">
         <v>Sanscrit 290</v>
@@ -22643,10 +22643,10 @@
         <v>U4</v>
       </c>
       <c r="G768" t="str">
-        <v>folio 342r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H768" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I768" t="str">
         <v>0</v>
@@ -22654,10 +22654,10 @@
     </row>
     <row r="769">
       <c r="A769" t="str">
-        <v>Avighnam astu</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B769" t="str">
-        <v>Avighnam astu</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C769" t="str">
         <v>Sanscrit 290</v>
@@ -22672,7 +22672,7 @@
         <v>U4</v>
       </c>
       <c r="G769" t="str">
-        <v>folio 342v</v>
+        <v>folio 342r</v>
       </c>
       <c r="H769" t="str">
         <v>main text area</v>
@@ -22683,10 +22683,10 @@
     </row>
     <row r="770">
       <c r="A770" t="str">
-        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="B770" t="str">
-        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="C770" t="str">
         <v>Sanscrit 290</v>
@@ -22701,7 +22701,7 @@
         <v>U4</v>
       </c>
       <c r="G770" t="str">
-        <v>folio 342v</v>
+        <v>folio 342r</v>
       </c>
       <c r="H770" t="str">
         <v>main text area</v>
@@ -22712,10 +22712,10 @@
     </row>
     <row r="771">
       <c r="A771" t="str">
-        <v>Om·</v>
+        <v>śrīgurubhyo namaḥ</v>
       </c>
       <c r="B771" t="str">
-        <v>Om·</v>
+        <v>śrīgurubhyo namaḥ</v>
       </c>
       <c r="C771" t="str">
         <v>Sanscrit 290</v>
@@ -22730,7 +22730,7 @@
         <v>U4</v>
       </c>
       <c r="G771" t="str">
-        <v>folio 342v</v>
+        <v>folio 342r</v>
       </c>
       <c r="H771" t="str">
         <v>main text area</v>
@@ -22741,13 +22741,13 @@
     </row>
     <row r="772">
       <c r="A772" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīvedavyāsāya namaḥ</v>
       </c>
       <c r="B772" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīvedavyāsāya namaḥ</v>
       </c>
       <c r="C772" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D772" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -22756,13 +22756,13 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F772" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G772" t="str">
-        <v>folio [1]r</v>
+        <v>folio 342r</v>
       </c>
       <c r="H772" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I772" t="str">
         <v>0</v>
@@ -22770,13 +22770,13 @@
     </row>
     <row r="773">
       <c r="A773" t="str">
-        <v>hariḥ Om·</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B773" t="str">
-        <v>hariḥ Om·</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C773" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D773" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -22785,10 +22785,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F773" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G773" t="str">
-        <v>folio 240v</v>
+        <v>folio 342v</v>
       </c>
       <c r="H773" t="str">
         <v>main text area</v>
@@ -22799,13 +22799,13 @@
     </row>
     <row r="774">
       <c r="A774" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
       </c>
       <c r="B774" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
       </c>
       <c r="C774" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D774" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -22814,10 +22814,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F774" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G774" t="str">
-        <v>folio 240v</v>
+        <v>folio 342v</v>
       </c>
       <c r="H774" t="str">
         <v>main text area</v>
@@ -22828,13 +22828,13 @@
     </row>
     <row r="775">
       <c r="A775" t="str">
-        <v>śubham astu</v>
+        <v>Om·</v>
       </c>
       <c r="B775" t="str">
-        <v>śubham astu</v>
+        <v>Om·</v>
       </c>
       <c r="C775" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D775" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -22843,10 +22843,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F775" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G775" t="str">
-        <v>folio 240v</v>
+        <v>folio 342v</v>
       </c>
       <c r="H775" t="str">
         <v>main text area</v>
@@ -22857,28 +22857,28 @@
     </row>
     <row r="776">
       <c r="A776" t="str">
-        <v>śrīḥ —</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B776" t="str">
-        <v>śrīḥ —</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C776" t="str">
-        <v>Sanscrit 612.1</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D776" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E776" t="str">
-        <v>Amarakośa with anonymous commentaries</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F776" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G776" t="str">
-        <v>initial folio, recto</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H776" t="str">
-        <v>beginning, marginal, left</v>
+        <v>left margin</v>
       </c>
       <c r="I776" t="str">
         <v>0</v>
@@ -22886,28 +22886,28 @@
     </row>
     <row r="777">
       <c r="A777" t="str">
-        <v>śrīḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B777" t="str">
-        <v>śrīḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C777" t="str">
-        <v>Sanscrit 612.1</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D777" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E777" t="str">
-        <v>Amarakośa with anonymous commentaries</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F777" t="str">
         <v>U2</v>
       </c>
       <c r="G777" t="str">
-        <v>folio 1v</v>
+        <v>folio 240v</v>
       </c>
       <c r="H777" t="str">
-        <v>beginning, marginal, right</v>
+        <v>main text area</v>
       </c>
       <c r="I777" t="str">
         <v>0</v>
@@ -22915,28 +22915,28 @@
     </row>
     <row r="778">
       <c r="A778" t="str">
-        <v>śrī</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="B778" t="str">
-        <v>śrī</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="C778" t="str">
-        <v>Sanscrit 616</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D778" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E778" t="str">
-        <v>Amarakośaviveka</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F778" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G778" t="str">
-        <v>1r</v>
+        <v>folio 240v</v>
       </c>
       <c r="H778" t="str">
-        <v>marginal</v>
+        <v>main text area</v>
       </c>
       <c r="I778" t="str">
         <v>0</v>
@@ -22944,28 +22944,28 @@
     </row>
     <row r="779">
       <c r="A779" t="str">
-        <v>śrīrāmaḥ</v>
+        <v>śubham astu</v>
       </c>
       <c r="B779" t="str">
-        <v>śrīrāmaḥ</v>
+        <v>śubham astu</v>
       </c>
       <c r="C779" t="str">
-        <v>Sanscrit 619</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D779" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E779" t="str">
-        <v>Amarakośakaumudī</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F779" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G779" t="str">
-        <v>folio 1, recto</v>
+        <v>folio 240v</v>
       </c>
       <c r="H779" t="str">
-        <v>beginning</v>
+        <v>main text area</v>
       </c>
       <c r="I779" t="str">
         <v>0</v>
@@ -22973,28 +22973,28 @@
     </row>
     <row r="780">
       <c r="A780" t="str">
-        <v>śrī</v>
+        <v>śrīḥ —</v>
       </c>
       <c r="B780" t="str">
-        <v>śrī</v>
+        <v>śrīḥ —</v>
       </c>
       <c r="C780" t="str">
-        <v>Sanscrit 1129</v>
+        <v>Sanscrit 612.1</v>
       </c>
       <c r="D780" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E780" t="str">
-        <v>Indic Alphabets</v>
+        <v>Amarakośa with anonymous commentaries</v>
       </c>
       <c r="F780" t="str">
-        <v>U1a</v>
+        <v>U1</v>
       </c>
       <c r="G780" t="str">
-        <v>folio 1r</v>
+        <v>initial folio, recto</v>
       </c>
       <c r="H780" t="str">
-        <v/>
+        <v>beginning, marginal, left</v>
       </c>
       <c r="I780" t="str">
         <v>0</v>
@@ -23002,28 +23002,28 @@
     </row>
     <row r="781">
       <c r="A781" t="str">
-        <v>śrī</v>
+        <v>śrīḥ</v>
       </c>
       <c r="B781" t="str">
-        <v>śrī</v>
+        <v>śrīḥ</v>
       </c>
       <c r="C781" t="str">
-        <v>Sanscrit 1146</v>
+        <v>Sanscrit 612.1</v>
       </c>
       <c r="D781" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E781" t="str">
-        <v>Brahmasūtra</v>
+        <v>Amarakośa with anonymous commentaries</v>
       </c>
       <c r="F781" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G781" t="str">
-        <v>1r</v>
+        <v>folio 1v</v>
       </c>
       <c r="H781" t="str">
-        <v>marginal</v>
+        <v>beginning, marginal, right</v>
       </c>
       <c r="I781" t="str">
         <v>0</v>
@@ -23031,25 +23031,25 @@
     </row>
     <row r="782">
       <c r="A782" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrī</v>
       </c>
       <c r="B782" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrī</v>
       </c>
       <c r="C782" t="str">
-        <v>Sanscrit 1426</v>
+        <v>Sanscrit 616</v>
       </c>
       <c r="D782" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E782" t="str">
-        <v>Three Vaiṣṇava hymns</v>
+        <v>Amarakośaviveka</v>
       </c>
       <c r="F782" t="str">
         <v/>
       </c>
       <c r="G782" t="str">
-        <v>2v</v>
+        <v>1r</v>
       </c>
       <c r="H782" t="str">
         <v>marginal</v>
@@ -23060,28 +23060,28 @@
     </row>
     <row r="783">
       <c r="A783" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ</v>
       </c>
       <c r="B783" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ</v>
       </c>
       <c r="C783" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 619</v>
       </c>
       <c r="D783" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E783" t="str">
-        <v>Bengali fragments</v>
+        <v>Amarakośakaumudī</v>
       </c>
       <c r="F783" t="str">
         <v/>
       </c>
       <c r="G783" t="str">
-        <v>folio 1r</v>
+        <v>folio 1, recto</v>
       </c>
       <c r="H783" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>beginning</v>
       </c>
       <c r="I783" t="str">
         <v>0</v>
@@ -23089,28 +23089,28 @@
     </row>
     <row r="784">
       <c r="A784" t="str">
-        <v>śrīhariḥ |</v>
+        <v>śrī</v>
       </c>
       <c r="B784" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="C784" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 1129</v>
       </c>
       <c r="D784" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E784" t="str">
-        <v>Bengali fragments</v>
+        <v>Indic Alphabets</v>
       </c>
       <c r="F784" t="str">
-        <v>U2</v>
+        <v>U1a</v>
       </c>
       <c r="G784" t="str">
-        <v>folio 2r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H784" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v/>
       </c>
       <c r="I784" t="str">
         <v>0</v>
@@ -23118,28 +23118,28 @@
     </row>
     <row r="785">
       <c r="A785" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="B785" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="C785" t="str">
-        <v>Sanscrit 1442.7a</v>
+        <v>Sanscrit 1146</v>
       </c>
       <c r="D785" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E785" t="str">
-        <v>Saṃkrāntadhanaviṣaya</v>
+        <v>Brahmasūtra</v>
       </c>
       <c r="F785" t="str">
         <v/>
       </c>
       <c r="G785" t="str">
-        <v>folio 1r</v>
+        <v>1r</v>
       </c>
       <c r="H785" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>marginal</v>
       </c>
       <c r="I785" t="str">
         <v>0</v>
@@ -23147,36 +23147,152 @@
     </row>
     <row r="786">
       <c r="A786" t="str">
+        <v>śrīrāmaḥ śaraṇaṃ</v>
+      </c>
+      <c r="B786" t="str">
+        <v>śrīrāmaḥ śaraṇaṃ</v>
+      </c>
+      <c r="C786" t="str">
+        <v>Sanscrit 1426</v>
+      </c>
+      <c r="D786" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+      </c>
+      <c r="E786" t="str">
+        <v>Three Vaiṣṇava hymns</v>
+      </c>
+      <c r="F786" t="str">
+        <v/>
+      </c>
+      <c r="G786" t="str">
+        <v>2v</v>
+      </c>
+      <c r="H786" t="str">
+        <v>marginal</v>
+      </c>
+      <c r="I786" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B787" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C787" t="str">
+        <v>Sanscrit 1442.7</v>
+      </c>
+      <c r="D787" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E787" t="str">
+        <v>Bengali fragments</v>
+      </c>
+      <c r="F787" t="str">
+        <v/>
+      </c>
+      <c r="G787" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H787" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I787" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="str">
         <v>śrīhariḥ |</v>
       </c>
-      <c r="B786" t="str">
+      <c r="B788" t="str">
         <v>śrīhariḥ</v>
       </c>
-      <c r="C786" t="str">
+      <c r="C788" t="str">
+        <v>Sanscrit 1442.7</v>
+      </c>
+      <c r="D788" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E788" t="str">
+        <v>Bengali fragments</v>
+      </c>
+      <c r="F788" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G788" t="str">
+        <v>folio 2r</v>
+      </c>
+      <c r="H788" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I788" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B789" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C789" t="str">
+        <v>Sanscrit 1442.7a</v>
+      </c>
+      <c r="D789" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E789" t="str">
+        <v>Saṃkrāntadhanaviṣaya</v>
+      </c>
+      <c r="F789" t="str">
+        <v/>
+      </c>
+      <c r="G789" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H789" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I789" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="str">
+        <v>śrīhariḥ |</v>
+      </c>
+      <c r="B790" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C790" t="str">
         <v>Sanscrit 1442.7b</v>
       </c>
-      <c r="D786" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
-      </c>
-      <c r="E786" t="str">
+      <c r="D790" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E790" t="str">
         <v>Mahābhārata – Mokṣadharmaparvan</v>
       </c>
-      <c r="F786" t="str">
+      <c r="F790" t="str">
         <v>U2</v>
       </c>
-      <c r="G786" t="str">
+      <c r="G790" t="str">
         <v>folio 2r</v>
       </c>
-      <c r="H786" t="str">
+      <c r="H790" t="str">
         <v>beginning, marginal, top, left</v>
       </c>
-      <c r="I786" t="str">
+      <c r="I790" t="str">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I786"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I790"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I791"/>
+  <dimension ref="A1:I796"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20439,7 +20439,7 @@
         <v>U3</v>
       </c>
       <c r="G692" t="str">
-        <v>folio 248v</v>
+        <v>folio 248r</v>
       </c>
       <c r="H692" t="str">
         <v>left margin 2</v>
@@ -20508,28 +20508,28 @@
     </row>
     <row r="695">
       <c r="A695" t="str">
-        <v>śubham astu</v>
+        <v>namostu</v>
       </c>
       <c r="B695" t="str">
-        <v>śubham astu</v>
+        <v>namostu</v>
       </c>
       <c r="C695" t="str">
-        <v>Indien 962</v>
+        <v>Indien 957</v>
       </c>
       <c r="D695" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E695" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Cīvakacintāmaṇi, part 2 of 2</v>
       </c>
       <c r="F695" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G695" t="str">
-        <v>folio [1]r</v>
+        <v>folio 333r</v>
       </c>
       <c r="H695" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I695" t="str">
         <v>0</v>
@@ -20537,28 +20537,28 @@
     </row>
     <row r="696">
       <c r="A696" t="str">
-        <v>civamaya=m</v>
+        <v>namostt=tu</v>
       </c>
       <c r="B696" t="str">
-        <v>civamayam</v>
+        <v>namostttu</v>
       </c>
       <c r="C696" t="str">
-        <v>Indien 962</v>
+        <v>Indien 957</v>
       </c>
       <c r="D696" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E696" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Cīvakacintāmaṇi, part 2 of 2</v>
       </c>
       <c r="F696" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G696" t="str">
-        <v>folio [1]r</v>
+        <v>folio 393v</v>
       </c>
       <c r="H696" t="str">
-        <v>main text area</v>
+        <v>right margin</v>
       </c>
       <c r="I696" t="str">
         <v>0</v>
@@ -20566,57 +20566,57 @@
     </row>
     <row r="697">
       <c r="A697" t="str">
-        <v>ve¿tti?-vēl tuṇai</v>
+        <v>tiruttakkatēvar caraṇam</v>
       </c>
       <c r="B697" t="str">
-        <v>vettivēl tuṇai</v>
+        <v>tiruttakkatēvar caraṇam</v>
       </c>
       <c r="C697" t="str">
-        <v>Indien 962</v>
+        <v>Indien 957</v>
       </c>
       <c r="D697" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E697" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Cīvakacintāmaṇi, part 2 of 2</v>
       </c>
       <c r="F697" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G697" t="str">
-        <v>folio [1]r</v>
+        <v>folio 393v</v>
       </c>
       <c r="H697" t="str">
-        <v>main text area</v>
+        <v>right margin</v>
       </c>
       <c r="I697" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="str">
-        <v>naṉṟāka</v>
+        <v>teyvacākāyam</v>
       </c>
       <c r="B698" t="str">
-        <v>naṉṟāka</v>
+        <v>teyvacākāyam</v>
       </c>
       <c r="C698" t="str">
-        <v>Indien 962</v>
+        <v>Indien 957</v>
       </c>
       <c r="D698" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E698" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Cīvakacintāmaṇi, part 2 of 2</v>
       </c>
       <c r="F698" t="str">
-        <v>U2b</v>
+        <v>U2</v>
       </c>
       <c r="G698" t="str">
-        <v>folio 1r</v>
+        <v>folio 434v</v>
       </c>
       <c r="H698" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I698" t="str">
         <v>0</v>
@@ -20624,39 +20624,39 @@
     </row>
     <row r="699">
       <c r="A699" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>murukar tuṇai y-uṇṭākavu=m</v>
       </c>
       <c r="B699" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>murukar tuṇai yuṇṭākavum</v>
       </c>
       <c r="C699" t="str">
-        <v>Indien 962</v>
+        <v>Indien 957</v>
       </c>
       <c r="D699" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E699" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Cīvakacintāmaṇi, part 2 of 2</v>
       </c>
       <c r="F699" t="str">
-        <v>U2b</v>
+        <v>U2</v>
       </c>
       <c r="G699" t="str">
-        <v>folio 38v</v>
+        <v>folio 556v</v>
       </c>
       <c r="H699" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I699" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="str">
-        <v>ve¿tti?-vēl uṟṟa tuṇai</v>
+        <v>śubham astu</v>
       </c>
       <c r="B700" t="str">
-        <v>vettivēl uṟṟa tuṇai</v>
+        <v>śubham astu</v>
       </c>
       <c r="C700" t="str">
         <v>Indien 962</v>
@@ -20668,21 +20668,21 @@
         <v>Veṅkaikkōvai</v>
       </c>
       <c r="F700" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G700" t="str">
-        <v>folio 38v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H700" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I700" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="str">
-        <v>civamayam</v>
+        <v>civamaya=m</v>
       </c>
       <c r="B701" t="str">
         <v>civamayam</v>
@@ -20697,10 +20697,10 @@
         <v>Veṅkaikkōvai</v>
       </c>
       <c r="F701" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G701" t="str">
-        <v>folio 38v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H701" t="str">
         <v>main text area</v>
@@ -20711,54 +20711,54 @@
     </row>
     <row r="702">
       <c r="A702" t="str">
-        <v>viṉāyakāya namam</v>
+        <v>ve¿tti?-vēl tuṇai</v>
       </c>
       <c r="B702" t="str">
-        <v>viṉāyakāya namam</v>
+        <v>vettivēl tuṇai</v>
       </c>
       <c r="C702" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D702" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E702" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F702" t="str">
-        <v>U2</v>
+        <v>U2a</v>
       </c>
       <c r="G702" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H702" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I702" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B703" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C703" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D703" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E703" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F703" t="str">
-        <v>U2</v>
+        <v>U2b</v>
       </c>
       <c r="G703" t="str">
-        <v>folio [1]r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H703" t="str">
         <v>left margin</v>
@@ -20769,25 +20769,25 @@
     </row>
     <row r="704">
       <c r="A704" t="str">
-        <v>vāṇi namos•tu {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B704" t="str">
-        <v>vāṇi namostu {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C704" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D704" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E704" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F704" t="str">
-        <v>U2</v>
+        <v>U2b</v>
       </c>
       <c r="G704" t="str">
-        <v>folio [1]r</v>
+        <v>folio 38v</v>
       </c>
       <c r="H704" t="str">
         <v>main text area</v>
@@ -20798,25 +20798,25 @@
     </row>
     <row r="705">
       <c r="A705" t="str">
-        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
+        <v>ve¿tti?-vēl uṟṟa tuṇai</v>
       </c>
       <c r="B705" t="str">
-        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
+        <v>vettivēl uṟṟa tuṇai</v>
       </c>
       <c r="C705" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D705" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E705" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F705" t="str">
-        <v>U2</v>
+        <v>U2b</v>
       </c>
       <c r="G705" t="str">
-        <v>folio [1]r</v>
+        <v>folio 38v</v>
       </c>
       <c r="H705" t="str">
         <v>main text area</v>
@@ -20827,28 +20827,28 @@
     </row>
     <row r="706">
       <c r="A706" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>civamayam</v>
       </c>
       <c r="B706" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>civamayam</v>
       </c>
       <c r="C706" t="str">
-        <v>Indien 983</v>
+        <v>Indien 962</v>
       </c>
       <c r="D706" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E706" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F706" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G706" t="str">
-        <v>folio 1r</v>
+        <v>folio 38v</v>
       </c>
       <c r="H706" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I706" t="str">
         <v>0</v>
@@ -20856,10 +20856,10 @@
     </row>
     <row r="707">
       <c r="A707" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>viṉāyakāya namam</v>
       </c>
       <c r="B707" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>viṉāyakāya namam</v>
       </c>
       <c r="C707" t="str">
         <v>Indien 983</v>
@@ -20871,13 +20871,13 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F707" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G707" t="str">
-        <v>folio 8v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H707" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I707" t="str">
         <v>0</v>
@@ -20900,13 +20900,13 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F708" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G708" t="str">
-        <v>folio 26r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H708" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I708" t="str">
         <v>0</v>
@@ -20914,10 +20914,10 @@
     </row>
     <row r="709">
       <c r="A709" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>vāṇi namos•tu {pcl}</v>
       </c>
       <c r="B709" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>vāṇi namostu {pcl}</v>
       </c>
       <c r="C709" t="str">
         <v>Indien 983</v>
@@ -20929,13 +20929,13 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F709" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G709" t="str">
-        <v>folio 51v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H709" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I709" t="str">
         <v>0</v>
@@ -20943,10 +20943,10 @@
     </row>
     <row r="710">
       <c r="A710" t="str">
-        <v>civamaya=m</v>
+        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
       </c>
       <c r="B710" t="str">
-        <v>civamayam</v>
+        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
       </c>
       <c r="C710" t="str">
         <v>Indien 983</v>
@@ -20958,24 +20958,24 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F710" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G710" t="str">
-        <v>folio 158v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H710" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I710" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="str">
-        <v>tirucci¿tṟa?ṟṟampalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B711" t="str">
-        <v>tiruccitṟaṟṟampalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C711" t="str">
         <v>Indien 983</v>
@@ -20990,10 +20990,10 @@
         <v>U3</v>
       </c>
       <c r="G711" t="str">
-        <v>folio 158v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H711" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I711" t="str">
         <v>0</v>
@@ -21001,28 +21001,28 @@
     </row>
     <row r="712">
       <c r="A712" t="str">
-        <v>Al=lā Utavi ceyya-vēṇum</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B712" t="str">
-        <v>Allā Utavi ceyyavēṇum</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C712" t="str">
-        <v>Indien 987</v>
+        <v>Indien 983</v>
       </c>
       <c r="D712" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E712" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F712" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G712" t="str">
-        <v>folio [1]r</v>
+        <v>folio 8v</v>
       </c>
       <c r="H712" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I712" t="str">
         <v>0</v>
@@ -21030,57 +21030,57 @@
     </row>
     <row r="713">
       <c r="A713" t="str">
-        <v>caṟaṣpati tuṇai {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B713" t="str">
-        <v>caṟaṣpati tuṇai {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C713" t="str">
-        <v>Indien 987</v>
+        <v>Indien 983</v>
       </c>
       <c r="D713" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E713" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F713" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G713" t="str">
-        <v>folio [1]r</v>
+        <v>folio 26r</v>
       </c>
       <c r="H713" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I713" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="str">
-        <v>vicumi l=lāku ṟakimāṉi ṟakīm</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B714" t="str">
-        <v>vicumi llāku ṟakimāṉi ṟakīm</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C714" t="str">
-        <v>Indien 987</v>
+        <v>Indien 983</v>
       </c>
       <c r="D714" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E714" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F714" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G714" t="str">
-        <v>folio [1]r</v>
+        <v>folio 51v</v>
       </c>
       <c r="H714" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I714" t="str">
         <v>0</v>
@@ -21088,57 +21088,57 @@
     </row>
     <row r="715">
       <c r="A715" t="str">
-        <v>{pcs} kaṭavu⟨ḷ ⟩ ¿ku?tuṇai</v>
+        <v>civamaya=m</v>
       </c>
       <c r="B715" t="str">
-        <v>{pcs} kaṭavuḷ kutuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="C715" t="str">
-        <v>Indien 989</v>
+        <v>Indien 983</v>
       </c>
       <c r="D715" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E715" t="str">
-        <v>Tamil Vocabulary</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F715" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G715" t="str">
-        <v>folio 1</v>
+        <v>folio 158v</v>
       </c>
       <c r="H715" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I715" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="str">
-        <v>hariḥ | Om</v>
+        <v>tirucci¿tṟa?ṟṟampalam</v>
       </c>
       <c r="B716" t="str">
-        <v>hariḥ Om</v>
+        <v>tiruccitṟaṟṟampalam</v>
       </c>
       <c r="C716" t="str">
-        <v>Indien 991</v>
+        <v>Indien 983</v>
       </c>
       <c r="D716" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E716" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F716" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G716" t="str">
-        <v>folio [1]r</v>
+        <v>folio 158v</v>
       </c>
       <c r="H716" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I716" t="str">
         <v>0</v>
@@ -21146,22 +21146,22 @@
     </row>
     <row r="717">
       <c r="A717" t="str">
-        <v>{pcs}kuruvē tuṇai</v>
+        <v>Al=lā Utavi ceyya-vēṇum</v>
       </c>
       <c r="B717" t="str">
-        <v>{pcs}kuruvē tuṇai</v>
+        <v>Allā Utavi ceyyavēṇum</v>
       </c>
       <c r="C717" t="str">
-        <v>Indien 991</v>
+        <v>Indien 987</v>
       </c>
       <c r="D717" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E717" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F717" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G717" t="str">
         <v>folio [1]r</v>
@@ -21170,30 +21170,30 @@
         <v>left margin</v>
       </c>
       <c r="I717" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>caṟaṣpati tuṇai {pcl}</v>
       </c>
       <c r="B718" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>caṟaṣpati tuṇai {pcl}</v>
       </c>
       <c r="C718" t="str">
-        <v>Indien 991</v>
+        <v>Indien 987</v>
       </c>
       <c r="D718" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E718" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F718" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G718" t="str">
-        <v>folio 4r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H718" t="str">
         <v>main text area</v>
@@ -21204,57 +21204,57 @@
     </row>
     <row r="719">
       <c r="A719" t="str">
-        <v>caravaṇapa-kuruvē {tuṇai}</v>
+        <v>vicumi l=lāku ṟakimāṉi ṟakīm</v>
       </c>
       <c r="B719" t="str">
-        <v>caravaṇapakuruvē {tuṇai}</v>
+        <v>vicumi llāku ṟakimāṉi ṟakīm</v>
       </c>
       <c r="C719" t="str">
-        <v>Indien 991</v>
+        <v>Indien 987</v>
       </c>
       <c r="D719" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E719" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F719" t="str">
         <v>U2</v>
       </c>
       <c r="G719" t="str">
-        <v>folio 4r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H719" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I719" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="str">
-        <v>civacitamparam [...] tuṇai</v>
+        <v>{pcs} kaṭavu⟨ḷ ⟩ ¿ku?tuṇai</v>
       </c>
       <c r="B720" t="str">
-        <v>civacitamparam tuṇai</v>
+        <v>{pcs} kaṭavuḷ kutuṇai</v>
       </c>
       <c r="C720" t="str">
-        <v>Indien 991</v>
+        <v>Indien 989</v>
       </c>
       <c r="D720" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E720" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Tamil Vocabulary</v>
       </c>
       <c r="F720" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G720" t="str">
-        <v>folio 4r</v>
+        <v>folio 1</v>
       </c>
       <c r="H720" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I720" t="str">
         <v>1</v>
@@ -21262,10 +21262,10 @@
     </row>
     <row r="721">
       <c r="A721" t="str">
-        <v>paṭṭīcurar cuvāmi tuṇai</v>
+        <v>hariḥ | Om</v>
       </c>
       <c r="B721" t="str">
-        <v>paṭṭīcurar cuvāmi tuṇai</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C721" t="str">
         <v>Indien 991</v>
@@ -21280,21 +21280,21 @@
         <v>U2</v>
       </c>
       <c r="G721" t="str">
-        <v>folio 75r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H721" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I721" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="str">
-        <v>civamayam</v>
+        <v>{pcs}kuruvē tuṇai</v>
       </c>
       <c r="B722" t="str">
-        <v>civamayam</v>
+        <v>{pcs}kuruvē tuṇai</v>
       </c>
       <c r="C722" t="str">
         <v>Indien 991</v>
@@ -21309,21 +21309,21 @@
         <v>U2</v>
       </c>
       <c r="G722" t="str">
-        <v>folio 75r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H722" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I722" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="str">
-        <v>periyaṉāyakiyammaṉ muṟṟum</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B723" t="str">
-        <v>periyaṉāyakiyammaṉ muṟṟum</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C723" t="str">
         <v>Indien 991</v>
@@ -21338,21 +21338,21 @@
         <v>U2</v>
       </c>
       <c r="G723" t="str">
-        <v>folio 77v</v>
+        <v>folio 4r</v>
       </c>
       <c r="H723" t="str">
         <v>main text area</v>
       </c>
       <c r="I723" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="str">
-        <v>civacuppaṟāyar {tuṇai}</v>
+        <v>caravaṇapa-kuruvē {tuṇai}</v>
       </c>
       <c r="B724" t="str">
-        <v>civacuppaṟāyar {tuṇai}</v>
+        <v>caravaṇapakuruvē {tuṇai}</v>
       </c>
       <c r="C724" t="str">
         <v>Indien 991</v>
@@ -21367,7 +21367,7 @@
         <v>U2</v>
       </c>
       <c r="G724" t="str">
-        <v>folio 77v</v>
+        <v>folio 4r</v>
       </c>
       <c r="H724" t="str">
         <v>main text area</v>
@@ -21378,28 +21378,28 @@
     </row>
     <row r="725">
       <c r="A725" t="str">
-        <v>kaṭavuḷ tuṇai</v>
+        <v>civacitamparam [...] tuṇai</v>
       </c>
       <c r="B725" t="str">
-        <v>kaṭavuḷ tuṇai</v>
+        <v>civacitamparam tuṇai</v>
       </c>
       <c r="C725" t="str">
-        <v>Indien 992</v>
+        <v>Indien 991</v>
       </c>
       <c r="D725" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E725" t="str">
-        <v>Tēraiyar Vayittiyam 500</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F725" t="str">
         <v>U2</v>
       </c>
       <c r="G725" t="str">
-        <v>folio [1]r</v>
+        <v>folio 4r</v>
       </c>
       <c r="H725" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I725" t="str">
         <v>1</v>
@@ -21407,86 +21407,86 @@
     </row>
     <row r="726">
       <c r="A726" t="str">
-        <v>kuru muṉṉirkkavum</v>
+        <v>paṭṭīcurar cuvāmi tuṇai</v>
       </c>
       <c r="B726" t="str">
-        <v>kuru muṉṉirkkavum</v>
+        <v>paṭṭīcurar cuvāmi tuṇai</v>
       </c>
       <c r="C726" t="str">
-        <v>Indien 992</v>
+        <v>Indien 991</v>
       </c>
       <c r="D726" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E726" t="str">
-        <v>Tēraiyar Vayittiyam 500</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F726" t="str">
         <v>U2</v>
       </c>
       <c r="G726" t="str">
-        <v>folio [1]r</v>
+        <v>folio 75r</v>
       </c>
       <c r="H726" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I726" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="str">
-        <v>yēkaparāparavaṣttuvē tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="B727" t="str">
-        <v>yēkaparāparavaṣttuvē tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="C727" t="str">
-        <v>Indien 993</v>
+        <v>Indien 991</v>
       </c>
       <c r="D727" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E727" t="str">
-        <v>Cippāyika Vāttu Varicai Paḻakkuṟa Poṣttakam</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F727" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G727" t="str">
-        <v>folio [1]r</v>
+        <v>folio 75r</v>
       </c>
       <c r="H727" t="str">
-        <v>column 3</v>
+        <v>main text area</v>
       </c>
       <c r="I727" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="str">
-        <v>śrīmatu Aṉantacuvāmi [...] kkavu=m</v>
+        <v>periyaṉāyakiyammaṉ muṟṟum</v>
       </c>
       <c r="B728" t="str">
-        <v>śrīmatu Aṉantacuvāmi kkavum</v>
+        <v>periyaṉāyakiyammaṉ muṟṟum</v>
       </c>
       <c r="C728" t="str">
-        <v>Indien 1034a</v>
+        <v>Indien 991</v>
       </c>
       <c r="D728" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E728" t="str">
-        <v>TBC</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F728" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G728" t="str">
-        <v>folio [1]v</v>
+        <v>folio 77v</v>
       </c>
       <c r="H728" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I728" t="str">
         <v>0</v>
@@ -21494,129 +21494,129 @@
     </row>
     <row r="729">
       <c r="A729" t="str">
-        <v>kuru [...] kkavu=m</v>
+        <v>civacuppaṟāyar {tuṇai}</v>
       </c>
       <c r="B729" t="str">
-        <v>kuru kkavum</v>
+        <v>civacuppaṟāyar {tuṇai}</v>
       </c>
       <c r="C729" t="str">
-        <v>Indien 1034a</v>
+        <v>Indien 991</v>
       </c>
       <c r="D729" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E729" t="str">
-        <v>TBC</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F729" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G729" t="str">
-        <v>folio [1]v</v>
+        <v>folio 77v</v>
       </c>
       <c r="H729" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I729" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="str">
-        <v>Āṉantacuvāmi [...]</v>
+        <v>kaṭavuḷ tuṇai</v>
       </c>
       <c r="B730" t="str">
-        <v>Āṉantacuvāmi</v>
+        <v>kaṭavuḷ tuṇai</v>
       </c>
       <c r="C730" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 992</v>
       </c>
       <c r="D730" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E730" t="str">
-        <v>TBC</v>
+        <v>Tēraiyar Vayittiyam 500</v>
       </c>
       <c r="F730" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G730" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H730" t="str">
-        <v>column 1</v>
+        <v>left margin</v>
       </c>
       <c r="I730" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="str">
-        <v>Āṟumuka tuṇai [...]</v>
+        <v>kuru muṉṉirkkavum</v>
       </c>
       <c r="B731" t="str">
-        <v>Āṟumuka tuṇai</v>
+        <v>kuru muṉṉirkkavum</v>
       </c>
       <c r="C731" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 992</v>
       </c>
       <c r="D731" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E731" t="str">
-        <v>TBC</v>
+        <v>Tēraiyar Vayittiyam 500</v>
       </c>
       <c r="F731" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G731" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H731" t="str">
-        <v>column 1</v>
+        <v>left margin</v>
       </c>
       <c r="I731" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="str">
-        <v>vellum kaiyam [...]</v>
+        <v>yēkaparāparavaṣttuvē tuṇai</v>
       </c>
       <c r="B732" t="str">
-        <v>vellum kaiyam</v>
+        <v>yēkaparāparavaṣttuvē tuṇai</v>
       </c>
       <c r="C732" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 993</v>
       </c>
       <c r="D732" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E732" t="str">
-        <v>TBC</v>
+        <v>Cippāyika Vāttu Varicai Paḻakkuṟa Poṣttakam</v>
       </c>
       <c r="F732" t="str">
         <v>U1</v>
       </c>
       <c r="G732" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H732" t="str">
-        <v>column 1</v>
+        <v>column 3</v>
       </c>
       <c r="I732" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="str">
-        <v>makā-kaṇapati tuṇai</v>
+        <v>śrīmatu Aṉantacuvāmi [...] kkavu=m</v>
       </c>
       <c r="B733" t="str">
-        <v>makākaṇapati tuṇai</v>
+        <v>śrīmatu Aṉantacuvāmi kkavum</v>
       </c>
       <c r="C733" t="str">
-        <v>Indien 1034d</v>
+        <v>Indien 1034a</v>
       </c>
       <c r="D733" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -21625,27 +21625,27 @@
         <v>TBC</v>
       </c>
       <c r="F733" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G733" t="str">
-        <v>folio 25r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H733" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I733" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>kuru [...] kkavu=m</v>
       </c>
       <c r="B734" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>kuru kkavum</v>
       </c>
       <c r="C734" t="str">
-        <v>Indien 1034d</v>
+        <v>Indien 1034a</v>
       </c>
       <c r="D734" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -21654,42 +21654,42 @@
         <v>TBC</v>
       </c>
       <c r="F734" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G734" t="str">
-        <v>folio 25r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H734" t="str">
-        <v>column</v>
+        <v/>
       </c>
       <c r="I734" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="str">
-        <v>śrī</v>
+        <v>Āṉantacuvāmi [...]</v>
       </c>
       <c r="B735" t="str">
-        <v>śrī</v>
+        <v>Āṉantacuvāmi</v>
       </c>
       <c r="C735" t="str">
-        <v>Indien 1037</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D735" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E735" t="str">
-        <v>Talisman or Private Letter</v>
+        <v>TBC</v>
       </c>
       <c r="F735" t="str">
-        <v>seal</v>
+        <v>U1</v>
       </c>
       <c r="G735" t="str">
-        <v>folio [1r]</v>
+        <v>folio 1r</v>
       </c>
       <c r="H735" t="str">
-        <v/>
+        <v>column 1</v>
       </c>
       <c r="I735" t="str">
         <v>0</v>
@@ -21697,57 +21697,57 @@
     </row>
     <row r="736">
       <c r="A736" t="str">
-        <v>hariḥ Om·</v>
+        <v>Āṟumuka tuṇai [...]</v>
       </c>
       <c r="B736" t="str">
-        <v>hariḥ Om·</v>
+        <v>Āṟumuka tuṇai</v>
       </c>
       <c r="C736" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D736" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E736" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F736" t="str">
-        <v>U2a</v>
+        <v>U1</v>
       </c>
       <c r="G736" t="str">
-        <v>folio [1]r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H736" t="str">
-        <v>left margin</v>
+        <v>column 1</v>
       </c>
       <c r="I736" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="str">
-        <v>Em perumāṉār tunai</v>
+        <v>vellum kaiyam [...]</v>
       </c>
       <c r="B737" t="str">
-        <v>Em perumāṉār tunai</v>
+        <v>vellum kaiyam</v>
       </c>
       <c r="C737" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D737" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E737" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F737" t="str">
-        <v>U2a</v>
+        <v>U1</v>
       </c>
       <c r="G737" t="str">
-        <v>folio [1]r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H737" t="str">
-        <v>left margin</v>
+        <v>column 1</v>
       </c>
       <c r="I737" t="str">
         <v>0</v>
@@ -21755,86 +21755,86 @@
     </row>
     <row r="738">
       <c r="A738" t="str">
-        <v>śrī-raṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
+        <v>makā-kaṇapati tuṇai</v>
       </c>
       <c r="B738" t="str">
-        <v>śrīraṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
+        <v>makākaṇapati tuṇai</v>
       </c>
       <c r="C738" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034d</v>
       </c>
       <c r="D738" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E738" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F738" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G738" t="str">
-        <v>folio [1]v</v>
+        <v>folio 25r</v>
       </c>
       <c r="H738" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I738" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="str">
-        <v>naṉṟāka</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B739" t="str">
-        <v>naṉṟāka</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C739" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034d</v>
       </c>
       <c r="D739" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E739" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F739" t="str">
-        <v>U2b</v>
+        <v>U2</v>
       </c>
       <c r="G739" t="str">
-        <v>folio [1]r</v>
+        <v>folio 25r</v>
       </c>
       <c r="H739" t="str">
-        <v>left margin</v>
+        <v>column</v>
       </c>
       <c r="I739" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="str">
-        <v>civamayam</v>
+        <v>śrī</v>
       </c>
       <c r="B740" t="str">
-        <v>civamayam</v>
+        <v>śrī</v>
       </c>
       <c r="C740" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1037</v>
       </c>
       <c r="D740" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E740" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>Talisman or Private Letter</v>
       </c>
       <c r="F740" t="str">
-        <v>U2b</v>
+        <v>seal</v>
       </c>
       <c r="G740" t="str">
-        <v>folio 52v</v>
+        <v>folio [1r]</v>
       </c>
       <c r="H740" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I740" t="str">
         <v>0</v>
@@ -21842,10 +21842,10 @@
     </row>
     <row r="741">
       <c r="A741" t="str">
-        <v>civamayam</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B741" t="str">
-        <v>civamayam</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C741" t="str">
         <v>Indien 1039</v>
@@ -21857,13 +21857,13 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F741" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G741" t="str">
-        <v>folio 52v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H741" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I741" t="str">
         <v>0</v>
@@ -21871,10 +21871,10 @@
     </row>
     <row r="742">
       <c r="A742" t="str">
-        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
+        <v>Em perumāṉār tunai</v>
       </c>
       <c r="B742" t="str">
-        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
+        <v>Em perumāṉār tunai</v>
       </c>
       <c r="C742" t="str">
         <v>Indien 1039</v>
@@ -21886,24 +21886,24 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F742" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G742" t="str">
-        <v>folio 52v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H742" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I742" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>śrī-raṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
       </c>
       <c r="B743" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>śrīraṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
       </c>
       <c r="C743" t="str">
         <v>Indien 1039</v>
@@ -21915,13 +21915,13 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F743" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G743" t="str">
-        <v>folio 70v</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H743" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I743" t="str">
         <v>0</v>
@@ -21929,10 +21929,10 @@
     </row>
     <row r="744">
       <c r="A744" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B744" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C744" t="str">
         <v>Indien 1039</v>
@@ -21947,7 +21947,7 @@
         <v>U2b</v>
       </c>
       <c r="G744" t="str">
-        <v>folio 84r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H744" t="str">
         <v>left margin</v>
@@ -21958,10 +21958,10 @@
     </row>
     <row r="745">
       <c r="A745" t="str">
-        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>civamayam</v>
       </c>
       <c r="B745" t="str">
-        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>civamayam</v>
       </c>
       <c r="C745" t="str">
         <v>Indien 1039</v>
@@ -21976,10 +21976,10 @@
         <v>U2b</v>
       </c>
       <c r="G745" t="str">
-        <v>folio 95v</v>
+        <v>folio 52v</v>
       </c>
       <c r="H745" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I745" t="str">
         <v>0</v>
@@ -21987,10 +21987,10 @@
     </row>
     <row r="746">
       <c r="A746" t="str">
-        <v>[...]</v>
+        <v>civamayam</v>
       </c>
       <c r="B746" t="str">
-        <v/>
+        <v>civamayam</v>
       </c>
       <c r="C746" t="str">
         <v>Indien 1039</v>
@@ -22005,10 +22005,10 @@
         <v>U2b</v>
       </c>
       <c r="G746" t="str">
-        <v>folio 103.2r</v>
+        <v>folio 52v</v>
       </c>
       <c r="H746" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I746" t="str">
         <v>0</v>
@@ -22016,10 +22016,10 @@
     </row>
     <row r="747">
       <c r="A747" t="str">
-        <v>[...]</v>
+        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
       </c>
       <c r="B747" t="str">
-        <v/>
+        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
       </c>
       <c r="C747" t="str">
         <v>Indien 1039</v>
@@ -22034,21 +22034,21 @@
         <v>U2b</v>
       </c>
       <c r="G747" t="str">
-        <v>folio 108v</v>
+        <v>folio 52v</v>
       </c>
       <c r="H747" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I747" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="str">
-        <v>[...]</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B748" t="str">
-        <v/>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C748" t="str">
         <v>Indien 1039</v>
@@ -22063,7 +22063,7 @@
         <v>U2b</v>
       </c>
       <c r="G748" t="str">
-        <v>folio 112v</v>
+        <v>folio 70v</v>
       </c>
       <c r="H748" t="str">
         <v>left margin</v>
@@ -22074,10 +22074,10 @@
     </row>
     <row r="749">
       <c r="A749" t="str">
-        <v>[...]</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B749" t="str">
-        <v/>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C749" t="str">
         <v>Indien 1039</v>
@@ -22092,7 +22092,7 @@
         <v>U2b</v>
       </c>
       <c r="G749" t="str">
-        <v>folio 118r</v>
+        <v>folio 84r</v>
       </c>
       <c r="H749" t="str">
         <v>left margin</v>
@@ -22103,10 +22103,10 @@
     </row>
     <row r="750">
       <c r="A750" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam [...]</v>
+        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B750" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C750" t="str">
         <v>Indien 1039</v>
@@ -22121,7 +22121,7 @@
         <v>U2b</v>
       </c>
       <c r="G750" t="str">
-        <v>folio 124v</v>
+        <v>folio 95v</v>
       </c>
       <c r="H750" t="str">
         <v>left margin</v>
@@ -22132,10 +22132,10 @@
     </row>
     <row r="751">
       <c r="A751" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam [...]</v>
+        <v>[...]</v>
       </c>
       <c r="B751" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C751" t="str">
         <v>Indien 1039</v>
@@ -22150,7 +22150,7 @@
         <v>U2b</v>
       </c>
       <c r="G751" t="str">
-        <v>folio 139v</v>
+        <v>folio 103.2r</v>
       </c>
       <c r="H751" t="str">
         <v>left margin</v>
@@ -22161,10 +22161,10 @@
     </row>
     <row r="752">
       <c r="A752" t="str">
-        <v>cuppaṟāyar tuṇai</v>
+        <v>[...]</v>
       </c>
       <c r="B752" t="str">
-        <v>cuppaṟāyar tuṇai</v>
+        <v/>
       </c>
       <c r="C752" t="str">
         <v>Indien 1039</v>
@@ -22179,21 +22179,21 @@
         <v>U2b</v>
       </c>
       <c r="G752" t="str">
-        <v>folio 139v</v>
+        <v>folio 108v</v>
       </c>
       <c r="H752" t="str">
         <v>left margin</v>
       </c>
       <c r="I752" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="str">
-        <v>murukar tuṇai</v>
+        <v>[...]</v>
       </c>
       <c r="B753" t="str">
-        <v>murukar tuṇai</v>
+        <v/>
       </c>
       <c r="C753" t="str">
         <v>Indien 1039</v>
@@ -22208,21 +22208,21 @@
         <v>U2b</v>
       </c>
       <c r="G753" t="str">
-        <v>folio 139v</v>
+        <v>folio 112v</v>
       </c>
       <c r="H753" t="str">
         <v>left margin</v>
       </c>
       <c r="I753" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="str">
-        <v>Āḻvār em perumāṉār centredtiruvaṭikaḷē caraṇam</v>
+        <v>[...]</v>
       </c>
       <c r="B754" t="str">
-        <v>Āḻvār em perumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C754" t="str">
         <v>Indien 1039</v>
@@ -22237,7 +22237,7 @@
         <v>U2b</v>
       </c>
       <c r="G754" t="str">
-        <v>folio 157r</v>
+        <v>folio 118r</v>
       </c>
       <c r="H754" t="str">
         <v>left margin</v>
@@ -22248,10 +22248,10 @@
     </row>
     <row r="755">
       <c r="A755" t="str">
-        <v>śrī-rā=ma-ceya=m</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam [...]</v>
       </c>
       <c r="B755" t="str">
-        <v>śrīrāmaceyam</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C755" t="str">
         <v>Indien 1039</v>
@@ -22266,7 +22266,7 @@
         <v>U2b</v>
       </c>
       <c r="G755" t="str">
-        <v>folio 166r</v>
+        <v>folio 124v</v>
       </c>
       <c r="H755" t="str">
         <v>left margin</v>
@@ -22277,10 +22277,10 @@
     </row>
     <row r="756">
       <c r="A756" t="str">
-        <v>śrī-rā=ma-ceyam·</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam [...]</v>
       </c>
       <c r="B756" t="str">
-        <v>śrīrāmaceyam·</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C756" t="str">
         <v>Indien 1039</v>
@@ -22295,7 +22295,7 @@
         <v>U2b</v>
       </c>
       <c r="G756" t="str">
-        <v>folio 167r</v>
+        <v>folio 139v</v>
       </c>
       <c r="H756" t="str">
         <v>left margin</v>
@@ -22306,10 +22306,10 @@
     </row>
     <row r="757">
       <c r="A757" t="str">
-        <v>[...]</v>
+        <v>cuppaṟāyar tuṇai</v>
       </c>
       <c r="B757" t="str">
-        <v/>
+        <v>cuppaṟāyar tuṇai</v>
       </c>
       <c r="C757" t="str">
         <v>Indien 1039</v>
@@ -22324,21 +22324,21 @@
         <v>U2b</v>
       </c>
       <c r="G757" t="str">
-        <v>folio 167v</v>
+        <v>folio 139v</v>
       </c>
       <c r="H757" t="str">
         <v>left margin</v>
       </c>
       <c r="I757" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="str">
-        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
+        <v>murukar tuṇai</v>
       </c>
       <c r="B758" t="str">
-        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
+        <v>murukar tuṇai</v>
       </c>
       <c r="C758" t="str">
         <v>Indien 1039</v>
@@ -22353,21 +22353,21 @@
         <v>U2b</v>
       </c>
       <c r="G758" t="str">
-        <v>folio 174r</v>
+        <v>folio 139v</v>
       </c>
       <c r="H758" t="str">
         <v>left margin</v>
       </c>
       <c r="I758" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="str">
-        <v>[...]</v>
+        <v>Āḻvār em perumāṉār centredtiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B759" t="str">
-        <v/>
+        <v>Āḻvār em perumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C759" t="str">
         <v>Indien 1039</v>
@@ -22382,7 +22382,7 @@
         <v>U2b</v>
       </c>
       <c r="G759" t="str">
-        <v>folio 203v</v>
+        <v>folio 157r</v>
       </c>
       <c r="H759" t="str">
         <v>left margin</v>
@@ -22393,7 +22393,7 @@
     </row>
     <row r="760">
       <c r="A760" t="str">
-        <v>śrīrā=maceyam</v>
+        <v>śrī-rā=ma-ceya=m</v>
       </c>
       <c r="B760" t="str">
         <v>śrīrāmaceyam</v>
@@ -22411,7 +22411,7 @@
         <v>U2b</v>
       </c>
       <c r="G760" t="str">
-        <v>folio 236v</v>
+        <v>folio 166r</v>
       </c>
       <c r="H760" t="str">
         <v>left margin</v>
@@ -22422,10 +22422,10 @@
     </row>
     <row r="761">
       <c r="A761" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>śrī-rā=ma-ceyam·</v>
       </c>
       <c r="B761" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>śrīrāmaceyam·</v>
       </c>
       <c r="C761" t="str">
         <v>Indien 1039</v>
@@ -22440,7 +22440,7 @@
         <v>U2b</v>
       </c>
       <c r="G761" t="str">
-        <v>folio 245v</v>
+        <v>folio 167r</v>
       </c>
       <c r="H761" t="str">
         <v>left margin</v>
@@ -22451,10 +22451,10 @@
     </row>
     <row r="762">
       <c r="A762" t="str">
-        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>[...]</v>
       </c>
       <c r="B762" t="str">
-        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C762" t="str">
         <v>Indien 1039</v>
@@ -22469,7 +22469,7 @@
         <v>U2b</v>
       </c>
       <c r="G762" t="str">
-        <v>folio 245v</v>
+        <v>folio 167v</v>
       </c>
       <c r="H762" t="str">
         <v>left margin</v>
@@ -22480,28 +22480,28 @@
     </row>
     <row r="763">
       <c r="A763" t="str">
-        <v>|| rāma ||</v>
+        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B763" t="str">
-        <v>rāma</v>
+        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C763" t="str">
-        <v>Chandra Shum Shere d.247</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D763" t="str">
-        <v>Bodleian Library, University of Oxford</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E763" t="str">
-        <v>Prakīrṇaprakāśa</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F763" t="str">
-        <v/>
+        <v>U2b</v>
       </c>
       <c r="G763" t="str">
-        <v/>
+        <v>folio 174r</v>
       </c>
       <c r="H763" t="str">
-        <v>marginal</v>
+        <v>left margin</v>
       </c>
       <c r="I763" t="str">
         <v>0</v>
@@ -22509,25 +22509,25 @@
     </row>
     <row r="764">
       <c r="A764" t="str">
-        <v>hariḥ Om</v>
+        <v>[...]</v>
       </c>
       <c r="B764" t="str">
-        <v>hariḥ Om</v>
+        <v/>
       </c>
       <c r="C764" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D764" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E764" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F764" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G764" t="str">
-        <v>folio [1]r</v>
+        <v>folio 203v</v>
       </c>
       <c r="H764" t="str">
         <v>left margin</v>
@@ -22538,28 +22538,28 @@
     </row>
     <row r="765">
       <c r="A765" t="str">
-        <v>śrīvedavyāsāya ¿nmaḥ?namaḥ</v>
+        <v>śrīrā=maceyam</v>
       </c>
       <c r="B765" t="str">
-        <v>śrīvedavyāsāya nmaḥnamaḥ</v>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C765" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D765" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E765" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F765" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G765" t="str">
-        <v>folio [1]r</v>
+        <v>folio 236v</v>
       </c>
       <c r="H765" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I765" t="str">
         <v>0</v>
@@ -22567,28 +22567,28 @@
     </row>
     <row r="766">
       <c r="A766" t="str">
-        <v>śrīmahāsarasvatyai ¿nmaḥ?namaḥ</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B766" t="str">
-        <v>śrīmahāsarasvatyai nmaḥnamaḥ</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C766" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D766" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E766" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F766" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G766" t="str">
-        <v>folio [1]r</v>
+        <v>folio 245v</v>
       </c>
       <c r="H766" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I766" t="str">
         <v>0</v>
@@ -22596,28 +22596,28 @@
     </row>
     <row r="767">
       <c r="A767" t="str">
-        <v>Avighnam astu</v>
+        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B767" t="str">
-        <v>Avighnam astu</v>
+        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C767" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D767" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E767" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F767" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G767" t="str">
-        <v>folio [1]v</v>
+        <v>folio 245v</v>
       </c>
       <c r="H767" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I767" t="str">
         <v>0</v>
@@ -22625,28 +22625,28 @@
     </row>
     <row r="768">
       <c r="A768" t="str">
-        <v>hariḥ Om</v>
+        <v>|| rāma ||</v>
       </c>
       <c r="B768" t="str">
-        <v>hariḥ Om</v>
+        <v>rāma</v>
       </c>
       <c r="C768" t="str">
-        <v>Sanscrit 290</v>
+        <v>Chandra Shum Shere d.247</v>
       </c>
       <c r="D768" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bodleian Library, University of Oxford</v>
       </c>
       <c r="E768" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Prakīrṇaprakāśa</v>
       </c>
       <c r="F768" t="str">
-        <v>U4</v>
+        <v/>
       </c>
       <c r="G768" t="str">
-        <v>folio 1r</v>
+        <v/>
       </c>
       <c r="H768" t="str">
-        <v>left margin</v>
+        <v>marginal</v>
       </c>
       <c r="I768" t="str">
         <v>0</v>
@@ -22654,10 +22654,10 @@
     </row>
     <row r="769">
       <c r="A769" t="str">
-        <v>Avighnam astu</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B769" t="str">
-        <v>Avighnam astu</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C769" t="str">
         <v>Sanscrit 290</v>
@@ -22669,10 +22669,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F769" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G769" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H769" t="str">
         <v>left margin</v>
@@ -22683,10 +22683,10 @@
     </row>
     <row r="770">
       <c r="A770" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīvedavyāsāya ¿nmaḥ?namaḥ</v>
       </c>
       <c r="B770" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīvedavyāsāya nmaḥnamaḥ</v>
       </c>
       <c r="C770" t="str">
         <v>Sanscrit 290</v>
@@ -22698,10 +22698,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F770" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G770" t="str">
-        <v>folio 342r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H770" t="str">
         <v>main text area</v>
@@ -22712,10 +22712,10 @@
     </row>
     <row r="771">
       <c r="A771" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>śrīmahāsarasvatyai ¿nmaḥ?namaḥ</v>
       </c>
       <c r="B771" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>śrīmahāsarasvatyai nmaḥnamaḥ</v>
       </c>
       <c r="C771" t="str">
         <v>Sanscrit 290</v>
@@ -22727,10 +22727,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F771" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G771" t="str">
-        <v>folio 342r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H771" t="str">
         <v>main text area</v>
@@ -22741,10 +22741,10 @@
     </row>
     <row r="772">
       <c r="A772" t="str">
-        <v>śrīgurubhyo namaḥ</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B772" t="str">
-        <v>śrīgurubhyo namaḥ</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C772" t="str">
         <v>Sanscrit 290</v>
@@ -22756,10 +22756,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F772" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G772" t="str">
-        <v>folio 342r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H772" t="str">
         <v>main text area</v>
@@ -22770,10 +22770,10 @@
     </row>
     <row r="773">
       <c r="A773" t="str">
-        <v>śrīvedavyāsāya namaḥ</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B773" t="str">
-        <v>śrīvedavyāsāya namaḥ</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C773" t="str">
         <v>Sanscrit 290</v>
@@ -22788,10 +22788,10 @@
         <v>U4</v>
       </c>
       <c r="G773" t="str">
-        <v>folio 342r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H773" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I773" t="str">
         <v>0</v>
@@ -22817,10 +22817,10 @@
         <v>U4</v>
       </c>
       <c r="G774" t="str">
-        <v>folio 342v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H774" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I774" t="str">
         <v>0</v>
@@ -22828,10 +22828,10 @@
     </row>
     <row r="775">
       <c r="A775" t="str">
-        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B775" t="str">
-        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C775" t="str">
         <v>Sanscrit 290</v>
@@ -22846,7 +22846,7 @@
         <v>U4</v>
       </c>
       <c r="G775" t="str">
-        <v>folio 342v</v>
+        <v>folio 342r</v>
       </c>
       <c r="H775" t="str">
         <v>main text area</v>
@@ -22857,10 +22857,10 @@
     </row>
     <row r="776">
       <c r="A776" t="str">
-        <v>Om·</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="B776" t="str">
-        <v>Om·</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="C776" t="str">
         <v>Sanscrit 290</v>
@@ -22875,7 +22875,7 @@
         <v>U4</v>
       </c>
       <c r="G776" t="str">
-        <v>folio 342v</v>
+        <v>folio 342r</v>
       </c>
       <c r="H776" t="str">
         <v>main text area</v>
@@ -22886,13 +22886,13 @@
     </row>
     <row r="777">
       <c r="A777" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīgurubhyo namaḥ</v>
       </c>
       <c r="B777" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīgurubhyo namaḥ</v>
       </c>
       <c r="C777" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D777" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -22901,13 +22901,13 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F777" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G777" t="str">
-        <v>folio [1]r</v>
+        <v>folio 342r</v>
       </c>
       <c r="H777" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I777" t="str">
         <v>0</v>
@@ -22915,13 +22915,13 @@
     </row>
     <row r="778">
       <c r="A778" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīvedavyāsāya namaḥ</v>
       </c>
       <c r="B778" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīvedavyāsāya namaḥ</v>
       </c>
       <c r="C778" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D778" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -22930,10 +22930,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F778" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G778" t="str">
-        <v>folio 240v</v>
+        <v>folio 342r</v>
       </c>
       <c r="H778" t="str">
         <v>main text area</v>
@@ -22944,13 +22944,13 @@
     </row>
     <row r="779">
       <c r="A779" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B779" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C779" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D779" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -22959,10 +22959,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F779" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G779" t="str">
-        <v>folio 240v</v>
+        <v>folio 342v</v>
       </c>
       <c r="H779" t="str">
         <v>main text area</v>
@@ -22973,13 +22973,13 @@
     </row>
     <row r="780">
       <c r="A780" t="str">
-        <v>śubham astu</v>
+        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
       </c>
       <c r="B780" t="str">
-        <v>śubham astu</v>
+        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
       </c>
       <c r="C780" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D780" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -22988,10 +22988,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F780" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G780" t="str">
-        <v>folio 240v</v>
+        <v>folio 342v</v>
       </c>
       <c r="H780" t="str">
         <v>main text area</v>
@@ -23002,28 +23002,28 @@
     </row>
     <row r="781">
       <c r="A781" t="str">
-        <v>śrīḥ —</v>
+        <v>Om·</v>
       </c>
       <c r="B781" t="str">
-        <v>śrīḥ —</v>
+        <v>Om·</v>
       </c>
       <c r="C781" t="str">
-        <v>Sanscrit 612.1</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D781" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E781" t="str">
-        <v>Amarakośa with anonymous commentaries</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F781" t="str">
-        <v>U1</v>
+        <v>U4</v>
       </c>
       <c r="G781" t="str">
-        <v>initial folio, recto</v>
+        <v>folio 342v</v>
       </c>
       <c r="H781" t="str">
-        <v>beginning, marginal, left</v>
+        <v>main text area</v>
       </c>
       <c r="I781" t="str">
         <v>0</v>
@@ -23031,28 +23031,28 @@
     </row>
     <row r="782">
       <c r="A782" t="str">
-        <v>śrīḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B782" t="str">
-        <v>śrīḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C782" t="str">
-        <v>Sanscrit 612.1</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D782" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E782" t="str">
-        <v>Amarakośa with anonymous commentaries</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F782" t="str">
         <v>U2</v>
       </c>
       <c r="G782" t="str">
-        <v>folio 1v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H782" t="str">
-        <v>beginning, marginal, right</v>
+        <v>left margin</v>
       </c>
       <c r="I782" t="str">
         <v>0</v>
@@ -23060,28 +23060,28 @@
     </row>
     <row r="783">
       <c r="A783" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B783" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C783" t="str">
-        <v>Sanscrit 616</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D783" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E783" t="str">
-        <v>Amarakośaviveka</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F783" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G783" t="str">
-        <v>1r</v>
+        <v>folio 240v</v>
       </c>
       <c r="H783" t="str">
-        <v>marginal</v>
+        <v>main text area</v>
       </c>
       <c r="I783" t="str">
         <v>0</v>
@@ -23089,28 +23089,28 @@
     </row>
     <row r="784">
       <c r="A784" t="str">
-        <v>śrīrāmaḥ</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="B784" t="str">
-        <v>śrīrāmaḥ</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="C784" t="str">
-        <v>Sanscrit 619</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D784" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E784" t="str">
-        <v>Amarakośakaumudī</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F784" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G784" t="str">
-        <v>folio 1, recto</v>
+        <v>folio 240v</v>
       </c>
       <c r="H784" t="str">
-        <v>beginning</v>
+        <v>main text area</v>
       </c>
       <c r="I784" t="str">
         <v>0</v>
@@ -23118,28 +23118,28 @@
     </row>
     <row r="785">
       <c r="A785" t="str">
-        <v>śrī</v>
+        <v>śubham astu</v>
       </c>
       <c r="B785" t="str">
-        <v>śrī</v>
+        <v>śubham astu</v>
       </c>
       <c r="C785" t="str">
-        <v>Sanscrit 1129</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D785" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E785" t="str">
-        <v>Indic Alphabets</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F785" t="str">
-        <v>U1a</v>
+        <v>U2</v>
       </c>
       <c r="G785" t="str">
-        <v>folio 1r</v>
+        <v>folio 240v</v>
       </c>
       <c r="H785" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I785" t="str">
         <v>0</v>
@@ -23147,28 +23147,28 @@
     </row>
     <row r="786">
       <c r="A786" t="str">
-        <v>śrī</v>
+        <v>śrīḥ —</v>
       </c>
       <c r="B786" t="str">
-        <v>śrī</v>
+        <v>śrīḥ —</v>
       </c>
       <c r="C786" t="str">
-        <v>Sanscrit 1146</v>
+        <v>Sanscrit 612.1</v>
       </c>
       <c r="D786" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E786" t="str">
-        <v>Brahmasūtra</v>
+        <v>Amarakośa with anonymous commentaries</v>
       </c>
       <c r="F786" t="str">
-        <v/>
+        <v>U1</v>
       </c>
       <c r="G786" t="str">
-        <v>1r</v>
+        <v>initial folio, recto</v>
       </c>
       <c r="H786" t="str">
-        <v>marginal</v>
+        <v>beginning, marginal, left</v>
       </c>
       <c r="I786" t="str">
         <v>0</v>
@@ -23176,28 +23176,28 @@
     </row>
     <row r="787">
       <c r="A787" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrīḥ</v>
       </c>
       <c r="B787" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrīḥ</v>
       </c>
       <c r="C787" t="str">
-        <v>Sanscrit 1426</v>
+        <v>Sanscrit 612.1</v>
       </c>
       <c r="D787" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E787" t="str">
-        <v>Three Vaiṣṇava hymns</v>
+        <v>Amarakośa with anonymous commentaries</v>
       </c>
       <c r="F787" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G787" t="str">
-        <v>2v</v>
+        <v>folio 1v</v>
       </c>
       <c r="H787" t="str">
-        <v>marginal</v>
+        <v>beginning, marginal, right</v>
       </c>
       <c r="I787" t="str">
         <v>0</v>
@@ -23205,28 +23205,28 @@
     </row>
     <row r="788">
       <c r="A788" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="B788" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="C788" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 616</v>
       </c>
       <c r="D788" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E788" t="str">
-        <v>Bengali fragments</v>
+        <v>Amarakośaviveka</v>
       </c>
       <c r="F788" t="str">
         <v/>
       </c>
       <c r="G788" t="str">
-        <v>folio 1r</v>
+        <v>1r</v>
       </c>
       <c r="H788" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>marginal</v>
       </c>
       <c r="I788" t="str">
         <v>0</v>
@@ -23234,28 +23234,28 @@
     </row>
     <row r="789">
       <c r="A789" t="str">
-        <v>śrīhariḥ |</v>
+        <v>śrīrāmaḥ</v>
       </c>
       <c r="B789" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ</v>
       </c>
       <c r="C789" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 619</v>
       </c>
       <c r="D789" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E789" t="str">
-        <v>Bengali fragments</v>
+        <v>Amarakośakaumudī</v>
       </c>
       <c r="F789" t="str">
-        <v>U2</v>
+        <v/>
       </c>
       <c r="G789" t="str">
-        <v>folio 2r</v>
+        <v>folio 1, recto</v>
       </c>
       <c r="H789" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>beginning</v>
       </c>
       <c r="I789" t="str">
         <v>0</v>
@@ -23263,28 +23263,28 @@
     </row>
     <row r="790">
       <c r="A790" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="B790" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="C790" t="str">
-        <v>Sanscrit 1442.7a</v>
+        <v>Sanscrit 1129</v>
       </c>
       <c r="D790" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E790" t="str">
-        <v>Saṃkrāntadhanaviṣaya</v>
+        <v>Indic Alphabets</v>
       </c>
       <c r="F790" t="str">
-        <v/>
+        <v>U1a</v>
       </c>
       <c r="G790" t="str">
         <v>folio 1r</v>
       </c>
       <c r="H790" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v/>
       </c>
       <c r="I790" t="str">
         <v>0</v>
@@ -23292,36 +23292,181 @@
     </row>
     <row r="791">
       <c r="A791" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="B791" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="C791" t="str">
+        <v>Sanscrit 1146</v>
+      </c>
+      <c r="D791" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+      </c>
+      <c r="E791" t="str">
+        <v>Brahmasūtra</v>
+      </c>
+      <c r="F791" t="str">
+        <v/>
+      </c>
+      <c r="G791" t="str">
+        <v>1r</v>
+      </c>
+      <c r="H791" t="str">
+        <v>marginal</v>
+      </c>
+      <c r="I791" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="str">
+        <v>śrīrāmaḥ śaraṇaṃ</v>
+      </c>
+      <c r="B792" t="str">
+        <v>śrīrāmaḥ śaraṇaṃ</v>
+      </c>
+      <c r="C792" t="str">
+        <v>Sanscrit 1426</v>
+      </c>
+      <c r="D792" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+      </c>
+      <c r="E792" t="str">
+        <v>Three Vaiṣṇava hymns</v>
+      </c>
+      <c r="F792" t="str">
+        <v/>
+      </c>
+      <c r="G792" t="str">
+        <v>2v</v>
+      </c>
+      <c r="H792" t="str">
+        <v>marginal</v>
+      </c>
+      <c r="I792" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B793" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C793" t="str">
+        <v>Sanscrit 1442.7</v>
+      </c>
+      <c r="D793" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E793" t="str">
+        <v>Bengali fragments</v>
+      </c>
+      <c r="F793" t="str">
+        <v/>
+      </c>
+      <c r="G793" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H793" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I793" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="str">
         <v>śrīhariḥ |</v>
       </c>
-      <c r="B791" t="str">
+      <c r="B794" t="str">
         <v>śrīhariḥ</v>
       </c>
-      <c r="C791" t="str">
+      <c r="C794" t="str">
+        <v>Sanscrit 1442.7</v>
+      </c>
+      <c r="D794" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E794" t="str">
+        <v>Bengali fragments</v>
+      </c>
+      <c r="F794" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G794" t="str">
+        <v>folio 2r</v>
+      </c>
+      <c r="H794" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I794" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B795" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C795" t="str">
+        <v>Sanscrit 1442.7a</v>
+      </c>
+      <c r="D795" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E795" t="str">
+        <v>Saṃkrāntadhanaviṣaya</v>
+      </c>
+      <c r="F795" t="str">
+        <v/>
+      </c>
+      <c r="G795" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H795" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I795" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="str">
+        <v>śrīhariḥ |</v>
+      </c>
+      <c r="B796" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C796" t="str">
         <v>Sanscrit 1442.7b</v>
       </c>
-      <c r="D791" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
-      </c>
-      <c r="E791" t="str">
+      <c r="D796" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E796" t="str">
         <v>Mahābhārata – Mokṣadharmaparvan</v>
       </c>
-      <c r="F791" t="str">
+      <c r="F796" t="str">
         <v>U2</v>
       </c>
-      <c r="G791" t="str">
+      <c r="G796" t="str">
         <v>folio 2r</v>
       </c>
-      <c r="H791" t="str">
+      <c r="H796" t="str">
         <v>beginning, marginal, top, left</v>
       </c>
-      <c r="I791" t="str">
+      <c r="I796" t="str">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I791"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I796"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I796"/>
+  <dimension ref="A1:I802"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20856,22 +20856,22 @@
     </row>
     <row r="707">
       <c r="A707" t="str">
-        <v>viṉāyakāya namam</v>
+        <v>[ti]rucci[ṟ]ṟampa(la)m</v>
       </c>
       <c r="B707" t="str">
-        <v>viṉāyakāya namam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C707" t="str">
-        <v>Indien 983</v>
+        <v>Indien 963</v>
       </c>
       <c r="D707" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E707" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
       </c>
       <c r="F707" t="str">
-        <v>U2</v>
+        <v>U2a</v>
       </c>
       <c r="G707" t="str">
         <v>folio [1]r</v>
@@ -20885,25 +20885,25 @@
     </row>
     <row r="708">
       <c r="A708" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>hari Ōm</v>
       </c>
       <c r="B708" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>hari Ōm</v>
       </c>
       <c r="C708" t="str">
-        <v>Indien 983</v>
+        <v>Indien 963</v>
       </c>
       <c r="D708" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E708" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
       </c>
       <c r="F708" t="str">
-        <v>U2</v>
+        <v>U2a</v>
       </c>
       <c r="G708" t="str">
-        <v>folio [1]r</v>
+        <v>folio 2r</v>
       </c>
       <c r="H708" t="str">
         <v>left margin</v>
@@ -20914,57 +20914,57 @@
     </row>
     <row r="709">
       <c r="A709" t="str">
-        <v>vāṇi namos•tu {pcl}</v>
+        <v>paḻama[...]lai[...]tar tuṇai</v>
       </c>
       <c r="B709" t="str">
-        <v>vāṇi namostu {pcl}</v>
+        <v>paḻamalaitar tuṇai</v>
       </c>
       <c r="C709" t="str">
-        <v>Indien 983</v>
+        <v>Indien 963</v>
       </c>
       <c r="D709" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E709" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
       </c>
       <c r="F709" t="str">
-        <v>U2</v>
+        <v>U2a</v>
       </c>
       <c r="G709" t="str">
-        <v>folio [1]r</v>
+        <v>folio 119r</v>
       </c>
       <c r="H709" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I709" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="str">
-        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
+        <v>periyaṉāyaki tuṇai</v>
       </c>
       <c r="B710" t="str">
-        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
+        <v>periyaṉāyaki tuṇai</v>
       </c>
       <c r="C710" t="str">
-        <v>Indien 983</v>
+        <v>Indien 963</v>
       </c>
       <c r="D710" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E710" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
       </c>
       <c r="F710" t="str">
-        <v>U2</v>
+        <v>U2a</v>
       </c>
       <c r="G710" t="str">
-        <v>folio [1]r</v>
+        <v>folio 119r</v>
       </c>
       <c r="H710" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I710" t="str">
         <v>1</v>
@@ -20978,22 +20978,22 @@
         <v>tirucciṟṟampalam</v>
       </c>
       <c r="C711" t="str">
-        <v>Indien 983</v>
+        <v>Indien 963</v>
       </c>
       <c r="D711" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E711" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
       </c>
       <c r="F711" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G711" t="str">
-        <v>folio 1r</v>
+        <v>folio 125r</v>
       </c>
       <c r="H711" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I711" t="str">
         <v>0</v>
@@ -21001,28 +21001,28 @@
     </row>
     <row r="712">
       <c r="A712" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>śrī</v>
       </c>
       <c r="B712" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>śrī</v>
       </c>
       <c r="C712" t="str">
-        <v>Indien 983</v>
+        <v>Indien 963</v>
       </c>
       <c r="D712" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E712" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
       </c>
       <c r="F712" t="str">
         <v>U3</v>
       </c>
       <c r="G712" t="str">
-        <v>folio 8v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H712" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I712" t="str">
         <v>0</v>
@@ -21030,10 +21030,10 @@
     </row>
     <row r="713">
       <c r="A713" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>viṉāyakāya namam</v>
       </c>
       <c r="B713" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>viṉāyakāya namam</v>
       </c>
       <c r="C713" t="str">
         <v>Indien 983</v>
@@ -21045,13 +21045,13 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F713" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G713" t="str">
-        <v>folio 26r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H713" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I713" t="str">
         <v>0</v>
@@ -21074,13 +21074,13 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F714" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G714" t="str">
-        <v>folio 51v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H714" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I714" t="str">
         <v>0</v>
@@ -21088,10 +21088,10 @@
     </row>
     <row r="715">
       <c r="A715" t="str">
-        <v>civamaya=m</v>
+        <v>vāṇi namos•tu {pcl}</v>
       </c>
       <c r="B715" t="str">
-        <v>civamayam</v>
+        <v>vāṇi namostu {pcl}</v>
       </c>
       <c r="C715" t="str">
         <v>Indien 983</v>
@@ -21103,13 +21103,13 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F715" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G715" t="str">
-        <v>folio 158v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H715" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I715" t="str">
         <v>0</v>
@@ -21117,10 +21117,10 @@
     </row>
     <row r="716">
       <c r="A716" t="str">
-        <v>tirucci¿tṟa?ṟṟampalam</v>
+        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
       </c>
       <c r="B716" t="str">
-        <v>tiruccitṟaṟṟampalam</v>
+        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
       </c>
       <c r="C716" t="str">
         <v>Indien 983</v>
@@ -21132,39 +21132,39 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F716" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G716" t="str">
-        <v>folio 158v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H716" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I716" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="str">
-        <v>Al=lā Utavi ceyya-vēṇum</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B717" t="str">
-        <v>Allā Utavi ceyyavēṇum</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C717" t="str">
-        <v>Indien 987</v>
+        <v>Indien 983</v>
       </c>
       <c r="D717" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E717" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F717" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G717" t="str">
-        <v>folio [1]r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H717" t="str">
         <v>left margin</v>
@@ -21175,57 +21175,57 @@
     </row>
     <row r="718">
       <c r="A718" t="str">
-        <v>caṟaṣpati tuṇai {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B718" t="str">
-        <v>caṟaṣpati tuṇai {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C718" t="str">
-        <v>Indien 987</v>
+        <v>Indien 983</v>
       </c>
       <c r="D718" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E718" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F718" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G718" t="str">
-        <v>folio [1]r</v>
+        <v>folio 8v</v>
       </c>
       <c r="H718" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I718" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="str">
-        <v>vicumi l=lāku ṟakimāṉi ṟakīm</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B719" t="str">
-        <v>vicumi llāku ṟakimāṉi ṟakīm</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C719" t="str">
-        <v>Indien 987</v>
+        <v>Indien 983</v>
       </c>
       <c r="D719" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E719" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F719" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G719" t="str">
-        <v>folio [1]r</v>
+        <v>folio 26r</v>
       </c>
       <c r="H719" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I719" t="str">
         <v>0</v>
@@ -21233,57 +21233,57 @@
     </row>
     <row r="720">
       <c r="A720" t="str">
-        <v>{pcs} kaṭavu⟨ḷ ⟩ ¿ku?tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B720" t="str">
-        <v>{pcs} kaṭavuḷ kutuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C720" t="str">
-        <v>Indien 989</v>
+        <v>Indien 983</v>
       </c>
       <c r="D720" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E720" t="str">
-        <v>Tamil Vocabulary</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F720" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G720" t="str">
-        <v>folio 1</v>
+        <v>folio 51v</v>
       </c>
       <c r="H720" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I720" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="str">
-        <v>hariḥ | Om</v>
+        <v>civamaya=m</v>
       </c>
       <c r="B721" t="str">
-        <v>hariḥ Om</v>
+        <v>civamayam</v>
       </c>
       <c r="C721" t="str">
-        <v>Indien 991</v>
+        <v>Indien 983</v>
       </c>
       <c r="D721" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E721" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F721" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G721" t="str">
-        <v>folio [1]r</v>
+        <v>folio 158v</v>
       </c>
       <c r="H721" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I721" t="str">
         <v>0</v>
@@ -21291,83 +21291,83 @@
     </row>
     <row r="722">
       <c r="A722" t="str">
-        <v>{pcs}kuruvē tuṇai</v>
+        <v>tirucci¿tṟa?ṟṟampalam</v>
       </c>
       <c r="B722" t="str">
-        <v>{pcs}kuruvē tuṇai</v>
+        <v>tiruccitṟaṟṟampalam</v>
       </c>
       <c r="C722" t="str">
-        <v>Indien 991</v>
+        <v>Indien 983</v>
       </c>
       <c r="D722" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E722" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F722" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G722" t="str">
-        <v>folio [1]r</v>
+        <v>folio 158v</v>
       </c>
       <c r="H722" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I722" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>Al=lā Utavi ceyya-vēṇum</v>
       </c>
       <c r="B723" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>Allā Utavi ceyyavēṇum</v>
       </c>
       <c r="C723" t="str">
-        <v>Indien 991</v>
+        <v>Indien 987</v>
       </c>
       <c r="D723" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E723" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F723" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G723" t="str">
-        <v>folio 4r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H723" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I723" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="str">
-        <v>caravaṇapa-kuruvē {tuṇai}</v>
+        <v>caṟaṣpati tuṇai {pcl}</v>
       </c>
       <c r="B724" t="str">
-        <v>caravaṇapakuruvē {tuṇai}</v>
+        <v>caṟaṣpati tuṇai {pcl}</v>
       </c>
       <c r="C724" t="str">
-        <v>Indien 991</v>
+        <v>Indien 987</v>
       </c>
       <c r="D724" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E724" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F724" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G724" t="str">
-        <v>folio 4r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H724" t="str">
         <v>main text area</v>
@@ -21378,57 +21378,57 @@
     </row>
     <row r="725">
       <c r="A725" t="str">
-        <v>civacitamparam [...] tuṇai</v>
+        <v>vicumi l=lāku ṟakimāṉi ṟakīm</v>
       </c>
       <c r="B725" t="str">
-        <v>civacitamparam tuṇai</v>
+        <v>vicumi llāku ṟakimāṉi ṟakīm</v>
       </c>
       <c r="C725" t="str">
-        <v>Indien 991</v>
+        <v>Indien 987</v>
       </c>
       <c r="D725" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E725" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F725" t="str">
         <v>U2</v>
       </c>
       <c r="G725" t="str">
-        <v>folio 4r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H725" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I725" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="str">
-        <v>paṭṭīcurar cuvāmi tuṇai</v>
+        <v>{pcs} kaṭavu⟨ḷ ⟩ ¿ku?tuṇai</v>
       </c>
       <c r="B726" t="str">
-        <v>paṭṭīcurar cuvāmi tuṇai</v>
+        <v>{pcs} kaṭavuḷ kutuṇai</v>
       </c>
       <c r="C726" t="str">
-        <v>Indien 991</v>
+        <v>Indien 989</v>
       </c>
       <c r="D726" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E726" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Tamil Vocabulary</v>
       </c>
       <c r="F726" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G726" t="str">
-        <v>folio 75r</v>
+        <v>folio 1</v>
       </c>
       <c r="H726" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I726" t="str">
         <v>1</v>
@@ -21436,10 +21436,10 @@
     </row>
     <row r="727">
       <c r="A727" t="str">
-        <v>civamayam</v>
+        <v>hariḥ | Om</v>
       </c>
       <c r="B727" t="str">
-        <v>civamayam</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C727" t="str">
         <v>Indien 991</v>
@@ -21454,10 +21454,10 @@
         <v>U2</v>
       </c>
       <c r="G727" t="str">
-        <v>folio 75r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H727" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I727" t="str">
         <v>0</v>
@@ -21465,10 +21465,10 @@
     </row>
     <row r="728">
       <c r="A728" t="str">
-        <v>periyaṉāyakiyammaṉ muṟṟum</v>
+        <v>{pcs}kuruvē tuṇai</v>
       </c>
       <c r="B728" t="str">
-        <v>periyaṉāyakiyammaṉ muṟṟum</v>
+        <v>{pcs}kuruvē tuṇai</v>
       </c>
       <c r="C728" t="str">
         <v>Indien 991</v>
@@ -21483,21 +21483,21 @@
         <v>U2</v>
       </c>
       <c r="G728" t="str">
-        <v>folio 77v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H728" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I728" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="str">
-        <v>civacuppaṟāyar {tuṇai}</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B729" t="str">
-        <v>civacuppaṟāyar {tuṇai}</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C729" t="str">
         <v>Indien 991</v>
@@ -21512,7 +21512,7 @@
         <v>U2</v>
       </c>
       <c r="G729" t="str">
-        <v>folio 77v</v>
+        <v>folio 4r</v>
       </c>
       <c r="H729" t="str">
         <v>main text area</v>
@@ -21523,28 +21523,28 @@
     </row>
     <row r="730">
       <c r="A730" t="str">
-        <v>kaṭavuḷ tuṇai</v>
+        <v>caravaṇapa-kuruvē {tuṇai}</v>
       </c>
       <c r="B730" t="str">
-        <v>kaṭavuḷ tuṇai</v>
+        <v>caravaṇapakuruvē {tuṇai}</v>
       </c>
       <c r="C730" t="str">
-        <v>Indien 992</v>
+        <v>Indien 991</v>
       </c>
       <c r="D730" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E730" t="str">
-        <v>Tēraiyar Vayittiyam 500</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F730" t="str">
         <v>U2</v>
       </c>
       <c r="G730" t="str">
-        <v>folio [1]r</v>
+        <v>folio 4r</v>
       </c>
       <c r="H730" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I730" t="str">
         <v>1</v>
@@ -21552,57 +21552,57 @@
     </row>
     <row r="731">
       <c r="A731" t="str">
-        <v>kuru muṉṉirkkavum</v>
+        <v>civacitamparam [...] tuṇai</v>
       </c>
       <c r="B731" t="str">
-        <v>kuru muṉṉirkkavum</v>
+        <v>civacitamparam tuṇai</v>
       </c>
       <c r="C731" t="str">
-        <v>Indien 992</v>
+        <v>Indien 991</v>
       </c>
       <c r="D731" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E731" t="str">
-        <v>Tēraiyar Vayittiyam 500</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F731" t="str">
         <v>U2</v>
       </c>
       <c r="G731" t="str">
-        <v>folio [1]r</v>
+        <v>folio 4r</v>
       </c>
       <c r="H731" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I731" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="str">
-        <v>yēkaparāparavaṣttuvē tuṇai</v>
+        <v>paṭṭīcurar cuvāmi tuṇai</v>
       </c>
       <c r="B732" t="str">
-        <v>yēkaparāparavaṣttuvē tuṇai</v>
+        <v>paṭṭīcurar cuvāmi tuṇai</v>
       </c>
       <c r="C732" t="str">
-        <v>Indien 993</v>
+        <v>Indien 991</v>
       </c>
       <c r="D732" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E732" t="str">
-        <v>Cippāyika Vāttu Varicai Paḻakkuṟa Poṣttakam</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F732" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G732" t="str">
-        <v>folio [1]r</v>
+        <v>folio 75r</v>
       </c>
       <c r="H732" t="str">
-        <v>column 3</v>
+        <v>main text area</v>
       </c>
       <c r="I732" t="str">
         <v>1</v>
@@ -21610,28 +21610,28 @@
     </row>
     <row r="733">
       <c r="A733" t="str">
-        <v>śrīmatu Aṉantacuvāmi [...] kkavu=m</v>
+        <v>civamayam</v>
       </c>
       <c r="B733" t="str">
-        <v>śrīmatu Aṉantacuvāmi kkavum</v>
+        <v>civamayam</v>
       </c>
       <c r="C733" t="str">
-        <v>Indien 1034a</v>
+        <v>Indien 991</v>
       </c>
       <c r="D733" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E733" t="str">
-        <v>TBC</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F733" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G733" t="str">
-        <v>folio [1]v</v>
+        <v>folio 75r</v>
       </c>
       <c r="H733" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I733" t="str">
         <v>0</v>
@@ -21639,28 +21639,28 @@
     </row>
     <row r="734">
       <c r="A734" t="str">
-        <v>kuru [...] kkavu=m</v>
+        <v>periyaṉāyakiyammaṉ muṟṟum</v>
       </c>
       <c r="B734" t="str">
-        <v>kuru kkavum</v>
+        <v>periyaṉāyakiyammaṉ muṟṟum</v>
       </c>
       <c r="C734" t="str">
-        <v>Indien 1034a</v>
+        <v>Indien 991</v>
       </c>
       <c r="D734" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E734" t="str">
-        <v>TBC</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F734" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G734" t="str">
-        <v>folio [1]v</v>
+        <v>folio 77v</v>
       </c>
       <c r="H734" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I734" t="str">
         <v>0</v>
@@ -21668,57 +21668,57 @@
     </row>
     <row r="735">
       <c r="A735" t="str">
-        <v>Āṉantacuvāmi [...]</v>
+        <v>civacuppaṟāyar {tuṇai}</v>
       </c>
       <c r="B735" t="str">
-        <v>Āṉantacuvāmi</v>
+        <v>civacuppaṟāyar {tuṇai}</v>
       </c>
       <c r="C735" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 991</v>
       </c>
       <c r="D735" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E735" t="str">
-        <v>TBC</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F735" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G735" t="str">
-        <v>folio 1r</v>
+        <v>folio 77v</v>
       </c>
       <c r="H735" t="str">
-        <v>column 1</v>
+        <v>main text area</v>
       </c>
       <c r="I735" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="str">
-        <v>Āṟumuka tuṇai [...]</v>
+        <v>kaṭavuḷ tuṇai</v>
       </c>
       <c r="B736" t="str">
-        <v>Āṟumuka tuṇai</v>
+        <v>kaṭavuḷ tuṇai</v>
       </c>
       <c r="C736" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 992</v>
       </c>
       <c r="D736" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E736" t="str">
-        <v>TBC</v>
+        <v>Tēraiyar Vayittiyam 500</v>
       </c>
       <c r="F736" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G736" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H736" t="str">
-        <v>column 1</v>
+        <v>left margin</v>
       </c>
       <c r="I736" t="str">
         <v>1</v>
@@ -21726,28 +21726,28 @@
     </row>
     <row r="737">
       <c r="A737" t="str">
-        <v>vellum kaiyam [...]</v>
+        <v>kuru muṉṉirkkavum</v>
       </c>
       <c r="B737" t="str">
-        <v>vellum kaiyam</v>
+        <v>kuru muṉṉirkkavum</v>
       </c>
       <c r="C737" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 992</v>
       </c>
       <c r="D737" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E737" t="str">
-        <v>TBC</v>
+        <v>Tēraiyar Vayittiyam 500</v>
       </c>
       <c r="F737" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G737" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H737" t="str">
-        <v>column 1</v>
+        <v>left margin</v>
       </c>
       <c r="I737" t="str">
         <v>0</v>
@@ -21755,28 +21755,28 @@
     </row>
     <row r="738">
       <c r="A738" t="str">
-        <v>makā-kaṇapati tuṇai</v>
+        <v>yēkaparāparavaṣttuvē tuṇai</v>
       </c>
       <c r="B738" t="str">
-        <v>makākaṇapati tuṇai</v>
+        <v>yēkaparāparavaṣttuvē tuṇai</v>
       </c>
       <c r="C738" t="str">
-        <v>Indien 1034d</v>
+        <v>Indien 993</v>
       </c>
       <c r="D738" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E738" t="str">
-        <v>TBC</v>
+        <v>Cippāyika Vāttu Varicai Paḻakkuṟa Poṣttakam</v>
       </c>
       <c r="F738" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G738" t="str">
-        <v>folio 25r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H738" t="str">
-        <v>left margin</v>
+        <v>column 3</v>
       </c>
       <c r="I738" t="str">
         <v>1</v>
@@ -21784,13 +21784,13 @@
     </row>
     <row r="739">
       <c r="A739" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>śrīmatu Aṉantacuvāmi [...] kkavu=m</v>
       </c>
       <c r="B739" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>śrīmatu Aṉantacuvāmi kkavum</v>
       </c>
       <c r="C739" t="str">
-        <v>Indien 1034d</v>
+        <v>Indien 1034a</v>
       </c>
       <c r="D739" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -21799,39 +21799,39 @@
         <v>TBC</v>
       </c>
       <c r="F739" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G739" t="str">
-        <v>folio 25r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H739" t="str">
-        <v>column</v>
+        <v/>
       </c>
       <c r="I739" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="str">
-        <v>śrī</v>
+        <v>kuru [...] kkavu=m</v>
       </c>
       <c r="B740" t="str">
-        <v>śrī</v>
+        <v>kuru kkavum</v>
       </c>
       <c r="C740" t="str">
-        <v>Indien 1037</v>
+        <v>Indien 1034a</v>
       </c>
       <c r="D740" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E740" t="str">
-        <v>Talisman or Private Letter</v>
+        <v>TBC</v>
       </c>
       <c r="F740" t="str">
-        <v>seal</v>
+        <v>U1</v>
       </c>
       <c r="G740" t="str">
-        <v>folio [1r]</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H740" t="str">
         <v/>
@@ -21842,28 +21842,28 @@
     </row>
     <row r="741">
       <c r="A741" t="str">
-        <v>hariḥ Om·</v>
+        <v>Āṉantacuvāmi [...]</v>
       </c>
       <c r="B741" t="str">
-        <v>hariḥ Om·</v>
+        <v>Āṉantacuvāmi</v>
       </c>
       <c r="C741" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D741" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E741" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F741" t="str">
-        <v>U2a</v>
+        <v>U1</v>
       </c>
       <c r="G741" t="str">
-        <v>folio [1]r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H741" t="str">
-        <v>left margin</v>
+        <v>column 1</v>
       </c>
       <c r="I741" t="str">
         <v>0</v>
@@ -21871,57 +21871,57 @@
     </row>
     <row r="742">
       <c r="A742" t="str">
-        <v>Em perumāṉār tunai</v>
+        <v>Āṟumuka tuṇai [...]</v>
       </c>
       <c r="B742" t="str">
-        <v>Em perumāṉār tunai</v>
+        <v>Āṟumuka tuṇai</v>
       </c>
       <c r="C742" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D742" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E742" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F742" t="str">
-        <v>U2a</v>
+        <v>U1</v>
       </c>
       <c r="G742" t="str">
-        <v>folio [1]r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H742" t="str">
-        <v>left margin</v>
+        <v>column 1</v>
       </c>
       <c r="I742" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="str">
-        <v>śrī-raṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
+        <v>vellum kaiyam [...]</v>
       </c>
       <c r="B743" t="str">
-        <v>śrīraṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
+        <v>vellum kaiyam</v>
       </c>
       <c r="C743" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D743" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E743" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F743" t="str">
-        <v>U2a</v>
+        <v>U1</v>
       </c>
       <c r="G743" t="str">
-        <v>folio [1]v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H743" t="str">
-        <v>main text area</v>
+        <v>column 1</v>
       </c>
       <c r="I743" t="str">
         <v>0</v>
@@ -21929,86 +21929,86 @@
     </row>
     <row r="744">
       <c r="A744" t="str">
-        <v>naṉṟāka</v>
+        <v>makā-kaṇapati tuṇai</v>
       </c>
       <c r="B744" t="str">
-        <v>naṉṟāka</v>
+        <v>makākaṇapati tuṇai</v>
       </c>
       <c r="C744" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034d</v>
       </c>
       <c r="D744" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E744" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F744" t="str">
-        <v>U2b</v>
+        <v>U2</v>
       </c>
       <c r="G744" t="str">
-        <v>folio [1]r</v>
+        <v>folio 25r</v>
       </c>
       <c r="H744" t="str">
         <v>left margin</v>
       </c>
       <c r="I744" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="str">
-        <v>civamayam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B745" t="str">
-        <v>civamayam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C745" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034d</v>
       </c>
       <c r="D745" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E745" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F745" t="str">
-        <v>U2b</v>
+        <v>U2</v>
       </c>
       <c r="G745" t="str">
-        <v>folio 52v</v>
+        <v>folio 25r</v>
       </c>
       <c r="H745" t="str">
-        <v>main text area</v>
+        <v>column</v>
       </c>
       <c r="I745" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="str">
-        <v>civamayam</v>
+        <v>śrī</v>
       </c>
       <c r="B746" t="str">
-        <v>civamayam</v>
+        <v>śrī</v>
       </c>
       <c r="C746" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1037</v>
       </c>
       <c r="D746" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E746" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>Talisman or Private Letter</v>
       </c>
       <c r="F746" t="str">
-        <v>U2b</v>
+        <v>seal</v>
       </c>
       <c r="G746" t="str">
-        <v>folio 52v</v>
+        <v>folio [1r]</v>
       </c>
       <c r="H746" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I746" t="str">
         <v>0</v>
@@ -22016,10 +22016,10 @@
     </row>
     <row r="747">
       <c r="A747" t="str">
-        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B747" t="str">
-        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C747" t="str">
         <v>Indien 1039</v>
@@ -22031,24 +22031,24 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F747" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G747" t="str">
-        <v>folio 52v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H747" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I747" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>Em perumāṉār tunai</v>
       </c>
       <c r="B748" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>Em perumāṉār tunai</v>
       </c>
       <c r="C748" t="str">
         <v>Indien 1039</v>
@@ -22060,10 +22060,10 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F748" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G748" t="str">
-        <v>folio 70v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H748" t="str">
         <v>left margin</v>
@@ -22074,10 +22074,10 @@
     </row>
     <row r="749">
       <c r="A749" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>śrī-raṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
       </c>
       <c r="B749" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>śrīraṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
       </c>
       <c r="C749" t="str">
         <v>Indien 1039</v>
@@ -22089,13 +22089,13 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F749" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G749" t="str">
-        <v>folio 84r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H749" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I749" t="str">
         <v>0</v>
@@ -22103,10 +22103,10 @@
     </row>
     <row r="750">
       <c r="A750" t="str">
-        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B750" t="str">
-        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C750" t="str">
         <v>Indien 1039</v>
@@ -22121,7 +22121,7 @@
         <v>U2b</v>
       </c>
       <c r="G750" t="str">
-        <v>folio 95v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H750" t="str">
         <v>left margin</v>
@@ -22132,10 +22132,10 @@
     </row>
     <row r="751">
       <c r="A751" t="str">
-        <v>[...]</v>
+        <v>civamayam</v>
       </c>
       <c r="B751" t="str">
-        <v/>
+        <v>civamayam</v>
       </c>
       <c r="C751" t="str">
         <v>Indien 1039</v>
@@ -22150,10 +22150,10 @@
         <v>U2b</v>
       </c>
       <c r="G751" t="str">
-        <v>folio 103.2r</v>
+        <v>folio 52v</v>
       </c>
       <c r="H751" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I751" t="str">
         <v>0</v>
@@ -22161,10 +22161,10 @@
     </row>
     <row r="752">
       <c r="A752" t="str">
-        <v>[...]</v>
+        <v>civamayam</v>
       </c>
       <c r="B752" t="str">
-        <v/>
+        <v>civamayam</v>
       </c>
       <c r="C752" t="str">
         <v>Indien 1039</v>
@@ -22179,10 +22179,10 @@
         <v>U2b</v>
       </c>
       <c r="G752" t="str">
-        <v>folio 108v</v>
+        <v>folio 52v</v>
       </c>
       <c r="H752" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I752" t="str">
         <v>0</v>
@@ -22190,10 +22190,10 @@
     </row>
     <row r="753">
       <c r="A753" t="str">
-        <v>[...]</v>
+        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
       </c>
       <c r="B753" t="str">
-        <v/>
+        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
       </c>
       <c r="C753" t="str">
         <v>Indien 1039</v>
@@ -22208,21 +22208,21 @@
         <v>U2b</v>
       </c>
       <c r="G753" t="str">
-        <v>folio 112v</v>
+        <v>folio 52v</v>
       </c>
       <c r="H753" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I753" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="str">
-        <v>[...]</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B754" t="str">
-        <v/>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C754" t="str">
         <v>Indien 1039</v>
@@ -22237,7 +22237,7 @@
         <v>U2b</v>
       </c>
       <c r="G754" t="str">
-        <v>folio 118r</v>
+        <v>folio 70v</v>
       </c>
       <c r="H754" t="str">
         <v>left margin</v>
@@ -22248,10 +22248,10 @@
     </row>
     <row r="755">
       <c r="A755" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam [...]</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B755" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C755" t="str">
         <v>Indien 1039</v>
@@ -22266,7 +22266,7 @@
         <v>U2b</v>
       </c>
       <c r="G755" t="str">
-        <v>folio 124v</v>
+        <v>folio 84r</v>
       </c>
       <c r="H755" t="str">
         <v>left margin</v>
@@ -22277,10 +22277,10 @@
     </row>
     <row r="756">
       <c r="A756" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam [...]</v>
+        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B756" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C756" t="str">
         <v>Indien 1039</v>
@@ -22295,7 +22295,7 @@
         <v>U2b</v>
       </c>
       <c r="G756" t="str">
-        <v>folio 139v</v>
+        <v>folio 95v</v>
       </c>
       <c r="H756" t="str">
         <v>left margin</v>
@@ -22306,10 +22306,10 @@
     </row>
     <row r="757">
       <c r="A757" t="str">
-        <v>cuppaṟāyar tuṇai</v>
+        <v>[...]</v>
       </c>
       <c r="B757" t="str">
-        <v>cuppaṟāyar tuṇai</v>
+        <v/>
       </c>
       <c r="C757" t="str">
         <v>Indien 1039</v>
@@ -22324,21 +22324,21 @@
         <v>U2b</v>
       </c>
       <c r="G757" t="str">
-        <v>folio 139v</v>
+        <v>folio 103.2r</v>
       </c>
       <c r="H757" t="str">
         <v>left margin</v>
       </c>
       <c r="I757" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="str">
-        <v>murukar tuṇai</v>
+        <v>[...]</v>
       </c>
       <c r="B758" t="str">
-        <v>murukar tuṇai</v>
+        <v/>
       </c>
       <c r="C758" t="str">
         <v>Indien 1039</v>
@@ -22353,21 +22353,21 @@
         <v>U2b</v>
       </c>
       <c r="G758" t="str">
-        <v>folio 139v</v>
+        <v>folio 108v</v>
       </c>
       <c r="H758" t="str">
         <v>left margin</v>
       </c>
       <c r="I758" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="str">
-        <v>Āḻvār em perumāṉār centredtiruvaṭikaḷē caraṇam</v>
+        <v>[...]</v>
       </c>
       <c r="B759" t="str">
-        <v>Āḻvār em perumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C759" t="str">
         <v>Indien 1039</v>
@@ -22382,7 +22382,7 @@
         <v>U2b</v>
       </c>
       <c r="G759" t="str">
-        <v>folio 157r</v>
+        <v>folio 112v</v>
       </c>
       <c r="H759" t="str">
         <v>left margin</v>
@@ -22393,10 +22393,10 @@
     </row>
     <row r="760">
       <c r="A760" t="str">
-        <v>śrī-rā=ma-ceya=m</v>
+        <v>[...]</v>
       </c>
       <c r="B760" t="str">
-        <v>śrīrāmaceyam</v>
+        <v/>
       </c>
       <c r="C760" t="str">
         <v>Indien 1039</v>
@@ -22411,7 +22411,7 @@
         <v>U2b</v>
       </c>
       <c r="G760" t="str">
-        <v>folio 166r</v>
+        <v>folio 118r</v>
       </c>
       <c r="H760" t="str">
         <v>left margin</v>
@@ -22422,10 +22422,10 @@
     </row>
     <row r="761">
       <c r="A761" t="str">
-        <v>śrī-rā=ma-ceyam·</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam [...]</v>
       </c>
       <c r="B761" t="str">
-        <v>śrīrāmaceyam·</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C761" t="str">
         <v>Indien 1039</v>
@@ -22440,7 +22440,7 @@
         <v>U2b</v>
       </c>
       <c r="G761" t="str">
-        <v>folio 167r</v>
+        <v>folio 124v</v>
       </c>
       <c r="H761" t="str">
         <v>left margin</v>
@@ -22451,10 +22451,10 @@
     </row>
     <row r="762">
       <c r="A762" t="str">
-        <v>[...]</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam [...]</v>
       </c>
       <c r="B762" t="str">
-        <v/>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C762" t="str">
         <v>Indien 1039</v>
@@ -22469,7 +22469,7 @@
         <v>U2b</v>
       </c>
       <c r="G762" t="str">
-        <v>folio 167v</v>
+        <v>folio 139v</v>
       </c>
       <c r="H762" t="str">
         <v>left margin</v>
@@ -22480,10 +22480,10 @@
     </row>
     <row r="763">
       <c r="A763" t="str">
-        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
+        <v>cuppaṟāyar tuṇai</v>
       </c>
       <c r="B763" t="str">
-        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
+        <v>cuppaṟāyar tuṇai</v>
       </c>
       <c r="C763" t="str">
         <v>Indien 1039</v>
@@ -22498,21 +22498,21 @@
         <v>U2b</v>
       </c>
       <c r="G763" t="str">
-        <v>folio 174r</v>
+        <v>folio 139v</v>
       </c>
       <c r="H763" t="str">
         <v>left margin</v>
       </c>
       <c r="I763" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="str">
-        <v>[...]</v>
+        <v>murukar tuṇai</v>
       </c>
       <c r="B764" t="str">
-        <v/>
+        <v>murukar tuṇai</v>
       </c>
       <c r="C764" t="str">
         <v>Indien 1039</v>
@@ -22527,21 +22527,21 @@
         <v>U2b</v>
       </c>
       <c r="G764" t="str">
-        <v>folio 203v</v>
+        <v>folio 139v</v>
       </c>
       <c r="H764" t="str">
         <v>left margin</v>
       </c>
       <c r="I764" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="str">
-        <v>śrīrā=maceyam</v>
+        <v>Āḻvār em perumāṉār centredtiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B765" t="str">
-        <v>śrīrāmaceyam</v>
+        <v>Āḻvār em perumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C765" t="str">
         <v>Indien 1039</v>
@@ -22556,7 +22556,7 @@
         <v>U2b</v>
       </c>
       <c r="G765" t="str">
-        <v>folio 236v</v>
+        <v>folio 157r</v>
       </c>
       <c r="H765" t="str">
         <v>left margin</v>
@@ -22567,10 +22567,10 @@
     </row>
     <row r="766">
       <c r="A766" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>śrī-rā=ma-ceya=m</v>
       </c>
       <c r="B766" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C766" t="str">
         <v>Indien 1039</v>
@@ -22585,7 +22585,7 @@
         <v>U2b</v>
       </c>
       <c r="G766" t="str">
-        <v>folio 245v</v>
+        <v>folio 166r</v>
       </c>
       <c r="H766" t="str">
         <v>left margin</v>
@@ -22596,10 +22596,10 @@
     </row>
     <row r="767">
       <c r="A767" t="str">
-        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>śrī-rā=ma-ceyam·</v>
       </c>
       <c r="B767" t="str">
-        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>śrīrāmaceyam·</v>
       </c>
       <c r="C767" t="str">
         <v>Indien 1039</v>
@@ -22614,7 +22614,7 @@
         <v>U2b</v>
       </c>
       <c r="G767" t="str">
-        <v>folio 245v</v>
+        <v>folio 167r</v>
       </c>
       <c r="H767" t="str">
         <v>left margin</v>
@@ -22625,28 +22625,28 @@
     </row>
     <row r="768">
       <c r="A768" t="str">
-        <v>|| rāma ||</v>
+        <v>[...]</v>
       </c>
       <c r="B768" t="str">
-        <v>rāma</v>
+        <v/>
       </c>
       <c r="C768" t="str">
-        <v>Chandra Shum Shere d.247</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D768" t="str">
-        <v>Bodleian Library, University of Oxford</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E768" t="str">
-        <v>Prakīrṇaprakāśa</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F768" t="str">
-        <v/>
+        <v>U2b</v>
       </c>
       <c r="G768" t="str">
-        <v/>
+        <v>folio 167v</v>
       </c>
       <c r="H768" t="str">
-        <v>marginal</v>
+        <v>left margin</v>
       </c>
       <c r="I768" t="str">
         <v>0</v>
@@ -22654,25 +22654,25 @@
     </row>
     <row r="769">
       <c r="A769" t="str">
-        <v>hariḥ Om</v>
+        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B769" t="str">
-        <v>hariḥ Om</v>
+        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C769" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D769" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E769" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F769" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G769" t="str">
-        <v>folio [1]r</v>
+        <v>folio 174r</v>
       </c>
       <c r="H769" t="str">
         <v>left margin</v>
@@ -22683,28 +22683,28 @@
     </row>
     <row r="770">
       <c r="A770" t="str">
-        <v>śrīvedavyāsāya ¿nmaḥ?namaḥ</v>
+        <v>[...]</v>
       </c>
       <c r="B770" t="str">
-        <v>śrīvedavyāsāya nmaḥnamaḥ</v>
+        <v/>
       </c>
       <c r="C770" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D770" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E770" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F770" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G770" t="str">
-        <v>folio [1]r</v>
+        <v>folio 203v</v>
       </c>
       <c r="H770" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I770" t="str">
         <v>0</v>
@@ -22712,28 +22712,28 @@
     </row>
     <row r="771">
       <c r="A771" t="str">
-        <v>śrīmahāsarasvatyai ¿nmaḥ?namaḥ</v>
+        <v>śrīrā=maceyam</v>
       </c>
       <c r="B771" t="str">
-        <v>śrīmahāsarasvatyai nmaḥnamaḥ</v>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C771" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D771" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E771" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F771" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G771" t="str">
-        <v>folio [1]r</v>
+        <v>folio 236v</v>
       </c>
       <c r="H771" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I771" t="str">
         <v>0</v>
@@ -22741,28 +22741,28 @@
     </row>
     <row r="772">
       <c r="A772" t="str">
-        <v>Avighnam astu</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B772" t="str">
-        <v>Avighnam astu</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C772" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D772" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E772" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F772" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G772" t="str">
-        <v>folio [1]v</v>
+        <v>folio 245v</v>
       </c>
       <c r="H772" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I772" t="str">
         <v>0</v>
@@ -22770,25 +22770,25 @@
     </row>
     <row r="773">
       <c r="A773" t="str">
-        <v>hariḥ Om</v>
+        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B773" t="str">
-        <v>hariḥ Om</v>
+        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C773" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D773" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E773" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F773" t="str">
-        <v>U4</v>
+        <v>U2b</v>
       </c>
       <c r="G773" t="str">
-        <v>folio 1r</v>
+        <v>folio 245v</v>
       </c>
       <c r="H773" t="str">
         <v>left margin</v>
@@ -22799,28 +22799,28 @@
     </row>
     <row r="774">
       <c r="A774" t="str">
-        <v>Avighnam astu</v>
+        <v>|| rāma ||</v>
       </c>
       <c r="B774" t="str">
-        <v>Avighnam astu</v>
+        <v>rāma</v>
       </c>
       <c r="C774" t="str">
-        <v>Sanscrit 290</v>
+        <v>Chandra Shum Shere d.247</v>
       </c>
       <c r="D774" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bodleian Library, University of Oxford</v>
       </c>
       <c r="E774" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Prakīrṇaprakāśa</v>
       </c>
       <c r="F774" t="str">
-        <v>U4</v>
+        <v/>
       </c>
       <c r="G774" t="str">
-        <v>folio 1r</v>
+        <v/>
       </c>
       <c r="H774" t="str">
-        <v>left margin</v>
+        <v>marginal</v>
       </c>
       <c r="I774" t="str">
         <v>0</v>
@@ -22828,10 +22828,10 @@
     </row>
     <row r="775">
       <c r="A775" t="str">
-        <v>hariḥ Om·</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B775" t="str">
-        <v>hariḥ Om·</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C775" t="str">
         <v>Sanscrit 290</v>
@@ -22843,13 +22843,13 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F775" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G775" t="str">
-        <v>folio 342r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H775" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I775" t="str">
         <v>0</v>
@@ -22857,10 +22857,10 @@
     </row>
     <row r="776">
       <c r="A776" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>śrīvedavyāsāya ¿nmaḥ?namaḥ</v>
       </c>
       <c r="B776" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>śrīvedavyāsāya nmaḥnamaḥ</v>
       </c>
       <c r="C776" t="str">
         <v>Sanscrit 290</v>
@@ -22872,10 +22872,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F776" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G776" t="str">
-        <v>folio 342r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H776" t="str">
         <v>main text area</v>
@@ -22886,10 +22886,10 @@
     </row>
     <row r="777">
       <c r="A777" t="str">
-        <v>śrīgurubhyo namaḥ</v>
+        <v>śrīmahāsarasvatyai ¿nmaḥ?namaḥ</v>
       </c>
       <c r="B777" t="str">
-        <v>śrīgurubhyo namaḥ</v>
+        <v>śrīmahāsarasvatyai nmaḥnamaḥ</v>
       </c>
       <c r="C777" t="str">
         <v>Sanscrit 290</v>
@@ -22901,10 +22901,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F777" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G777" t="str">
-        <v>folio 342r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H777" t="str">
         <v>main text area</v>
@@ -22915,10 +22915,10 @@
     </row>
     <row r="778">
       <c r="A778" t="str">
-        <v>śrīvedavyāsāya namaḥ</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B778" t="str">
-        <v>śrīvedavyāsāya namaḥ</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C778" t="str">
         <v>Sanscrit 290</v>
@@ -22930,10 +22930,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F778" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G778" t="str">
-        <v>folio 342r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H778" t="str">
         <v>main text area</v>
@@ -22944,10 +22944,10 @@
     </row>
     <row r="779">
       <c r="A779" t="str">
-        <v>Avighnam astu</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B779" t="str">
-        <v>Avighnam astu</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C779" t="str">
         <v>Sanscrit 290</v>
@@ -22962,10 +22962,10 @@
         <v>U4</v>
       </c>
       <c r="G779" t="str">
-        <v>folio 342v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H779" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I779" t="str">
         <v>0</v>
@@ -22973,10 +22973,10 @@
     </row>
     <row r="780">
       <c r="A780" t="str">
-        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B780" t="str">
-        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C780" t="str">
         <v>Sanscrit 290</v>
@@ -22991,10 +22991,10 @@
         <v>U4</v>
       </c>
       <c r="G780" t="str">
-        <v>folio 342v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H780" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I780" t="str">
         <v>0</v>
@@ -23002,10 +23002,10 @@
     </row>
     <row r="781">
       <c r="A781" t="str">
-        <v>Om·</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B781" t="str">
-        <v>Om·</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C781" t="str">
         <v>Sanscrit 290</v>
@@ -23020,7 +23020,7 @@
         <v>U4</v>
       </c>
       <c r="G781" t="str">
-        <v>folio 342v</v>
+        <v>folio 342r</v>
       </c>
       <c r="H781" t="str">
         <v>main text area</v>
@@ -23031,13 +23031,13 @@
     </row>
     <row r="782">
       <c r="A782" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="B782" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="C782" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D782" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -23046,13 +23046,13 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F782" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G782" t="str">
-        <v>folio [1]r</v>
+        <v>folio 342r</v>
       </c>
       <c r="H782" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I782" t="str">
         <v>0</v>
@@ -23060,13 +23060,13 @@
     </row>
     <row r="783">
       <c r="A783" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīgurubhyo namaḥ</v>
       </c>
       <c r="B783" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīgurubhyo namaḥ</v>
       </c>
       <c r="C783" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D783" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -23075,10 +23075,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F783" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G783" t="str">
-        <v>folio 240v</v>
+        <v>folio 342r</v>
       </c>
       <c r="H783" t="str">
         <v>main text area</v>
@@ -23089,13 +23089,13 @@
     </row>
     <row r="784">
       <c r="A784" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>śrīvedavyāsāya namaḥ</v>
       </c>
       <c r="B784" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>śrīvedavyāsāya namaḥ</v>
       </c>
       <c r="C784" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D784" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -23104,10 +23104,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F784" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G784" t="str">
-        <v>folio 240v</v>
+        <v>folio 342r</v>
       </c>
       <c r="H784" t="str">
         <v>main text area</v>
@@ -23118,13 +23118,13 @@
     </row>
     <row r="785">
       <c r="A785" t="str">
-        <v>śubham astu</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B785" t="str">
-        <v>śubham astu</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C785" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D785" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -23133,10 +23133,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F785" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G785" t="str">
-        <v>folio 240v</v>
+        <v>folio 342v</v>
       </c>
       <c r="H785" t="str">
         <v>main text area</v>
@@ -23147,28 +23147,28 @@
     </row>
     <row r="786">
       <c r="A786" t="str">
-        <v>śrīḥ —</v>
+        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
       </c>
       <c r="B786" t="str">
-        <v>śrīḥ —</v>
+        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
       </c>
       <c r="C786" t="str">
-        <v>Sanscrit 612.1</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D786" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E786" t="str">
-        <v>Amarakośa with anonymous commentaries</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F786" t="str">
-        <v>U1</v>
+        <v>U4</v>
       </c>
       <c r="G786" t="str">
-        <v>initial folio, recto</v>
+        <v>folio 342v</v>
       </c>
       <c r="H786" t="str">
-        <v>beginning, marginal, left</v>
+        <v>main text area</v>
       </c>
       <c r="I786" t="str">
         <v>0</v>
@@ -23176,28 +23176,28 @@
     </row>
     <row r="787">
       <c r="A787" t="str">
-        <v>śrīḥ</v>
+        <v>Om·</v>
       </c>
       <c r="B787" t="str">
-        <v>śrīḥ</v>
+        <v>Om·</v>
       </c>
       <c r="C787" t="str">
-        <v>Sanscrit 612.1</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D787" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E787" t="str">
-        <v>Amarakośa with anonymous commentaries</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F787" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G787" t="str">
-        <v>folio 1v</v>
+        <v>folio 342v</v>
       </c>
       <c r="H787" t="str">
-        <v>beginning, marginal, right</v>
+        <v>main text area</v>
       </c>
       <c r="I787" t="str">
         <v>0</v>
@@ -23205,28 +23205,28 @@
     </row>
     <row r="788">
       <c r="A788" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B788" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C788" t="str">
-        <v>Sanscrit 616</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D788" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E788" t="str">
-        <v>Amarakośaviveka</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F788" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G788" t="str">
-        <v>1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H788" t="str">
-        <v>marginal</v>
+        <v>left margin</v>
       </c>
       <c r="I788" t="str">
         <v>0</v>
@@ -23234,28 +23234,28 @@
     </row>
     <row r="789">
       <c r="A789" t="str">
-        <v>śrīrāmaḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B789" t="str">
-        <v>śrīrāmaḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C789" t="str">
-        <v>Sanscrit 619</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D789" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E789" t="str">
-        <v>Amarakośakaumudī</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F789" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G789" t="str">
-        <v>folio 1, recto</v>
+        <v>folio 240v</v>
       </c>
       <c r="H789" t="str">
-        <v>beginning</v>
+        <v>main text area</v>
       </c>
       <c r="I789" t="str">
         <v>0</v>
@@ -23263,28 +23263,28 @@
     </row>
     <row r="790">
       <c r="A790" t="str">
-        <v>śrī</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="B790" t="str">
-        <v>śrī</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="C790" t="str">
-        <v>Sanscrit 1129</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D790" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E790" t="str">
-        <v>Indic Alphabets</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F790" t="str">
-        <v>U1a</v>
+        <v>U2</v>
       </c>
       <c r="G790" t="str">
-        <v>folio 1r</v>
+        <v>folio 240v</v>
       </c>
       <c r="H790" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I790" t="str">
         <v>0</v>
@@ -23292,28 +23292,28 @@
     </row>
     <row r="791">
       <c r="A791" t="str">
-        <v>śrī</v>
+        <v>śubham astu</v>
       </c>
       <c r="B791" t="str">
-        <v>śrī</v>
+        <v>śubham astu</v>
       </c>
       <c r="C791" t="str">
-        <v>Sanscrit 1146</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D791" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E791" t="str">
-        <v>Brahmasūtra</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F791" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G791" t="str">
-        <v>1r</v>
+        <v>folio 240v</v>
       </c>
       <c r="H791" t="str">
-        <v>marginal</v>
+        <v>main text area</v>
       </c>
       <c r="I791" t="str">
         <v>0</v>
@@ -23321,28 +23321,28 @@
     </row>
     <row r="792">
       <c r="A792" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrīḥ —</v>
       </c>
       <c r="B792" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrīḥ —</v>
       </c>
       <c r="C792" t="str">
-        <v>Sanscrit 1426</v>
+        <v>Sanscrit 612.1</v>
       </c>
       <c r="D792" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E792" t="str">
-        <v>Three Vaiṣṇava hymns</v>
+        <v>Amarakośa with anonymous commentaries</v>
       </c>
       <c r="F792" t="str">
-        <v/>
+        <v>U1</v>
       </c>
       <c r="G792" t="str">
-        <v>2v</v>
+        <v>initial folio, recto</v>
       </c>
       <c r="H792" t="str">
-        <v>marginal</v>
+        <v>beginning, marginal, left</v>
       </c>
       <c r="I792" t="str">
         <v>0</v>
@@ -23350,28 +23350,28 @@
     </row>
     <row r="793">
       <c r="A793" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīḥ</v>
       </c>
       <c r="B793" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīḥ</v>
       </c>
       <c r="C793" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 612.1</v>
       </c>
       <c r="D793" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E793" t="str">
-        <v>Bengali fragments</v>
+        <v>Amarakośa with anonymous commentaries</v>
       </c>
       <c r="F793" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G793" t="str">
-        <v>folio 1r</v>
+        <v>folio 1v</v>
       </c>
       <c r="H793" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>beginning, marginal, right</v>
       </c>
       <c r="I793" t="str">
         <v>0</v>
@@ -23379,28 +23379,28 @@
     </row>
     <row r="794">
       <c r="A794" t="str">
-        <v>śrīhariḥ |</v>
+        <v>śrī</v>
       </c>
       <c r="B794" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="C794" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 616</v>
       </c>
       <c r="D794" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E794" t="str">
-        <v>Bengali fragments</v>
+        <v>Amarakośaviveka</v>
       </c>
       <c r="F794" t="str">
-        <v>U2</v>
+        <v/>
       </c>
       <c r="G794" t="str">
-        <v>folio 2r</v>
+        <v>1r</v>
       </c>
       <c r="H794" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>marginal</v>
       </c>
       <c r="I794" t="str">
         <v>0</v>
@@ -23408,28 +23408,28 @@
     </row>
     <row r="795">
       <c r="A795" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ</v>
       </c>
       <c r="B795" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ</v>
       </c>
       <c r="C795" t="str">
-        <v>Sanscrit 1442.7a</v>
+        <v>Sanscrit 619</v>
       </c>
       <c r="D795" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E795" t="str">
-        <v>Saṃkrāntadhanaviṣaya</v>
+        <v>Amarakośakaumudī</v>
       </c>
       <c r="F795" t="str">
         <v/>
       </c>
       <c r="G795" t="str">
-        <v>folio 1r</v>
+        <v>folio 1, recto</v>
       </c>
       <c r="H795" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>beginning</v>
       </c>
       <c r="I795" t="str">
         <v>0</v>
@@ -23437,36 +23437,210 @@
     </row>
     <row r="796">
       <c r="A796" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="B796" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="C796" t="str">
+        <v>Sanscrit 1129</v>
+      </c>
+      <c r="D796" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E796" t="str">
+        <v>Indic Alphabets</v>
+      </c>
+      <c r="F796" t="str">
+        <v>U1a</v>
+      </c>
+      <c r="G796" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H796" t="str">
+        <v/>
+      </c>
+      <c r="I796" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="B797" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="C797" t="str">
+        <v>Sanscrit 1146</v>
+      </c>
+      <c r="D797" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+      </c>
+      <c r="E797" t="str">
+        <v>Brahmasūtra</v>
+      </c>
+      <c r="F797" t="str">
+        <v/>
+      </c>
+      <c r="G797" t="str">
+        <v>1r</v>
+      </c>
+      <c r="H797" t="str">
+        <v>marginal</v>
+      </c>
+      <c r="I797" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="str">
+        <v>śrīrāmaḥ śaraṇaṃ</v>
+      </c>
+      <c r="B798" t="str">
+        <v>śrīrāmaḥ śaraṇaṃ</v>
+      </c>
+      <c r="C798" t="str">
+        <v>Sanscrit 1426</v>
+      </c>
+      <c r="D798" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+      </c>
+      <c r="E798" t="str">
+        <v>Three Vaiṣṇava hymns</v>
+      </c>
+      <c r="F798" t="str">
+        <v/>
+      </c>
+      <c r="G798" t="str">
+        <v>2v</v>
+      </c>
+      <c r="H798" t="str">
+        <v>marginal</v>
+      </c>
+      <c r="I798" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B799" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C799" t="str">
+        <v>Sanscrit 1442.7</v>
+      </c>
+      <c r="D799" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E799" t="str">
+        <v>Bengali fragments</v>
+      </c>
+      <c r="F799" t="str">
+        <v/>
+      </c>
+      <c r="G799" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H799" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I799" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="str">
         <v>śrīhariḥ |</v>
       </c>
-      <c r="B796" t="str">
+      <c r="B800" t="str">
         <v>śrīhariḥ</v>
       </c>
-      <c r="C796" t="str">
+      <c r="C800" t="str">
+        <v>Sanscrit 1442.7</v>
+      </c>
+      <c r="D800" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E800" t="str">
+        <v>Bengali fragments</v>
+      </c>
+      <c r="F800" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G800" t="str">
+        <v>folio 2r</v>
+      </c>
+      <c r="H800" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I800" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B801" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C801" t="str">
+        <v>Sanscrit 1442.7a</v>
+      </c>
+      <c r="D801" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E801" t="str">
+        <v>Saṃkrāntadhanaviṣaya</v>
+      </c>
+      <c r="F801" t="str">
+        <v/>
+      </c>
+      <c r="G801" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H801" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I801" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="str">
+        <v>śrīhariḥ |</v>
+      </c>
+      <c r="B802" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C802" t="str">
         <v>Sanscrit 1442.7b</v>
       </c>
-      <c r="D796" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
-      </c>
-      <c r="E796" t="str">
+      <c r="D802" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E802" t="str">
         <v>Mahābhārata – Mokṣadharmaparvan</v>
       </c>
-      <c r="F796" t="str">
+      <c r="F802" t="str">
         <v>U2</v>
       </c>
-      <c r="G796" t="str">
+      <c r="G802" t="str">
         <v>folio 2r</v>
       </c>
-      <c r="H796" t="str">
+      <c r="H802" t="str">
         <v>beginning, marginal, top, left</v>
       </c>
-      <c r="I796" t="str">
+      <c r="I802" t="str">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I796"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I802"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I838"/>
+  <dimension ref="A1:I846"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24481,28 +24481,28 @@
     </row>
     <row r="832">
       <c r="A832" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B832" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C832" t="str">
-        <v>Sanscrit 1129</v>
+        <v>Sanscrit 815</v>
       </c>
       <c r="D832" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E832" t="str">
-        <v>Indic Alphabets</v>
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F832" t="str">
-        <v>U1a</v>
+        <v>U1</v>
       </c>
       <c r="G832" t="str">
         <v>folio 1r</v>
       </c>
       <c r="H832" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I832" t="str">
         <v>0</v>
@@ -24510,28 +24510,28 @@
     </row>
     <row r="833">
       <c r="A833" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B833" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C833" t="str">
-        <v>Sanscrit 1146</v>
+        <v>Sanscrit 815</v>
       </c>
       <c r="D833" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E833" t="str">
-        <v>Brahmasūtra</v>
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F833" t="str">
-        <v/>
+        <v>U1</v>
       </c>
       <c r="G833" t="str">
-        <v>1r</v>
+        <v>folio 148v</v>
       </c>
       <c r="H833" t="str">
-        <v>marginal</v>
+        <v>main text area</v>
       </c>
       <c r="I833" t="str">
         <v>0</v>
@@ -24539,28 +24539,28 @@
     </row>
     <row r="834">
       <c r="A834" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="B834" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="C834" t="str">
-        <v>Sanscrit 1426</v>
+        <v>Sanscrit 815</v>
       </c>
       <c r="D834" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E834" t="str">
-        <v>Three Vaiṣṇava hymns</v>
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F834" t="str">
-        <v/>
+        <v>U1</v>
       </c>
       <c r="G834" t="str">
-        <v>2v</v>
+        <v>folio 148v</v>
       </c>
       <c r="H834" t="str">
-        <v>marginal</v>
+        <v>main text area</v>
       </c>
       <c r="I834" t="str">
         <v>0</v>
@@ -24568,28 +24568,28 @@
     </row>
     <row r="835">
       <c r="A835" t="str">
-        <v>śrīhariḥ</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B835" t="str">
-        <v>śrīhariḥ</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C835" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 815</v>
       </c>
       <c r="D835" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E835" t="str">
-        <v>Bengali fragments</v>
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F835" t="str">
-        <v/>
+        <v>U3</v>
       </c>
       <c r="G835" t="str">
-        <v>folio 1r</v>
+        <v>folio 149r</v>
       </c>
       <c r="H835" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>left margin</v>
       </c>
       <c r="I835" t="str">
         <v>0</v>
@@ -24597,28 +24597,28 @@
     </row>
     <row r="836">
       <c r="A836" t="str">
-        <v>śrīhariḥ |</v>
+        <v>hariḥ Om {pcl}</v>
       </c>
       <c r="B836" t="str">
-        <v>śrīhariḥ</v>
+        <v>hariḥ Om {pcl}</v>
       </c>
       <c r="C836" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 815</v>
       </c>
       <c r="D836" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E836" t="str">
-        <v>Bengali fragments</v>
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F836" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G836" t="str">
-        <v>folio 2r</v>
+        <v>folio 155r</v>
       </c>
       <c r="H836" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>main text area</v>
       </c>
       <c r="I836" t="str">
         <v>0</v>
@@ -24626,28 +24626,28 @@
     </row>
     <row r="837">
       <c r="A837" t="str">
-        <v>śrīhariḥ</v>
+        <v>Om {pcl}</v>
       </c>
       <c r="B837" t="str">
-        <v>śrīhariḥ</v>
+        <v>Om {pcl}</v>
       </c>
       <c r="C837" t="str">
-        <v>Sanscrit 1442.7a</v>
+        <v>Sanscrit 815</v>
       </c>
       <c r="D837" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E837" t="str">
-        <v>Saṃkrāntadhanaviṣaya</v>
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F837" t="str">
-        <v/>
+        <v>U3</v>
       </c>
       <c r="G837" t="str">
-        <v>folio 1r</v>
+        <v>folio 155r</v>
       </c>
       <c r="H837" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>main text area</v>
       </c>
       <c r="I837" t="str">
         <v>0</v>
@@ -24655,36 +24655,268 @@
     </row>
     <row r="838">
       <c r="A838" t="str">
+        <v>hariḥ Om</v>
+      </c>
+      <c r="B838" t="str">
+        <v>hariḥ Om</v>
+      </c>
+      <c r="C838" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D838" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E838" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F838" t="str">
+        <v>U3</v>
+      </c>
+      <c r="G838" t="str">
+        <v>folio 155v</v>
+      </c>
+      <c r="H838" t="str">
+        <v>left margin</v>
+      </c>
+      <c r="I838" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="str">
+        <v>śubham astu</v>
+      </c>
+      <c r="B839" t="str">
+        <v>śubham astu</v>
+      </c>
+      <c r="C839" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D839" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E839" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F839" t="str">
+        <v>U3</v>
+      </c>
+      <c r="G839" t="str">
+        <v>folio 155v</v>
+      </c>
+      <c r="H839" t="str">
+        <v>left margin</v>
+      </c>
+      <c r="I839" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="B840" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="C840" t="str">
+        <v>Sanscrit 1129</v>
+      </c>
+      <c r="D840" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E840" t="str">
+        <v>Indic Alphabets</v>
+      </c>
+      <c r="F840" t="str">
+        <v>U1a</v>
+      </c>
+      <c r="G840" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H840" t="str">
+        <v/>
+      </c>
+      <c r="I840" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="B841" t="str">
+        <v>śrī</v>
+      </c>
+      <c r="C841" t="str">
+        <v>Sanscrit 1146</v>
+      </c>
+      <c r="D841" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+      </c>
+      <c r="E841" t="str">
+        <v>Brahmasūtra</v>
+      </c>
+      <c r="F841" t="str">
+        <v/>
+      </c>
+      <c r="G841" t="str">
+        <v>1r</v>
+      </c>
+      <c r="H841" t="str">
+        <v>marginal</v>
+      </c>
+      <c r="I841" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="str">
+        <v>śrīrāmaḥ śaraṇaṃ</v>
+      </c>
+      <c r="B842" t="str">
+        <v>śrīrāmaḥ śaraṇaṃ</v>
+      </c>
+      <c r="C842" t="str">
+        <v>Sanscrit 1426</v>
+      </c>
+      <c r="D842" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+      </c>
+      <c r="E842" t="str">
+        <v>Three Vaiṣṇava hymns</v>
+      </c>
+      <c r="F842" t="str">
+        <v/>
+      </c>
+      <c r="G842" t="str">
+        <v>2v</v>
+      </c>
+      <c r="H842" t="str">
+        <v>marginal</v>
+      </c>
+      <c r="I842" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B843" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C843" t="str">
+        <v>Sanscrit 1442.7</v>
+      </c>
+      <c r="D843" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E843" t="str">
+        <v>Bengali fragments</v>
+      </c>
+      <c r="F843" t="str">
+        <v/>
+      </c>
+      <c r="G843" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H843" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I843" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="str">
         <v>śrīhariḥ |</v>
       </c>
-      <c r="B838" t="str">
+      <c r="B844" t="str">
         <v>śrīhariḥ</v>
       </c>
-      <c r="C838" t="str">
+      <c r="C844" t="str">
+        <v>Sanscrit 1442.7</v>
+      </c>
+      <c r="D844" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E844" t="str">
+        <v>Bengali fragments</v>
+      </c>
+      <c r="F844" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G844" t="str">
+        <v>folio 2r</v>
+      </c>
+      <c r="H844" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I844" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B845" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C845" t="str">
+        <v>Sanscrit 1442.7a</v>
+      </c>
+      <c r="D845" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E845" t="str">
+        <v>Saṃkrāntadhanaviṣaya</v>
+      </c>
+      <c r="F845" t="str">
+        <v/>
+      </c>
+      <c r="G845" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H845" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I845" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="str">
+        <v>śrīhariḥ |</v>
+      </c>
+      <c r="B846" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C846" t="str">
         <v>Sanscrit 1442.7b</v>
       </c>
-      <c r="D838" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
-      </c>
-      <c r="E838" t="str">
+      <c r="D846" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E846" t="str">
         <v>Mahābhārata – Mokṣadharmaparvan</v>
       </c>
-      <c r="F838" t="str">
+      <c r="F846" t="str">
         <v>U2</v>
       </c>
-      <c r="G838" t="str">
+      <c r="G846" t="str">
         <v>folio 2r</v>
       </c>
-      <c r="H838" t="str">
+      <c r="H846" t="str">
         <v>beginning, marginal, top, left</v>
       </c>
-      <c r="I838" t="str">
+      <c r="I846" t="str">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I838"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I846"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I846"/>
+  <dimension ref="A1:I848"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24713,28 +24713,28 @@
     </row>
     <row r="840">
       <c r="A840" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B840" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C840" t="str">
-        <v>Sanscrit 1129</v>
+        <v>Sanscrit 818</v>
       </c>
       <c r="D840" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E840" t="str">
-        <v>Indic Alphabets</v>
+        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F840" t="str">
-        <v>U1a</v>
+        <v>U2</v>
       </c>
       <c r="G840" t="str">
         <v>folio 1r</v>
       </c>
       <c r="H840" t="str">
-        <v/>
+        <v>left margin 1</v>
       </c>
       <c r="I840" t="str">
         <v>0</v>
@@ -24742,28 +24742,28 @@
     </row>
     <row r="841">
       <c r="A841" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B841" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C841" t="str">
-        <v>Sanscrit 1146</v>
+        <v>Sanscrit 818</v>
       </c>
       <c r="D841" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E841" t="str">
-        <v>Brahmasūtra</v>
+        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F841" t="str">
-        <v/>
+        <v>U4</v>
       </c>
       <c r="G841" t="str">
-        <v>1r</v>
+        <v>folio 88r</v>
       </c>
       <c r="H841" t="str">
-        <v>marginal</v>
+        <v>left margin</v>
       </c>
       <c r="I841" t="str">
         <v>0</v>
@@ -24771,28 +24771,28 @@
     </row>
     <row r="842">
       <c r="A842" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrī</v>
       </c>
       <c r="B842" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrī</v>
       </c>
       <c r="C842" t="str">
-        <v>Sanscrit 1426</v>
+        <v>Sanscrit 1129</v>
       </c>
       <c r="D842" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E842" t="str">
-        <v>Three Vaiṣṇava hymns</v>
+        <v>Indic Alphabets</v>
       </c>
       <c r="F842" t="str">
+        <v>U1a</v>
+      </c>
+      <c r="G842" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H842" t="str">
         <v/>
-      </c>
-      <c r="G842" t="str">
-        <v>2v</v>
-      </c>
-      <c r="H842" t="str">
-        <v>marginal</v>
       </c>
       <c r="I842" t="str">
         <v>0</v>
@@ -24800,28 +24800,28 @@
     </row>
     <row r="843">
       <c r="A843" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="B843" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="C843" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 1146</v>
       </c>
       <c r="D843" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E843" t="str">
-        <v>Bengali fragments</v>
+        <v>Brahmasūtra</v>
       </c>
       <c r="F843" t="str">
         <v/>
       </c>
       <c r="G843" t="str">
-        <v>folio 1r</v>
+        <v>1r</v>
       </c>
       <c r="H843" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>marginal</v>
       </c>
       <c r="I843" t="str">
         <v>0</v>
@@ -24829,28 +24829,28 @@
     </row>
     <row r="844">
       <c r="A844" t="str">
-        <v>śrīhariḥ |</v>
+        <v>śrīrāmaḥ śaraṇaṃ</v>
       </c>
       <c r="B844" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ śaraṇaṃ</v>
       </c>
       <c r="C844" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 1426</v>
       </c>
       <c r="D844" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E844" t="str">
-        <v>Bengali fragments</v>
+        <v>Three Vaiṣṇava hymns</v>
       </c>
       <c r="F844" t="str">
-        <v>U2</v>
+        <v/>
       </c>
       <c r="G844" t="str">
-        <v>folio 2r</v>
+        <v>2v</v>
       </c>
       <c r="H844" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>marginal</v>
       </c>
       <c r="I844" t="str">
         <v>0</v>
@@ -24864,13 +24864,13 @@
         <v>śrīhariḥ</v>
       </c>
       <c r="C845" t="str">
-        <v>Sanscrit 1442.7a</v>
+        <v>Sanscrit 1442.7</v>
       </c>
       <c r="D845" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E845" t="str">
-        <v>Saṃkrāntadhanaviṣaya</v>
+        <v>Bengali fragments</v>
       </c>
       <c r="F845" t="str">
         <v/>
@@ -24893,13 +24893,13 @@
         <v>śrīhariḥ</v>
       </c>
       <c r="C846" t="str">
-        <v>Sanscrit 1442.7b</v>
+        <v>Sanscrit 1442.7</v>
       </c>
       <c r="D846" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E846" t="str">
-        <v>Mahābhārata – Mokṣadharmaparvan</v>
+        <v>Bengali fragments</v>
       </c>
       <c r="F846" t="str">
         <v>U2</v>
@@ -24914,9 +24914,67 @@
         <v>0</v>
       </c>
     </row>
+    <row r="847">
+      <c r="A847" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B847" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C847" t="str">
+        <v>Sanscrit 1442.7a</v>
+      </c>
+      <c r="D847" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E847" t="str">
+        <v>Saṃkrāntadhanaviṣaya</v>
+      </c>
+      <c r="F847" t="str">
+        <v/>
+      </c>
+      <c r="G847" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H847" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I847" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="str">
+        <v>śrīhariḥ |</v>
+      </c>
+      <c r="B848" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C848" t="str">
+        <v>Sanscrit 1442.7b</v>
+      </c>
+      <c r="D848" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E848" t="str">
+        <v>Mahābhārata – Mokṣadharmaparvan</v>
+      </c>
+      <c r="F848" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G848" t="str">
+        <v>folio 2r</v>
+      </c>
+      <c r="H848" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I848" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I846"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I848"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I848"/>
+  <dimension ref="A1:I849"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24502,7 +24502,7 @@
         <v>folio 1r</v>
       </c>
       <c r="H832" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I832" t="str">
         <v>0</v>
@@ -24713,28 +24713,28 @@
     </row>
     <row r="840">
       <c r="A840" t="str">
-        <v>hariḥ Om·</v>
+        <v>hari Om·</v>
       </c>
       <c r="B840" t="str">
-        <v>hariḥ Om·</v>
+        <v>hari Om·</v>
       </c>
       <c r="C840" t="str">
-        <v>Sanscrit 818</v>
+        <v>Sanscrit 815</v>
       </c>
       <c r="D840" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E840" t="str">
-        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F840" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G840" t="str">
-        <v>folio 1r</v>
+        <v>folio 286v</v>
       </c>
       <c r="H840" t="str">
-        <v>left margin 1</v>
+        <v>main text area</v>
       </c>
       <c r="I840" t="str">
         <v>0</v>
@@ -24742,10 +24742,10 @@
     </row>
     <row r="841">
       <c r="A841" t="str">
-        <v>hariḥ Om</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B841" t="str">
-        <v>hariḥ Om</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C841" t="str">
         <v>Sanscrit 818</v>
@@ -24757,13 +24757,13 @@
         <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F841" t="str">
-        <v>U4</v>
+        <v>U2</v>
       </c>
       <c r="G841" t="str">
-        <v>folio 88r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H841" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I841" t="str">
         <v>0</v>
@@ -24771,28 +24771,28 @@
     </row>
     <row r="842">
       <c r="A842" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B842" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C842" t="str">
-        <v>Sanscrit 1129</v>
+        <v>Sanscrit 818</v>
       </c>
       <c r="D842" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E842" t="str">
-        <v>Indic Alphabets</v>
+        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F842" t="str">
-        <v>U1a</v>
+        <v>U4</v>
       </c>
       <c r="G842" t="str">
-        <v>folio 1r</v>
+        <v>folio 88r</v>
       </c>
       <c r="H842" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I842" t="str">
         <v>0</v>
@@ -24806,22 +24806,22 @@
         <v>śrī</v>
       </c>
       <c r="C843" t="str">
-        <v>Sanscrit 1146</v>
+        <v>Sanscrit 1129</v>
       </c>
       <c r="D843" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E843" t="str">
-        <v>Brahmasūtra</v>
+        <v>Indic Alphabets</v>
       </c>
       <c r="F843" t="str">
+        <v>U1a</v>
+      </c>
+      <c r="G843" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H843" t="str">
         <v/>
-      </c>
-      <c r="G843" t="str">
-        <v>1r</v>
-      </c>
-      <c r="H843" t="str">
-        <v>marginal</v>
       </c>
       <c r="I843" t="str">
         <v>0</v>
@@ -24829,25 +24829,25 @@
     </row>
     <row r="844">
       <c r="A844" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrī</v>
       </c>
       <c r="B844" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrī</v>
       </c>
       <c r="C844" t="str">
-        <v>Sanscrit 1426</v>
+        <v>Sanscrit 1146</v>
       </c>
       <c r="D844" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E844" t="str">
-        <v>Three Vaiṣṇava hymns</v>
+        <v>Brahmasūtra</v>
       </c>
       <c r="F844" t="str">
         <v/>
       </c>
       <c r="G844" t="str">
-        <v>2v</v>
+        <v>1r</v>
       </c>
       <c r="H844" t="str">
         <v>marginal</v>
@@ -24858,28 +24858,28 @@
     </row>
     <row r="845">
       <c r="A845" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ śaraṇaṃ</v>
       </c>
       <c r="B845" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ śaraṇaṃ</v>
       </c>
       <c r="C845" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 1426</v>
       </c>
       <c r="D845" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E845" t="str">
-        <v>Bengali fragments</v>
+        <v>Three Vaiṣṇava hymns</v>
       </c>
       <c r="F845" t="str">
         <v/>
       </c>
       <c r="G845" t="str">
-        <v>folio 1r</v>
+        <v>2v</v>
       </c>
       <c r="H845" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>marginal</v>
       </c>
       <c r="I845" t="str">
         <v>0</v>
@@ -24887,7 +24887,7 @@
     </row>
     <row r="846">
       <c r="A846" t="str">
-        <v>śrīhariḥ |</v>
+        <v>śrīhariḥ</v>
       </c>
       <c r="B846" t="str">
         <v>śrīhariḥ</v>
@@ -24902,10 +24902,10 @@
         <v>Bengali fragments</v>
       </c>
       <c r="F846" t="str">
-        <v>U2</v>
+        <v/>
       </c>
       <c r="G846" t="str">
-        <v>folio 2r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H846" t="str">
         <v>beginning, marginal, top, left</v>
@@ -24916,25 +24916,25 @@
     </row>
     <row r="847">
       <c r="A847" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīhariḥ |</v>
       </c>
       <c r="B847" t="str">
         <v>śrīhariḥ</v>
       </c>
       <c r="C847" t="str">
-        <v>Sanscrit 1442.7a</v>
+        <v>Sanscrit 1442.7</v>
       </c>
       <c r="D847" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E847" t="str">
-        <v>Saṃkrāntadhanaviṣaya</v>
+        <v>Bengali fragments</v>
       </c>
       <c r="F847" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G847" t="str">
-        <v>folio 1r</v>
+        <v>folio 2r</v>
       </c>
       <c r="H847" t="str">
         <v>beginning, marginal, top, left</v>
@@ -24945,25 +24945,25 @@
     </row>
     <row r="848">
       <c r="A848" t="str">
-        <v>śrīhariḥ |</v>
+        <v>śrīhariḥ</v>
       </c>
       <c r="B848" t="str">
         <v>śrīhariḥ</v>
       </c>
       <c r="C848" t="str">
-        <v>Sanscrit 1442.7b</v>
+        <v>Sanscrit 1442.7a</v>
       </c>
       <c r="D848" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E848" t="str">
-        <v>Mahābhārata – Mokṣadharmaparvan</v>
+        <v>Saṃkrāntadhanaviṣaya</v>
       </c>
       <c r="F848" t="str">
-        <v>U2</v>
+        <v/>
       </c>
       <c r="G848" t="str">
-        <v>folio 2r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H848" t="str">
         <v>beginning, marginal, top, left</v>
@@ -24972,9 +24972,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="849">
+      <c r="A849" t="str">
+        <v>śrīhariḥ |</v>
+      </c>
+      <c r="B849" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C849" t="str">
+        <v>Sanscrit 1442.7b</v>
+      </c>
+      <c r="D849" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E849" t="str">
+        <v>Mahābhārata – Mokṣadharmaparvan</v>
+      </c>
+      <c r="F849" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G849" t="str">
+        <v>folio 2r</v>
+      </c>
+      <c r="H849" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I849" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I848"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I849"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I849"/>
+  <dimension ref="A1:I851"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24800,28 +24800,28 @@
     </row>
     <row r="843">
       <c r="A843" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B843" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C843" t="str">
-        <v>Sanscrit 1129</v>
+        <v>Sanscrit 818</v>
       </c>
       <c r="D843" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E843" t="str">
-        <v>Indic Alphabets</v>
+        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F843" t="str">
-        <v>U1a</v>
+        <v>U4</v>
       </c>
       <c r="G843" t="str">
-        <v>folio 1r</v>
+        <v>folio 317r</v>
       </c>
       <c r="H843" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I843" t="str">
         <v>0</v>
@@ -24829,28 +24829,28 @@
     </row>
     <row r="844">
       <c r="A844" t="str">
-        <v>śrī</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="B844" t="str">
-        <v>śrī</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="C844" t="str">
-        <v>Sanscrit 1146</v>
+        <v>Sanscrit 818</v>
       </c>
       <c r="D844" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E844" t="str">
-        <v>Brahmasūtra</v>
+        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F844" t="str">
-        <v/>
+        <v>U4</v>
       </c>
       <c r="G844" t="str">
-        <v>1r</v>
+        <v>folio 317r</v>
       </c>
       <c r="H844" t="str">
-        <v>marginal</v>
+        <v>main text area</v>
       </c>
       <c r="I844" t="str">
         <v>0</v>
@@ -24858,28 +24858,28 @@
     </row>
     <row r="845">
       <c r="A845" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrī</v>
       </c>
       <c r="B845" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrī</v>
       </c>
       <c r="C845" t="str">
-        <v>Sanscrit 1426</v>
+        <v>Sanscrit 1129</v>
       </c>
       <c r="D845" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E845" t="str">
-        <v>Three Vaiṣṇava hymns</v>
+        <v>Indic Alphabets</v>
       </c>
       <c r="F845" t="str">
+        <v>U1a</v>
+      </c>
+      <c r="G845" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H845" t="str">
         <v/>
-      </c>
-      <c r="G845" t="str">
-        <v>2v</v>
-      </c>
-      <c r="H845" t="str">
-        <v>marginal</v>
       </c>
       <c r="I845" t="str">
         <v>0</v>
@@ -24887,28 +24887,28 @@
     </row>
     <row r="846">
       <c r="A846" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="B846" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="C846" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 1146</v>
       </c>
       <c r="D846" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E846" t="str">
-        <v>Bengali fragments</v>
+        <v>Brahmasūtra</v>
       </c>
       <c r="F846" t="str">
         <v/>
       </c>
       <c r="G846" t="str">
-        <v>folio 1r</v>
+        <v>1r</v>
       </c>
       <c r="H846" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>marginal</v>
       </c>
       <c r="I846" t="str">
         <v>0</v>
@@ -24916,28 +24916,28 @@
     </row>
     <row r="847">
       <c r="A847" t="str">
-        <v>śrīhariḥ |</v>
+        <v>śrīrāmaḥ śaraṇaṃ</v>
       </c>
       <c r="B847" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ śaraṇaṃ</v>
       </c>
       <c r="C847" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 1426</v>
       </c>
       <c r="D847" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E847" t="str">
-        <v>Bengali fragments</v>
+        <v>Three Vaiṣṇava hymns</v>
       </c>
       <c r="F847" t="str">
-        <v>U2</v>
+        <v/>
       </c>
       <c r="G847" t="str">
-        <v>folio 2r</v>
+        <v>2v</v>
       </c>
       <c r="H847" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>marginal</v>
       </c>
       <c r="I847" t="str">
         <v>0</v>
@@ -24951,13 +24951,13 @@
         <v>śrīhariḥ</v>
       </c>
       <c r="C848" t="str">
-        <v>Sanscrit 1442.7a</v>
+        <v>Sanscrit 1442.7</v>
       </c>
       <c r="D848" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E848" t="str">
-        <v>Saṃkrāntadhanaviṣaya</v>
+        <v>Bengali fragments</v>
       </c>
       <c r="F848" t="str">
         <v/>
@@ -24980,13 +24980,13 @@
         <v>śrīhariḥ</v>
       </c>
       <c r="C849" t="str">
-        <v>Sanscrit 1442.7b</v>
+        <v>Sanscrit 1442.7</v>
       </c>
       <c r="D849" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E849" t="str">
-        <v>Mahābhārata – Mokṣadharmaparvan</v>
+        <v>Bengali fragments</v>
       </c>
       <c r="F849" t="str">
         <v>U2</v>
@@ -25001,9 +25001,67 @@
         <v>0</v>
       </c>
     </row>
+    <row r="850">
+      <c r="A850" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B850" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C850" t="str">
+        <v>Sanscrit 1442.7a</v>
+      </c>
+      <c r="D850" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E850" t="str">
+        <v>Saṃkrāntadhanaviṣaya</v>
+      </c>
+      <c r="F850" t="str">
+        <v/>
+      </c>
+      <c r="G850" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H850" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I850" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="str">
+        <v>śrīhariḥ |</v>
+      </c>
+      <c r="B851" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C851" t="str">
+        <v>Sanscrit 1442.7b</v>
+      </c>
+      <c r="D851" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E851" t="str">
+        <v>Mahābhārata – Mokṣadharmaparvan</v>
+      </c>
+      <c r="F851" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G851" t="str">
+        <v>folio 2r</v>
+      </c>
+      <c r="H851" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I851" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I849"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I851"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I851"/>
+  <dimension ref="A1:I854"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24748,13 +24748,13 @@
         <v>hariḥ Om·</v>
       </c>
       <c r="C841" t="str">
-        <v>Sanscrit 818</v>
+        <v>Sanscrit 816</v>
       </c>
       <c r="D841" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E841" t="str">
-        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
+        <v>Mitākṣarā</v>
       </c>
       <c r="F841" t="str">
         <v>U2</v>
@@ -24763,7 +24763,7 @@
         <v>folio 1r</v>
       </c>
       <c r="H841" t="str">
-        <v>left margin 1</v>
+        <v>left margin</v>
       </c>
       <c r="I841" t="str">
         <v>0</v>
@@ -24771,28 +24771,28 @@
     </row>
     <row r="842">
       <c r="A842" t="str">
-        <v>hariḥ Om</v>
+        <v>hariḥ Om· {pcl}</v>
       </c>
       <c r="B842" t="str">
-        <v>hariḥ Om</v>
+        <v>hariḥ Om· {pcl}</v>
       </c>
       <c r="C842" t="str">
-        <v>Sanscrit 818</v>
+        <v>Sanscrit 816</v>
       </c>
       <c r="D842" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E842" t="str">
-        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
+        <v>Mitākṣarā</v>
       </c>
       <c r="F842" t="str">
-        <v>U4</v>
+        <v>U2</v>
       </c>
       <c r="G842" t="str">
-        <v>folio 88r</v>
+        <v>folio 200v</v>
       </c>
       <c r="H842" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I842" t="str">
         <v>0</v>
@@ -24800,25 +24800,25 @@
     </row>
     <row r="843">
       <c r="A843" t="str">
-        <v>hariḥ Om·</v>
+        <v>Om tat sat·</v>
       </c>
       <c r="B843" t="str">
-        <v>hariḥ Om·</v>
+        <v>Om tat sat·</v>
       </c>
       <c r="C843" t="str">
-        <v>Sanscrit 818</v>
+        <v>Sanscrit 816</v>
       </c>
       <c r="D843" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E843" t="str">
-        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
+        <v>Mitākṣarā</v>
       </c>
       <c r="F843" t="str">
-        <v>U4</v>
+        <v>U2</v>
       </c>
       <c r="G843" t="str">
-        <v>folio 317r</v>
+        <v>folio 201r</v>
       </c>
       <c r="H843" t="str">
         <v>main text area</v>
@@ -24829,10 +24829,10 @@
     </row>
     <row r="844">
       <c r="A844" t="str">
-        <v>Om· {pcl}</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B844" t="str">
-        <v>Om· {pcl}</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C844" t="str">
         <v>Sanscrit 818</v>
@@ -24844,13 +24844,13 @@
         <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F844" t="str">
-        <v>U4</v>
+        <v>U2</v>
       </c>
       <c r="G844" t="str">
-        <v>folio 317r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H844" t="str">
-        <v>main text area</v>
+        <v>left margin 1</v>
       </c>
       <c r="I844" t="str">
         <v>0</v>
@@ -24858,28 +24858,28 @@
     </row>
     <row r="845">
       <c r="A845" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B845" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C845" t="str">
-        <v>Sanscrit 1129</v>
+        <v>Sanscrit 818</v>
       </c>
       <c r="D845" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E845" t="str">
-        <v>Indic Alphabets</v>
+        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F845" t="str">
-        <v>U1a</v>
+        <v>U4</v>
       </c>
       <c r="G845" t="str">
-        <v>folio 1r</v>
+        <v>folio 88r</v>
       </c>
       <c r="H845" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I845" t="str">
         <v>0</v>
@@ -24887,28 +24887,28 @@
     </row>
     <row r="846">
       <c r="A846" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B846" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C846" t="str">
-        <v>Sanscrit 1146</v>
+        <v>Sanscrit 818</v>
       </c>
       <c r="D846" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E846" t="str">
-        <v>Brahmasūtra</v>
+        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F846" t="str">
-        <v/>
+        <v>U4</v>
       </c>
       <c r="G846" t="str">
-        <v>1r</v>
+        <v>folio 317r</v>
       </c>
       <c r="H846" t="str">
-        <v>marginal</v>
+        <v>main text area</v>
       </c>
       <c r="I846" t="str">
         <v>0</v>
@@ -24916,28 +24916,28 @@
     </row>
     <row r="847">
       <c r="A847" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="B847" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="C847" t="str">
-        <v>Sanscrit 1426</v>
+        <v>Sanscrit 818</v>
       </c>
       <c r="D847" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E847" t="str">
-        <v>Three Vaiṣṇava hymns</v>
+        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F847" t="str">
-        <v/>
+        <v>U4</v>
       </c>
       <c r="G847" t="str">
-        <v>2v</v>
+        <v>folio 317r</v>
       </c>
       <c r="H847" t="str">
-        <v>marginal</v>
+        <v>main text area</v>
       </c>
       <c r="I847" t="str">
         <v>0</v>
@@ -24945,28 +24945,28 @@
     </row>
     <row r="848">
       <c r="A848" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="B848" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="C848" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 1129</v>
       </c>
       <c r="D848" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E848" t="str">
-        <v>Bengali fragments</v>
+        <v>Indic Alphabets</v>
       </c>
       <c r="F848" t="str">
-        <v/>
+        <v>U1a</v>
       </c>
       <c r="G848" t="str">
         <v>folio 1r</v>
       </c>
       <c r="H848" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v/>
       </c>
       <c r="I848" t="str">
         <v>0</v>
@@ -24974,28 +24974,28 @@
     </row>
     <row r="849">
       <c r="A849" t="str">
-        <v>śrīhariḥ |</v>
+        <v>śrī</v>
       </c>
       <c r="B849" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="C849" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 1146</v>
       </c>
       <c r="D849" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E849" t="str">
-        <v>Bengali fragments</v>
+        <v>Brahmasūtra</v>
       </c>
       <c r="F849" t="str">
-        <v>U2</v>
+        <v/>
       </c>
       <c r="G849" t="str">
-        <v>folio 2r</v>
+        <v>1r</v>
       </c>
       <c r="H849" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>marginal</v>
       </c>
       <c r="I849" t="str">
         <v>0</v>
@@ -25003,28 +25003,28 @@
     </row>
     <row r="850">
       <c r="A850" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ śaraṇaṃ</v>
       </c>
       <c r="B850" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ śaraṇaṃ</v>
       </c>
       <c r="C850" t="str">
-        <v>Sanscrit 1442.7a</v>
+        <v>Sanscrit 1426</v>
       </c>
       <c r="D850" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E850" t="str">
-        <v>Saṃkrāntadhanaviṣaya</v>
+        <v>Three Vaiṣṇava hymns</v>
       </c>
       <c r="F850" t="str">
         <v/>
       </c>
       <c r="G850" t="str">
-        <v>folio 1r</v>
+        <v>2v</v>
       </c>
       <c r="H850" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>marginal</v>
       </c>
       <c r="I850" t="str">
         <v>0</v>
@@ -25032,25 +25032,25 @@
     </row>
     <row r="851">
       <c r="A851" t="str">
-        <v>śrīhariḥ |</v>
+        <v>śrīhariḥ</v>
       </c>
       <c r="B851" t="str">
         <v>śrīhariḥ</v>
       </c>
       <c r="C851" t="str">
-        <v>Sanscrit 1442.7b</v>
+        <v>Sanscrit 1442.7</v>
       </c>
       <c r="D851" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E851" t="str">
-        <v>Mahābhārata – Mokṣadharmaparvan</v>
+        <v>Bengali fragments</v>
       </c>
       <c r="F851" t="str">
-        <v>U2</v>
+        <v/>
       </c>
       <c r="G851" t="str">
-        <v>folio 2r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H851" t="str">
         <v>beginning, marginal, top, left</v>
@@ -25059,9 +25059,96 @@
         <v>0</v>
       </c>
     </row>
+    <row r="852">
+      <c r="A852" t="str">
+        <v>śrīhariḥ |</v>
+      </c>
+      <c r="B852" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C852" t="str">
+        <v>Sanscrit 1442.7</v>
+      </c>
+      <c r="D852" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E852" t="str">
+        <v>Bengali fragments</v>
+      </c>
+      <c r="F852" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G852" t="str">
+        <v>folio 2r</v>
+      </c>
+      <c r="H852" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I852" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B853" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C853" t="str">
+        <v>Sanscrit 1442.7a</v>
+      </c>
+      <c r="D853" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E853" t="str">
+        <v>Saṃkrāntadhanaviṣaya</v>
+      </c>
+      <c r="F853" t="str">
+        <v/>
+      </c>
+      <c r="G853" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H853" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I853" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="str">
+        <v>śrīhariḥ |</v>
+      </c>
+      <c r="B854" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C854" t="str">
+        <v>Sanscrit 1442.7b</v>
+      </c>
+      <c r="D854" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E854" t="str">
+        <v>Mahābhārata – Mokṣadharmaparvan</v>
+      </c>
+      <c r="F854" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G854" t="str">
+        <v>folio 2r</v>
+      </c>
+      <c r="H854" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I854" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I851"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I854"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -15648,7 +15648,7 @@
         <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E527" t="str">
-        <v>2 narratives: Pañcatantirakkatai &amp; Nālumantirikkatai</v>
+        <v>2 narratives: Pañcatantirak Katai &amp; Nālu Mantirik Katai</v>
       </c>
       <c r="F527" t="str">
         <v>U2a</v>
@@ -15677,7 +15677,7 @@
         <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E528" t="str">
-        <v>2 narratives: Pañcatantirakkatai &amp; Nālumantirikkatai</v>
+        <v>2 narratives: Pañcatantirak Katai &amp; Nālu Mantirik Katai</v>
       </c>
       <c r="F528" t="str">
         <v>U2a</v>
@@ -15706,7 +15706,7 @@
         <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E529" t="str">
-        <v>2 narratives: Pañcatantirakkatai &amp; Nālumantirikkatai</v>
+        <v>2 narratives: Pañcatantirak Katai &amp; Nālu Mantirik Katai</v>
       </c>
       <c r="F529" t="str">
         <v>U2a</v>
@@ -15735,7 +15735,7 @@
         <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E530" t="str">
-        <v>2 narratives: Pañcatantirakkatai &amp; Nālumantirikkatai</v>
+        <v>2 narratives: Pañcatantirak Katai &amp; Nālu Mantirik Katai</v>
       </c>
       <c r="F530" t="str">
         <v>U2a</v>
@@ -15764,7 +15764,7 @@
         <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E531" t="str">
-        <v>2 narratives: Pañcatantirakkatai &amp; Nālumantirikkatai</v>
+        <v>2 narratives: Pañcatantirak Katai &amp; Nālu Mantirik Katai</v>
       </c>
       <c r="F531" t="str">
         <v>U2b</v>
@@ -15793,7 +15793,7 @@
         <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E532" t="str">
-        <v>2 narratives: Pañcatantirakkatai &amp; Nālumantirikkatai</v>
+        <v>2 narratives: Pañcatantirak Katai &amp; Nālu Mantirik Katai</v>
       </c>
       <c r="F532" t="str">
         <v>U3a</v>
@@ -15822,7 +15822,7 @@
         <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E533" t="str">
-        <v>2 narratives: Pañcatantirakkatai &amp; Nālumantirikkatai</v>
+        <v>2 narratives: Pañcatantirak Katai &amp; Nālu Mantirik Katai</v>
       </c>
       <c r="F533" t="str">
         <v>U3a</v>

--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I866"/>
+  <dimension ref="A1:I868"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18188,28 +18188,28 @@
     </row>
     <row r="615">
       <c r="A615" t="str">
-        <v>ṟā=ma-ceya=m</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B615" t="str">
-        <v>ṟāmaceyam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C615" t="str">
-        <v>Indien 512</v>
+        <v>Indien 506</v>
       </c>
       <c r="D615" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E615" t="str">
-        <v>Uḷḷamuṭaiyāṉ</v>
+        <v>Periya Purāṇam &amp; Naiṭatam</v>
       </c>
       <c r="F615" t="str">
-        <v>U2</v>
+        <v>U2a</v>
       </c>
       <c r="G615" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H615" t="str">
-        <v>left margin</v>
+        <v>column</v>
       </c>
       <c r="I615" t="str">
         <v>0</v>
@@ -18217,25 +18217,25 @@
     </row>
     <row r="616">
       <c r="A616" t="str">
-        <v>ṟā=ma-ceya=m</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B616" t="str">
-        <v>ṟāmaceyam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C616" t="str">
-        <v>Indien 512</v>
+        <v>Indien 506</v>
       </c>
       <c r="D616" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E616" t="str">
-        <v>Uḷḷamuṭaiyāṉ</v>
+        <v>Periya Purāṇam &amp; Naiṭatam</v>
       </c>
       <c r="F616" t="str">
-        <v>U3</v>
+        <v>U2d</v>
       </c>
       <c r="G616" t="str">
-        <v>folio [1]r</v>
+        <v>folio 99r</v>
       </c>
       <c r="H616" t="str">
         <v>left margin</v>
@@ -18261,13 +18261,13 @@
         <v>Uḷḷamuṭaiyāṉ</v>
       </c>
       <c r="F617" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G617" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H617" t="str">
-        <v>column 2</v>
+        <v>left margin</v>
       </c>
       <c r="I617" t="str">
         <v>0</v>
@@ -18275,10 +18275,10 @@
     </row>
     <row r="618">
       <c r="A618" t="str">
-        <v>kuru-pātam tuṇai</v>
+        <v>ṟā=ma-ceya=m</v>
       </c>
       <c r="B618" t="str">
-        <v>kurupātam tuṇai</v>
+        <v>ṟāmaceyam</v>
       </c>
       <c r="C618" t="str">
         <v>Indien 512</v>
@@ -18293,13 +18293,13 @@
         <v>U3</v>
       </c>
       <c r="G618" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H618" t="str">
-        <v>column 3</v>
+        <v>left margin</v>
       </c>
       <c r="I618" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -18319,13 +18319,13 @@
         <v>Uḷḷamuṭaiyāṉ</v>
       </c>
       <c r="F619" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G619" t="str">
-        <v>folio [1]r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H619" t="str">
-        <v>left margin</v>
+        <v>column 2</v>
       </c>
       <c r="I619" t="str">
         <v>0</v>
@@ -18333,10 +18333,10 @@
     </row>
     <row r="620">
       <c r="A620" t="str">
-        <v>ṟā=ma-ceya=m</v>
+        <v>kuru-pātam tuṇai</v>
       </c>
       <c r="B620" t="str">
-        <v>ṟāmaceyam</v>
+        <v>kurupātam tuṇai</v>
       </c>
       <c r="C620" t="str">
         <v>Indien 512</v>
@@ -18348,24 +18348,24 @@
         <v>Uḷḷamuṭaiyāṉ</v>
       </c>
       <c r="F620" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G620" t="str">
         <v>folio [1]v</v>
       </c>
       <c r="H620" t="str">
-        <v>column 2</v>
+        <v>column 3</v>
       </c>
       <c r="I620" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="str">
-        <v>kuru-pātam tuṇai</v>
+        <v>ṟā=ma-ceya=m</v>
       </c>
       <c r="B621" t="str">
-        <v>kurupātam tuṇai</v>
+        <v>ṟāmaceyam</v>
       </c>
       <c r="C621" t="str">
         <v>Indien 512</v>
@@ -18380,21 +18380,21 @@
         <v>U4</v>
       </c>
       <c r="G621" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H621" t="str">
-        <v>column 2</v>
+        <v>left margin</v>
       </c>
       <c r="I621" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="str">
-        <v>maṅkai</v>
+        <v>ṟā=ma-ceya=m</v>
       </c>
       <c r="B622" t="str">
-        <v>maṅkai</v>
+        <v>ṟāmaceyam</v>
       </c>
       <c r="C622" t="str">
         <v>Indien 512</v>
@@ -18406,13 +18406,13 @@
         <v>Uḷḷamuṭaiyāṉ</v>
       </c>
       <c r="F622" t="str">
-        <v>U6</v>
+        <v>U4</v>
       </c>
       <c r="G622" t="str">
-        <v>folio [1]r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H622" t="str">
-        <v>left margin</v>
+        <v>column 2</v>
       </c>
       <c r="I622" t="str">
         <v>0</v>
@@ -18420,10 +18420,10 @@
     </row>
     <row r="623">
       <c r="A623" t="str">
-        <v>rāma-ceyam</v>
+        <v>kuru-pātam tuṇai</v>
       </c>
       <c r="B623" t="str">
-        <v>rāmaceyam</v>
+        <v>kurupātam tuṇai</v>
       </c>
       <c r="C623" t="str">
         <v>Indien 512</v>
@@ -18435,24 +18435,24 @@
         <v>Uḷḷamuṭaiyāṉ</v>
       </c>
       <c r="F623" t="str">
-        <v>U6</v>
+        <v>U4</v>
       </c>
       <c r="G623" t="str">
-        <v>folio [1]r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H623" t="str">
-        <v>left margin</v>
+        <v>column 2</v>
       </c>
       <c r="I623" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="str">
-        <v>Ari Om</v>
+        <v>maṅkai</v>
       </c>
       <c r="B624" t="str">
-        <v>Ari Om</v>
+        <v>maṅkai</v>
       </c>
       <c r="C624" t="str">
         <v>Indien 512</v>
@@ -18470,7 +18470,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H624" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I624" t="str">
         <v>0</v>
@@ -18478,10 +18478,10 @@
     </row>
     <row r="625">
       <c r="A625" t="str">
-        <v>naṉṟāka</v>
+        <v>rāma-ceyam</v>
       </c>
       <c r="B625" t="str">
-        <v>naṉṟāka</v>
+        <v>rāmaceyam</v>
       </c>
       <c r="C625" t="str">
         <v>Indien 512</v>
@@ -18499,7 +18499,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H625" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I625" t="str">
         <v>0</v>
@@ -18507,10 +18507,10 @@
     </row>
     <row r="626">
       <c r="A626" t="str">
-        <v>kuru vāḻka</v>
+        <v>Ari Om</v>
       </c>
       <c r="B626" t="str">
-        <v>kuru vāḻka</v>
+        <v>Ari Om</v>
       </c>
       <c r="C626" t="str">
         <v>Indien 512</v>
@@ -18536,10 +18536,10 @@
     </row>
     <row r="627">
       <c r="A627" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B627" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C627" t="str">
         <v>Indien 512</v>
@@ -18560,15 +18560,15 @@
         <v>main text area</v>
       </c>
       <c r="I627" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="str">
-        <v>maṅkai</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="B628" t="str">
-        <v>maṅkai</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="C628" t="str">
         <v>Indien 512</v>
@@ -18594,10 +18594,10 @@
     </row>
     <row r="629">
       <c r="A629" t="str">
-        <v>rāma-ceya=m</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B629" t="str">
-        <v>rāmaceyam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C629" t="str">
         <v>Indien 512</v>
@@ -18618,15 +18618,15 @@
         <v>main text area</v>
       </c>
       <c r="I629" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="str">
-        <v>rāma-rāma-ceya=m</v>
+        <v>maṅkai</v>
       </c>
       <c r="B630" t="str">
-        <v>rāmarāmaceyam</v>
+        <v>maṅkai</v>
       </c>
       <c r="C630" t="str">
         <v>Indien 512</v>
@@ -18652,10 +18652,10 @@
     </row>
     <row r="631">
       <c r="A631" t="str">
-        <v>maṅkai-rāma-ceya=m</v>
+        <v>rāma-ceya=m</v>
       </c>
       <c r="B631" t="str">
-        <v>maṅkairāmaceyam</v>
+        <v>rāmaceyam</v>
       </c>
       <c r="C631" t="str">
         <v>Indien 512</v>
@@ -18670,7 +18670,7 @@
         <v>U6</v>
       </c>
       <c r="G631" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H631" t="str">
         <v>main text area</v>
@@ -18681,10 +18681,10 @@
     </row>
     <row r="632">
       <c r="A632" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>rāma-rāma-ceya=m</v>
       </c>
       <c r="B632" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>rāmarāmaceyam</v>
       </c>
       <c r="C632" t="str">
         <v>Indien 512</v>
@@ -18699,21 +18699,21 @@
         <v>U6</v>
       </c>
       <c r="G632" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H632" t="str">
         <v>main text area</v>
       </c>
       <c r="I632" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="str">
-        <v>kuvaṉūr poyyāta meyyāṉ tuṇai yuṇṭākavu=m</v>
+        <v>maṅkai-rāma-ceya=m</v>
       </c>
       <c r="B633" t="str">
-        <v>kuvaṉūr poyyāta meyyāṉ tuṇai yuṇṭākavum</v>
+        <v>maṅkairāmaceyam</v>
       </c>
       <c r="C633" t="str">
         <v>Indien 512</v>
@@ -18734,15 +18734,15 @@
         <v>main text area</v>
       </c>
       <c r="I633" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="str">
-        <v>rāmaceya=m</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B634" t="str">
-        <v>rāmaceyam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C634" t="str">
         <v>Indien 512</v>
@@ -18763,15 +18763,15 @@
         <v>main text area</v>
       </c>
       <c r="I634" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="str">
-        <v>maṅkai</v>
+        <v>kuvaṉūr poyyāta meyyāṉ tuṇai yuṇṭākavu=m</v>
       </c>
       <c r="B635" t="str">
-        <v>maṅkai</v>
+        <v>kuvaṉūr poyyāta meyyāṉ tuṇai yuṇṭākavum</v>
       </c>
       <c r="C635" t="str">
         <v>Indien 512</v>
@@ -18786,18 +18786,18 @@
         <v>U6</v>
       </c>
       <c r="G635" t="str">
-        <v>folio [2]r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H635" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I635" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="str">
-        <v>rāma-ceya=m</v>
+        <v>rāmaceya=m</v>
       </c>
       <c r="B636" t="str">
         <v>rāmaceyam</v>
@@ -18815,10 +18815,10 @@
         <v>U6</v>
       </c>
       <c r="G636" t="str">
-        <v>folio [2]r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H636" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I636" t="str">
         <v>0</v>
@@ -18847,7 +18847,7 @@
         <v>folio [2]r</v>
       </c>
       <c r="H637" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I637" t="str">
         <v>0</v>
@@ -18855,10 +18855,10 @@
     </row>
     <row r="638">
       <c r="A638" t="str">
-        <v>ṟā=ma-ceya=m</v>
+        <v>rāma-ceya=m</v>
       </c>
       <c r="B638" t="str">
-        <v>ṟāmaceyam</v>
+        <v>rāmaceyam</v>
       </c>
       <c r="C638" t="str">
         <v>Indien 512</v>
@@ -18876,7 +18876,7 @@
         <v>folio [2]r</v>
       </c>
       <c r="H638" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I638" t="str">
         <v>0</v>
@@ -18884,10 +18884,10 @@
     </row>
     <row r="639">
       <c r="A639" t="str">
-        <v>ṟā=ma-ceya=m</v>
+        <v>maṅkai</v>
       </c>
       <c r="B639" t="str">
-        <v>ṟāmaceyam</v>
+        <v>maṅkai</v>
       </c>
       <c r="C639" t="str">
         <v>Indien 512</v>
@@ -18902,7 +18902,7 @@
         <v>U6</v>
       </c>
       <c r="G639" t="str">
-        <v>folio [2]v</v>
+        <v>folio [2]r</v>
       </c>
       <c r="H639" t="str">
         <v>main text area</v>
@@ -18913,10 +18913,10 @@
     </row>
     <row r="640">
       <c r="A640" t="str">
-        <v>maṅkai</v>
+        <v>ṟā=ma-ceya=m</v>
       </c>
       <c r="B640" t="str">
-        <v>maṅkai</v>
+        <v>ṟāmaceyam</v>
       </c>
       <c r="C640" t="str">
         <v>Indien 512</v>
@@ -18931,10 +18931,10 @@
         <v>U6</v>
       </c>
       <c r="G640" t="str">
-        <v>folio 3r</v>
+        <v>folio [2]r</v>
       </c>
       <c r="H640" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I640" t="str">
         <v>0</v>
@@ -18942,10 +18942,10 @@
     </row>
     <row r="641">
       <c r="A641" t="str">
-        <v>rāmaceyam</v>
+        <v>ṟā=ma-ceya=m</v>
       </c>
       <c r="B641" t="str">
-        <v>rāmaceyam</v>
+        <v>ṟāmaceyam</v>
       </c>
       <c r="C641" t="str">
         <v>Indien 512</v>
@@ -18960,7 +18960,7 @@
         <v>U6</v>
       </c>
       <c r="G641" t="str">
-        <v>folio 3r</v>
+        <v>folio [2]v</v>
       </c>
       <c r="H641" t="str">
         <v>main text area</v>
@@ -18971,10 +18971,10 @@
     </row>
     <row r="642">
       <c r="A642" t="str">
-        <v>kuruvē tunai</v>
+        <v>maṅkai</v>
       </c>
       <c r="B642" t="str">
-        <v>kuruvē tunai</v>
+        <v>maṅkai</v>
       </c>
       <c r="C642" t="str">
         <v>Indien 512</v>
@@ -18992,7 +18992,7 @@
         <v>folio 3r</v>
       </c>
       <c r="H642" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I642" t="str">
         <v>0</v>
@@ -19000,10 +19000,10 @@
     </row>
     <row r="643">
       <c r="A643" t="str">
-        <v>maṅkai</v>
+        <v>rāmaceyam</v>
       </c>
       <c r="B643" t="str">
-        <v>maṅkai</v>
+        <v>rāmaceyam</v>
       </c>
       <c r="C643" t="str">
         <v>Indien 512</v>
@@ -19018,10 +19018,10 @@
         <v>U6</v>
       </c>
       <c r="G643" t="str">
-        <v>folio 4r</v>
+        <v>folio 3r</v>
       </c>
       <c r="H643" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I643" t="str">
         <v>0</v>
@@ -19029,10 +19029,10 @@
     </row>
     <row r="644">
       <c r="A644" t="str">
-        <v>rāmaceya=m</v>
+        <v>kuruvē tunai</v>
       </c>
       <c r="B644" t="str">
-        <v>rāmaceyam</v>
+        <v>kuruvē tunai</v>
       </c>
       <c r="C644" t="str">
         <v>Indien 512</v>
@@ -19047,10 +19047,10 @@
         <v>U6</v>
       </c>
       <c r="G644" t="str">
-        <v>folio 4r</v>
+        <v>folio 3r</v>
       </c>
       <c r="H644" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I644" t="str">
         <v>0</v>
@@ -19058,10 +19058,10 @@
     </row>
     <row r="645">
       <c r="A645" t="str">
-        <v>rā=maceya=m</v>
+        <v>maṅkai</v>
       </c>
       <c r="B645" t="str">
-        <v>rāmaceyam</v>
+        <v>maṅkai</v>
       </c>
       <c r="C645" t="str">
         <v>Indien 512</v>
@@ -19076,7 +19076,7 @@
         <v>U6</v>
       </c>
       <c r="G645" t="str">
-        <v>folio 208v</v>
+        <v>folio 4r</v>
       </c>
       <c r="H645" t="str">
         <v>left margin</v>
@@ -19087,10 +19087,10 @@
     </row>
     <row r="646">
       <c r="A646" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>rāmaceya=m</v>
       </c>
       <c r="B646" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>rāmaceyam</v>
       </c>
       <c r="C646" t="str">
         <v>Indien 512</v>
@@ -19105,13 +19105,13 @@
         <v>U6</v>
       </c>
       <c r="G646" t="str">
-        <v>folio 208v</v>
+        <v>folio 4r</v>
       </c>
       <c r="H646" t="str">
         <v>left margin</v>
       </c>
       <c r="I646" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -19131,10 +19131,10 @@
         <v>Uḷḷamuṭaiyāṉ</v>
       </c>
       <c r="F647" t="str">
-        <v>U8</v>
+        <v>U6</v>
       </c>
       <c r="G647" t="str">
-        <v>folio [1]r</v>
+        <v>folio 208v</v>
       </c>
       <c r="H647" t="str">
         <v>left margin</v>
@@ -19145,10 +19145,10 @@
     </row>
     <row r="648">
       <c r="A648" t="str">
-        <v>rā=maceya=m</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B648" t="str">
-        <v>rāmaceyam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C648" t="str">
         <v>Indien 512</v>
@@ -19160,24 +19160,24 @@
         <v>Uḷḷamuṭaiyāṉ</v>
       </c>
       <c r="F648" t="str">
-        <v>U8</v>
+        <v>U6</v>
       </c>
       <c r="G648" t="str">
-        <v>folio [1]v</v>
+        <v>folio 208v</v>
       </c>
       <c r="H648" t="str">
         <v>left margin</v>
       </c>
       <c r="I648" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>rā=maceya=m</v>
       </c>
       <c r="B649" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>rāmaceyam</v>
       </c>
       <c r="C649" t="str">
         <v>Indien 512</v>
@@ -19192,13 +19192,13 @@
         <v>U8</v>
       </c>
       <c r="G649" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H649" t="str">
         <v>left margin</v>
       </c>
       <c r="I649" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
@@ -19218,10 +19218,10 @@
         <v>Uḷḷamuṭaiyāṉ</v>
       </c>
       <c r="F650" t="str">
-        <v>U9</v>
+        <v>U8</v>
       </c>
       <c r="G650" t="str">
-        <v>folio [1]r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H650" t="str">
         <v>left margin</v>
@@ -19232,10 +19232,10 @@
     </row>
     <row r="651">
       <c r="A651" t="str">
-        <v>rā=maceya=m</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B651" t="str">
-        <v>rāmaceyam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C651" t="str">
         <v>Indien 512</v>
@@ -19247,24 +19247,24 @@
         <v>Uḷḷamuṭaiyāṉ</v>
       </c>
       <c r="F651" t="str">
-        <v>U9</v>
+        <v>U8</v>
       </c>
       <c r="G651" t="str">
-        <v>folio 2r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H651" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I651" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="str">
-        <v>ṟā=maceya=m</v>
+        <v>rā=maceya=m</v>
       </c>
       <c r="B652" t="str">
-        <v>ṟāmaceyam</v>
+        <v>rāmaceyam</v>
       </c>
       <c r="C652" t="str">
         <v>Indien 512</v>
@@ -19276,7 +19276,7 @@
         <v>Uḷḷamuṭaiyāṉ</v>
       </c>
       <c r="F652" t="str">
-        <v>U10</v>
+        <v>U9</v>
       </c>
       <c r="G652" t="str">
         <v>folio [1]r</v>
@@ -19290,10 +19290,10 @@
     </row>
     <row r="653">
       <c r="A653" t="str">
-        <v>ṟā=maceya=m</v>
+        <v>rā=maceya=m</v>
       </c>
       <c r="B653" t="str">
-        <v>ṟāmaceyam</v>
+        <v>rāmaceyam</v>
       </c>
       <c r="C653" t="str">
         <v>Indien 512</v>
@@ -19305,13 +19305,13 @@
         <v>Uḷḷamuṭaiyāṉ</v>
       </c>
       <c r="F653" t="str">
-        <v>U10</v>
+        <v>U9</v>
       </c>
       <c r="G653" t="str">
-        <v>folio [1]v</v>
+        <v>folio 2r</v>
       </c>
       <c r="H653" t="str">
-        <v>column 5</v>
+        <v>main text area</v>
       </c>
       <c r="I653" t="str">
         <v>0</v>
@@ -19319,10 +19319,10 @@
     </row>
     <row r="654">
       <c r="A654" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>ṟā=maceya=m</v>
       </c>
       <c r="B654" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>ṟāmaceyam</v>
       </c>
       <c r="C654" t="str">
         <v>Indien 512</v>
@@ -19337,39 +19337,39 @@
         <v>U10</v>
       </c>
       <c r="G654" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H654" t="str">
-        <v>column 5</v>
+        <v>left margin</v>
       </c>
       <c r="I654" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="str">
-        <v>hari Om</v>
+        <v>ṟā=maceya=m</v>
       </c>
       <c r="B655" t="str">
-        <v>hari Om</v>
+        <v>ṟāmaceyam</v>
       </c>
       <c r="C655" t="str">
-        <v>Indien 516</v>
+        <v>Indien 512</v>
       </c>
       <c r="D655" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E655" t="str">
-        <v>Mantiracāttiram</v>
+        <v>Uḷḷamuṭaiyāṉ</v>
       </c>
       <c r="F655" t="str">
-        <v>U2</v>
+        <v>U10</v>
       </c>
       <c r="G655" t="str">
-        <v>folio 102r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H655" t="str">
-        <v>left margin</v>
+        <v>column 5</v>
       </c>
       <c r="I655" t="str">
         <v>0</v>
@@ -19377,39 +19377,39 @@
     </row>
     <row r="656">
       <c r="A656" t="str">
-        <v>naṉṟāka</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B656" t="str">
-        <v>naṉṟāka</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C656" t="str">
-        <v>Indien 516</v>
+        <v>Indien 512</v>
       </c>
       <c r="D656" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E656" t="str">
-        <v>Mantiracāttiram</v>
+        <v>Uḷḷamuṭaiyāṉ</v>
       </c>
       <c r="F656" t="str">
-        <v>U2</v>
+        <v>U10</v>
       </c>
       <c r="G656" t="str">
-        <v>folio 102r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H656" t="str">
-        <v>left margin</v>
+        <v>column 5</v>
       </c>
       <c r="I656" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>hari Om</v>
       </c>
       <c r="B657" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>hari Om</v>
       </c>
       <c r="C657" t="str">
         <v>Indien 516</v>
@@ -19424,7 +19424,7 @@
         <v>U2</v>
       </c>
       <c r="G657" t="str">
-        <v>folio 124r</v>
+        <v>folio 102r</v>
       </c>
       <c r="H657" t="str">
         <v>left margin</v>
@@ -19435,25 +19435,25 @@
     </row>
     <row r="658">
       <c r="A658" t="str">
-        <v>hari Om</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B658" t="str">
-        <v>hari Om</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C658" t="str">
-        <v>Indien 521</v>
+        <v>Indien 516</v>
       </c>
       <c r="D658" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E658" t="str">
-        <v>Cattappirakaraṇam</v>
+        <v>Mantiracāttiram</v>
       </c>
       <c r="F658" t="str">
         <v>U2</v>
       </c>
       <c r="G658" t="str">
-        <v>folio 1r</v>
+        <v>folio 102r</v>
       </c>
       <c r="H658" t="str">
         <v>left margin</v>
@@ -19464,25 +19464,25 @@
     </row>
     <row r="659">
       <c r="A659" t="str">
-        <v>kuru-pātam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B659" t="str">
-        <v>kurupātam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C659" t="str">
-        <v>Indien 521</v>
+        <v>Indien 516</v>
       </c>
       <c r="D659" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E659" t="str">
-        <v>Cattappirakaraṇam</v>
+        <v>Mantiracāttiram</v>
       </c>
       <c r="F659" t="str">
         <v>U2</v>
       </c>
       <c r="G659" t="str">
-        <v>folio 29r</v>
+        <v>folio 124r</v>
       </c>
       <c r="H659" t="str">
         <v>left margin</v>
@@ -19493,28 +19493,28 @@
     </row>
     <row r="660">
       <c r="A660" t="str">
-        <v>civamayam•</v>
+        <v>hari Om</v>
       </c>
       <c r="B660" t="str">
-        <v>civamayam</v>
+        <v>hari Om</v>
       </c>
       <c r="C660" t="str">
-        <v>Indien 524</v>
+        <v>Indien 521</v>
       </c>
       <c r="D660" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E660" t="str">
-        <v>Mayilattantānti</v>
+        <v>Cattappirakaraṇam</v>
       </c>
       <c r="F660" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G660" t="str">
         <v>folio 1r</v>
       </c>
       <c r="H660" t="str">
-        <v>column 1</v>
+        <v>left margin</v>
       </c>
       <c r="I660" t="str">
         <v>0</v>
@@ -19522,25 +19522,25 @@
     </row>
     <row r="661">
       <c r="A661" t="str">
-        <v>hari Om [the whole blessing hari Om is itself written inside a O=m]</v>
+        <v>kuru-pātam</v>
       </c>
       <c r="B661" t="str">
-        <v>hari Om [the whole blessing hari Om is itself written inside a Om]</v>
+        <v>kurupātam</v>
       </c>
       <c r="C661" t="str">
-        <v>Indien 524</v>
+        <v>Indien 521</v>
       </c>
       <c r="D661" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E661" t="str">
-        <v>Mayilattantānti</v>
+        <v>Cattappirakaraṇam</v>
       </c>
       <c r="F661" t="str">
         <v>U2</v>
       </c>
       <c r="G661" t="str">
-        <v>folio 1r</v>
+        <v>folio 29r</v>
       </c>
       <c r="H661" t="str">
         <v>left margin</v>
@@ -19551,10 +19551,10 @@
     </row>
     <row r="662">
       <c r="A662" t="str">
-        <v>naṉṟāka [the whole blessing naṉṟāka is itself written inside a O=m]</v>
+        <v>civamayam•</v>
       </c>
       <c r="B662" t="str">
-        <v>naṉṟāka [the whole blessing naṉṟāka is itself written inside a Om]</v>
+        <v>civamayam</v>
       </c>
       <c r="C662" t="str">
         <v>Indien 524</v>
@@ -19566,13 +19566,13 @@
         <v>Mayilattantānti</v>
       </c>
       <c r="F662" t="str">
-        <v>U3</v>
+        <v>U1</v>
       </c>
       <c r="G662" t="str">
         <v>folio 1r</v>
       </c>
       <c r="H662" t="str">
-        <v>left margin</v>
+        <v>column 1</v>
       </c>
       <c r="I662" t="str">
         <v>0</v>
@@ -19580,10 +19580,10 @@
     </row>
     <row r="663">
       <c r="A663" t="str">
-        <v>civacuppiṟamaṇiyar tuṇai</v>
+        <v>hari Om [the whole blessing hari Om is itself written inside a O=m]</v>
       </c>
       <c r="B663" t="str">
-        <v>civacuppiṟamaṇiyar tuṇai</v>
+        <v>hari Om [the whole blessing hari Om is itself written inside a Om]</v>
       </c>
       <c r="C663" t="str">
         <v>Indien 524</v>
@@ -19595,36 +19595,36 @@
         <v>Mayilattantānti</v>
       </c>
       <c r="F663" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G663" t="str">
-        <v>folio 34r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H663" t="str">
-        <v>right margin</v>
+        <v>left margin</v>
       </c>
       <c r="I663" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="str">
-        <v>vicumi llāki ṟṟakumāṇi ṟṟakīm</v>
+        <v>naṉṟāka [the whole blessing naṉṟāka is itself written inside a O=m]</v>
       </c>
       <c r="B664" t="str">
-        <v>vicumi llāki ṟṟakumāṇi ṟṟakīm</v>
+        <v>naṉṟāka [the whole blessing naṉṟāka is itself written inside a Om]</v>
       </c>
       <c r="C664" t="str">
-        <v>Indien 529</v>
+        <v>Indien 524</v>
       </c>
       <c r="D664" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E664" t="str">
-        <v>Muslim Catechism?</v>
+        <v>Mayilattantānti</v>
       </c>
       <c r="F664" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G664" t="str">
         <v>folio 1r</v>
@@ -19638,28 +19638,28 @@
     </row>
     <row r="665">
       <c r="A665" t="str">
-        <v>cecu mariyē cuce tuṇai</v>
+        <v>civacuppiṟamaṇiyar tuṇai</v>
       </c>
       <c r="B665" t="str">
-        <v>cecu mariyē cuce tuṇai</v>
+        <v>civacuppiṟamaṇiyar tuṇai</v>
       </c>
       <c r="C665" t="str">
-        <v>Indien 530f</v>
+        <v>Indien 524</v>
       </c>
       <c r="D665" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E665" t="str">
-        <v>Kalviyoḻukkam</v>
+        <v>Mayilattantānti</v>
       </c>
       <c r="F665" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G665" t="str">
-        <v>folio [1]r</v>
+        <v>folio 34r</v>
       </c>
       <c r="H665" t="str">
-        <v>left margin 1</v>
+        <v>right margin</v>
       </c>
       <c r="I665" t="str">
         <v>1</v>
@@ -19667,28 +19667,28 @@
     </row>
     <row r="666">
       <c r="A666" t="str">
-        <v>[...] (pa)kaṉ [...] ḷ ma [...] namo[s•t]tu</v>
+        <v>vicumi llāki ṟṟakumāṇi ṟṟakīm</v>
       </c>
       <c r="B666" t="str">
-        <v>pakaṉ ḷ ma namosttu</v>
+        <v>vicumi llāki ṟṟakumāṇi ṟṟakīm</v>
       </c>
       <c r="C666" t="str">
-        <v>Indien 532</v>
+        <v>Indien 529</v>
       </c>
       <c r="D666" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E666" t="str">
-        <v>Rāmāyaṇam</v>
+        <v>Muslim Catechism?</v>
       </c>
       <c r="F666" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G666" t="str">
-        <v>folio [1]r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H666" t="str">
-        <v>left margin 1</v>
+        <v>left margin</v>
       </c>
       <c r="I666" t="str">
         <v>0</v>
@@ -19696,19 +19696,19 @@
     </row>
     <row r="667">
       <c r="A667" t="str">
-        <v>śrī-ṟakuṉāyakar cītālaṭcumi-kiṟupai-y uṇṭāka tākavum</v>
+        <v>cecu mariyē cuce tuṇai</v>
       </c>
       <c r="B667" t="str">
-        <v>śrīṟakuṉāyakar cītālaṭcumikiṟupaiy uṇṭāka tākavum</v>
+        <v>cecu mariyē cuce tuṇai</v>
       </c>
       <c r="C667" t="str">
-        <v>Indien 532</v>
+        <v>Indien 530f</v>
       </c>
       <c r="D667" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E667" t="str">
-        <v>Rāmāyaṇam</v>
+        <v>Kalviyoḻukkam</v>
       </c>
       <c r="F667" t="str">
         <v>U1</v>
@@ -19717,27 +19717,27 @@
         <v>folio [1]r</v>
       </c>
       <c r="H667" t="str">
-        <v>left margin 2</v>
+        <v>left margin 1</v>
       </c>
       <c r="I667" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="str">
-        <v>hariḥ Om</v>
+        <v>[...] (pa)kaṉ [...] ḷ ma [...] namo[s•t]tu</v>
       </c>
       <c r="B668" t="str">
-        <v>hariḥ Om</v>
+        <v>pakaṉ ḷ ma namosttu</v>
       </c>
       <c r="C668" t="str">
-        <v>Indien 545b</v>
+        <v>Indien 532</v>
       </c>
       <c r="D668" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E668" t="str">
-        <v>TBC</v>
+        <v>Rāmāyaṇam</v>
       </c>
       <c r="F668" t="str">
         <v>U1</v>
@@ -19746,7 +19746,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H668" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I668" t="str">
         <v>0</v>
@@ -19754,28 +19754,28 @@
     </row>
     <row r="669">
       <c r="A669" t="str">
-        <v>lokapirave namaḥ</v>
+        <v>śrī-ṟakuṉāyakar cītālaṭcumi-kiṟupai-y uṇṭāka tākavum</v>
       </c>
       <c r="B669" t="str">
-        <v>lokapirave namaḥ</v>
+        <v>śrīṟakuṉāyakar cītālaṭcumikiṟupaiy uṇṭāka tākavum</v>
       </c>
       <c r="C669" t="str">
-        <v>Indien 545b</v>
+        <v>Indien 532</v>
       </c>
       <c r="D669" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E669" t="str">
-        <v>TBC</v>
+        <v>Rāmāyaṇam</v>
       </c>
       <c r="F669" t="str">
         <v>U1</v>
       </c>
       <c r="G669" t="str">
-        <v>folio 20v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H669" t="str">
-        <v>main text area</v>
+        <v>left margin 2</v>
       </c>
       <c r="I669" t="str">
         <v>0</v>
@@ -19783,28 +19783,28 @@
     </row>
     <row r="670">
       <c r="A670" t="str">
-        <v>Em perumāṉar· tiruvatikaḷē caraṇam</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B670" t="str">
-        <v>Em perumāṉar· tiruvatikaḷē caraṇam</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C670" t="str">
-        <v>Indien 545c</v>
+        <v>Indien 545b</v>
       </c>
       <c r="D670" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E670" t="str">
-        <v>Nūṟṟantāti</v>
+        <v>TBC</v>
       </c>
       <c r="F670" t="str">
         <v>U1</v>
       </c>
       <c r="G670" t="str">
-        <v>folio 26r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H670" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I670" t="str">
         <v>0</v>
@@ -19812,25 +19812,25 @@
     </row>
     <row r="671">
       <c r="A671" t="str">
-        <v>jīyar· tiruvatikaḷē caraṇam</v>
+        <v>lokapirave namaḥ</v>
       </c>
       <c r="B671" t="str">
-        <v>jīyar· tiruvatikaḷē caraṇam</v>
+        <v>lokapirave namaḥ</v>
       </c>
       <c r="C671" t="str">
-        <v>Indien 545c</v>
+        <v>Indien 545b</v>
       </c>
       <c r="D671" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E671" t="str">
-        <v>Nūṟṟantāti</v>
+        <v>TBC</v>
       </c>
       <c r="F671" t="str">
         <v>U1</v>
       </c>
       <c r="G671" t="str">
-        <v>folio 26r</v>
+        <v>folio 20v</v>
       </c>
       <c r="H671" t="str">
         <v>main text area</v>
@@ -19841,28 +19841,28 @@
     </row>
     <row r="672">
       <c r="A672" t="str">
-        <v>harī Om</v>
+        <v>Em perumāṉar· tiruvatikaḷē caraṇam</v>
       </c>
       <c r="B672" t="str">
-        <v>harī Om</v>
+        <v>Em perumāṉar· tiruvatikaḷē caraṇam</v>
       </c>
       <c r="C672" t="str">
-        <v>Indien 547a</v>
+        <v>Indien 545c</v>
       </c>
       <c r="D672" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E672" t="str">
-        <v>TBC</v>
+        <v>Nūṟṟantāti</v>
       </c>
       <c r="F672" t="str">
         <v>U1</v>
       </c>
       <c r="G672" t="str">
-        <v>folio [1]r</v>
+        <v>folio 26r</v>
       </c>
       <c r="H672" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I672" t="str">
         <v>0</v>
@@ -19870,28 +19870,28 @@
     </row>
     <row r="673">
       <c r="A673" t="str">
-        <v>Aḻvār tiruvaṭikaḷē cara=na=m</v>
+        <v>jīyar· tiruvatikaḷē caraṇam</v>
       </c>
       <c r="B673" t="str">
-        <v>Aḻvār tiruvaṭikaḷē caranam</v>
+        <v>jīyar· tiruvatikaḷē caraṇam</v>
       </c>
       <c r="C673" t="str">
-        <v>Indien 547c</v>
+        <v>Indien 545c</v>
       </c>
       <c r="D673" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E673" t="str">
-        <v>TBC</v>
+        <v>Nūṟṟantāti</v>
       </c>
       <c r="F673" t="str">
         <v>U1</v>
       </c>
       <c r="G673" t="str">
-        <v>folio [1]r</v>
+        <v>folio 26r</v>
       </c>
       <c r="H673" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I673" t="str">
         <v>0</v>
@@ -19899,13 +19899,13 @@
     </row>
     <row r="674">
       <c r="A674" t="str">
-        <v>Aḻvār tiruvaṭikaḷē caṟaṇam</v>
+        <v>harī Om</v>
       </c>
       <c r="B674" t="str">
-        <v>Aḻvār tiruvaṭikaḷē caṟaṇam</v>
+        <v>harī Om</v>
       </c>
       <c r="C674" t="str">
-        <v>Indien 547d</v>
+        <v>Indien 547a</v>
       </c>
       <c r="D674" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -19914,7 +19914,7 @@
         <v>TBC</v>
       </c>
       <c r="F674" t="str">
-        <v/>
+        <v>U1</v>
       </c>
       <c r="G674" t="str">
         <v>folio [1]r</v>
@@ -19928,13 +19928,13 @@
     </row>
     <row r="675">
       <c r="A675" t="str">
-        <v>ciyāṟ tiruvatikaḷē caṟaṇa=m</v>
+        <v>Aḻvār tiruvaṭikaḷē cara=na=m</v>
       </c>
       <c r="B675" t="str">
-        <v>ciyāṟ tiruvatikaḷē caṟaṇam</v>
+        <v>Aḻvār tiruvaṭikaḷē caranam</v>
       </c>
       <c r="C675" t="str">
-        <v>Indien 547e</v>
+        <v>Indien 547c</v>
       </c>
       <c r="D675" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -19946,10 +19946,10 @@
         <v>U1</v>
       </c>
       <c r="G675" t="str">
-        <v>folio 28v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H675" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I675" t="str">
         <v>0</v>
@@ -19957,28 +19957,28 @@
     </row>
     <row r="676">
       <c r="A676" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>Aḻvār tiruvaṭikaḷē caṟaṇam</v>
       </c>
       <c r="B676" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>Aḻvār tiruvaṭikaḷē caṟaṇam</v>
       </c>
       <c r="C676" t="str">
-        <v>Indien 566</v>
+        <v>Indien 547d</v>
       </c>
       <c r="D676" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E676" t="str">
-        <v>Stanzas (Śaiva)</v>
+        <v>TBC</v>
       </c>
       <c r="F676" t="str">
-        <v>U1a</v>
+        <v/>
       </c>
       <c r="G676" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H676" t="str">
-        <v>left margin 1</v>
+        <v>left margin</v>
       </c>
       <c r="I676" t="str">
         <v>0</v>
@@ -19986,28 +19986,28 @@
     </row>
     <row r="677">
       <c r="A677" t="str">
-        <v>oṁ</v>
+        <v>ciyāṟ tiruvatikaḷē caṟaṇa=m</v>
       </c>
       <c r="B677" t="str">
-        <v>oṁ</v>
+        <v>ciyāṟ tiruvatikaḷē caṟaṇam</v>
       </c>
       <c r="C677" t="str">
-        <v>Indien 567</v>
+        <v>Indien 547e</v>
       </c>
       <c r="D677" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E677" t="str">
-        <v>Pāratavilācam</v>
+        <v>TBC</v>
       </c>
       <c r="F677" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G677" t="str">
+        <v>folio 28v</v>
+      </c>
+      <c r="H677" t="str">
         <v/>
-      </c>
-      <c r="G677" t="str">
-        <v>title folio</v>
-      </c>
-      <c r="H677" t="str">
-        <v>marginal, title page</v>
       </c>
       <c r="I677" t="str">
         <v>0</v>
@@ -20015,28 +20015,28 @@
     </row>
     <row r="678">
       <c r="A678" t="str">
-        <v>(ōm) [grantha?] ceyam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B678" t="str">
-        <v>ōm ceyam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C678" t="str">
-        <v>Indien 567</v>
+        <v>Indien 566</v>
       </c>
       <c r="D678" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E678" t="str">
-        <v>Pāratavilācam</v>
+        <v>Stanzas (Śaiva)</v>
       </c>
       <c r="F678" t="str">
-        <v/>
+        <v>U1a</v>
       </c>
       <c r="G678" t="str">
-        <v>f. 1</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H678" t="str">
-        <v>marginal, beginning</v>
+        <v>left margin 1</v>
       </c>
       <c r="I678" t="str">
         <v>0</v>
@@ -20044,28 +20044,28 @@
     </row>
     <row r="679">
       <c r="A679" t="str">
-        <v>hari Om</v>
+        <v>oṁ</v>
       </c>
       <c r="B679" t="str">
-        <v>hari Om</v>
+        <v>oṁ</v>
       </c>
       <c r="C679" t="str">
-        <v>Indien 575</v>
+        <v>Indien 567</v>
       </c>
       <c r="D679" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E679" t="str">
-        <v>Nikaṇṭu</v>
+        <v>Pāratavilācam</v>
       </c>
       <c r="F679" t="str">
-        <v>U2</v>
+        <v/>
       </c>
       <c r="G679" t="str">
-        <v>folio 1r</v>
+        <v>title folio</v>
       </c>
       <c r="H679" t="str">
-        <v>left margin 1</v>
+        <v>marginal, title page</v>
       </c>
       <c r="I679" t="str">
         <v>0</v>
@@ -20073,28 +20073,28 @@
     </row>
     <row r="680">
       <c r="A680" t="str">
-        <v>śrī-ṟā=ma-ceyam</v>
+        <v>(ōm) [grantha?] ceyam</v>
       </c>
       <c r="B680" t="str">
-        <v>śrīṟāmaceyam</v>
+        <v>ōm ceyam</v>
       </c>
       <c r="C680" t="str">
-        <v>Indien 947</v>
+        <v>Indien 567</v>
       </c>
       <c r="D680" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E680" t="str">
-        <v>Kamparāmāyaṇam</v>
+        <v>Pāratavilācam</v>
       </c>
       <c r="F680" t="str">
-        <v>U3</v>
+        <v/>
       </c>
       <c r="G680" t="str">
-        <v>folio 1r</v>
+        <v>f. 1</v>
       </c>
       <c r="H680" t="str">
-        <v>left margin</v>
+        <v>marginal, beginning</v>
       </c>
       <c r="I680" t="str">
         <v>0</v>
@@ -20102,28 +20102,28 @@
     </row>
     <row r="681">
       <c r="A681" t="str">
-        <v>śrī-rāma-jeyam</v>
+        <v>hari Om</v>
       </c>
       <c r="B681" t="str">
-        <v>śrīrāmajeyam</v>
+        <v>hari Om</v>
       </c>
       <c r="C681" t="str">
-        <v>Indien 947</v>
+        <v>Indien 575</v>
       </c>
       <c r="D681" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E681" t="str">
-        <v>Kamparāmāyaṇam</v>
+        <v>Nikaṇṭu</v>
       </c>
       <c r="F681" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G681" t="str">
-        <v>folio 1v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H681" t="str">
-        <v>main text area</v>
+        <v>left margin 1</v>
       </c>
       <c r="I681" t="str">
         <v>0</v>
@@ -20131,10 +20131,10 @@
     </row>
     <row r="682">
       <c r="A682" t="str">
-        <v>hariḥ Om</v>
+        <v>śrī-ṟā=ma-ceyam</v>
       </c>
       <c r="B682" t="str">
-        <v>hariḥ Om</v>
+        <v>śrīṟāmaceyam</v>
       </c>
       <c r="C682" t="str">
         <v>Indien 947</v>
@@ -20146,7 +20146,7 @@
         <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F682" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G682" t="str">
         <v>folio 1r</v>
@@ -20160,10 +20160,10 @@
     </row>
     <row r="683">
       <c r="A683" t="str">
-        <v>śrī-ṟāma-ceya=m</v>
+        <v>śrī-rāma-jeyam</v>
       </c>
       <c r="B683" t="str">
-        <v>śrīṟāmaceyam</v>
+        <v>śrīrāmajeyam</v>
       </c>
       <c r="C683" t="str">
         <v>Indien 947</v>
@@ -20175,13 +20175,13 @@
         <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F683" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G683" t="str">
-        <v>folio 112r</v>
+        <v>folio 1v</v>
       </c>
       <c r="H683" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I683" t="str">
         <v>0</v>
@@ -20189,10 +20189,10 @@
     </row>
     <row r="684">
       <c r="A684" t="str">
-        <v>śrī-ṟā=ma-ceyam</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B684" t="str">
-        <v>śrīṟāmaceyam</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C684" t="str">
         <v>Indien 947</v>
@@ -20207,7 +20207,7 @@
         <v>U4</v>
       </c>
       <c r="G684" t="str">
-        <v>folio 112r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H684" t="str">
         <v>left margin</v>
@@ -20218,7 +20218,7 @@
     </row>
     <row r="685">
       <c r="A685" t="str">
-        <v>śrī-ṟā=ma-ceya=m</v>
+        <v>śrī-ṟāma-ceya=m</v>
       </c>
       <c r="B685" t="str">
         <v>śrīṟāmaceyam</v>
@@ -20247,13 +20247,13 @@
     </row>
     <row r="686">
       <c r="A686" t="str">
-        <v>śrī-ṟā=ma-ceya=m</v>
+        <v>śrī-ṟā=ma-ceyam</v>
       </c>
       <c r="B686" t="str">
         <v>śrīṟāmaceyam</v>
       </c>
       <c r="C686" t="str">
-        <v>Indien 949</v>
+        <v>Indien 947</v>
       </c>
       <c r="D686" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -20262,10 +20262,10 @@
         <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F686" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G686" t="str">
-        <v>folio 125r</v>
+        <v>folio 112r</v>
       </c>
       <c r="H686" t="str">
         <v>left margin</v>
@@ -20276,13 +20276,13 @@
     </row>
     <row r="687">
       <c r="A687" t="str">
-        <v>śrī-rā=ma-ceya=m</v>
+        <v>śrī-ṟā=ma-ceya=m</v>
       </c>
       <c r="B687" t="str">
-        <v>śrīrāmaceyam</v>
+        <v>śrīṟāmaceyam</v>
       </c>
       <c r="C687" t="str">
-        <v>Indien 949</v>
+        <v>Indien 947</v>
       </c>
       <c r="D687" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -20291,10 +20291,10 @@
         <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F687" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G687" t="str">
-        <v>folio 211r</v>
+        <v>folio 112r</v>
       </c>
       <c r="H687" t="str">
         <v>left margin</v>
@@ -20305,10 +20305,10 @@
     </row>
     <row r="688">
       <c r="A688" t="str">
-        <v>śrī-rāma-ceyam</v>
+        <v>śrī-ṟā=ma-ceya=m</v>
       </c>
       <c r="B688" t="str">
-        <v>śrīrāmaceyam</v>
+        <v>śrīṟāmaceyam</v>
       </c>
       <c r="C688" t="str">
         <v>Indien 949</v>
@@ -20323,7 +20323,7 @@
         <v>U2</v>
       </c>
       <c r="G688" t="str">
-        <v>folio 211r</v>
+        <v>folio 125r</v>
       </c>
       <c r="H688" t="str">
         <v>left margin</v>
@@ -20334,10 +20334,10 @@
     </row>
     <row r="689">
       <c r="A689" t="str">
-        <v>śrī-ṟāma-ceyam</v>
+        <v>śrī-rā=ma-ceya=m</v>
       </c>
       <c r="B689" t="str">
-        <v>śrīṟāmaceyam</v>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C689" t="str">
         <v>Indien 949</v>
@@ -20363,7 +20363,7 @@
     </row>
     <row r="690">
       <c r="A690" t="str">
-        <v>śrī-rā=ma-ceya=m</v>
+        <v>śrī-rāma-ceyam</v>
       </c>
       <c r="B690" t="str">
         <v>śrīrāmaceyam</v>
@@ -20378,13 +20378,13 @@
         <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F690" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G690" t="str">
-        <v>folio 133r</v>
+        <v>folio 211r</v>
       </c>
       <c r="H690" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I690" t="str">
         <v>0</v>
@@ -20392,57 +20392,57 @@
     </row>
     <row r="691">
       <c r="A691" t="str">
-        <v>veṟṟi-vēl uṟṟa tuṇai</v>
+        <v>śrī-ṟāma-ceyam</v>
       </c>
       <c r="B691" t="str">
-        <v>veṟṟivēl uṟṟa tuṇai</v>
+        <v>śrīṟāmaceyam</v>
       </c>
       <c r="C691" t="str">
-        <v>Indien 950</v>
+        <v>Indien 949</v>
       </c>
       <c r="D691" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E691" t="str">
-        <v>Tēvāram</v>
+        <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F691" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G691" t="str">
-        <v>folio [1]r</v>
+        <v>folio 211r</v>
       </c>
       <c r="H691" t="str">
-        <v>column 1</v>
+        <v>left margin</v>
       </c>
       <c r="I691" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="str">
-        <v>hariḥ Om</v>
+        <v>śrī-rā=ma-ceya=m</v>
       </c>
       <c r="B692" t="str">
-        <v>hariḥ Om</v>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C692" t="str">
-        <v>Indien 950</v>
+        <v>Indien 949</v>
       </c>
       <c r="D692" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E692" t="str">
-        <v>Tēvāram</v>
+        <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F692" t="str">
         <v>U3</v>
       </c>
       <c r="G692" t="str">
-        <v>folio [1]r</v>
+        <v>folio 133r</v>
       </c>
       <c r="H692" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I692" t="str">
         <v>0</v>
@@ -20450,10 +20450,10 @@
     </row>
     <row r="693">
       <c r="A693" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>veṟṟi-vēl uṟṟa tuṇai</v>
       </c>
       <c r="B693" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>veṟṟivēl uṟṟa tuṇai</v>
       </c>
       <c r="C693" t="str">
         <v>Indien 950</v>
@@ -20465,24 +20465,24 @@
         <v>Tēvāram</v>
       </c>
       <c r="F693" t="str">
-        <v>U3</v>
+        <v>U1</v>
       </c>
       <c r="G693" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H693" t="str">
-        <v>left margin</v>
+        <v>column 1</v>
       </c>
       <c r="I693" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B694" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C694" t="str">
         <v>Indien 950</v>
@@ -20497,10 +20497,10 @@
         <v>U3</v>
       </c>
       <c r="G694" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H694" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I694" t="str">
         <v>0</v>
@@ -20508,10 +20508,10 @@
     </row>
     <row r="695">
       <c r="A695" t="str">
-        <v>tirucciṟampalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B695" t="str">
-        <v>tirucciṟampalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C695" t="str">
         <v>Indien 950</v>
@@ -20526,7 +20526,7 @@
         <v>U3</v>
       </c>
       <c r="G695" t="str">
-        <v>folio 540v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H695" t="str">
         <v>left margin</v>
@@ -20537,10 +20537,10 @@
     </row>
     <row r="696">
       <c r="A696" t="str">
-        <v>tiru¿cita?mpalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B696" t="str">
-        <v>tirucitampalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C696" t="str">
         <v>Indien 950</v>
@@ -20552,13 +20552,13 @@
         <v>Tēvāram</v>
       </c>
       <c r="F696" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G696" t="str">
-        <v>folio 541r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H696" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I696" t="str">
         <v>0</v>
@@ -20566,28 +20566,28 @@
     </row>
     <row r="697">
       <c r="A697" t="str">
-        <v>śu(bha)m astu</v>
+        <v>tirucciṟampalam</v>
       </c>
       <c r="B697" t="str">
-        <v>śubham astu</v>
+        <v>tirucciṟampalam</v>
       </c>
       <c r="C697" t="str">
-        <v>Indien 951</v>
+        <v>Indien 950</v>
       </c>
       <c r="D697" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E697" t="str">
-        <v>Kamparāmāyaṇam</v>
+        <v>Tēvāram</v>
       </c>
       <c r="F697" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G697" t="str">
-        <v>folio [1]r</v>
+        <v>folio 540v</v>
       </c>
       <c r="H697" t="str">
-        <v>left margin 1</v>
+        <v>left margin</v>
       </c>
       <c r="I697" t="str">
         <v>0</v>
@@ -20595,28 +20595,28 @@
     </row>
     <row r="698">
       <c r="A698" t="str">
-        <v>śrī-ṟā=ma-jayam</v>
+        <v>tiru¿cita?mpalam</v>
       </c>
       <c r="B698" t="str">
-        <v>śrīṟāmajayam</v>
+        <v>tirucitampalam</v>
       </c>
       <c r="C698" t="str">
-        <v>Indien 951</v>
+        <v>Indien 950</v>
       </c>
       <c r="D698" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E698" t="str">
-        <v>Kamparāmāyaṇam</v>
+        <v>Tēvāram</v>
       </c>
       <c r="F698" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G698" t="str">
-        <v>folio [1]r</v>
+        <v>folio 541r</v>
       </c>
       <c r="H698" t="str">
-        <v>left margin 2</v>
+        <v>left margin</v>
       </c>
       <c r="I698" t="str">
         <v>0</v>
@@ -20624,10 +20624,10 @@
     </row>
     <row r="699">
       <c r="A699" t="str">
-        <v>śrī-ṟā=ma-jayam</v>
+        <v>śu(bha)m astu</v>
       </c>
       <c r="B699" t="str">
-        <v>śrīṟāmajayam</v>
+        <v>śubham astu</v>
       </c>
       <c r="C699" t="str">
         <v>Indien 951</v>
@@ -20645,7 +20645,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H699" t="str">
-        <v>main text area</v>
+        <v>left margin 1</v>
       </c>
       <c r="I699" t="str">
         <v>0</v>
@@ -20653,10 +20653,10 @@
     </row>
     <row r="700">
       <c r="A700" t="str">
-        <v>śu(bha)m as(tu)</v>
+        <v>śrī-ṟā=ma-jayam</v>
       </c>
       <c r="B700" t="str">
-        <v>śubham astu</v>
+        <v>śrīṟāmajayam</v>
       </c>
       <c r="C700" t="str">
         <v>Indien 951</v>
@@ -20674,7 +20674,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H700" t="str">
-        <v>main text area</v>
+        <v>left margin 2</v>
       </c>
       <c r="I700" t="str">
         <v>0</v>
@@ -20682,10 +20682,10 @@
     </row>
     <row r="701">
       <c r="A701" t="str">
-        <v>śrī-rāmaṉ tuṇai</v>
+        <v>śrī-ṟā=ma-jayam</v>
       </c>
       <c r="B701" t="str">
-        <v>śrīrāmaṉ tuṇai</v>
+        <v>śrīṟāmajayam</v>
       </c>
       <c r="C701" t="str">
         <v>Indien 951</v>
@@ -20706,15 +20706,15 @@
         <v>main text area</v>
       </c>
       <c r="I701" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="str">
-        <v>śrī[rāma]ṉ tuṇai</v>
+        <v>śu(bha)m as(tu)</v>
       </c>
       <c r="B702" t="str">
-        <v>śrīrāmaṉ tuṇai</v>
+        <v>śubham astu</v>
       </c>
       <c r="C702" t="str">
         <v>Indien 951</v>
@@ -20726,24 +20726,24 @@
         <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F702" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G702" t="str">
-        <v>folio 3r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H702" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I702" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="str">
-        <v>śrīmaṉārāyaṇar kiṟupai y-uṇṭāka</v>
+        <v>śrī-rāmaṉ tuṇai</v>
       </c>
       <c r="B703" t="str">
-        <v>śrīmaṉārāyaṇar kiṟupai yuṇṭāka</v>
+        <v>śrīrāmaṉ tuṇai</v>
       </c>
       <c r="C703" t="str">
         <v>Indien 951</v>
@@ -20755,24 +20755,24 @@
         <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F703" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G703" t="str">
-        <v>folio 395v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H703" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I703" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="str">
-        <v>śrīmaṉ-ṉārāyaṇar kiṟupai y-uṇṭāka vēṇum</v>
+        <v>śrī[rāma]ṉ tuṇai</v>
       </c>
       <c r="B704" t="str">
-        <v>śrīmaṉṉārāyaṇar kiṟupai yuṇṭāka vēṇum</v>
+        <v>śrīrāmaṉ tuṇai</v>
       </c>
       <c r="C704" t="str">
         <v>Indien 951</v>
@@ -20787,21 +20787,21 @@
         <v>U3</v>
       </c>
       <c r="G704" t="str">
-        <v>folio 401v</v>
+        <v>folio 3r</v>
       </c>
       <c r="H704" t="str">
         <v>left margin</v>
       </c>
       <c r="I704" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="str">
-        <v>hari Om</v>
+        <v>śrīmaṉārāyaṇar kiṟupai y-uṇṭāka</v>
       </c>
       <c r="B705" t="str">
-        <v>hari Om</v>
+        <v>śrīmaṉārāyaṇar kiṟupai yuṇṭāka</v>
       </c>
       <c r="C705" t="str">
         <v>Indien 951</v>
@@ -20816,7 +20816,7 @@
         <v>U3</v>
       </c>
       <c r="G705" t="str">
-        <v>folio 401v</v>
+        <v>folio 395v</v>
       </c>
       <c r="H705" t="str">
         <v>left margin</v>
@@ -20827,28 +20827,28 @@
     </row>
     <row r="706">
       <c r="A706" t="str">
-        <v>hari Om·</v>
+        <v>śrīmaṉ-ṉārāyaṇar kiṟupai y-uṇṭāka vēṇum</v>
       </c>
       <c r="B706" t="str">
-        <v>hari Om·</v>
+        <v>śrīmaṉṉārāyaṇar kiṟupai yuṇṭāka vēṇum</v>
       </c>
       <c r="C706" t="str">
-        <v>Indien 953</v>
+        <v>Indien 951</v>
       </c>
       <c r="D706" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E706" t="str">
-        <v>Naḷacakkarvarttik Katai</v>
+        <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F706" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G706" t="str">
-        <v>folio [1]r</v>
+        <v>folio 401v</v>
       </c>
       <c r="H706" t="str">
-        <v>left margin 1</v>
+        <v>left margin</v>
       </c>
       <c r="I706" t="str">
         <v>0</v>
@@ -20856,28 +20856,28 @@
     </row>
     <row r="707">
       <c r="A707" t="str">
-        <v>naṉṟāka</v>
+        <v>hari Om</v>
       </c>
       <c r="B707" t="str">
-        <v>naṉṟāka</v>
+        <v>hari Om</v>
       </c>
       <c r="C707" t="str">
-        <v>Indien 953</v>
+        <v>Indien 951</v>
       </c>
       <c r="D707" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E707" t="str">
-        <v>Naḷacakkarvarttik Katai</v>
+        <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F707" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G707" t="str">
-        <v>folio [1]r</v>
+        <v>folio 401v</v>
       </c>
       <c r="H707" t="str">
-        <v>left margin 1</v>
+        <v>left margin</v>
       </c>
       <c r="I707" t="str">
         <v>0</v>
@@ -20885,10 +20885,10 @@
     </row>
     <row r="708">
       <c r="A708" t="str">
-        <v>kuru vāḻka</v>
+        <v>hari Om·</v>
       </c>
       <c r="B708" t="str">
-        <v>kuru vāḻka</v>
+        <v>hari Om·</v>
       </c>
       <c r="C708" t="str">
         <v>Indien 953</v>
@@ -20914,10 +20914,10 @@
     </row>
     <row r="709">
       <c r="A709" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B709" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C709" t="str">
         <v>Indien 953</v>
@@ -20938,15 +20938,15 @@
         <v>left margin 1</v>
       </c>
       <c r="I709" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="str">
-        <v>śrī-ṟāmaceyam</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="B710" t="str">
-        <v>śrīṟāmaceyam</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="C710" t="str">
         <v>Indien 953</v>
@@ -20972,10 +20972,10 @@
     </row>
     <row r="711">
       <c r="A711" t="str">
-        <v>cāṟatāmpāḷ tuṇai</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B711" t="str">
-        <v>cāṟatāmpāḷ tuṇai</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C711" t="str">
         <v>Indien 953</v>
@@ -20993,7 +20993,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H711" t="str">
-        <v>main text area</v>
+        <v>left margin 1</v>
       </c>
       <c r="I711" t="str">
         <v>1</v>
@@ -21001,10 +21001,10 @@
     </row>
     <row r="712">
       <c r="A712" t="str">
-        <v>naṉṟāka</v>
+        <v>śrī-ṟāmaceyam</v>
       </c>
       <c r="B712" t="str">
-        <v>naṉṟāka</v>
+        <v>śrīṟāmaceyam</v>
       </c>
       <c r="C712" t="str">
         <v>Indien 953</v>
@@ -21016,13 +21016,13 @@
         <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F712" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G712" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H712" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I712" t="str">
         <v>0</v>
@@ -21030,10 +21030,10 @@
     </row>
     <row r="713">
       <c r="A713" t="str">
-        <v>civamayam</v>
+        <v>cāṟatāmpāḷ tuṇai</v>
       </c>
       <c r="B713" t="str">
-        <v>civamayam</v>
+        <v>cāṟatāmpāḷ tuṇai</v>
       </c>
       <c r="C713" t="str">
         <v>Indien 953</v>
@@ -21045,24 +21045,24 @@
         <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F713" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G713" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H713" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I713" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="str">
-        <v>vāṇikātēvi cakāyam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B714" t="str">
-        <v>vāṇikātēvi cakāyam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C714" t="str">
         <v>Indien 953</v>
@@ -21077,10 +21077,10 @@
         <v>U2</v>
       </c>
       <c r="G714" t="str">
-        <v>folio 117r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H714" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I714" t="str">
         <v>0</v>
@@ -21088,10 +21088,10 @@
     </row>
     <row r="715">
       <c r="A715" t="str">
-        <v>teṭcaṇāmūrtti-kiṟupai y-uṇṭāka tākavum</v>
+        <v>civamayam</v>
       </c>
       <c r="B715" t="str">
-        <v>teṭcaṇāmūrttikiṟupai yuṇṭāka tākavum</v>
+        <v>civamayam</v>
       </c>
       <c r="C715" t="str">
         <v>Indien 953</v>
@@ -21106,10 +21106,10 @@
         <v>U2</v>
       </c>
       <c r="G715" t="str">
-        <v>folio 117r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H715" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I715" t="str">
         <v>0</v>
@@ -21117,10 +21117,10 @@
     </row>
     <row r="716">
       <c r="A716" t="str">
-        <v>śrī-ṟā=ma-ceya=m</v>
+        <v>vāṇikātēvi cakāyam</v>
       </c>
       <c r="B716" t="str">
-        <v>śrīṟāmaceyam</v>
+        <v>vāṇikātēvi cakāyam</v>
       </c>
       <c r="C716" t="str">
         <v>Indien 953</v>
@@ -21146,10 +21146,10 @@
     </row>
     <row r="717">
       <c r="A717" t="str">
-        <v>kuru-kiṟupai</v>
+        <v>teṭcaṇāmūrtti-kiṟupai y-uṇṭāka tākavum</v>
       </c>
       <c r="B717" t="str">
-        <v>kurukiṟupai</v>
+        <v>teṭcaṇāmūrttikiṟupai yuṇṭāka tākavum</v>
       </c>
       <c r="C717" t="str">
         <v>Indien 953</v>
@@ -21175,28 +21175,28 @@
     </row>
     <row r="718">
       <c r="A718" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>śrī-ṟā=ma-ceya=m</v>
       </c>
       <c r="B718" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>śrīṟāmaceyam</v>
       </c>
       <c r="C718" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D718" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E718" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F718" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G718" t="str">
-        <v>folio [1]r</v>
+        <v>folio 117r</v>
       </c>
       <c r="H718" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I718" t="str">
         <v>0</v>
@@ -21204,28 +21204,28 @@
     </row>
     <row r="719">
       <c r="A719" t="str">
-        <v>tēvicakāyam•</v>
+        <v>kuru-kiṟupai</v>
       </c>
       <c r="B719" t="str">
-        <v>tēvicakāyam</v>
+        <v>kurukiṟupai</v>
       </c>
       <c r="C719" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D719" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E719" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F719" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G719" t="str">
-        <v>folio [1]r</v>
+        <v>folio 117r</v>
       </c>
       <c r="H719" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I719" t="str">
         <v>0</v>
@@ -21233,10 +21233,10 @@
     </row>
     <row r="720">
       <c r="A720" t="str">
-        <v>civam•</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B720" t="str">
-        <v>civam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C720" t="str">
         <v>Indien 954</v>
@@ -21262,10 +21262,10 @@
     </row>
     <row r="721">
       <c r="A721" t="str">
-        <v>tirucciṟṟampalam•</v>
+        <v>tēvicakāyam•</v>
       </c>
       <c r="B721" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C721" t="str">
         <v>Indien 954</v>
@@ -21280,10 +21280,10 @@
         <v>U1</v>
       </c>
       <c r="G721" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H721" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I721" t="str">
         <v>0</v>
@@ -21291,10 +21291,10 @@
     </row>
     <row r="722">
       <c r="A722" t="str">
-        <v>tēvicakāyam</v>
+        <v>civam•</v>
       </c>
       <c r="B722" t="str">
-        <v>tēvicakāyam</v>
+        <v>civam</v>
       </c>
       <c r="C722" t="str">
         <v>Indien 954</v>
@@ -21309,10 +21309,10 @@
         <v>U1</v>
       </c>
       <c r="G722" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H722" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I722" t="str">
         <v>0</v>
@@ -21320,10 +21320,10 @@
     </row>
     <row r="723">
       <c r="A723" t="str">
-        <v>naṉṟāka</v>
+        <v>tirucciṟṟampalam•</v>
       </c>
       <c r="B723" t="str">
-        <v>naṉṟāka</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C723" t="str">
         <v>Indien 954</v>
@@ -21335,13 +21335,13 @@
         <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F723" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G723" t="str">
-        <v>folio [1]r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H723" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I723" t="str">
         <v>0</v>
@@ -21364,10 +21364,10 @@
         <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F724" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G724" t="str">
-        <v>folio 11r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H724" t="str">
         <v>main text area</v>
@@ -21378,10 +21378,10 @@
     </row>
     <row r="725">
       <c r="A725" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B725" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C725" t="str">
         <v>Indien 954</v>
@@ -21396,10 +21396,10 @@
         <v>U2</v>
       </c>
       <c r="G725" t="str">
-        <v>folio 11r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H725" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I725" t="str">
         <v>0</v>
@@ -21407,10 +21407,10 @@
     </row>
     <row r="726">
       <c r="A726" t="str">
-        <v>civar</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="B726" t="str">
-        <v>civar</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C726" t="str">
         <v>Indien 954</v>
@@ -21436,10 +21436,10 @@
     </row>
     <row r="727">
       <c r="A727" t="str">
-        <v>civar</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B727" t="str">
-        <v>civar</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C727" t="str">
         <v>Indien 954</v>
@@ -21454,10 +21454,10 @@
         <v>U2</v>
       </c>
       <c r="G727" t="str">
-        <v>folio 12r</v>
+        <v>folio 11r</v>
       </c>
       <c r="H727" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I727" t="str">
         <v>0</v>
@@ -21465,10 +21465,10 @@
     </row>
     <row r="728">
       <c r="A728" t="str">
-        <v>Āṟumukam tuṇai</v>
+        <v>civar</v>
       </c>
       <c r="B728" t="str">
-        <v>Āṟumukam tuṇai</v>
+        <v>civar</v>
       </c>
       <c r="C728" t="str">
         <v>Indien 954</v>
@@ -21483,21 +21483,21 @@
         <v>U2</v>
       </c>
       <c r="G728" t="str">
-        <v>folio 120r</v>
+        <v>folio 11r</v>
       </c>
       <c r="H728" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I728" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="str">
-        <v>Ampalat¿(tuṭu)?tu mayyar tuṇai-y-āka vēṇum</v>
+        <v>civar</v>
       </c>
       <c r="B729" t="str">
-        <v>Ampalattuṭutu mayyar tuṇaiyāka vēṇum</v>
+        <v>civar</v>
       </c>
       <c r="C729" t="str">
         <v>Indien 954</v>
@@ -21512,21 +21512,21 @@
         <v>U2</v>
       </c>
       <c r="G729" t="str">
-        <v>folio 120r</v>
+        <v>folio 12r</v>
       </c>
       <c r="H729" t="str">
         <v>left margin</v>
       </c>
       <c r="I729" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="str">
-        <v>tēvicakāya=m</v>
+        <v>Āṟumukam tuṇai</v>
       </c>
       <c r="B730" t="str">
-        <v>tēvicakāyam</v>
+        <v>Āṟumukam tuṇai</v>
       </c>
       <c r="C730" t="str">
         <v>Indien 954</v>
@@ -21547,15 +21547,15 @@
         <v>left margin</v>
       </c>
       <c r="I730" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>Ampalat¿(tuṭu)?tu mayyar tuṇai-y-āka vēṇum</v>
       </c>
       <c r="B731" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>Ampalattuṭutu mayyar tuṇaiyāka vēṇum</v>
       </c>
       <c r="C731" t="str">
         <v>Indien 954</v>
@@ -21576,15 +21576,15 @@
         <v>left margin</v>
       </c>
       <c r="I731" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="str">
-        <v>kuru vāḻka</v>
+        <v>tēvicakāya=m</v>
       </c>
       <c r="B732" t="str">
-        <v>kuru vāḻka</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C732" t="str">
         <v>Indien 954</v>
@@ -21610,10 +21610,10 @@
     </row>
     <row r="733">
       <c r="A733" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B733" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C733" t="str">
         <v>Indien 954</v>
@@ -21634,15 +21634,15 @@
         <v>left margin</v>
       </c>
       <c r="I733" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="str">
-        <v>civar civar</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="B734" t="str">
-        <v>civar civar</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="C734" t="str">
         <v>Indien 954</v>
@@ -21668,10 +21668,10 @@
     </row>
     <row r="735">
       <c r="A735" t="str">
-        <v>tēvicakāyam•</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B735" t="str">
-        <v>tēvicakāyam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C735" t="str">
         <v>Indien 954</v>
@@ -21686,21 +21686,21 @@
         <v>U2</v>
       </c>
       <c r="G735" t="str">
-        <v>folio 120v</v>
+        <v>folio 120r</v>
       </c>
       <c r="H735" t="str">
         <v>left margin</v>
       </c>
       <c r="I735" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="str">
-        <v>tēvicakāyam•</v>
+        <v>civar civar</v>
       </c>
       <c r="B736" t="str">
-        <v>tēvicakāyam</v>
+        <v>civar civar</v>
       </c>
       <c r="C736" t="str">
         <v>Indien 954</v>
@@ -21712,10 +21712,10 @@
         <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F736" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G736" t="str">
-        <v>folio [1]r</v>
+        <v>folio 120r</v>
       </c>
       <c r="H736" t="str">
         <v>left margin</v>
@@ -21726,25 +21726,25 @@
     </row>
     <row r="737">
       <c r="A737" t="str">
-        <v>naṉṟāka</v>
+        <v>tēvicakāyam•</v>
       </c>
       <c r="B737" t="str">
-        <v>naṉṟāka</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C737" t="str">
-        <v>Indien 955</v>
+        <v>Indien 954</v>
       </c>
       <c r="D737" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E737" t="str">
-        <v>Cīvakacintāmaṇi, part 1 of 2</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F737" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G737" t="str">
-        <v>folio 1r</v>
+        <v>folio 120v</v>
       </c>
       <c r="H737" t="str">
         <v>left margin</v>
@@ -21755,25 +21755,25 @@
     </row>
     <row r="738">
       <c r="A738" t="str">
-        <v>[...] śrīyo na=ma=ḥ</v>
+        <v>tēvicakāyam•</v>
       </c>
       <c r="B738" t="str">
-        <v>śrīyo nama=ḥ</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C738" t="str">
-        <v>Indien 955</v>
+        <v>Indien 954</v>
       </c>
       <c r="D738" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E738" t="str">
-        <v>Cīvakacintāmaṇi, part 1 of 2</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F738" t="str">
         <v>U3</v>
       </c>
       <c r="G738" t="str">
-        <v>folio 142r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H738" t="str">
         <v>left margin</v>
@@ -21784,10 +21784,10 @@
     </row>
     <row r="739">
       <c r="A739" t="str">
-        <v>Evvuyirattum potuvāṉ kaṭavuḷ pātamē caraṇa⟨m⟩</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B739" t="str">
-        <v>Evvuyirattum potuvāṉ kaṭavuḷ pātamē caraṇam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C739" t="str">
         <v>Indien 955</v>
@@ -21802,7 +21802,7 @@
         <v>U3</v>
       </c>
       <c r="G739" t="str">
-        <v>folio 142r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H739" t="str">
         <v>left margin</v>
@@ -21813,10 +21813,10 @@
     </row>
     <row r="740">
       <c r="A740" t="str">
-        <v>Ōm·</v>
+        <v>[...] śrīyo na=ma=ḥ</v>
       </c>
       <c r="B740" t="str">
-        <v>Ōm·</v>
+        <v>śrīyo nama=ḥ</v>
       </c>
       <c r="C740" t="str">
         <v>Indien 955</v>
@@ -21831,10 +21831,10 @@
         <v>U3</v>
       </c>
       <c r="G740" t="str">
-        <v>folio 248r</v>
+        <v>folio 142r</v>
       </c>
       <c r="H740" t="str">
-        <v>left margin 2</v>
+        <v>left margin</v>
       </c>
       <c r="I740" t="str">
         <v>0</v>
@@ -21842,28 +21842,28 @@
     </row>
     <row r="741">
       <c r="A741" t="str">
-        <v>Āṉāti namastu</v>
+        <v>Evvuyirattum potuvāṉ kaṭavuḷ pātamē caraṇa⟨m⟩</v>
       </c>
       <c r="B741" t="str">
-        <v>Āṉāti namastu</v>
+        <v>Evvuyirattum potuvāṉ kaṭavuḷ pātamē caraṇam</v>
       </c>
       <c r="C741" t="str">
-        <v>Indien 956</v>
+        <v>Indien 955</v>
       </c>
       <c r="D741" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E741" t="str">
-        <v>Tiruvēṅkaṭacatakam</v>
+        <v>Cīvakacintāmaṇi, part 1 of 2</v>
       </c>
       <c r="F741" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G741" t="str">
-        <v>folio [1]r</v>
+        <v>folio 142r</v>
       </c>
       <c r="H741" t="str">
-        <v>left margin 2</v>
+        <v>left margin</v>
       </c>
       <c r="I741" t="str">
         <v>0</v>
@@ -21871,28 +21871,28 @@
     </row>
     <row r="742">
       <c r="A742" t="str">
-        <v>naṉṟāka</v>
+        <v>Ōm·</v>
       </c>
       <c r="B742" t="str">
-        <v>naṉṟāka</v>
+        <v>Ōm·</v>
       </c>
       <c r="C742" t="str">
-        <v>Indien 956</v>
+        <v>Indien 955</v>
       </c>
       <c r="D742" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E742" t="str">
-        <v>Tiruvēṅkaṭacatakam</v>
+        <v>Cīvakacintāmaṇi, part 1 of 2</v>
       </c>
       <c r="F742" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G742" t="str">
-        <v>folio 1r</v>
+        <v>folio 248r</v>
       </c>
       <c r="H742" t="str">
-        <v>left margin 1</v>
+        <v>left margin 2</v>
       </c>
       <c r="I742" t="str">
         <v>0</v>
@@ -21900,28 +21900,28 @@
     </row>
     <row r="743">
       <c r="A743" t="str">
-        <v>namostu</v>
+        <v>Āṉāti namastu</v>
       </c>
       <c r="B743" t="str">
-        <v>namostu</v>
+        <v>Āṉāti namastu</v>
       </c>
       <c r="C743" t="str">
-        <v>Indien 957</v>
+        <v>Indien 956</v>
       </c>
       <c r="D743" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E743" t="str">
-        <v>Cīvakacintāmaṇi, part 2 of 2</v>
+        <v>Tiruvēṅkaṭacatakam</v>
       </c>
       <c r="F743" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G743" t="str">
-        <v>folio 333r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H743" t="str">
-        <v>left margin 1</v>
+        <v>left margin 2</v>
       </c>
       <c r="I743" t="str">
         <v>0</v>
@@ -21929,28 +21929,28 @@
     </row>
     <row r="744">
       <c r="A744" t="str">
-        <v>namostt=tu</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B744" t="str">
-        <v>namostttu</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C744" t="str">
-        <v>Indien 957</v>
+        <v>Indien 956</v>
       </c>
       <c r="D744" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E744" t="str">
-        <v>Cīvakacintāmaṇi, part 2 of 2</v>
+        <v>Tiruvēṅkaṭacatakam</v>
       </c>
       <c r="F744" t="str">
         <v>U2</v>
       </c>
       <c r="G744" t="str">
-        <v>folio 393v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H744" t="str">
-        <v>right margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I744" t="str">
         <v>0</v>
@@ -21958,10 +21958,10 @@
     </row>
     <row r="745">
       <c r="A745" t="str">
-        <v>tiruttakkatēvar caraṇam</v>
+        <v>namostu</v>
       </c>
       <c r="B745" t="str">
-        <v>tiruttakkatēvar caraṇam</v>
+        <v>namostu</v>
       </c>
       <c r="C745" t="str">
         <v>Indien 957</v>
@@ -21976,10 +21976,10 @@
         <v>U2</v>
       </c>
       <c r="G745" t="str">
-        <v>folio 393v</v>
+        <v>folio 333r</v>
       </c>
       <c r="H745" t="str">
-        <v>right margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I745" t="str">
         <v>0</v>
@@ -21987,10 +21987,10 @@
     </row>
     <row r="746">
       <c r="A746" t="str">
-        <v>teyvacākāyam</v>
+        <v>namostt=tu</v>
       </c>
       <c r="B746" t="str">
-        <v>teyvacākāyam</v>
+        <v>namostttu</v>
       </c>
       <c r="C746" t="str">
         <v>Indien 957</v>
@@ -22005,10 +22005,10 @@
         <v>U2</v>
       </c>
       <c r="G746" t="str">
-        <v>folio 434v</v>
+        <v>folio 393v</v>
       </c>
       <c r="H746" t="str">
-        <v>left margin 1</v>
+        <v>right margin</v>
       </c>
       <c r="I746" t="str">
         <v>0</v>
@@ -22016,10 +22016,10 @@
     </row>
     <row r="747">
       <c r="A747" t="str">
-        <v>murukar tuṇai y-uṇṭākavu=m</v>
+        <v>tiruttakkatēvar caraṇam</v>
       </c>
       <c r="B747" t="str">
-        <v>murukar tuṇai yuṇṭākavum</v>
+        <v>tiruttakkatēvar caraṇam</v>
       </c>
       <c r="C747" t="str">
         <v>Indien 957</v>
@@ -22034,39 +22034,39 @@
         <v>U2</v>
       </c>
       <c r="G747" t="str">
-        <v>folio 556v</v>
+        <v>folio 393v</v>
       </c>
       <c r="H747" t="str">
-        <v>left margin</v>
+        <v>right margin</v>
       </c>
       <c r="I747" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="str">
-        <v>śubham astu</v>
+        <v>teyvacākāyam</v>
       </c>
       <c r="B748" t="str">
-        <v>śubham astu</v>
+        <v>teyvacākāyam</v>
       </c>
       <c r="C748" t="str">
-        <v>Indien 962</v>
+        <v>Indien 957</v>
       </c>
       <c r="D748" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E748" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Cīvakacintāmaṇi, part 2 of 2</v>
       </c>
       <c r="F748" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G748" t="str">
-        <v>folio [1]r</v>
+        <v>folio 434v</v>
       </c>
       <c r="H748" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I748" t="str">
         <v>0</v>
@@ -22074,39 +22074,39 @@
     </row>
     <row r="749">
       <c r="A749" t="str">
-        <v>civamaya=m</v>
+        <v>murukar tuṇai y-uṇṭākavu=m</v>
       </c>
       <c r="B749" t="str">
-        <v>civamayam</v>
+        <v>murukar tuṇai yuṇṭākavum</v>
       </c>
       <c r="C749" t="str">
-        <v>Indien 962</v>
+        <v>Indien 957</v>
       </c>
       <c r="D749" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E749" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Cīvakacintāmaṇi, part 2 of 2</v>
       </c>
       <c r="F749" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G749" t="str">
-        <v>folio [1]r</v>
+        <v>folio 556v</v>
       </c>
       <c r="H749" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I749" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="str">
-        <v>ve¿tti?-vēl tuṇai</v>
+        <v>śubham astu</v>
       </c>
       <c r="B750" t="str">
-        <v>vettivēl tuṇai</v>
+        <v>śubham astu</v>
       </c>
       <c r="C750" t="str">
         <v>Indien 962</v>
@@ -22124,18 +22124,18 @@
         <v>folio [1]r</v>
       </c>
       <c r="H750" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I750" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="str">
-        <v>naṉṟāka</v>
+        <v>civamaya=m</v>
       </c>
       <c r="B751" t="str">
-        <v>naṉṟāka</v>
+        <v>civamayam</v>
       </c>
       <c r="C751" t="str">
         <v>Indien 962</v>
@@ -22147,13 +22147,13 @@
         <v>Veṅkaikkōvai</v>
       </c>
       <c r="F751" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G751" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H751" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I751" t="str">
         <v>0</v>
@@ -22161,10 +22161,10 @@
     </row>
     <row r="752">
       <c r="A752" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>ve¿tti?-vēl tuṇai</v>
       </c>
       <c r="B752" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>vettivēl tuṇai</v>
       </c>
       <c r="C752" t="str">
         <v>Indien 962</v>
@@ -22176,24 +22176,24 @@
         <v>Veṅkaikkōvai</v>
       </c>
       <c r="F752" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G752" t="str">
-        <v>folio 38v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H752" t="str">
         <v>main text area</v>
       </c>
       <c r="I752" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="str">
-        <v>ve¿tti?-vēl uṟṟa tuṇai</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B753" t="str">
-        <v>vettivēl uṟṟa tuṇai</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C753" t="str">
         <v>Indien 962</v>
@@ -22208,21 +22208,21 @@
         <v>U2b</v>
       </c>
       <c r="G753" t="str">
-        <v>folio 38v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H753" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I753" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="str">
-        <v>civamayam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B754" t="str">
-        <v>civamayam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C754" t="str">
         <v>Indien 962</v>
@@ -22248,57 +22248,57 @@
     </row>
     <row r="755">
       <c r="A755" t="str">
-        <v>[ti]rucci[ṟ]ṟampa(la)m</v>
+        <v>ve¿tti?-vēl uṟṟa tuṇai</v>
       </c>
       <c r="B755" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>vettivēl uṟṟa tuṇai</v>
       </c>
       <c r="C755" t="str">
-        <v>Indien 963</v>
+        <v>Indien 962</v>
       </c>
       <c r="D755" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E755" t="str">
-        <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F755" t="str">
-        <v>U2a</v>
+        <v>U2b</v>
       </c>
       <c r="G755" t="str">
-        <v>folio [1]r</v>
+        <v>folio 38v</v>
       </c>
       <c r="H755" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I755" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="str">
-        <v>hari Ōm</v>
+        <v>civamayam</v>
       </c>
       <c r="B756" t="str">
-        <v>hari Ōm</v>
+        <v>civamayam</v>
       </c>
       <c r="C756" t="str">
-        <v>Indien 963</v>
+        <v>Indien 962</v>
       </c>
       <c r="D756" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E756" t="str">
-        <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F756" t="str">
-        <v>U2a</v>
+        <v>U2b</v>
       </c>
       <c r="G756" t="str">
-        <v>folio 2r</v>
+        <v>folio 38v</v>
       </c>
       <c r="H756" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I756" t="str">
         <v>0</v>
@@ -22306,10 +22306,10 @@
     </row>
     <row r="757">
       <c r="A757" t="str">
-        <v>paḻama[...]lai[...]tar tuṇai</v>
+        <v>[ti]rucci[ṟ]ṟampa(la)m</v>
       </c>
       <c r="B757" t="str">
-        <v>paḻamalaitar tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C757" t="str">
         <v>Indien 963</v>
@@ -22324,21 +22324,21 @@
         <v>U2a</v>
       </c>
       <c r="G757" t="str">
-        <v>folio 119r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H757" t="str">
         <v>left margin</v>
       </c>
       <c r="I757" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="str">
-        <v>periyaṉāyaki tuṇai</v>
+        <v>hari Ōm</v>
       </c>
       <c r="B758" t="str">
-        <v>periyaṉāyaki tuṇai</v>
+        <v>hari Ōm</v>
       </c>
       <c r="C758" t="str">
         <v>Indien 963</v>
@@ -22353,21 +22353,21 @@
         <v>U2a</v>
       </c>
       <c r="G758" t="str">
-        <v>folio 119r</v>
+        <v>folio 2r</v>
       </c>
       <c r="H758" t="str">
         <v>left margin</v>
       </c>
       <c r="I758" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>paḻama[...]lai[...]tar tuṇai</v>
       </c>
       <c r="B759" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>paḻamalaitar tuṇai</v>
       </c>
       <c r="C759" t="str">
         <v>Indien 963</v>
@@ -22379,24 +22379,24 @@
         <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
       </c>
       <c r="F759" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G759" t="str">
-        <v>folio 125r</v>
+        <v>folio 119r</v>
       </c>
       <c r="H759" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I759" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="str">
-        <v>śrī</v>
+        <v>periyaṉāyaki tuṇai</v>
       </c>
       <c r="B760" t="str">
-        <v>śrī</v>
+        <v>periyaṉāyaki tuṇai</v>
       </c>
       <c r="C760" t="str">
         <v>Indien 963</v>
@@ -22408,42 +22408,42 @@
         <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
       </c>
       <c r="F760" t="str">
-        <v>U3</v>
+        <v>U2a</v>
       </c>
       <c r="G760" t="str">
-        <v>folio [1]r</v>
+        <v>folio 119r</v>
       </c>
       <c r="H760" t="str">
         <v>left margin</v>
       </c>
       <c r="I760" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="str">
-        <v>viṉāyakāya namam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B761" t="str">
-        <v>viṉāyakāya namam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C761" t="str">
-        <v>Indien 983</v>
+        <v>Indien 963</v>
       </c>
       <c r="D761" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E761" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
       </c>
       <c r="F761" t="str">
-        <v>U2</v>
+        <v>U2b</v>
       </c>
       <c r="G761" t="str">
-        <v>folio [1]r</v>
+        <v>folio 125r</v>
       </c>
       <c r="H761" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I761" t="str">
         <v>0</v>
@@ -22451,22 +22451,22 @@
     </row>
     <row r="762">
       <c r="A762" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>śrī</v>
       </c>
       <c r="B762" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>śrī</v>
       </c>
       <c r="C762" t="str">
-        <v>Indien 983</v>
+        <v>Indien 963</v>
       </c>
       <c r="D762" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E762" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
       </c>
       <c r="F762" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G762" t="str">
         <v>folio [1]r</v>
@@ -22480,10 +22480,10 @@
     </row>
     <row r="763">
       <c r="A763" t="str">
-        <v>vāṇi namos•tu {pcl}</v>
+        <v>viṉāyakāya namam</v>
       </c>
       <c r="B763" t="str">
-        <v>vāṇi namostu {pcl}</v>
+        <v>viṉāyakāya namam</v>
       </c>
       <c r="C763" t="str">
         <v>Indien 983</v>
@@ -22501,7 +22501,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H763" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I763" t="str">
         <v>0</v>
@@ -22509,10 +22509,10 @@
     </row>
     <row r="764">
       <c r="A764" t="str">
-        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B764" t="str">
-        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C764" t="str">
         <v>Indien 983</v>
@@ -22530,18 +22530,18 @@
         <v>folio [1]r</v>
       </c>
       <c r="H764" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I764" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>vāṇi namos•tu {pcl}</v>
       </c>
       <c r="B765" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>vāṇi namostu {pcl}</v>
       </c>
       <c r="C765" t="str">
         <v>Indien 983</v>
@@ -22553,13 +22553,13 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F765" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G765" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H765" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I765" t="str">
         <v>0</v>
@@ -22567,10 +22567,10 @@
     </row>
     <row r="766">
       <c r="A766" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
       </c>
       <c r="B766" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
       </c>
       <c r="C766" t="str">
         <v>Indien 983</v>
@@ -22582,16 +22582,16 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F766" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G766" t="str">
-        <v>folio 8v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H766" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I766" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
@@ -22614,10 +22614,10 @@
         <v>U3</v>
       </c>
       <c r="G767" t="str">
-        <v>folio 26r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H767" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I767" t="str">
         <v>0</v>
@@ -22643,7 +22643,7 @@
         <v>U3</v>
       </c>
       <c r="G768" t="str">
-        <v>folio 51v</v>
+        <v>folio 8v</v>
       </c>
       <c r="H768" t="str">
         <v/>
@@ -22654,10 +22654,10 @@
     </row>
     <row r="769">
       <c r="A769" t="str">
-        <v>civamaya=m</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B769" t="str">
-        <v>civamayam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C769" t="str">
         <v>Indien 983</v>
@@ -22672,7 +22672,7 @@
         <v>U3</v>
       </c>
       <c r="G769" t="str">
-        <v>folio 158v</v>
+        <v>folio 26r</v>
       </c>
       <c r="H769" t="str">
         <v/>
@@ -22683,10 +22683,10 @@
     </row>
     <row r="770">
       <c r="A770" t="str">
-        <v>tirucci¿tṟa?ṟṟampalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B770" t="str">
-        <v>tiruccitṟaṟṟampalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C770" t="str">
         <v>Indien 983</v>
@@ -22701,7 +22701,7 @@
         <v>U3</v>
       </c>
       <c r="G770" t="str">
-        <v>folio 158v</v>
+        <v>folio 51v</v>
       </c>
       <c r="H770" t="str">
         <v/>
@@ -22712,28 +22712,28 @@
     </row>
     <row r="771">
       <c r="A771" t="str">
-        <v>Al=lā Utavi ceyya-vēṇum</v>
+        <v>civamaya=m</v>
       </c>
       <c r="B771" t="str">
-        <v>Allā Utavi ceyyavēṇum</v>
+        <v>civamayam</v>
       </c>
       <c r="C771" t="str">
-        <v>Indien 987</v>
+        <v>Indien 983</v>
       </c>
       <c r="D771" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E771" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F771" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G771" t="str">
-        <v>folio [1]r</v>
+        <v>folio 158v</v>
       </c>
       <c r="H771" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I771" t="str">
         <v>0</v>
@@ -22741,39 +22741,39 @@
     </row>
     <row r="772">
       <c r="A772" t="str">
-        <v>caṟaṣpati tuṇai {pcl}</v>
+        <v>tirucci¿tṟa?ṟṟampalam</v>
       </c>
       <c r="B772" t="str">
-        <v>caṟaṣpati tuṇai {pcl}</v>
+        <v>tiruccitṟaṟṟampalam</v>
       </c>
       <c r="C772" t="str">
-        <v>Indien 987</v>
+        <v>Indien 983</v>
       </c>
       <c r="D772" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E772" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F772" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G772" t="str">
-        <v>folio [1]r</v>
+        <v>folio 158v</v>
       </c>
       <c r="H772" t="str">
-        <v>main text area</v>
+        <v/>
       </c>
       <c r="I772" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="str">
-        <v>vicumi l=lāku ṟakimāṉi ṟakīm</v>
+        <v>Al=lā Utavi ceyya-vēṇum</v>
       </c>
       <c r="B773" t="str">
-        <v>vicumi llāku ṟakimāṉi ṟakīm</v>
+        <v>Allā Utavi ceyyavēṇum</v>
       </c>
       <c r="C773" t="str">
         <v>Indien 987</v>
@@ -22785,7 +22785,7 @@
         <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F773" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G773" t="str">
         <v>folio [1]r</v>
@@ -22799,28 +22799,28 @@
     </row>
     <row r="774">
       <c r="A774" t="str">
-        <v>{pcs} kaṭavu⟨ḷ ⟩ ¿ku?tuṇai</v>
+        <v>caṟaṣpati tuṇai {pcl}</v>
       </c>
       <c r="B774" t="str">
-        <v>{pcs} kaṭavuḷ kutuṇai</v>
+        <v>caṟaṣpati tuṇai {pcl}</v>
       </c>
       <c r="C774" t="str">
-        <v>Indien 989</v>
+        <v>Indien 987</v>
       </c>
       <c r="D774" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E774" t="str">
-        <v>Tamil Vocabulary</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F774" t="str">
         <v>U1</v>
       </c>
       <c r="G774" t="str">
-        <v>folio 1</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H774" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I774" t="str">
         <v>1</v>
@@ -22828,19 +22828,19 @@
     </row>
     <row r="775">
       <c r="A775" t="str">
-        <v>hariḥ | Om</v>
+        <v>vicumi l=lāku ṟakimāṉi ṟakīm</v>
       </c>
       <c r="B775" t="str">
-        <v>hariḥ Om</v>
+        <v>vicumi llāku ṟakimāṉi ṟakīm</v>
       </c>
       <c r="C775" t="str">
-        <v>Indien 991</v>
+        <v>Indien 987</v>
       </c>
       <c r="D775" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E775" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F775" t="str">
         <v>U2</v>
@@ -22857,25 +22857,25 @@
     </row>
     <row r="776">
       <c r="A776" t="str">
-        <v>{pcs}kuruvē tuṇai</v>
+        <v>{pcs} kaṭavu⟨ḷ ⟩ ¿ku?tuṇai</v>
       </c>
       <c r="B776" t="str">
-        <v>{pcs}kuruvē tuṇai</v>
+        <v>{pcs} kaṭavuḷ kutuṇai</v>
       </c>
       <c r="C776" t="str">
-        <v>Indien 991</v>
+        <v>Indien 989</v>
       </c>
       <c r="D776" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E776" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Tamil Vocabulary</v>
       </c>
       <c r="F776" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G776" t="str">
-        <v>folio [1]r</v>
+        <v>folio 1</v>
       </c>
       <c r="H776" t="str">
         <v>left margin</v>
@@ -22886,10 +22886,10 @@
     </row>
     <row r="777">
       <c r="A777" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>hariḥ | Om</v>
       </c>
       <c r="B777" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C777" t="str">
         <v>Indien 991</v>
@@ -22904,21 +22904,21 @@
         <v>U2</v>
       </c>
       <c r="G777" t="str">
-        <v>folio 4r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H777" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I777" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="str">
-        <v>caravaṇapa-kuruvē {tuṇai}</v>
+        <v>{pcs}kuruvē tuṇai</v>
       </c>
       <c r="B778" t="str">
-        <v>caravaṇapakuruvē {tuṇai}</v>
+        <v>{pcs}kuruvē tuṇai</v>
       </c>
       <c r="C778" t="str">
         <v>Indien 991</v>
@@ -22933,10 +22933,10 @@
         <v>U2</v>
       </c>
       <c r="G778" t="str">
-        <v>folio 4r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H778" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I778" t="str">
         <v>1</v>
@@ -22944,10 +22944,10 @@
     </row>
     <row r="779">
       <c r="A779" t="str">
-        <v>civacitamparam [...] tuṇai</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B779" t="str">
-        <v>civacitamparam tuṇai</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C779" t="str">
         <v>Indien 991</v>
@@ -22973,10 +22973,10 @@
     </row>
     <row r="780">
       <c r="A780" t="str">
-        <v>paṭṭīcurar cuvāmi tuṇai</v>
+        <v>caravaṇapa-kuruvē {tuṇai}</v>
       </c>
       <c r="B780" t="str">
-        <v>paṭṭīcurar cuvāmi tuṇai</v>
+        <v>caravaṇapakuruvē {tuṇai}</v>
       </c>
       <c r="C780" t="str">
         <v>Indien 991</v>
@@ -22991,7 +22991,7 @@
         <v>U2</v>
       </c>
       <c r="G780" t="str">
-        <v>folio 75r</v>
+        <v>folio 4r</v>
       </c>
       <c r="H780" t="str">
         <v>main text area</v>
@@ -23002,10 +23002,10 @@
     </row>
     <row r="781">
       <c r="A781" t="str">
-        <v>civamayam</v>
+        <v>civacitamparam [...] tuṇai</v>
       </c>
       <c r="B781" t="str">
-        <v>civamayam</v>
+        <v>civacitamparam tuṇai</v>
       </c>
       <c r="C781" t="str">
         <v>Indien 991</v>
@@ -23020,21 +23020,21 @@
         <v>U2</v>
       </c>
       <c r="G781" t="str">
-        <v>folio 75r</v>
+        <v>folio 4r</v>
       </c>
       <c r="H781" t="str">
         <v>main text area</v>
       </c>
       <c r="I781" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="str">
-        <v>periyaṉāyakiyammaṉ muṟṟum</v>
+        <v>paṭṭīcurar cuvāmi tuṇai</v>
       </c>
       <c r="B782" t="str">
-        <v>periyaṉāyakiyammaṉ muṟṟum</v>
+        <v>paṭṭīcurar cuvāmi tuṇai</v>
       </c>
       <c r="C782" t="str">
         <v>Indien 991</v>
@@ -23049,21 +23049,21 @@
         <v>U2</v>
       </c>
       <c r="G782" t="str">
-        <v>folio 77v</v>
+        <v>folio 75r</v>
       </c>
       <c r="H782" t="str">
         <v>main text area</v>
       </c>
       <c r="I782" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="str">
-        <v>civacuppaṟāyar {tuṇai}</v>
+        <v>civamayam</v>
       </c>
       <c r="B783" t="str">
-        <v>civacuppaṟāyar {tuṇai}</v>
+        <v>civamayam</v>
       </c>
       <c r="C783" t="str">
         <v>Indien 991</v>
@@ -23078,97 +23078,97 @@
         <v>U2</v>
       </c>
       <c r="G783" t="str">
-        <v>folio 77v</v>
+        <v>folio 75r</v>
       </c>
       <c r="H783" t="str">
         <v>main text area</v>
       </c>
       <c r="I783" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="str">
-        <v>kaṭavuḷ tuṇai</v>
+        <v>periyaṉāyakiyammaṉ muṟṟum</v>
       </c>
       <c r="B784" t="str">
-        <v>kaṭavuḷ tuṇai</v>
+        <v>periyaṉāyakiyammaṉ muṟṟum</v>
       </c>
       <c r="C784" t="str">
-        <v>Indien 992</v>
+        <v>Indien 991</v>
       </c>
       <c r="D784" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E784" t="str">
-        <v>Tēraiyar Vayittiyam 500</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F784" t="str">
         <v>U2</v>
       </c>
       <c r="G784" t="str">
-        <v>folio [1]r</v>
+        <v>folio 77v</v>
       </c>
       <c r="H784" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I784" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="str">
-        <v>kuru muṉṉirkkavum</v>
+        <v>civacuppaṟāyar {tuṇai}</v>
       </c>
       <c r="B785" t="str">
-        <v>kuru muṉṉirkkavum</v>
+        <v>civacuppaṟāyar {tuṇai}</v>
       </c>
       <c r="C785" t="str">
-        <v>Indien 992</v>
+        <v>Indien 991</v>
       </c>
       <c r="D785" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E785" t="str">
-        <v>Tēraiyar Vayittiyam 500</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F785" t="str">
         <v>U2</v>
       </c>
       <c r="G785" t="str">
-        <v>folio [1]r</v>
+        <v>folio 77v</v>
       </c>
       <c r="H785" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I785" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="str">
-        <v>yēkaparāparavaṣttuvē tuṇai</v>
+        <v>kaṭavuḷ tuṇai</v>
       </c>
       <c r="B786" t="str">
-        <v>yēkaparāparavaṣttuvē tuṇai</v>
+        <v>kaṭavuḷ tuṇai</v>
       </c>
       <c r="C786" t="str">
-        <v>Indien 993</v>
+        <v>Indien 992</v>
       </c>
       <c r="D786" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E786" t="str">
-        <v>Cippāyika Vāttu Varicai Paḻakkuṟa Poṣttakam</v>
+        <v>Tēraiyar Vayittiyam 500</v>
       </c>
       <c r="F786" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G786" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H786" t="str">
-        <v>column 3</v>
+        <v>left margin</v>
       </c>
       <c r="I786" t="str">
         <v>1</v>
@@ -23176,28 +23176,28 @@
     </row>
     <row r="787">
       <c r="A787" t="str">
-        <v>śrīmatu Aṉantacuvāmi [...] kkavu=m</v>
+        <v>kuru muṉṉirkkavum</v>
       </c>
       <c r="B787" t="str">
-        <v>śrīmatu Aṉantacuvāmi kkavum</v>
+        <v>kuru muṉṉirkkavum</v>
       </c>
       <c r="C787" t="str">
-        <v>Indien 1034a</v>
+        <v>Indien 992</v>
       </c>
       <c r="D787" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E787" t="str">
-        <v>TBC</v>
+        <v>Tēraiyar Vayittiyam 500</v>
       </c>
       <c r="F787" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G787" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H787" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I787" t="str">
         <v>0</v>
@@ -23205,42 +23205,42 @@
     </row>
     <row r="788">
       <c r="A788" t="str">
-        <v>kuru [...] kkavu=m</v>
+        <v>yēkaparāparavaṣttuvē tuṇai</v>
       </c>
       <c r="B788" t="str">
-        <v>kuru kkavum</v>
+        <v>yēkaparāparavaṣttuvē tuṇai</v>
       </c>
       <c r="C788" t="str">
-        <v>Indien 1034a</v>
+        <v>Indien 993</v>
       </c>
       <c r="D788" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E788" t="str">
-        <v>TBC</v>
+        <v>Cippāyika Vāttu Varicai Paḻakkuṟa Poṣttakam</v>
       </c>
       <c r="F788" t="str">
         <v>U1</v>
       </c>
       <c r="G788" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H788" t="str">
-        <v/>
+        <v>column 3</v>
       </c>
       <c r="I788" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="str">
-        <v>Āṉantacuvāmi [...]</v>
+        <v>śrīmatu Aṉantacuvāmi [...] kkavu=m</v>
       </c>
       <c r="B789" t="str">
-        <v>Āṉantacuvāmi</v>
+        <v>śrīmatu Aṉantacuvāmi kkavum</v>
       </c>
       <c r="C789" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 1034a</v>
       </c>
       <c r="D789" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -23252,10 +23252,10 @@
         <v>U1</v>
       </c>
       <c r="G789" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H789" t="str">
-        <v>column 1</v>
+        <v/>
       </c>
       <c r="I789" t="str">
         <v>0</v>
@@ -23263,13 +23263,13 @@
     </row>
     <row r="790">
       <c r="A790" t="str">
-        <v>Āṟumuka tuṇai [...]</v>
+        <v>kuru [...] kkavu=m</v>
       </c>
       <c r="B790" t="str">
-        <v>Āṟumuka tuṇai</v>
+        <v>kuru kkavum</v>
       </c>
       <c r="C790" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 1034a</v>
       </c>
       <c r="D790" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -23281,21 +23281,21 @@
         <v>U1</v>
       </c>
       <c r="G790" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H790" t="str">
-        <v>column 1</v>
+        <v/>
       </c>
       <c r="I790" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="str">
-        <v>vellum kaiyam [...]</v>
+        <v>Āṉantacuvāmi [...]</v>
       </c>
       <c r="B791" t="str">
-        <v>vellum kaiyam</v>
+        <v>Āṉantacuvāmi</v>
       </c>
       <c r="C791" t="str">
         <v>Indien 1034c</v>
@@ -23321,13 +23321,13 @@
     </row>
     <row r="792">
       <c r="A792" t="str">
-        <v>makā-kaṇapati tuṇai</v>
+        <v>Āṟumuka tuṇai [...]</v>
       </c>
       <c r="B792" t="str">
-        <v>makākaṇapati tuṇai</v>
+        <v>Āṟumuka tuṇai</v>
       </c>
       <c r="C792" t="str">
-        <v>Indien 1034d</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D792" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -23336,13 +23336,13 @@
         <v>TBC</v>
       </c>
       <c r="F792" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G792" t="str">
-        <v>folio 25r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H792" t="str">
-        <v>left margin</v>
+        <v>column 1</v>
       </c>
       <c r="I792" t="str">
         <v>1</v>
@@ -23350,13 +23350,13 @@
     </row>
     <row r="793">
       <c r="A793" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>vellum kaiyam [...]</v>
       </c>
       <c r="B793" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>vellum kaiyam</v>
       </c>
       <c r="C793" t="str">
-        <v>Indien 1034d</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D793" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -23365,100 +23365,100 @@
         <v>TBC</v>
       </c>
       <c r="F793" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G793" t="str">
-        <v>folio 25r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H793" t="str">
-        <v>column</v>
+        <v>column 1</v>
       </c>
       <c r="I793" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="str">
-        <v>śrī</v>
+        <v>makā-kaṇapati tuṇai</v>
       </c>
       <c r="B794" t="str">
-        <v>śrī</v>
+        <v>makākaṇapati tuṇai</v>
       </c>
       <c r="C794" t="str">
-        <v>Indien 1037</v>
+        <v>Indien 1034d</v>
       </c>
       <c r="D794" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E794" t="str">
-        <v>Talisman or Private Letter</v>
+        <v>TBC</v>
       </c>
       <c r="F794" t="str">
-        <v>seal</v>
+        <v>U2</v>
       </c>
       <c r="G794" t="str">
-        <v>folio [1r]</v>
+        <v>folio 25r</v>
       </c>
       <c r="H794" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I794" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="str">
-        <v>hariḥ Om·</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B795" t="str">
-        <v>hariḥ Om·</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C795" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1034d</v>
       </c>
       <c r="D795" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E795" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>TBC</v>
       </c>
       <c r="F795" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G795" t="str">
-        <v>folio [1]r</v>
+        <v>folio 25r</v>
       </c>
       <c r="H795" t="str">
-        <v>left margin</v>
+        <v>column</v>
       </c>
       <c r="I795" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="str">
-        <v>Em perumāṉār tunai</v>
+        <v>śrī</v>
       </c>
       <c r="B796" t="str">
-        <v>Em perumāṉār tunai</v>
+        <v>śrī</v>
       </c>
       <c r="C796" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1037</v>
       </c>
       <c r="D796" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E796" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>Talisman or Private Letter</v>
       </c>
       <c r="F796" t="str">
-        <v>U2a</v>
+        <v>seal</v>
       </c>
       <c r="G796" t="str">
-        <v>folio [1]r</v>
+        <v>folio [1r]</v>
       </c>
       <c r="H796" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I796" t="str">
         <v>0</v>
@@ -23466,10 +23466,10 @@
     </row>
     <row r="797">
       <c r="A797" t="str">
-        <v>śrī-raṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B797" t="str">
-        <v>śrīraṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C797" t="str">
         <v>Indien 1039</v>
@@ -23484,10 +23484,10 @@
         <v>U2a</v>
       </c>
       <c r="G797" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H797" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I797" t="str">
         <v>0</v>
@@ -23495,10 +23495,10 @@
     </row>
     <row r="798">
       <c r="A798" t="str">
-        <v>naṉṟāka</v>
+        <v>Em perumāṉār tunai</v>
       </c>
       <c r="B798" t="str">
-        <v>naṉṟāka</v>
+        <v>Em perumāṉār tunai</v>
       </c>
       <c r="C798" t="str">
         <v>Indien 1039</v>
@@ -23510,7 +23510,7 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F798" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G798" t="str">
         <v>folio [1]r</v>
@@ -23524,10 +23524,10 @@
     </row>
     <row r="799">
       <c r="A799" t="str">
-        <v>civamayam</v>
+        <v>śrī-raṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
       </c>
       <c r="B799" t="str">
-        <v>civamayam</v>
+        <v>śrīraṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
       </c>
       <c r="C799" t="str">
         <v>Indien 1039</v>
@@ -23539,10 +23539,10 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F799" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G799" t="str">
-        <v>folio 52v</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H799" t="str">
         <v>main text area</v>
@@ -23553,10 +23553,10 @@
     </row>
     <row r="800">
       <c r="A800" t="str">
-        <v>civamayam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B800" t="str">
-        <v>civamayam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C800" t="str">
         <v>Indien 1039</v>
@@ -23571,10 +23571,10 @@
         <v>U2b</v>
       </c>
       <c r="G800" t="str">
-        <v>folio 52v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H800" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I800" t="str">
         <v>0</v>
@@ -23582,10 +23582,10 @@
     </row>
     <row r="801">
       <c r="A801" t="str">
-        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="B801" t="str">
-        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="C801" t="str">
         <v>Indien 1039</v>
@@ -23606,15 +23606,15 @@
         <v>main text area</v>
       </c>
       <c r="I801" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>civamayam</v>
       </c>
       <c r="B802" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>civamayam</v>
       </c>
       <c r="C802" t="str">
         <v>Indien 1039</v>
@@ -23629,10 +23629,10 @@
         <v>U2b</v>
       </c>
       <c r="G802" t="str">
-        <v>folio 70v</v>
+        <v>folio 52v</v>
       </c>
       <c r="H802" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I802" t="str">
         <v>0</v>
@@ -23640,10 +23640,10 @@
     </row>
     <row r="803">
       <c r="A803" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
       </c>
       <c r="B803" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
       </c>
       <c r="C803" t="str">
         <v>Indien 1039</v>
@@ -23658,21 +23658,21 @@
         <v>U2b</v>
       </c>
       <c r="G803" t="str">
-        <v>folio 84r</v>
+        <v>folio 52v</v>
       </c>
       <c r="H803" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I803" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="str">
-        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B804" t="str">
-        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C804" t="str">
         <v>Indien 1039</v>
@@ -23687,7 +23687,7 @@
         <v>U2b</v>
       </c>
       <c r="G804" t="str">
-        <v>folio 95v</v>
+        <v>folio 70v</v>
       </c>
       <c r="H804" t="str">
         <v>left margin</v>
@@ -23698,10 +23698,10 @@
     </row>
     <row r="805">
       <c r="A805" t="str">
-        <v>[...]</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B805" t="str">
-        <v/>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C805" t="str">
         <v>Indien 1039</v>
@@ -23716,7 +23716,7 @@
         <v>U2b</v>
       </c>
       <c r="G805" t="str">
-        <v>folio 103.2r</v>
+        <v>folio 84r</v>
       </c>
       <c r="H805" t="str">
         <v>left margin</v>
@@ -23727,10 +23727,10 @@
     </row>
     <row r="806">
       <c r="A806" t="str">
-        <v>[...]</v>
+        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B806" t="str">
-        <v/>
+        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C806" t="str">
         <v>Indien 1039</v>
@@ -23745,7 +23745,7 @@
         <v>U2b</v>
       </c>
       <c r="G806" t="str">
-        <v>folio 108v</v>
+        <v>folio 95v</v>
       </c>
       <c r="H806" t="str">
         <v>left margin</v>
@@ -23774,7 +23774,7 @@
         <v>U2b</v>
       </c>
       <c r="G807" t="str">
-        <v>folio 112v</v>
+        <v>folio 103.2r</v>
       </c>
       <c r="H807" t="str">
         <v>left margin</v>
@@ -23803,7 +23803,7 @@
         <v>U2b</v>
       </c>
       <c r="G808" t="str">
-        <v>folio 118r</v>
+        <v>folio 108v</v>
       </c>
       <c r="H808" t="str">
         <v>left margin</v>
@@ -23814,10 +23814,10 @@
     </row>
     <row r="809">
       <c r="A809" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam [...]</v>
+        <v>[...]</v>
       </c>
       <c r="B809" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C809" t="str">
         <v>Indien 1039</v>
@@ -23832,7 +23832,7 @@
         <v>U2b</v>
       </c>
       <c r="G809" t="str">
-        <v>folio 124v</v>
+        <v>folio 112v</v>
       </c>
       <c r="H809" t="str">
         <v>left margin</v>
@@ -23843,10 +23843,10 @@
     </row>
     <row r="810">
       <c r="A810" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam [...]</v>
+        <v>[...]</v>
       </c>
       <c r="B810" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C810" t="str">
         <v>Indien 1039</v>
@@ -23861,7 +23861,7 @@
         <v>U2b</v>
       </c>
       <c r="G810" t="str">
-        <v>folio 139v</v>
+        <v>folio 118r</v>
       </c>
       <c r="H810" t="str">
         <v>left margin</v>
@@ -23872,10 +23872,10 @@
     </row>
     <row r="811">
       <c r="A811" t="str">
-        <v>cuppaṟāyar tuṇai</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam [...]</v>
       </c>
       <c r="B811" t="str">
-        <v>cuppaṟāyar tuṇai</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C811" t="str">
         <v>Indien 1039</v>
@@ -23890,21 +23890,21 @@
         <v>U2b</v>
       </c>
       <c r="G811" t="str">
-        <v>folio 139v</v>
+        <v>folio 124v</v>
       </c>
       <c r="H811" t="str">
         <v>left margin</v>
       </c>
       <c r="I811" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="str">
-        <v>murukar tuṇai</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam [...]</v>
       </c>
       <c r="B812" t="str">
-        <v>murukar tuṇai</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C812" t="str">
         <v>Indien 1039</v>
@@ -23925,15 +23925,15 @@
         <v>left margin</v>
       </c>
       <c r="I812" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="str">
-        <v>Āḻvār em perumāṉār centredtiruvaṭikaḷē caraṇam</v>
+        <v>cuppaṟāyar tuṇai</v>
       </c>
       <c r="B813" t="str">
-        <v>Āḻvār em perumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>cuppaṟāyar tuṇai</v>
       </c>
       <c r="C813" t="str">
         <v>Indien 1039</v>
@@ -23948,21 +23948,21 @@
         <v>U2b</v>
       </c>
       <c r="G813" t="str">
-        <v>folio 157r</v>
+        <v>folio 139v</v>
       </c>
       <c r="H813" t="str">
         <v>left margin</v>
       </c>
       <c r="I813" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="str">
-        <v>śrī-rā=ma-ceya=m</v>
+        <v>murukar tuṇai</v>
       </c>
       <c r="B814" t="str">
-        <v>śrīrāmaceyam</v>
+        <v>murukar tuṇai</v>
       </c>
       <c r="C814" t="str">
         <v>Indien 1039</v>
@@ -23977,21 +23977,21 @@
         <v>U2b</v>
       </c>
       <c r="G814" t="str">
-        <v>folio 166r</v>
+        <v>folio 139v</v>
       </c>
       <c r="H814" t="str">
         <v>left margin</v>
       </c>
       <c r="I814" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="str">
-        <v>śrī-rā=ma-ceyam·</v>
+        <v>Āḻvār em perumāṉār centredtiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B815" t="str">
-        <v>śrīrāmaceyam·</v>
+        <v>Āḻvār em perumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C815" t="str">
         <v>Indien 1039</v>
@@ -24006,7 +24006,7 @@
         <v>U2b</v>
       </c>
       <c r="G815" t="str">
-        <v>folio 167r</v>
+        <v>folio 157r</v>
       </c>
       <c r="H815" t="str">
         <v>left margin</v>
@@ -24017,10 +24017,10 @@
     </row>
     <row r="816">
       <c r="A816" t="str">
-        <v>[...]</v>
+        <v>śrī-rā=ma-ceya=m</v>
       </c>
       <c r="B816" t="str">
-        <v/>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C816" t="str">
         <v>Indien 1039</v>
@@ -24035,7 +24035,7 @@
         <v>U2b</v>
       </c>
       <c r="G816" t="str">
-        <v>folio 167v</v>
+        <v>folio 166r</v>
       </c>
       <c r="H816" t="str">
         <v>left margin</v>
@@ -24046,10 +24046,10 @@
     </row>
     <row r="817">
       <c r="A817" t="str">
-        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
+        <v>śrī-rā=ma-ceyam·</v>
       </c>
       <c r="B817" t="str">
-        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
+        <v>śrīrāmaceyam·</v>
       </c>
       <c r="C817" t="str">
         <v>Indien 1039</v>
@@ -24064,7 +24064,7 @@
         <v>U2b</v>
       </c>
       <c r="G817" t="str">
-        <v>folio 174r</v>
+        <v>folio 167r</v>
       </c>
       <c r="H817" t="str">
         <v>left margin</v>
@@ -24093,7 +24093,7 @@
         <v>U2b</v>
       </c>
       <c r="G818" t="str">
-        <v>folio 203v</v>
+        <v>folio 167v</v>
       </c>
       <c r="H818" t="str">
         <v>left margin</v>
@@ -24104,10 +24104,10 @@
     </row>
     <row r="819">
       <c r="A819" t="str">
-        <v>śrīrā=maceyam</v>
+        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B819" t="str">
-        <v>śrīrāmaceyam</v>
+        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C819" t="str">
         <v>Indien 1039</v>
@@ -24122,7 +24122,7 @@
         <v>U2b</v>
       </c>
       <c r="G819" t="str">
-        <v>folio 236v</v>
+        <v>folio 174r</v>
       </c>
       <c r="H819" t="str">
         <v>left margin</v>
@@ -24133,10 +24133,10 @@
     </row>
     <row r="820">
       <c r="A820" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>[...]</v>
       </c>
       <c r="B820" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C820" t="str">
         <v>Indien 1039</v>
@@ -24151,7 +24151,7 @@
         <v>U2b</v>
       </c>
       <c r="G820" t="str">
-        <v>folio 245v</v>
+        <v>folio 203v</v>
       </c>
       <c r="H820" t="str">
         <v>left margin</v>
@@ -24162,10 +24162,10 @@
     </row>
     <row r="821">
       <c r="A821" t="str">
-        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>śrīrā=maceyam</v>
       </c>
       <c r="B821" t="str">
-        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C821" t="str">
         <v>Indien 1039</v>
@@ -24180,7 +24180,7 @@
         <v>U2b</v>
       </c>
       <c r="G821" t="str">
-        <v>folio 245v</v>
+        <v>folio 236v</v>
       </c>
       <c r="H821" t="str">
         <v>left margin</v>
@@ -24191,28 +24191,28 @@
     </row>
     <row r="822">
       <c r="A822" t="str">
-        <v>|| rāma ||</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B822" t="str">
-        <v>rāma</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C822" t="str">
-        <v>Chandra Shum Shere d.247</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D822" t="str">
-        <v>Bodleian Library, University of Oxford</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E822" t="str">
-        <v>Prakīrṇaprakāśa</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F822" t="str">
-        <v/>
+        <v>U2b</v>
       </c>
       <c r="G822" t="str">
-        <v/>
+        <v>folio 245v</v>
       </c>
       <c r="H822" t="str">
-        <v>marginal</v>
+        <v>left margin</v>
       </c>
       <c r="I822" t="str">
         <v>0</v>
@@ -24220,25 +24220,25 @@
     </row>
     <row r="823">
       <c r="A823" t="str">
-        <v>hariḥ Om</v>
+        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B823" t="str">
-        <v>hariḥ Om</v>
+        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C823" t="str">
-        <v>Sanscrit 290</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D823" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E823" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F823" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G823" t="str">
-        <v>folio [1]r</v>
+        <v>folio 245v</v>
       </c>
       <c r="H823" t="str">
         <v>left margin</v>
@@ -24249,28 +24249,28 @@
     </row>
     <row r="824">
       <c r="A824" t="str">
-        <v>śrīvedavyāsāya ¿nmaḥ?namaḥ</v>
+        <v>|| rāma ||</v>
       </c>
       <c r="B824" t="str">
-        <v>śrīvedavyāsāya nmaḥnamaḥ</v>
+        <v>rāma</v>
       </c>
       <c r="C824" t="str">
-        <v>Sanscrit 290</v>
+        <v>Chandra Shum Shere d.247</v>
       </c>
       <c r="D824" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bodleian Library, University of Oxford</v>
       </c>
       <c r="E824" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Prakīrṇaprakāśa</v>
       </c>
       <c r="F824" t="str">
-        <v>U3</v>
+        <v/>
       </c>
       <c r="G824" t="str">
-        <v>folio [1]r</v>
+        <v/>
       </c>
       <c r="H824" t="str">
-        <v>main text area</v>
+        <v>marginal</v>
       </c>
       <c r="I824" t="str">
         <v>0</v>
@@ -24278,10 +24278,10 @@
     </row>
     <row r="825">
       <c r="A825" t="str">
-        <v>śrīmahāsarasvatyai ¿nmaḥ?namaḥ</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B825" t="str">
-        <v>śrīmahāsarasvatyai nmaḥnamaḥ</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C825" t="str">
         <v>Sanscrit 290</v>
@@ -24299,7 +24299,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H825" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I825" t="str">
         <v>0</v>
@@ -24307,10 +24307,10 @@
     </row>
     <row r="826">
       <c r="A826" t="str">
-        <v>Avighnam astu</v>
+        <v>śrīvedavyāsāya ¿nmaḥ?namaḥ</v>
       </c>
       <c r="B826" t="str">
-        <v>Avighnam astu</v>
+        <v>śrīvedavyāsāya nmaḥnamaḥ</v>
       </c>
       <c r="C826" t="str">
         <v>Sanscrit 290</v>
@@ -24325,7 +24325,7 @@
         <v>U3</v>
       </c>
       <c r="G826" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H826" t="str">
         <v>main text area</v>
@@ -24336,10 +24336,10 @@
     </row>
     <row r="827">
       <c r="A827" t="str">
-        <v>hariḥ Om</v>
+        <v>śrīmahāsarasvatyai ¿nmaḥ?namaḥ</v>
       </c>
       <c r="B827" t="str">
-        <v>hariḥ Om</v>
+        <v>śrīmahāsarasvatyai nmaḥnamaḥ</v>
       </c>
       <c r="C827" t="str">
         <v>Sanscrit 290</v>
@@ -24351,13 +24351,13 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F827" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G827" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H827" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I827" t="str">
         <v>0</v>
@@ -24380,13 +24380,13 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F828" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G828" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H828" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I828" t="str">
         <v>0</v>
@@ -24394,10 +24394,10 @@
     </row>
     <row r="829">
       <c r="A829" t="str">
-        <v>hariḥ Om·</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B829" t="str">
-        <v>hariḥ Om·</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C829" t="str">
         <v>Sanscrit 290</v>
@@ -24412,10 +24412,10 @@
         <v>U4</v>
       </c>
       <c r="G829" t="str">
-        <v>folio 342r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H829" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I829" t="str">
         <v>0</v>
@@ -24423,10 +24423,10 @@
     </row>
     <row r="830">
       <c r="A830" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B830" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C830" t="str">
         <v>Sanscrit 290</v>
@@ -24441,10 +24441,10 @@
         <v>U4</v>
       </c>
       <c r="G830" t="str">
-        <v>folio 342r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H830" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I830" t="str">
         <v>0</v>
@@ -24452,10 +24452,10 @@
     </row>
     <row r="831">
       <c r="A831" t="str">
-        <v>śrīgurubhyo namaḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B831" t="str">
-        <v>śrīgurubhyo namaḥ</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C831" t="str">
         <v>Sanscrit 290</v>
@@ -24481,10 +24481,10 @@
     </row>
     <row r="832">
       <c r="A832" t="str">
-        <v>śrīvedavyāsāya namaḥ</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="B832" t="str">
-        <v>śrīvedavyāsāya namaḥ</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="C832" t="str">
         <v>Sanscrit 290</v>
@@ -24510,10 +24510,10 @@
     </row>
     <row r="833">
       <c r="A833" t="str">
-        <v>Avighnam astu</v>
+        <v>śrīgurubhyo namaḥ</v>
       </c>
       <c r="B833" t="str">
-        <v>Avighnam astu</v>
+        <v>śrīgurubhyo namaḥ</v>
       </c>
       <c r="C833" t="str">
         <v>Sanscrit 290</v>
@@ -24528,7 +24528,7 @@
         <v>U4</v>
       </c>
       <c r="G833" t="str">
-        <v>folio 342v</v>
+        <v>folio 342r</v>
       </c>
       <c r="H833" t="str">
         <v>main text area</v>
@@ -24539,10 +24539,10 @@
     </row>
     <row r="834">
       <c r="A834" t="str">
-        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
+        <v>śrīvedavyāsāya namaḥ</v>
       </c>
       <c r="B834" t="str">
-        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
+        <v>śrīvedavyāsāya namaḥ</v>
       </c>
       <c r="C834" t="str">
         <v>Sanscrit 290</v>
@@ -24557,7 +24557,7 @@
         <v>U4</v>
       </c>
       <c r="G834" t="str">
-        <v>folio 342v</v>
+        <v>folio 342r</v>
       </c>
       <c r="H834" t="str">
         <v>main text area</v>
@@ -24568,10 +24568,10 @@
     </row>
     <row r="835">
       <c r="A835" t="str">
-        <v>Om·</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B835" t="str">
-        <v>Om·</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C835" t="str">
         <v>Sanscrit 290</v>
@@ -24597,13 +24597,13 @@
     </row>
     <row r="836">
       <c r="A836" t="str">
-        <v>hariḥ Om·</v>
+        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
       </c>
       <c r="B836" t="str">
-        <v>hariḥ Om·</v>
+        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
       </c>
       <c r="C836" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D836" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -24612,13 +24612,13 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F836" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G836" t="str">
-        <v>folio [1]r</v>
+        <v>folio 342v</v>
       </c>
       <c r="H836" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I836" t="str">
         <v>0</v>
@@ -24626,13 +24626,13 @@
     </row>
     <row r="837">
       <c r="A837" t="str">
-        <v>hariḥ Om·</v>
+        <v>Om·</v>
       </c>
       <c r="B837" t="str">
-        <v>hariḥ Om·</v>
+        <v>Om·</v>
       </c>
       <c r="C837" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D837" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -24641,10 +24641,10 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F837" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G837" t="str">
-        <v>folio 240v</v>
+        <v>folio 342v</v>
       </c>
       <c r="H837" t="str">
         <v>main text area</v>
@@ -24655,10 +24655,10 @@
     </row>
     <row r="838">
       <c r="A838" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B838" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C838" t="str">
         <v>Sanscrit 291</v>
@@ -24673,10 +24673,10 @@
         <v>U2</v>
       </c>
       <c r="G838" t="str">
-        <v>folio 240v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H838" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I838" t="str">
         <v>0</v>
@@ -24684,10 +24684,10 @@
     </row>
     <row r="839">
       <c r="A839" t="str">
-        <v>śubham astu</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B839" t="str">
-        <v>śubham astu</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C839" t="str">
         <v>Sanscrit 291</v>
@@ -24713,28 +24713,28 @@
     </row>
     <row r="840">
       <c r="A840" t="str">
-        <v>śrīḥ —</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="B840" t="str">
-        <v>śrīḥ —</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="C840" t="str">
-        <v>Sanscrit 612.1</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D840" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E840" t="str">
-        <v>Amarakośa with anonymous commentaries</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F840" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G840" t="str">
-        <v>initial folio, recto</v>
+        <v>folio 240v</v>
       </c>
       <c r="H840" t="str">
-        <v>beginning, marginal, left</v>
+        <v>main text area</v>
       </c>
       <c r="I840" t="str">
         <v>0</v>
@@ -24742,28 +24742,28 @@
     </row>
     <row r="841">
       <c r="A841" t="str">
-        <v>śrīḥ</v>
+        <v>śubham astu</v>
       </c>
       <c r="B841" t="str">
-        <v>śrīḥ</v>
+        <v>śubham astu</v>
       </c>
       <c r="C841" t="str">
-        <v>Sanscrit 612.1</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D841" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E841" t="str">
-        <v>Amarakośa with anonymous commentaries</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F841" t="str">
         <v>U2</v>
       </c>
       <c r="G841" t="str">
-        <v>folio 1v</v>
+        <v>folio 240v</v>
       </c>
       <c r="H841" t="str">
-        <v>beginning, marginal, right</v>
+        <v>main text area</v>
       </c>
       <c r="I841" t="str">
         <v>0</v>
@@ -24771,28 +24771,28 @@
     </row>
     <row r="842">
       <c r="A842" t="str">
-        <v>śrī</v>
+        <v>śrīḥ —</v>
       </c>
       <c r="B842" t="str">
-        <v>śrī</v>
+        <v>śrīḥ —</v>
       </c>
       <c r="C842" t="str">
-        <v>Sanscrit 616</v>
+        <v>Sanscrit 612.1</v>
       </c>
       <c r="D842" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E842" t="str">
-        <v>Amarakośaviveka</v>
+        <v>Amarakośa with anonymous commentaries</v>
       </c>
       <c r="F842" t="str">
-        <v/>
+        <v>U1</v>
       </c>
       <c r="G842" t="str">
-        <v>1r</v>
+        <v>initial folio, recto</v>
       </c>
       <c r="H842" t="str">
-        <v>marginal</v>
+        <v>beginning, marginal, left</v>
       </c>
       <c r="I842" t="str">
         <v>0</v>
@@ -24800,28 +24800,28 @@
     </row>
     <row r="843">
       <c r="A843" t="str">
-        <v>śrīrāmaḥ</v>
+        <v>śrīḥ</v>
       </c>
       <c r="B843" t="str">
-        <v>śrīrāmaḥ</v>
+        <v>śrīḥ</v>
       </c>
       <c r="C843" t="str">
-        <v>Sanscrit 619</v>
+        <v>Sanscrit 612.1</v>
       </c>
       <c r="D843" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E843" t="str">
-        <v>Amarakośakaumudī</v>
+        <v>Amarakośa with anonymous commentaries</v>
       </c>
       <c r="F843" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G843" t="str">
-        <v>folio 1, recto</v>
+        <v>folio 1v</v>
       </c>
       <c r="H843" t="str">
-        <v>beginning</v>
+        <v>beginning, marginal, right</v>
       </c>
       <c r="I843" t="str">
         <v>0</v>
@@ -24829,28 +24829,28 @@
     </row>
     <row r="844">
       <c r="A844" t="str">
-        <v>hariḥ Om</v>
+        <v>śrī</v>
       </c>
       <c r="B844" t="str">
-        <v>hariḥ Om</v>
+        <v>śrī</v>
       </c>
       <c r="C844" t="str">
-        <v>Sanscrit 815</v>
+        <v>Sanscrit 616</v>
       </c>
       <c r="D844" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E844" t="str">
-        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+        <v>Amarakośaviveka</v>
       </c>
       <c r="F844" t="str">
-        <v>U1</v>
+        <v/>
       </c>
       <c r="G844" t="str">
-        <v>folio 1r</v>
+        <v>1r</v>
       </c>
       <c r="H844" t="str">
-        <v>left margin 1</v>
+        <v>marginal</v>
       </c>
       <c r="I844" t="str">
         <v>0</v>
@@ -24858,28 +24858,28 @@
     </row>
     <row r="845">
       <c r="A845" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīrāmaḥ</v>
       </c>
       <c r="B845" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrīrāmaḥ</v>
       </c>
       <c r="C845" t="str">
-        <v>Sanscrit 815</v>
+        <v>Sanscrit 619</v>
       </c>
       <c r="D845" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E845" t="str">
-        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+        <v>Amarakośakaumudī</v>
       </c>
       <c r="F845" t="str">
-        <v>U1</v>
+        <v/>
       </c>
       <c r="G845" t="str">
-        <v>folio 148v</v>
+        <v>folio 1, recto</v>
       </c>
       <c r="H845" t="str">
-        <v>main text area</v>
+        <v>beginning</v>
       </c>
       <c r="I845" t="str">
         <v>0</v>
@@ -24887,10 +24887,10 @@
     </row>
     <row r="846">
       <c r="A846" t="str">
-        <v>Om· {pcl}</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B846" t="str">
-        <v>Om· {pcl}</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C846" t="str">
         <v>Sanscrit 815</v>
@@ -24905,10 +24905,10 @@
         <v>U1</v>
       </c>
       <c r="G846" t="str">
-        <v>folio 148v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H846" t="str">
-        <v>main text area</v>
+        <v>left margin 1</v>
       </c>
       <c r="I846" t="str">
         <v>0</v>
@@ -24916,10 +24916,10 @@
     </row>
     <row r="847">
       <c r="A847" t="str">
-        <v>hariḥ Om</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B847" t="str">
-        <v>hariḥ Om</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C847" t="str">
         <v>Sanscrit 815</v>
@@ -24931,13 +24931,13 @@
         <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F847" t="str">
-        <v>U3</v>
+        <v>U1</v>
       </c>
       <c r="G847" t="str">
-        <v>folio 149r</v>
+        <v>folio 148v</v>
       </c>
       <c r="H847" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I847" t="str">
         <v>0</v>
@@ -24945,10 +24945,10 @@
     </row>
     <row r="848">
       <c r="A848" t="str">
-        <v>hariḥ Om {pcl}</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="B848" t="str">
-        <v>hariḥ Om {pcl}</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="C848" t="str">
         <v>Sanscrit 815</v>
@@ -24960,10 +24960,10 @@
         <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F848" t="str">
-        <v>U3</v>
+        <v>U1</v>
       </c>
       <c r="G848" t="str">
-        <v>folio 155r</v>
+        <v>folio 148v</v>
       </c>
       <c r="H848" t="str">
         <v>main text area</v>
@@ -24974,10 +24974,10 @@
     </row>
     <row r="849">
       <c r="A849" t="str">
-        <v>Om {pcl}</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B849" t="str">
-        <v>Om {pcl}</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C849" t="str">
         <v>Sanscrit 815</v>
@@ -24992,10 +24992,10 @@
         <v>U3</v>
       </c>
       <c r="G849" t="str">
-        <v>folio 155r</v>
+        <v>folio 149r</v>
       </c>
       <c r="H849" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I849" t="str">
         <v>0</v>
@@ -25003,10 +25003,10 @@
     </row>
     <row r="850">
       <c r="A850" t="str">
-        <v>hariḥ Om</v>
+        <v>hariḥ Om {pcl}</v>
       </c>
       <c r="B850" t="str">
-        <v>hariḥ Om</v>
+        <v>hariḥ Om {pcl}</v>
       </c>
       <c r="C850" t="str">
         <v>Sanscrit 815</v>
@@ -25021,10 +25021,10 @@
         <v>U3</v>
       </c>
       <c r="G850" t="str">
-        <v>folio 155v</v>
+        <v>folio 155r</v>
       </c>
       <c r="H850" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I850" t="str">
         <v>0</v>
@@ -25032,10 +25032,10 @@
     </row>
     <row r="851">
       <c r="A851" t="str">
-        <v>śubham astu</v>
+        <v>Om {pcl}</v>
       </c>
       <c r="B851" t="str">
-        <v>śubham astu</v>
+        <v>Om {pcl}</v>
       </c>
       <c r="C851" t="str">
         <v>Sanscrit 815</v>
@@ -25050,10 +25050,10 @@
         <v>U3</v>
       </c>
       <c r="G851" t="str">
-        <v>folio 155v</v>
+        <v>folio 155r</v>
       </c>
       <c r="H851" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I851" t="str">
         <v>0</v>
@@ -25061,10 +25061,10 @@
     </row>
     <row r="852">
       <c r="A852" t="str">
-        <v>hari Om·</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B852" t="str">
-        <v>hari Om·</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C852" t="str">
         <v>Sanscrit 815</v>
@@ -25079,10 +25079,10 @@
         <v>U3</v>
       </c>
       <c r="G852" t="str">
-        <v>folio 286v</v>
+        <v>folio 155v</v>
       </c>
       <c r="H852" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I852" t="str">
         <v>0</v>
@@ -25090,25 +25090,25 @@
     </row>
     <row r="853">
       <c r="A853" t="str">
-        <v>hariḥ Om·</v>
+        <v>śubham astu</v>
       </c>
       <c r="B853" t="str">
-        <v>hariḥ Om·</v>
+        <v>śubham astu</v>
       </c>
       <c r="C853" t="str">
-        <v>Sanscrit 816</v>
+        <v>Sanscrit 815</v>
       </c>
       <c r="D853" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E853" t="str">
-        <v>Mitākṣarā</v>
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F853" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G853" t="str">
-        <v>folio 1r</v>
+        <v>folio 155v</v>
       </c>
       <c r="H853" t="str">
         <v>left margin</v>
@@ -25119,25 +25119,25 @@
     </row>
     <row r="854">
       <c r="A854" t="str">
-        <v>hariḥ Om· {pcl}</v>
+        <v>hari Om·</v>
       </c>
       <c r="B854" t="str">
-        <v>hariḥ Om· {pcl}</v>
+        <v>hari Om·</v>
       </c>
       <c r="C854" t="str">
-        <v>Sanscrit 816</v>
+        <v>Sanscrit 815</v>
       </c>
       <c r="D854" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E854" t="str">
-        <v>Mitākṣarā</v>
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F854" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G854" t="str">
-        <v>folio 200v</v>
+        <v>folio 286v</v>
       </c>
       <c r="H854" t="str">
         <v>main text area</v>
@@ -25148,10 +25148,10 @@
     </row>
     <row r="855">
       <c r="A855" t="str">
-        <v>Om tat sat·</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B855" t="str">
-        <v>Om tat sat·</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C855" t="str">
         <v>Sanscrit 816</v>
@@ -25166,10 +25166,10 @@
         <v>U2</v>
       </c>
       <c r="G855" t="str">
-        <v>folio 201r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H855" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I855" t="str">
         <v>0</v>
@@ -25177,28 +25177,28 @@
     </row>
     <row r="856">
       <c r="A856" t="str">
-        <v>hariḥ Om·</v>
+        <v>hariḥ Om· {pcl}</v>
       </c>
       <c r="B856" t="str">
-        <v>hariḥ Om·</v>
+        <v>hariḥ Om· {pcl}</v>
       </c>
       <c r="C856" t="str">
-        <v>Sanscrit 818</v>
+        <v>Sanscrit 816</v>
       </c>
       <c r="D856" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E856" t="str">
-        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
+        <v>Mitākṣarā</v>
       </c>
       <c r="F856" t="str">
         <v>U2</v>
       </c>
       <c r="G856" t="str">
-        <v>folio 1r</v>
+        <v>folio 200v</v>
       </c>
       <c r="H856" t="str">
-        <v>left margin 1</v>
+        <v>main text area</v>
       </c>
       <c r="I856" t="str">
         <v>0</v>
@@ -25206,28 +25206,28 @@
     </row>
     <row r="857">
       <c r="A857" t="str">
-        <v>hariḥ Om</v>
+        <v>Om tat sat·</v>
       </c>
       <c r="B857" t="str">
-        <v>hariḥ Om</v>
+        <v>Om tat sat·</v>
       </c>
       <c r="C857" t="str">
-        <v>Sanscrit 818</v>
+        <v>Sanscrit 816</v>
       </c>
       <c r="D857" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E857" t="str">
-        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
+        <v>Mitākṣarā</v>
       </c>
       <c r="F857" t="str">
-        <v>U4</v>
+        <v>U2</v>
       </c>
       <c r="G857" t="str">
-        <v>folio 88r</v>
+        <v>folio 201r</v>
       </c>
       <c r="H857" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I857" t="str">
         <v>0</v>
@@ -25250,13 +25250,13 @@
         <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F858" t="str">
-        <v>U4</v>
+        <v>U2</v>
       </c>
       <c r="G858" t="str">
-        <v>folio 317r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H858" t="str">
-        <v>main text area</v>
+        <v>left margin 1</v>
       </c>
       <c r="I858" t="str">
         <v>0</v>
@@ -25264,10 +25264,10 @@
     </row>
     <row r="859">
       <c r="A859" t="str">
-        <v>Om· {pcl}</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B859" t="str">
-        <v>Om· {pcl}</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C859" t="str">
         <v>Sanscrit 818</v>
@@ -25282,10 +25282,10 @@
         <v>U4</v>
       </c>
       <c r="G859" t="str">
-        <v>folio 317r</v>
+        <v>folio 88r</v>
       </c>
       <c r="H859" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I859" t="str">
         <v>0</v>
@@ -25293,28 +25293,28 @@
     </row>
     <row r="860">
       <c r="A860" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B860" t="str">
-        <v>śrī</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C860" t="str">
-        <v>Sanscrit 1129</v>
+        <v>Sanscrit 818</v>
       </c>
       <c r="D860" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E860" t="str">
-        <v>Indic Alphabets</v>
+        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F860" t="str">
-        <v>U1a</v>
+        <v>U4</v>
       </c>
       <c r="G860" t="str">
-        <v>folio 1r</v>
+        <v>folio 317r</v>
       </c>
       <c r="H860" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I860" t="str">
         <v>0</v>
@@ -25322,28 +25322,28 @@
     </row>
     <row r="861">
       <c r="A861" t="str">
-        <v>śrī</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="B861" t="str">
-        <v>śrī</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="C861" t="str">
-        <v>Sanscrit 1146</v>
+        <v>Sanscrit 818</v>
       </c>
       <c r="D861" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E861" t="str">
-        <v>Brahmasūtra</v>
+        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F861" t="str">
-        <v/>
+        <v>U4</v>
       </c>
       <c r="G861" t="str">
-        <v>1r</v>
+        <v>folio 317r</v>
       </c>
       <c r="H861" t="str">
-        <v>marginal</v>
+        <v>main text area</v>
       </c>
       <c r="I861" t="str">
         <v>0</v>
@@ -25351,28 +25351,28 @@
     </row>
     <row r="862">
       <c r="A862" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrī</v>
       </c>
       <c r="B862" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrī</v>
       </c>
       <c r="C862" t="str">
-        <v>Sanscrit 1426</v>
+        <v>Sanscrit 1129</v>
       </c>
       <c r="D862" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E862" t="str">
-        <v>Three Vaiṣṇava hymns</v>
+        <v>Indic Alphabets</v>
       </c>
       <c r="F862" t="str">
+        <v>U1a</v>
+      </c>
+      <c r="G862" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H862" t="str">
         <v/>
-      </c>
-      <c r="G862" t="str">
-        <v>2v</v>
-      </c>
-      <c r="H862" t="str">
-        <v>marginal</v>
       </c>
       <c r="I862" t="str">
         <v>0</v>
@@ -25380,28 +25380,28 @@
     </row>
     <row r="863">
       <c r="A863" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="B863" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrī</v>
       </c>
       <c r="C863" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 1146</v>
       </c>
       <c r="D863" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E863" t="str">
-        <v>Bengali fragments</v>
+        <v>Brahmasūtra</v>
       </c>
       <c r="F863" t="str">
         <v/>
       </c>
       <c r="G863" t="str">
-        <v>folio 1r</v>
+        <v>1r</v>
       </c>
       <c r="H863" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>marginal</v>
       </c>
       <c r="I863" t="str">
         <v>0</v>
@@ -25409,28 +25409,28 @@
     </row>
     <row r="864">
       <c r="A864" t="str">
-        <v>śrīhariḥ |</v>
+        <v>śrīrāmaḥ śaraṇaṃ</v>
       </c>
       <c r="B864" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ śaraṇaṃ</v>
       </c>
       <c r="C864" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 1426</v>
       </c>
       <c r="D864" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E864" t="str">
-        <v>Bengali fragments</v>
+        <v>Three Vaiṣṇava hymns</v>
       </c>
       <c r="F864" t="str">
-        <v>U2</v>
+        <v/>
       </c>
       <c r="G864" t="str">
-        <v>folio 2r</v>
+        <v>2v</v>
       </c>
       <c r="H864" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>marginal</v>
       </c>
       <c r="I864" t="str">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>śrīhariḥ</v>
       </c>
       <c r="C865" t="str">
-        <v>Sanscrit 1442.7a</v>
+        <v>Sanscrit 1442.7</v>
       </c>
       <c r="D865" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E865" t="str">
-        <v>Saṃkrāntadhanaviṣaya</v>
+        <v>Bengali fragments</v>
       </c>
       <c r="F865" t="str">
         <v/>
@@ -25473,13 +25473,13 @@
         <v>śrīhariḥ</v>
       </c>
       <c r="C866" t="str">
-        <v>Sanscrit 1442.7b</v>
+        <v>Sanscrit 1442.7</v>
       </c>
       <c r="D866" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E866" t="str">
-        <v>Mahābhārata – Mokṣadharmaparvan</v>
+        <v>Bengali fragments</v>
       </c>
       <c r="F866" t="str">
         <v>U2</v>
@@ -25494,9 +25494,67 @@
         <v>0</v>
       </c>
     </row>
+    <row r="867">
+      <c r="A867" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="B867" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C867" t="str">
+        <v>Sanscrit 1442.7a</v>
+      </c>
+      <c r="D867" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E867" t="str">
+        <v>Saṃkrāntadhanaviṣaya</v>
+      </c>
+      <c r="F867" t="str">
+        <v/>
+      </c>
+      <c r="G867" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H867" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I867" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="str">
+        <v>śrīhariḥ |</v>
+      </c>
+      <c r="B868" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C868" t="str">
+        <v>Sanscrit 1442.7b</v>
+      </c>
+      <c r="D868" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E868" t="str">
+        <v>Mahābhārata – Mokṣadharmaparvan</v>
+      </c>
+      <c r="F868" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G868" t="str">
+        <v>folio 2r</v>
+      </c>
+      <c r="H868" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I868" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I866"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I868"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scripts/paratexts/blessings.xlsx
+++ b/scripts/paratexts/blessings.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I868"/>
+  <dimension ref="A1:I869"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20131,39 +20131,39 @@
     </row>
     <row r="682">
       <c r="A682" t="str">
-        <v>śrī-ṟā=ma-ceyam</v>
+        <v>veṟṟi-vēl uṟṟa tuṇai</v>
       </c>
       <c r="B682" t="str">
-        <v>śrīṟāmaceyam</v>
+        <v>veṟṟivēl uṟṟa tuṇai</v>
       </c>
       <c r="C682" t="str">
-        <v>Indien 947</v>
+        <v>Indien 943</v>
       </c>
       <c r="D682" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E682" t="str">
-        <v>Kamparāmāyaṇam</v>
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai.</v>
       </c>
       <c r="F682" t="str">
-        <v>U3</v>
+        <v>U1</v>
       </c>
       <c r="G682" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H682" t="str">
-        <v>left margin</v>
+        <v>column 1</v>
       </c>
       <c r="I682" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="str">
-        <v>śrī-rāma-jeyam</v>
+        <v>śrī-ṟā=ma-ceyam</v>
       </c>
       <c r="B683" t="str">
-        <v>śrīrāmajeyam</v>
+        <v>śrīṟāmaceyam</v>
       </c>
       <c r="C683" t="str">
         <v>Indien 947</v>
@@ -20178,10 +20178,10 @@
         <v>U3</v>
       </c>
       <c r="G683" t="str">
-        <v>folio 1v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H683" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I683" t="str">
         <v>0</v>
@@ -20189,10 +20189,10 @@
     </row>
     <row r="684">
       <c r="A684" t="str">
-        <v>hariḥ Om</v>
+        <v>śrī-rāma-jeyam</v>
       </c>
       <c r="B684" t="str">
-        <v>hariḥ Om</v>
+        <v>śrīrāmajeyam</v>
       </c>
       <c r="C684" t="str">
         <v>Indien 947</v>
@@ -20204,13 +20204,13 @@
         <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F684" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G684" t="str">
-        <v>folio 1r</v>
+        <v>folio 1v</v>
       </c>
       <c r="H684" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I684" t="str">
         <v>0</v>
@@ -20218,10 +20218,10 @@
     </row>
     <row r="685">
       <c r="A685" t="str">
-        <v>śrī-ṟāma-ceya=m</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B685" t="str">
-        <v>śrīṟāmaceyam</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C685" t="str">
         <v>Indien 947</v>
@@ -20236,7 +20236,7 @@
         <v>U4</v>
       </c>
       <c r="G685" t="str">
-        <v>folio 112r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H685" t="str">
         <v>left margin</v>
@@ -20247,7 +20247,7 @@
     </row>
     <row r="686">
       <c r="A686" t="str">
-        <v>śrī-ṟā=ma-ceyam</v>
+        <v>śrī-ṟāma-ceya=m</v>
       </c>
       <c r="B686" t="str">
         <v>śrīṟāmaceyam</v>
@@ -20276,7 +20276,7 @@
     </row>
     <row r="687">
       <c r="A687" t="str">
-        <v>śrī-ṟā=ma-ceya=m</v>
+        <v>śrī-ṟā=ma-ceyam</v>
       </c>
       <c r="B687" t="str">
         <v>śrīṟāmaceyam</v>
@@ -20311,7 +20311,7 @@
         <v>śrīṟāmaceyam</v>
       </c>
       <c r="C688" t="str">
-        <v>Indien 949</v>
+        <v>Indien 947</v>
       </c>
       <c r="D688" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -20320,10 +20320,10 @@
         <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F688" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G688" t="str">
-        <v>folio 125r</v>
+        <v>folio 112r</v>
       </c>
       <c r="H688" t="str">
         <v>left margin</v>
@@ -20334,10 +20334,10 @@
     </row>
     <row r="689">
       <c r="A689" t="str">
-        <v>śrī-rā=ma-ceya=m</v>
+        <v>śrī-ṟā=ma-ceya=m</v>
       </c>
       <c r="B689" t="str">
-        <v>śrīrāmaceyam</v>
+        <v>śrīṟāmaceyam</v>
       </c>
       <c r="C689" t="str">
         <v>Indien 949</v>
@@ -20352,7 +20352,7 @@
         <v>U2</v>
       </c>
       <c r="G689" t="str">
-        <v>folio 211r</v>
+        <v>folio 125r</v>
       </c>
       <c r="H689" t="str">
         <v>left margin</v>
@@ -20363,7 +20363,7 @@
     </row>
     <row r="690">
       <c r="A690" t="str">
-        <v>śrī-rāma-ceyam</v>
+        <v>śrī-rā=ma-ceya=m</v>
       </c>
       <c r="B690" t="str">
         <v>śrīrāmaceyam</v>
@@ -20392,10 +20392,10 @@
     </row>
     <row r="691">
       <c r="A691" t="str">
-        <v>śrī-ṟāma-ceyam</v>
+        <v>śrī-rāma-ceyam</v>
       </c>
       <c r="B691" t="str">
-        <v>śrīṟāmaceyam</v>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C691" t="str">
         <v>Indien 949</v>
@@ -20421,10 +20421,10 @@
     </row>
     <row r="692">
       <c r="A692" t="str">
-        <v>śrī-rā=ma-ceya=m</v>
+        <v>śrī-ṟāma-ceyam</v>
       </c>
       <c r="B692" t="str">
-        <v>śrīrāmaceyam</v>
+        <v>śrīṟāmaceyam</v>
       </c>
       <c r="C692" t="str">
         <v>Indien 949</v>
@@ -20436,13 +20436,13 @@
         <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F692" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G692" t="str">
-        <v>folio 133r</v>
+        <v>folio 211r</v>
       </c>
       <c r="H692" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I692" t="str">
         <v>0</v>
@@ -20450,39 +20450,39 @@
     </row>
     <row r="693">
       <c r="A693" t="str">
-        <v>veṟṟi-vēl uṟṟa tuṇai</v>
+        <v>śrī-rā=ma-ceya=m</v>
       </c>
       <c r="B693" t="str">
-        <v>veṟṟivēl uṟṟa tuṇai</v>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C693" t="str">
-        <v>Indien 950</v>
+        <v>Indien 949</v>
       </c>
       <c r="D693" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E693" t="str">
-        <v>Tēvāram</v>
+        <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F693" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G693" t="str">
-        <v>folio [1]r</v>
+        <v>folio 133r</v>
       </c>
       <c r="H693" t="str">
-        <v>column 1</v>
+        <v>main text area</v>
       </c>
       <c r="I693" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="str">
-        <v>hariḥ Om</v>
+        <v>veṟṟi-vēl uṟṟa tuṇai</v>
       </c>
       <c r="B694" t="str">
-        <v>hariḥ Om</v>
+        <v>veṟṟivēl uṟṟa tuṇai</v>
       </c>
       <c r="C694" t="str">
         <v>Indien 950</v>
@@ -20494,24 +20494,24 @@
         <v>Tēvāram</v>
       </c>
       <c r="F694" t="str">
-        <v>U3</v>
+        <v>U1</v>
       </c>
       <c r="G694" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H694" t="str">
-        <v>left margin</v>
+        <v>column 1</v>
       </c>
       <c r="I694" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B695" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C695" t="str">
         <v>Indien 950</v>
@@ -20555,10 +20555,10 @@
         <v>U3</v>
       </c>
       <c r="G696" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H696" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I696" t="str">
         <v>0</v>
@@ -20566,10 +20566,10 @@
     </row>
     <row r="697">
       <c r="A697" t="str">
-        <v>tirucciṟampalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B697" t="str">
-        <v>tirucciṟampalam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C697" t="str">
         <v>Indien 950</v>
@@ -20584,10 +20584,10 @@
         <v>U3</v>
       </c>
       <c r="G697" t="str">
-        <v>folio 540v</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H697" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I697" t="str">
         <v>0</v>
@@ -20595,10 +20595,10 @@
     </row>
     <row r="698">
       <c r="A698" t="str">
-        <v>tiru¿cita?mpalam</v>
+        <v>tirucciṟampalam</v>
       </c>
       <c r="B698" t="str">
-        <v>tirucitampalam</v>
+        <v>tirucciṟampalam</v>
       </c>
       <c r="C698" t="str">
         <v>Indien 950</v>
@@ -20610,10 +20610,10 @@
         <v>Tēvāram</v>
       </c>
       <c r="F698" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G698" t="str">
-        <v>folio 541r</v>
+        <v>folio 540v</v>
       </c>
       <c r="H698" t="str">
         <v>left margin</v>
@@ -20624,28 +20624,28 @@
     </row>
     <row r="699">
       <c r="A699" t="str">
-        <v>śu(bha)m astu</v>
+        <v>tiru¿cita?mpalam</v>
       </c>
       <c r="B699" t="str">
-        <v>śubham astu</v>
+        <v>tirucitampalam</v>
       </c>
       <c r="C699" t="str">
-        <v>Indien 951</v>
+        <v>Indien 950</v>
       </c>
       <c r="D699" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E699" t="str">
-        <v>Kamparāmāyaṇam</v>
+        <v>Tēvāram</v>
       </c>
       <c r="F699" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G699" t="str">
-        <v>folio [1]r</v>
+        <v>folio 541r</v>
       </c>
       <c r="H699" t="str">
-        <v>left margin 1</v>
+        <v>left margin</v>
       </c>
       <c r="I699" t="str">
         <v>0</v>
@@ -20653,10 +20653,10 @@
     </row>
     <row r="700">
       <c r="A700" t="str">
-        <v>śrī-ṟā=ma-jayam</v>
+        <v>śu(bha)m astu</v>
       </c>
       <c r="B700" t="str">
-        <v>śrīṟāmajayam</v>
+        <v>śubham astu</v>
       </c>
       <c r="C700" t="str">
         <v>Indien 951</v>
@@ -20674,7 +20674,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H700" t="str">
-        <v>left margin 2</v>
+        <v>left margin 1</v>
       </c>
       <c r="I700" t="str">
         <v>0</v>
@@ -20703,7 +20703,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H701" t="str">
-        <v>main text area</v>
+        <v>left margin 2</v>
       </c>
       <c r="I701" t="str">
         <v>0</v>
@@ -20711,10 +20711,10 @@
     </row>
     <row r="702">
       <c r="A702" t="str">
-        <v>śu(bha)m as(tu)</v>
+        <v>śrī-ṟā=ma-jayam</v>
       </c>
       <c r="B702" t="str">
-        <v>śubham astu</v>
+        <v>śrīṟāmajayam</v>
       </c>
       <c r="C702" t="str">
         <v>Indien 951</v>
@@ -20740,10 +20740,10 @@
     </row>
     <row r="703">
       <c r="A703" t="str">
-        <v>śrī-rāmaṉ tuṇai</v>
+        <v>śu(bha)m as(tu)</v>
       </c>
       <c r="B703" t="str">
-        <v>śrīrāmaṉ tuṇai</v>
+        <v>śubham astu</v>
       </c>
       <c r="C703" t="str">
         <v>Indien 951</v>
@@ -20764,12 +20764,12 @@
         <v>main text area</v>
       </c>
       <c r="I703" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="str">
-        <v>śrī[rāma]ṉ tuṇai</v>
+        <v>śrī-rāmaṉ tuṇai</v>
       </c>
       <c r="B704" t="str">
         <v>śrīrāmaṉ tuṇai</v>
@@ -20784,13 +20784,13 @@
         <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F704" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G704" t="str">
-        <v>folio 3r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H704" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I704" t="str">
         <v>1</v>
@@ -20798,10 +20798,10 @@
     </row>
     <row r="705">
       <c r="A705" t="str">
-        <v>śrīmaṉārāyaṇar kiṟupai y-uṇṭāka</v>
+        <v>śrī[rāma]ṉ tuṇai</v>
       </c>
       <c r="B705" t="str">
-        <v>śrīmaṉārāyaṇar kiṟupai yuṇṭāka</v>
+        <v>śrīrāmaṉ tuṇai</v>
       </c>
       <c r="C705" t="str">
         <v>Indien 951</v>
@@ -20816,21 +20816,21 @@
         <v>U3</v>
       </c>
       <c r="G705" t="str">
-        <v>folio 395v</v>
+        <v>folio 3r</v>
       </c>
       <c r="H705" t="str">
         <v>left margin</v>
       </c>
       <c r="I705" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="str">
-        <v>śrīmaṉ-ṉārāyaṇar kiṟupai y-uṇṭāka vēṇum</v>
+        <v>śrīmaṉārāyaṇar kiṟupai y-uṇṭāka</v>
       </c>
       <c r="B706" t="str">
-        <v>śrīmaṉṉārāyaṇar kiṟupai yuṇṭāka vēṇum</v>
+        <v>śrīmaṉārāyaṇar kiṟupai yuṇṭāka</v>
       </c>
       <c r="C706" t="str">
         <v>Indien 951</v>
@@ -20845,7 +20845,7 @@
         <v>U3</v>
       </c>
       <c r="G706" t="str">
-        <v>folio 401v</v>
+        <v>folio 395v</v>
       </c>
       <c r="H706" t="str">
         <v>left margin</v>
@@ -20856,10 +20856,10 @@
     </row>
     <row r="707">
       <c r="A707" t="str">
-        <v>hari Om</v>
+        <v>śrīmaṉ-ṉārāyaṇar kiṟupai y-uṇṭāka vēṇum</v>
       </c>
       <c r="B707" t="str">
-        <v>hari Om</v>
+        <v>śrīmaṉṉārāyaṇar kiṟupai yuṇṭāka vēṇum</v>
       </c>
       <c r="C707" t="str">
         <v>Indien 951</v>
@@ -20885,28 +20885,28 @@
     </row>
     <row r="708">
       <c r="A708" t="str">
-        <v>hari Om·</v>
+        <v>hari Om</v>
       </c>
       <c r="B708" t="str">
-        <v>hari Om·</v>
+        <v>hari Om</v>
       </c>
       <c r="C708" t="str">
-        <v>Indien 953</v>
+        <v>Indien 951</v>
       </c>
       <c r="D708" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E708" t="str">
-        <v>Naḷacakkarvarttik Katai</v>
+        <v>Kamparāmāyaṇam</v>
       </c>
       <c r="F708" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G708" t="str">
-        <v>folio [1]r</v>
+        <v>folio 401v</v>
       </c>
       <c r="H708" t="str">
-        <v>left margin 1</v>
+        <v>left margin</v>
       </c>
       <c r="I708" t="str">
         <v>0</v>
@@ -20914,10 +20914,10 @@
     </row>
     <row r="709">
       <c r="A709" t="str">
-        <v>naṉṟāka</v>
+        <v>hari Om·</v>
       </c>
       <c r="B709" t="str">
-        <v>naṉṟāka</v>
+        <v>hari Om·</v>
       </c>
       <c r="C709" t="str">
         <v>Indien 953</v>
@@ -20943,10 +20943,10 @@
     </row>
     <row r="710">
       <c r="A710" t="str">
-        <v>kuru vāḻka</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B710" t="str">
-        <v>kuru vāḻka</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C710" t="str">
         <v>Indien 953</v>
@@ -20972,10 +20972,10 @@
     </row>
     <row r="711">
       <c r="A711" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="B711" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="C711" t="str">
         <v>Indien 953</v>
@@ -20996,15 +20996,15 @@
         <v>left margin 1</v>
       </c>
       <c r="I711" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="str">
-        <v>śrī-ṟāmaceyam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B712" t="str">
-        <v>śrīṟāmaceyam</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C712" t="str">
         <v>Indien 953</v>
@@ -21025,15 +21025,15 @@
         <v>left margin 1</v>
       </c>
       <c r="I712" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="str">
-        <v>cāṟatāmpāḷ tuṇai</v>
+        <v>śrī-ṟāmaceyam</v>
       </c>
       <c r="B713" t="str">
-        <v>cāṟatāmpāḷ tuṇai</v>
+        <v>śrīṟāmaceyam</v>
       </c>
       <c r="C713" t="str">
         <v>Indien 953</v>
@@ -21051,18 +21051,18 @@
         <v>folio [1]r</v>
       </c>
       <c r="H713" t="str">
-        <v>main text area</v>
+        <v>left margin 1</v>
       </c>
       <c r="I713" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="str">
-        <v>naṉṟāka</v>
+        <v>cāṟatāmpāḷ tuṇai</v>
       </c>
       <c r="B714" t="str">
-        <v>naṉṟāka</v>
+        <v>cāṟatāmpāḷ tuṇai</v>
       </c>
       <c r="C714" t="str">
         <v>Indien 953</v>
@@ -21074,24 +21074,24 @@
         <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F714" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G714" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H714" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I714" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="str">
-        <v>civamayam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B715" t="str">
-        <v>civamayam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C715" t="str">
         <v>Indien 953</v>
@@ -21117,10 +21117,10 @@
     </row>
     <row r="716">
       <c r="A716" t="str">
-        <v>vāṇikātēvi cakāyam</v>
+        <v>civamayam</v>
       </c>
       <c r="B716" t="str">
-        <v>vāṇikātēvi cakāyam</v>
+        <v>civamayam</v>
       </c>
       <c r="C716" t="str">
         <v>Indien 953</v>
@@ -21135,10 +21135,10 @@
         <v>U2</v>
       </c>
       <c r="G716" t="str">
-        <v>folio 117r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H716" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I716" t="str">
         <v>0</v>
@@ -21146,10 +21146,10 @@
     </row>
     <row r="717">
       <c r="A717" t="str">
-        <v>teṭcaṇāmūrtti-kiṟupai y-uṇṭāka tākavum</v>
+        <v>vāṇikātēvi cakāyam</v>
       </c>
       <c r="B717" t="str">
-        <v>teṭcaṇāmūrttikiṟupai yuṇṭāka tākavum</v>
+        <v>vāṇikātēvi cakāyam</v>
       </c>
       <c r="C717" t="str">
         <v>Indien 953</v>
@@ -21175,10 +21175,10 @@
     </row>
     <row r="718">
       <c r="A718" t="str">
-        <v>śrī-ṟā=ma-ceya=m</v>
+        <v>teṭcaṇāmūrtti-kiṟupai y-uṇṭāka tākavum</v>
       </c>
       <c r="B718" t="str">
-        <v>śrīṟāmaceyam</v>
+        <v>teṭcaṇāmūrttikiṟupai yuṇṭāka tākavum</v>
       </c>
       <c r="C718" t="str">
         <v>Indien 953</v>
@@ -21204,10 +21204,10 @@
     </row>
     <row r="719">
       <c r="A719" t="str">
-        <v>kuru-kiṟupai</v>
+        <v>śrī-ṟā=ma-ceya=m</v>
       </c>
       <c r="B719" t="str">
-        <v>kurukiṟupai</v>
+        <v>śrīṟāmaceyam</v>
       </c>
       <c r="C719" t="str">
         <v>Indien 953</v>
@@ -21233,28 +21233,28 @@
     </row>
     <row r="720">
       <c r="A720" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>kuru-kiṟupai</v>
       </c>
       <c r="B720" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>kurukiṟupai</v>
       </c>
       <c r="C720" t="str">
-        <v>Indien 954</v>
+        <v>Indien 953</v>
       </c>
       <c r="D720" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E720" t="str">
-        <v>Vātavūrppurāṇam</v>
+        <v>Naḷacakkarvarttik Katai</v>
       </c>
       <c r="F720" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G720" t="str">
-        <v>folio [1]r</v>
+        <v>folio 117r</v>
       </c>
       <c r="H720" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I720" t="str">
         <v>0</v>
@@ -21262,10 +21262,10 @@
     </row>
     <row r="721">
       <c r="A721" t="str">
-        <v>tēvicakāyam•</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B721" t="str">
-        <v>tēvicakāyam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C721" t="str">
         <v>Indien 954</v>
@@ -21291,10 +21291,10 @@
     </row>
     <row r="722">
       <c r="A722" t="str">
-        <v>civam•</v>
+        <v>tēvicakāyam•</v>
       </c>
       <c r="B722" t="str">
-        <v>civam</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C722" t="str">
         <v>Indien 954</v>
@@ -21320,10 +21320,10 @@
     </row>
     <row r="723">
       <c r="A723" t="str">
-        <v>tirucciṟṟampalam•</v>
+        <v>civam•</v>
       </c>
       <c r="B723" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>civam</v>
       </c>
       <c r="C723" t="str">
         <v>Indien 954</v>
@@ -21338,10 +21338,10 @@
         <v>U1</v>
       </c>
       <c r="G723" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H723" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I723" t="str">
         <v>0</v>
@@ -21349,10 +21349,10 @@
     </row>
     <row r="724">
       <c r="A724" t="str">
-        <v>tēvicakāyam</v>
+        <v>tirucciṟṟampalam•</v>
       </c>
       <c r="B724" t="str">
-        <v>tēvicakāyam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C724" t="str">
         <v>Indien 954</v>
@@ -21378,10 +21378,10 @@
     </row>
     <row r="725">
       <c r="A725" t="str">
-        <v>naṉṟāka</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="B725" t="str">
-        <v>naṉṟāka</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C725" t="str">
         <v>Indien 954</v>
@@ -21393,13 +21393,13 @@
         <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F725" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G725" t="str">
-        <v>folio [1]r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H725" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I725" t="str">
         <v>0</v>
@@ -21407,10 +21407,10 @@
     </row>
     <row r="726">
       <c r="A726" t="str">
-        <v>tēvicakāyam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B726" t="str">
-        <v>tēvicakāyam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C726" t="str">
         <v>Indien 954</v>
@@ -21425,10 +21425,10 @@
         <v>U2</v>
       </c>
       <c r="G726" t="str">
-        <v>folio 11r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H726" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I726" t="str">
         <v>0</v>
@@ -21436,10 +21436,10 @@
     </row>
     <row r="727">
       <c r="A727" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="B727" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C727" t="str">
         <v>Indien 954</v>
@@ -21465,10 +21465,10 @@
     </row>
     <row r="728">
       <c r="A728" t="str">
-        <v>civar</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B728" t="str">
-        <v>civar</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C728" t="str">
         <v>Indien 954</v>
@@ -21512,10 +21512,10 @@
         <v>U2</v>
       </c>
       <c r="G729" t="str">
-        <v>folio 12r</v>
+        <v>folio 11r</v>
       </c>
       <c r="H729" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I729" t="str">
         <v>0</v>
@@ -21523,10 +21523,10 @@
     </row>
     <row r="730">
       <c r="A730" t="str">
-        <v>Āṟumukam tuṇai</v>
+        <v>civar</v>
       </c>
       <c r="B730" t="str">
-        <v>Āṟumukam tuṇai</v>
+        <v>civar</v>
       </c>
       <c r="C730" t="str">
         <v>Indien 954</v>
@@ -21541,21 +21541,21 @@
         <v>U2</v>
       </c>
       <c r="G730" t="str">
-        <v>folio 120r</v>
+        <v>folio 12r</v>
       </c>
       <c r="H730" t="str">
         <v>left margin</v>
       </c>
       <c r="I730" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="str">
-        <v>Ampalat¿(tuṭu)?tu mayyar tuṇai-y-āka vēṇum</v>
+        <v>Āṟumukam tuṇai</v>
       </c>
       <c r="B731" t="str">
-        <v>Ampalattuṭutu mayyar tuṇaiyāka vēṇum</v>
+        <v>Āṟumukam tuṇai</v>
       </c>
       <c r="C731" t="str">
         <v>Indien 954</v>
@@ -21581,10 +21581,10 @@
     </row>
     <row r="732">
       <c r="A732" t="str">
-        <v>tēvicakāya=m</v>
+        <v>Ampalat¿(tuṭu)?tu mayyar tuṇai-y-āka vēṇum</v>
       </c>
       <c r="B732" t="str">
-        <v>tēvicakāyam</v>
+        <v>Ampalattuṭutu mayyar tuṇaiyāka vēṇum</v>
       </c>
       <c r="C732" t="str">
         <v>Indien 954</v>
@@ -21605,15 +21605,15 @@
         <v>left margin</v>
       </c>
       <c r="I732" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>tēvicakāya=m</v>
       </c>
       <c r="B733" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C733" t="str">
         <v>Indien 954</v>
@@ -21639,10 +21639,10 @@
     </row>
     <row r="734">
       <c r="A734" t="str">
-        <v>kuru vāḻka</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B734" t="str">
-        <v>kuru vāḻka</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C734" t="str">
         <v>Indien 954</v>
@@ -21668,10 +21668,10 @@
     </row>
     <row r="735">
       <c r="A735" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="B735" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>kuru vāḻka</v>
       </c>
       <c r="C735" t="str">
         <v>Indien 954</v>
@@ -21692,15 +21692,15 @@
         <v>left margin</v>
       </c>
       <c r="I735" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="str">
-        <v>civar civar</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B736" t="str">
-        <v>civar civar</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C736" t="str">
         <v>Indien 954</v>
@@ -21721,15 +21721,15 @@
         <v>left margin</v>
       </c>
       <c r="I736" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="str">
-        <v>tēvicakāyam•</v>
+        <v>civar civar</v>
       </c>
       <c r="B737" t="str">
-        <v>tēvicakāyam</v>
+        <v>civar civar</v>
       </c>
       <c r="C737" t="str">
         <v>Indien 954</v>
@@ -21744,7 +21744,7 @@
         <v>U2</v>
       </c>
       <c r="G737" t="str">
-        <v>folio 120v</v>
+        <v>folio 120r</v>
       </c>
       <c r="H737" t="str">
         <v>left margin</v>
@@ -21770,10 +21770,10 @@
         <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F738" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G738" t="str">
-        <v>folio [1]r</v>
+        <v>folio 120v</v>
       </c>
       <c r="H738" t="str">
         <v>left margin</v>
@@ -21784,25 +21784,25 @@
     </row>
     <row r="739">
       <c r="A739" t="str">
-        <v>naṉṟāka</v>
+        <v>tēvicakāyam•</v>
       </c>
       <c r="B739" t="str">
-        <v>naṉṟāka</v>
+        <v>tēvicakāyam</v>
       </c>
       <c r="C739" t="str">
-        <v>Indien 955</v>
+        <v>Indien 954</v>
       </c>
       <c r="D739" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E739" t="str">
-        <v>Cīvakacintāmaṇi, part 1 of 2</v>
+        <v>Vātavūrppurāṇam</v>
       </c>
       <c r="F739" t="str">
         <v>U3</v>
       </c>
       <c r="G739" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H739" t="str">
         <v>left margin</v>
@@ -21813,10 +21813,10 @@
     </row>
     <row r="740">
       <c r="A740" t="str">
-        <v>[...] śrīyo na=ma=ḥ</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B740" t="str">
-        <v>śrīyo nama=ḥ</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C740" t="str">
         <v>Indien 955</v>
@@ -21831,7 +21831,7 @@
         <v>U3</v>
       </c>
       <c r="G740" t="str">
-        <v>folio 142r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H740" t="str">
         <v>left margin</v>
@@ -21842,10 +21842,10 @@
     </row>
     <row r="741">
       <c r="A741" t="str">
-        <v>Evvuyirattum potuvāṉ kaṭavuḷ pātamē caraṇa⟨m⟩</v>
+        <v>[...] śrīyo na=ma=ḥ</v>
       </c>
       <c r="B741" t="str">
-        <v>Evvuyirattum potuvāṉ kaṭavuḷ pātamē caraṇam</v>
+        <v>śrīyo nama=ḥ</v>
       </c>
       <c r="C741" t="str">
         <v>Indien 955</v>
@@ -21871,10 +21871,10 @@
     </row>
     <row r="742">
       <c r="A742" t="str">
-        <v>Ōm·</v>
+        <v>Evvuyirattum potuvāṉ kaṭavuḷ pātamē caraṇa⟨m⟩</v>
       </c>
       <c r="B742" t="str">
-        <v>Ōm·</v>
+        <v>Evvuyirattum potuvāṉ kaṭavuḷ pātamē caraṇam</v>
       </c>
       <c r="C742" t="str">
         <v>Indien 955</v>
@@ -21889,10 +21889,10 @@
         <v>U3</v>
       </c>
       <c r="G742" t="str">
-        <v>folio 248r</v>
+        <v>folio 142r</v>
       </c>
       <c r="H742" t="str">
-        <v>left margin 2</v>
+        <v>left margin</v>
       </c>
       <c r="I742" t="str">
         <v>0</v>
@@ -21900,25 +21900,25 @@
     </row>
     <row r="743">
       <c r="A743" t="str">
-        <v>Āṉāti namastu</v>
+        <v>Ōm·</v>
       </c>
       <c r="B743" t="str">
-        <v>Āṉāti namastu</v>
+        <v>Ōm·</v>
       </c>
       <c r="C743" t="str">
-        <v>Indien 956</v>
+        <v>Indien 955</v>
       </c>
       <c r="D743" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E743" t="str">
-        <v>Tiruvēṅkaṭacatakam</v>
+        <v>Cīvakacintāmaṇi, part 1 of 2</v>
       </c>
       <c r="F743" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G743" t="str">
-        <v>folio [1]r</v>
+        <v>folio 248r</v>
       </c>
       <c r="H743" t="str">
         <v>left margin 2</v>
@@ -21929,10 +21929,10 @@
     </row>
     <row r="744">
       <c r="A744" t="str">
-        <v>naṉṟāka</v>
+        <v>Āṉāti namastu</v>
       </c>
       <c r="B744" t="str">
-        <v>naṉṟāka</v>
+        <v>Āṉāti namastu</v>
       </c>
       <c r="C744" t="str">
         <v>Indien 956</v>
@@ -21944,13 +21944,13 @@
         <v>Tiruvēṅkaṭacatakam</v>
       </c>
       <c r="F744" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G744" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H744" t="str">
-        <v>left margin 1</v>
+        <v>left margin 2</v>
       </c>
       <c r="I744" t="str">
         <v>0</v>
@@ -21958,25 +21958,25 @@
     </row>
     <row r="745">
       <c r="A745" t="str">
-        <v>namostu</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B745" t="str">
-        <v>namostu</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C745" t="str">
-        <v>Indien 957</v>
+        <v>Indien 956</v>
       </c>
       <c r="D745" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E745" t="str">
-        <v>Cīvakacintāmaṇi, part 2 of 2</v>
+        <v>Tiruvēṅkaṭacatakam</v>
       </c>
       <c r="F745" t="str">
         <v>U2</v>
       </c>
       <c r="G745" t="str">
-        <v>folio 333r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H745" t="str">
         <v>left margin 1</v>
@@ -21987,10 +21987,10 @@
     </row>
     <row r="746">
       <c r="A746" t="str">
-        <v>namostt=tu</v>
+        <v>namostu</v>
       </c>
       <c r="B746" t="str">
-        <v>namostttu</v>
+        <v>namostu</v>
       </c>
       <c r="C746" t="str">
         <v>Indien 957</v>
@@ -22005,10 +22005,10 @@
         <v>U2</v>
       </c>
       <c r="G746" t="str">
-        <v>folio 393v</v>
+        <v>folio 333r</v>
       </c>
       <c r="H746" t="str">
-        <v>right margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I746" t="str">
         <v>0</v>
@@ -22016,10 +22016,10 @@
     </row>
     <row r="747">
       <c r="A747" t="str">
-        <v>tiruttakkatēvar caraṇam</v>
+        <v>namostt=tu</v>
       </c>
       <c r="B747" t="str">
-        <v>tiruttakkatēvar caraṇam</v>
+        <v>namostttu</v>
       </c>
       <c r="C747" t="str">
         <v>Indien 957</v>
@@ -22045,10 +22045,10 @@
     </row>
     <row r="748">
       <c r="A748" t="str">
-        <v>teyvacākāyam</v>
+        <v>tiruttakkatēvar caraṇam</v>
       </c>
       <c r="B748" t="str">
-        <v>teyvacākāyam</v>
+        <v>tiruttakkatēvar caraṇam</v>
       </c>
       <c r="C748" t="str">
         <v>Indien 957</v>
@@ -22063,10 +22063,10 @@
         <v>U2</v>
       </c>
       <c r="G748" t="str">
-        <v>folio 434v</v>
+        <v>folio 393v</v>
       </c>
       <c r="H748" t="str">
-        <v>left margin 1</v>
+        <v>right margin</v>
       </c>
       <c r="I748" t="str">
         <v>0</v>
@@ -22074,10 +22074,10 @@
     </row>
     <row r="749">
       <c r="A749" t="str">
-        <v>murukar tuṇai y-uṇṭākavu=m</v>
+        <v>teyvacākāyam</v>
       </c>
       <c r="B749" t="str">
-        <v>murukar tuṇai yuṇṭākavum</v>
+        <v>teyvacākāyam</v>
       </c>
       <c r="C749" t="str">
         <v>Indien 957</v>
@@ -22092,50 +22092,50 @@
         <v>U2</v>
       </c>
       <c r="G749" t="str">
-        <v>folio 556v</v>
+        <v>folio 434v</v>
       </c>
       <c r="H749" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I749" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="str">
-        <v>śubham astu</v>
+        <v>murukar tuṇai y-uṇṭākavu=m</v>
       </c>
       <c r="B750" t="str">
-        <v>śubham astu</v>
+        <v>murukar tuṇai yuṇṭākavum</v>
       </c>
       <c r="C750" t="str">
-        <v>Indien 962</v>
+        <v>Indien 957</v>
       </c>
       <c r="D750" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E750" t="str">
-        <v>Veṅkaikkōvai</v>
+        <v>Cīvakacintāmaṇi, part 2 of 2</v>
       </c>
       <c r="F750" t="str">
-        <v>U2a</v>
+        <v>U2</v>
       </c>
       <c r="G750" t="str">
-        <v>folio [1]r</v>
+        <v>folio 556v</v>
       </c>
       <c r="H750" t="str">
         <v>left margin</v>
       </c>
       <c r="I750" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="str">
-        <v>civamaya=m</v>
+        <v>śubham astu</v>
       </c>
       <c r="B751" t="str">
-        <v>civamayam</v>
+        <v>śubham astu</v>
       </c>
       <c r="C751" t="str">
         <v>Indien 962</v>
@@ -22153,7 +22153,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H751" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I751" t="str">
         <v>0</v>
@@ -22161,10 +22161,10 @@
     </row>
     <row r="752">
       <c r="A752" t="str">
-        <v>ve¿tti?-vēl tuṇai</v>
+        <v>civamaya=m</v>
       </c>
       <c r="B752" t="str">
-        <v>vettivēl tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="C752" t="str">
         <v>Indien 962</v>
@@ -22185,15 +22185,15 @@
         <v>main text area</v>
       </c>
       <c r="I752" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="str">
-        <v>naṉṟāka</v>
+        <v>ve¿tti?-vēl tuṇai</v>
       </c>
       <c r="B753" t="str">
-        <v>naṉṟāka</v>
+        <v>vettivēl tuṇai</v>
       </c>
       <c r="C753" t="str">
         <v>Indien 962</v>
@@ -22205,24 +22205,24 @@
         <v>Veṅkaikkōvai</v>
       </c>
       <c r="F753" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G753" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H753" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I753" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B754" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C754" t="str">
         <v>Indien 962</v>
@@ -22237,10 +22237,10 @@
         <v>U2b</v>
       </c>
       <c r="G754" t="str">
-        <v>folio 38v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H754" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I754" t="str">
         <v>0</v>
@@ -22248,10 +22248,10 @@
     </row>
     <row r="755">
       <c r="A755" t="str">
-        <v>ve¿tti?-vēl uṟṟa tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B755" t="str">
-        <v>vettivēl uṟṟa tuṇai</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C755" t="str">
         <v>Indien 962</v>
@@ -22272,15 +22272,15 @@
         <v>main text area</v>
       </c>
       <c r="I755" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="str">
-        <v>civamayam</v>
+        <v>ve¿tti?-vēl uṟṟa tuṇai</v>
       </c>
       <c r="B756" t="str">
-        <v>civamayam</v>
+        <v>vettivēl uṟṟa tuṇai</v>
       </c>
       <c r="C756" t="str">
         <v>Indien 962</v>
@@ -22301,33 +22301,33 @@
         <v>main text area</v>
       </c>
       <c r="I756" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="str">
-        <v>[ti]rucci[ṟ]ṟampa(la)m</v>
+        <v>civamayam</v>
       </c>
       <c r="B757" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>civamayam</v>
       </c>
       <c r="C757" t="str">
-        <v>Indien 963</v>
+        <v>Indien 962</v>
       </c>
       <c r="D757" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E757" t="str">
-        <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
+        <v>Veṅkaikkōvai</v>
       </c>
       <c r="F757" t="str">
-        <v>U2a</v>
+        <v>U2b</v>
       </c>
       <c r="G757" t="str">
-        <v>folio [1]r</v>
+        <v>folio 38v</v>
       </c>
       <c r="H757" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I757" t="str">
         <v>0</v>
@@ -22335,10 +22335,10 @@
     </row>
     <row r="758">
       <c r="A758" t="str">
-        <v>hari Ōm</v>
+        <v>[ti]rucci[ṟ]ṟampa(la)m</v>
       </c>
       <c r="B758" t="str">
-        <v>hari Ōm</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C758" t="str">
         <v>Indien 963</v>
@@ -22353,7 +22353,7 @@
         <v>U2a</v>
       </c>
       <c r="G758" t="str">
-        <v>folio 2r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H758" t="str">
         <v>left margin</v>
@@ -22364,10 +22364,10 @@
     </row>
     <row r="759">
       <c r="A759" t="str">
-        <v>paḻama[...]lai[...]tar tuṇai</v>
+        <v>hari Ōm</v>
       </c>
       <c r="B759" t="str">
-        <v>paḻamalaitar tuṇai</v>
+        <v>hari Ōm</v>
       </c>
       <c r="C759" t="str">
         <v>Indien 963</v>
@@ -22382,21 +22382,21 @@
         <v>U2a</v>
       </c>
       <c r="G759" t="str">
-        <v>folio 119r</v>
+        <v>folio 2r</v>
       </c>
       <c r="H759" t="str">
         <v>left margin</v>
       </c>
       <c r="I759" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="str">
-        <v>periyaṉāyaki tuṇai</v>
+        <v>paḻama[...]lai[...]tar tuṇai</v>
       </c>
       <c r="B760" t="str">
-        <v>periyaṉāyaki tuṇai</v>
+        <v>paḻamalaitar tuṇai</v>
       </c>
       <c r="C760" t="str">
         <v>Indien 963</v>
@@ -22422,10 +22422,10 @@
     </row>
     <row r="761">
       <c r="A761" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>periyaṉāyaki tuṇai</v>
       </c>
       <c r="B761" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>periyaṉāyaki tuṇai</v>
       </c>
       <c r="C761" t="str">
         <v>Indien 963</v>
@@ -22437,24 +22437,24 @@
         <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
       </c>
       <c r="F761" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G761" t="str">
-        <v>folio 125r</v>
+        <v>folio 119r</v>
       </c>
       <c r="H761" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I761" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="str">
-        <v>śrī</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B762" t="str">
-        <v>śrī</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C762" t="str">
         <v>Indien 963</v>
@@ -22466,13 +22466,13 @@
         <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
       </c>
       <c r="F762" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G762" t="str">
-        <v>folio [1]r</v>
+        <v>folio 125r</v>
       </c>
       <c r="H762" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I762" t="str">
         <v>0</v>
@@ -22480,22 +22480,22 @@
     </row>
     <row r="763">
       <c r="A763" t="str">
-        <v>viṉāyakāya namam</v>
+        <v>śrī</v>
       </c>
       <c r="B763" t="str">
-        <v>viṉāyakāya namam</v>
+        <v>śrī</v>
       </c>
       <c r="C763" t="str">
-        <v>Indien 983</v>
+        <v>Indien 963</v>
       </c>
       <c r="D763" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E763" t="str">
-        <v>Arunaikiripurāṇam</v>
+        <v>Viruttācalappuṟāṇam + Tiruttoṇṭattokai</v>
       </c>
       <c r="F763" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G763" t="str">
         <v>folio [1]r</v>
@@ -22509,10 +22509,10 @@
     </row>
     <row r="764">
       <c r="A764" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>viṉāyakāya namam</v>
       </c>
       <c r="B764" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>viṉāyakāya namam</v>
       </c>
       <c r="C764" t="str">
         <v>Indien 983</v>
@@ -22538,10 +22538,10 @@
     </row>
     <row r="765">
       <c r="A765" t="str">
-        <v>vāṇi namos•tu {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B765" t="str">
-        <v>vāṇi namostu {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C765" t="str">
         <v>Indien 983</v>
@@ -22559,7 +22559,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H765" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I765" t="str">
         <v>0</v>
@@ -22567,10 +22567,10 @@
     </row>
     <row r="766">
       <c r="A766" t="str">
-        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
+        <v>vāṇi namos•tu {pcl}</v>
       </c>
       <c r="B766" t="str">
-        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
+        <v>vāṇi namostu {pcl}</v>
       </c>
       <c r="C766" t="str">
         <v>Indien 983</v>
@@ -22591,15 +22591,15 @@
         <v>main text area</v>
       </c>
       <c r="I766" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
       </c>
       <c r="B767" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>caṟkuru pātaṇ tuṇai {pcl}</v>
       </c>
       <c r="C767" t="str">
         <v>Indien 983</v>
@@ -22611,16 +22611,16 @@
         <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F767" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G767" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H767" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I767" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768">
@@ -22643,10 +22643,10 @@
         <v>U3</v>
       </c>
       <c r="G768" t="str">
-        <v>folio 8v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H768" t="str">
-        <v/>
+        <v>left margin</v>
       </c>
       <c r="I768" t="str">
         <v>0</v>
@@ -22672,7 +22672,7 @@
         <v>U3</v>
       </c>
       <c r="G769" t="str">
-        <v>folio 26r</v>
+        <v>folio 8v</v>
       </c>
       <c r="H769" t="str">
         <v/>
@@ -22701,7 +22701,7 @@
         <v>U3</v>
       </c>
       <c r="G770" t="str">
-        <v>folio 51v</v>
+        <v>folio 26r</v>
       </c>
       <c r="H770" t="str">
         <v/>
@@ -22712,10 +22712,10 @@
     </row>
     <row r="771">
       <c r="A771" t="str">
-        <v>civamaya=m</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B771" t="str">
-        <v>civamayam</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C771" t="str">
         <v>Indien 983</v>
@@ -22730,7 +22730,7 @@
         <v>U3</v>
       </c>
       <c r="G771" t="str">
-        <v>folio 158v</v>
+        <v>folio 51v</v>
       </c>
       <c r="H771" t="str">
         <v/>
@@ -22741,10 +22741,10 @@
     </row>
     <row r="772">
       <c r="A772" t="str">
-        <v>tirucci¿tṟa?ṟṟampalam</v>
+        <v>civamaya=m</v>
       </c>
       <c r="B772" t="str">
-        <v>tiruccitṟaṟṟampalam</v>
+        <v>civamayam</v>
       </c>
       <c r="C772" t="str">
         <v>Indien 983</v>
@@ -22770,28 +22770,28 @@
     </row>
     <row r="773">
       <c r="A773" t="str">
-        <v>Al=lā Utavi ceyya-vēṇum</v>
+        <v>tirucci¿tṟa?ṟṟampalam</v>
       </c>
       <c r="B773" t="str">
-        <v>Allā Utavi ceyyavēṇum</v>
+        <v>tiruccitṟaṟṟampalam</v>
       </c>
       <c r="C773" t="str">
-        <v>Indien 987</v>
+        <v>Indien 983</v>
       </c>
       <c r="D773" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E773" t="str">
-        <v>Maturaivīraṉ Ammāṉai</v>
+        <v>Arunaikiripurāṇam</v>
       </c>
       <c r="F773" t="str">
-        <v>U1</v>
+        <v>U3</v>
       </c>
       <c r="G773" t="str">
-        <v>folio [1]r</v>
+        <v>folio 158v</v>
       </c>
       <c r="H773" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I773" t="str">
         <v>0</v>
@@ -22799,10 +22799,10 @@
     </row>
     <row r="774">
       <c r="A774" t="str">
-        <v>caṟaṣpati tuṇai {pcl}</v>
+        <v>Al=lā Utavi ceyya-vēṇum</v>
       </c>
       <c r="B774" t="str">
-        <v>caṟaṣpati tuṇai {pcl}</v>
+        <v>Allā Utavi ceyyavēṇum</v>
       </c>
       <c r="C774" t="str">
         <v>Indien 987</v>
@@ -22820,18 +22820,18 @@
         <v>folio [1]r</v>
       </c>
       <c r="H774" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I774" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="str">
-        <v>vicumi l=lāku ṟakimāṉi ṟakīm</v>
+        <v>caṟaṣpati tuṇai {pcl}</v>
       </c>
       <c r="B775" t="str">
-        <v>vicumi llāku ṟakimāṉi ṟakīm</v>
+        <v>caṟaṣpati tuṇai {pcl}</v>
       </c>
       <c r="C775" t="str">
         <v>Indien 987</v>
@@ -22843,82 +22843,82 @@
         <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F775" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G775" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H775" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I775" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="str">
-        <v>{pcs} kaṭavu⟨ḷ ⟩ ¿ku?tuṇai</v>
+        <v>vicumi l=lāku ṟakimāṉi ṟakīm</v>
       </c>
       <c r="B776" t="str">
-        <v>{pcs} kaṭavuḷ kutuṇai</v>
+        <v>vicumi llāku ṟakimāṉi ṟakīm</v>
       </c>
       <c r="C776" t="str">
-        <v>Indien 989</v>
+        <v>Indien 987</v>
       </c>
       <c r="D776" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E776" t="str">
-        <v>Tamil Vocabulary</v>
+        <v>Maturaivīraṉ Ammāṉai</v>
       </c>
       <c r="F776" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G776" t="str">
-        <v>folio 1</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H776" t="str">
         <v>left margin</v>
       </c>
       <c r="I776" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="str">
-        <v>hariḥ | Om</v>
+        <v>{pcs} kaṭavu⟨ḷ ⟩ ¿ku?tuṇai</v>
       </c>
       <c r="B777" t="str">
-        <v>hariḥ Om</v>
+        <v>{pcs} kaṭavuḷ kutuṇai</v>
       </c>
       <c r="C777" t="str">
-        <v>Indien 991</v>
+        <v>Indien 989</v>
       </c>
       <c r="D777" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E777" t="str">
-        <v>Tāyumāṉavar Works</v>
+        <v>Tamil Vocabulary</v>
       </c>
       <c r="F777" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G777" t="str">
-        <v>folio [1]r</v>
+        <v>folio 1</v>
       </c>
       <c r="H777" t="str">
         <v>left margin</v>
       </c>
       <c r="I777" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="str">
-        <v>{pcs}kuruvē tuṇai</v>
+        <v>hariḥ | Om</v>
       </c>
       <c r="B778" t="str">
-        <v>{pcs}kuruvē tuṇai</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C778" t="str">
         <v>Indien 991</v>
@@ -22939,15 +22939,15 @@
         <v>left margin</v>
       </c>
       <c r="I778" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>{pcs}kuruvē tuṇai</v>
       </c>
       <c r="B779" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>{pcs}kuruvē tuṇai</v>
       </c>
       <c r="C779" t="str">
         <v>Indien 991</v>
@@ -22962,10 +22962,10 @@
         <v>U2</v>
       </c>
       <c r="G779" t="str">
-        <v>folio 4r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H779" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I779" t="str">
         <v>1</v>
@@ -22973,10 +22973,10 @@
     </row>
     <row r="780">
       <c r="A780" t="str">
-        <v>caravaṇapa-kuruvē {tuṇai}</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B780" t="str">
-        <v>caravaṇapakuruvē {tuṇai}</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C780" t="str">
         <v>Indien 991</v>
@@ -23002,10 +23002,10 @@
     </row>
     <row r="781">
       <c r="A781" t="str">
-        <v>civacitamparam [...] tuṇai</v>
+        <v>caravaṇapa-kuruvē {tuṇai}</v>
       </c>
       <c r="B781" t="str">
-        <v>civacitamparam tuṇai</v>
+        <v>caravaṇapakuruvē {tuṇai}</v>
       </c>
       <c r="C781" t="str">
         <v>Indien 991</v>
@@ -23031,10 +23031,10 @@
     </row>
     <row r="782">
       <c r="A782" t="str">
-        <v>paṭṭīcurar cuvāmi tuṇai</v>
+        <v>civacitamparam [...] tuṇai</v>
       </c>
       <c r="B782" t="str">
-        <v>paṭṭīcurar cuvāmi tuṇai</v>
+        <v>civacitamparam tuṇai</v>
       </c>
       <c r="C782" t="str">
         <v>Indien 991</v>
@@ -23049,7 +23049,7 @@
         <v>U2</v>
       </c>
       <c r="G782" t="str">
-        <v>folio 75r</v>
+        <v>folio 4r</v>
       </c>
       <c r="H782" t="str">
         <v>main text area</v>
@@ -23060,10 +23060,10 @@
     </row>
     <row r="783">
       <c r="A783" t="str">
-        <v>civamayam</v>
+        <v>paṭṭīcurar cuvāmi tuṇai</v>
       </c>
       <c r="B783" t="str">
-        <v>civamayam</v>
+        <v>paṭṭīcurar cuvāmi tuṇai</v>
       </c>
       <c r="C783" t="str">
         <v>Indien 991</v>
@@ -23084,15 +23084,15 @@
         <v>main text area</v>
       </c>
       <c r="I783" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="str">
-        <v>periyaṉāyakiyammaṉ muṟṟum</v>
+        <v>civamayam</v>
       </c>
       <c r="B784" t="str">
-        <v>periyaṉāyakiyammaṉ muṟṟum</v>
+        <v>civamayam</v>
       </c>
       <c r="C784" t="str">
         <v>Indien 991</v>
@@ -23107,7 +23107,7 @@
         <v>U2</v>
       </c>
       <c r="G784" t="str">
-        <v>folio 77v</v>
+        <v>folio 75r</v>
       </c>
       <c r="H784" t="str">
         <v>main text area</v>
@@ -23118,10 +23118,10 @@
     </row>
     <row r="785">
       <c r="A785" t="str">
-        <v>civacuppaṟāyar {tuṇai}</v>
+        <v>periyaṉāyakiyammaṉ muṟṟum</v>
       </c>
       <c r="B785" t="str">
-        <v>civacuppaṟāyar {tuṇai}</v>
+        <v>periyaṉāyakiyammaṉ muṟṟum</v>
       </c>
       <c r="C785" t="str">
         <v>Indien 991</v>
@@ -23142,33 +23142,33 @@
         <v>main text area</v>
       </c>
       <c r="I785" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="str">
-        <v>kaṭavuḷ tuṇai</v>
+        <v>civacuppaṟāyar {tuṇai}</v>
       </c>
       <c r="B786" t="str">
-        <v>kaṭavuḷ tuṇai</v>
+        <v>civacuppaṟāyar {tuṇai}</v>
       </c>
       <c r="C786" t="str">
-        <v>Indien 992</v>
+        <v>Indien 991</v>
       </c>
       <c r="D786" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E786" t="str">
-        <v>Tēraiyar Vayittiyam 500</v>
+        <v>Tāyumāṉavar Works</v>
       </c>
       <c r="F786" t="str">
         <v>U2</v>
       </c>
       <c r="G786" t="str">
-        <v>folio [1]r</v>
+        <v>folio 77v</v>
       </c>
       <c r="H786" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I786" t="str">
         <v>1</v>
@@ -23176,10 +23176,10 @@
     </row>
     <row r="787">
       <c r="A787" t="str">
-        <v>kuru muṉṉirkkavum</v>
+        <v>kaṭavuḷ tuṇai</v>
       </c>
       <c r="B787" t="str">
-        <v>kuru muṉṉirkkavum</v>
+        <v>kaṭavuḷ tuṇai</v>
       </c>
       <c r="C787" t="str">
         <v>Indien 992</v>
@@ -23200,73 +23200,73 @@
         <v>left margin</v>
       </c>
       <c r="I787" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="str">
-        <v>yēkaparāparavaṣttuvē tuṇai</v>
+        <v>kuru muṉṉirkkavum</v>
       </c>
       <c r="B788" t="str">
-        <v>yēkaparāparavaṣttuvē tuṇai</v>
+        <v>kuru muṉṉirkkavum</v>
       </c>
       <c r="C788" t="str">
-        <v>Indien 993</v>
+        <v>Indien 992</v>
       </c>
       <c r="D788" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E788" t="str">
-        <v>Cippāyika Vāttu Varicai Paḻakkuṟa Poṣttakam</v>
+        <v>Tēraiyar Vayittiyam 500</v>
       </c>
       <c r="F788" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G788" t="str">
         <v>folio [1]r</v>
       </c>
       <c r="H788" t="str">
-        <v>column 3</v>
+        <v>left margin</v>
       </c>
       <c r="I788" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="str">
-        <v>śrīmatu Aṉantacuvāmi [...] kkavu=m</v>
+        <v>yēkaparāparavaṣttuvē tuṇai</v>
       </c>
       <c r="B789" t="str">
-        <v>śrīmatu Aṉantacuvāmi kkavum</v>
+        <v>yēkaparāparavaṣttuvē tuṇai</v>
       </c>
       <c r="C789" t="str">
-        <v>Indien 1034a</v>
+        <v>Indien 993</v>
       </c>
       <c r="D789" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E789" t="str">
-        <v>TBC</v>
+        <v>Cippāyika Vāttu Varicai Paḻakkuṟa Poṣttakam</v>
       </c>
       <c r="F789" t="str">
         <v>U1</v>
       </c>
       <c r="G789" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H789" t="str">
-        <v/>
+        <v>column 3</v>
       </c>
       <c r="I789" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="str">
-        <v>kuru [...] kkavu=m</v>
+        <v>śrīmatu Aṉantacuvāmi [...] kkavu=m</v>
       </c>
       <c r="B790" t="str">
-        <v>kuru kkavum</v>
+        <v>śrīmatu Aṉantacuvāmi kkavum</v>
       </c>
       <c r="C790" t="str">
         <v>Indien 1034a</v>
@@ -23292,13 +23292,13 @@
     </row>
     <row r="791">
       <c r="A791" t="str">
-        <v>Āṉantacuvāmi [...]</v>
+        <v>kuru [...] kkavu=m</v>
       </c>
       <c r="B791" t="str">
-        <v>Āṉantacuvāmi</v>
+        <v>kuru kkavum</v>
       </c>
       <c r="C791" t="str">
-        <v>Indien 1034c</v>
+        <v>Indien 1034a</v>
       </c>
       <c r="D791" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -23310,10 +23310,10 @@
         <v>U1</v>
       </c>
       <c r="G791" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H791" t="str">
-        <v>column 1</v>
+        <v/>
       </c>
       <c r="I791" t="str">
         <v>0</v>
@@ -23321,10 +23321,10 @@
     </row>
     <row r="792">
       <c r="A792" t="str">
-        <v>Āṟumuka tuṇai [...]</v>
+        <v>Āṉantacuvāmi [...]</v>
       </c>
       <c r="B792" t="str">
-        <v>Āṟumuka tuṇai</v>
+        <v>Āṉantacuvāmi</v>
       </c>
       <c r="C792" t="str">
         <v>Indien 1034c</v>
@@ -23345,15 +23345,15 @@
         <v>column 1</v>
       </c>
       <c r="I792" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="str">
-        <v>vellum kaiyam [...]</v>
+        <v>Āṟumuka tuṇai [...]</v>
       </c>
       <c r="B793" t="str">
-        <v>vellum kaiyam</v>
+        <v>Āṟumuka tuṇai</v>
       </c>
       <c r="C793" t="str">
         <v>Indien 1034c</v>
@@ -23374,18 +23374,18 @@
         <v>column 1</v>
       </c>
       <c r="I793" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="str">
-        <v>makā-kaṇapati tuṇai</v>
+        <v>vellum kaiyam [...]</v>
       </c>
       <c r="B794" t="str">
-        <v>makākaṇapati tuṇai</v>
+        <v>vellum kaiyam</v>
       </c>
       <c r="C794" t="str">
-        <v>Indien 1034d</v>
+        <v>Indien 1034c</v>
       </c>
       <c r="D794" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -23394,24 +23394,24 @@
         <v>TBC</v>
       </c>
       <c r="F794" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G794" t="str">
-        <v>folio 25r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H794" t="str">
-        <v>left margin</v>
+        <v>column 1</v>
       </c>
       <c r="I794" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>makā-kaṇapati tuṇai</v>
       </c>
       <c r="B795" t="str">
-        <v>kuruvē tuṇai</v>
+        <v>makākaṇapati tuṇai</v>
       </c>
       <c r="C795" t="str">
         <v>Indien 1034d</v>
@@ -23429,7 +23429,7 @@
         <v>folio 25r</v>
       </c>
       <c r="H795" t="str">
-        <v>column</v>
+        <v>left margin</v>
       </c>
       <c r="I795" t="str">
         <v>1</v>
@@ -23437,57 +23437,57 @@
     </row>
     <row r="796">
       <c r="A796" t="str">
-        <v>śrī</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="B796" t="str">
-        <v>śrī</v>
+        <v>kuruvē tuṇai</v>
       </c>
       <c r="C796" t="str">
-        <v>Indien 1037</v>
+        <v>Indien 1034d</v>
       </c>
       <c r="D796" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E796" t="str">
-        <v>Talisman or Private Letter</v>
+        <v>TBC</v>
       </c>
       <c r="F796" t="str">
-        <v>seal</v>
+        <v>U2</v>
       </c>
       <c r="G796" t="str">
-        <v>folio [1r]</v>
+        <v>folio 25r</v>
       </c>
       <c r="H796" t="str">
-        <v/>
+        <v>column</v>
       </c>
       <c r="I796" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrī</v>
       </c>
       <c r="B797" t="str">
-        <v>hariḥ Om·</v>
+        <v>śrī</v>
       </c>
       <c r="C797" t="str">
-        <v>Indien 1039</v>
+        <v>Indien 1037</v>
       </c>
       <c r="D797" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E797" t="str">
-        <v>Cīraṅkappurāṇam</v>
+        <v>Talisman or Private Letter</v>
       </c>
       <c r="F797" t="str">
-        <v>U2a</v>
+        <v>seal</v>
       </c>
       <c r="G797" t="str">
-        <v>folio [1]r</v>
+        <v>folio [1r]</v>
       </c>
       <c r="H797" t="str">
-        <v>left margin</v>
+        <v/>
       </c>
       <c r="I797" t="str">
         <v>0</v>
@@ -23495,10 +23495,10 @@
     </row>
     <row r="798">
       <c r="A798" t="str">
-        <v>Em perumāṉār tunai</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B798" t="str">
-        <v>Em perumāṉār tunai</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C798" t="str">
         <v>Indien 1039</v>
@@ -23524,10 +23524,10 @@
     </row>
     <row r="799">
       <c r="A799" t="str">
-        <v>śrī-raṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
+        <v>Em perumāṉār tunai</v>
       </c>
       <c r="B799" t="str">
-        <v>śrīraṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
+        <v>Em perumāṉār tunai</v>
       </c>
       <c r="C799" t="str">
         <v>Indien 1039</v>
@@ -23542,10 +23542,10 @@
         <v>U2a</v>
       </c>
       <c r="G799" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H799" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I799" t="str">
         <v>0</v>
@@ -23553,10 +23553,10 @@
     </row>
     <row r="800">
       <c r="A800" t="str">
-        <v>naṉṟāka</v>
+        <v>śrī-raṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
       </c>
       <c r="B800" t="str">
-        <v>naṉṟāka</v>
+        <v>śrīraṅkaṉāyakar tiruvaṭikaḷ caraṇam</v>
       </c>
       <c r="C800" t="str">
         <v>Indien 1039</v>
@@ -23568,13 +23568,13 @@
         <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F800" t="str">
-        <v>U2b</v>
+        <v>U2a</v>
       </c>
       <c r="G800" t="str">
-        <v>folio [1]r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H800" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I800" t="str">
         <v>0</v>
@@ -23582,10 +23582,10 @@
     </row>
     <row r="801">
       <c r="A801" t="str">
-        <v>civamayam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="B801" t="str">
-        <v>civamayam</v>
+        <v>naṉṟāka</v>
       </c>
       <c r="C801" t="str">
         <v>Indien 1039</v>
@@ -23600,10 +23600,10 @@
         <v>U2b</v>
       </c>
       <c r="G801" t="str">
-        <v>folio 52v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H801" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I801" t="str">
         <v>0</v>
@@ -23640,10 +23640,10 @@
     </row>
     <row r="803">
       <c r="A803" t="str">
-        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="B803" t="str">
-        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
+        <v>civamayam</v>
       </c>
       <c r="C803" t="str">
         <v>Indien 1039</v>
@@ -23664,15 +23664,15 @@
         <v>main text area</v>
       </c>
       <c r="I803" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
       </c>
       <c r="B804" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>ṟaṅkaṉāṉāyakar tuṇai</v>
       </c>
       <c r="C804" t="str">
         <v>Indien 1039</v>
@@ -23687,21 +23687,21 @@
         <v>U2b</v>
       </c>
       <c r="G804" t="str">
-        <v>folio 70v</v>
+        <v>folio 52v</v>
       </c>
       <c r="H804" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I804" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B805" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C805" t="str">
         <v>Indien 1039</v>
@@ -23716,7 +23716,7 @@
         <v>U2b</v>
       </c>
       <c r="G805" t="str">
-        <v>folio 84r</v>
+        <v>folio 70v</v>
       </c>
       <c r="H805" t="str">
         <v>left margin</v>
@@ -23727,10 +23727,10 @@
     </row>
     <row r="806">
       <c r="A806" t="str">
-        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B806" t="str">
-        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C806" t="str">
         <v>Indien 1039</v>
@@ -23745,7 +23745,7 @@
         <v>U2b</v>
       </c>
       <c r="G806" t="str">
-        <v>folio 95v</v>
+        <v>folio 84r</v>
       </c>
       <c r="H806" t="str">
         <v>left margin</v>
@@ -23756,10 +23756,10 @@
     </row>
     <row r="807">
       <c r="A807" t="str">
-        <v>[...]</v>
+        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B807" t="str">
-        <v/>
+        <v>Āḻvārkaḷ emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C807" t="str">
         <v>Indien 1039</v>
@@ -23774,7 +23774,7 @@
         <v>U2b</v>
       </c>
       <c r="G807" t="str">
-        <v>folio 103.2r</v>
+        <v>folio 95v</v>
       </c>
       <c r="H807" t="str">
         <v>left margin</v>
@@ -23803,7 +23803,7 @@
         <v>U2b</v>
       </c>
       <c r="G808" t="str">
-        <v>folio 108v</v>
+        <v>folio 103.2r</v>
       </c>
       <c r="H808" t="str">
         <v>left margin</v>
@@ -23832,7 +23832,7 @@
         <v>U2b</v>
       </c>
       <c r="G809" t="str">
-        <v>folio 112v</v>
+        <v>folio 108v</v>
       </c>
       <c r="H809" t="str">
         <v>left margin</v>
@@ -23861,7 +23861,7 @@
         <v>U2b</v>
       </c>
       <c r="G810" t="str">
-        <v>folio 118r</v>
+        <v>folio 112v</v>
       </c>
       <c r="H810" t="str">
         <v>left margin</v>
@@ -23872,10 +23872,10 @@
     </row>
     <row r="811">
       <c r="A811" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam [...]</v>
+        <v>[...]</v>
       </c>
       <c r="B811" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C811" t="str">
         <v>Indien 1039</v>
@@ -23890,7 +23890,7 @@
         <v>U2b</v>
       </c>
       <c r="G811" t="str">
-        <v>folio 124v</v>
+        <v>folio 118r</v>
       </c>
       <c r="H811" t="str">
         <v>left margin</v>
@@ -23901,10 +23901,10 @@
     </row>
     <row r="812">
       <c r="A812" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam [...]</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam [...]</v>
       </c>
       <c r="B812" t="str">
-        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C812" t="str">
         <v>Indien 1039</v>
@@ -23919,7 +23919,7 @@
         <v>U2b</v>
       </c>
       <c r="G812" t="str">
-        <v>folio 139v</v>
+        <v>folio 124v</v>
       </c>
       <c r="H812" t="str">
         <v>left margin</v>
@@ -23930,10 +23930,10 @@
     </row>
     <row r="813">
       <c r="A813" t="str">
-        <v>cuppaṟāyar tuṇai</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam [...]</v>
       </c>
       <c r="B813" t="str">
-        <v>cuppaṟāyar tuṇai</v>
+        <v>Āḻvār emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C813" t="str">
         <v>Indien 1039</v>
@@ -23954,15 +23954,15 @@
         <v>left margin</v>
       </c>
       <c r="I813" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="str">
-        <v>murukar tuṇai</v>
+        <v>cuppaṟāyar tuṇai</v>
       </c>
       <c r="B814" t="str">
-        <v>murukar tuṇai</v>
+        <v>cuppaṟāyar tuṇai</v>
       </c>
       <c r="C814" t="str">
         <v>Indien 1039</v>
@@ -23988,10 +23988,10 @@
     </row>
     <row r="815">
       <c r="A815" t="str">
-        <v>Āḻvār em perumāṉār centredtiruvaṭikaḷē caraṇam</v>
+        <v>murukar tuṇai</v>
       </c>
       <c r="B815" t="str">
-        <v>Āḻvār em perumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>murukar tuṇai</v>
       </c>
       <c r="C815" t="str">
         <v>Indien 1039</v>
@@ -24006,21 +24006,21 @@
         <v>U2b</v>
       </c>
       <c r="G815" t="str">
-        <v>folio 157r</v>
+        <v>folio 139v</v>
       </c>
       <c r="H815" t="str">
         <v>left margin</v>
       </c>
       <c r="I815" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="str">
-        <v>śrī-rā=ma-ceya=m</v>
+        <v>Āḻvār em perumāṉār centredtiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B816" t="str">
-        <v>śrīrāmaceyam</v>
+        <v>Āḻvār em perumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C816" t="str">
         <v>Indien 1039</v>
@@ -24035,7 +24035,7 @@
         <v>U2b</v>
       </c>
       <c r="G816" t="str">
-        <v>folio 166r</v>
+        <v>folio 157r</v>
       </c>
       <c r="H816" t="str">
         <v>left margin</v>
@@ -24046,10 +24046,10 @@
     </row>
     <row r="817">
       <c r="A817" t="str">
-        <v>śrī-rā=ma-ceyam·</v>
+        <v>śrī-rā=ma-ceya=m</v>
       </c>
       <c r="B817" t="str">
-        <v>śrīrāmaceyam·</v>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C817" t="str">
         <v>Indien 1039</v>
@@ -24064,7 +24064,7 @@
         <v>U2b</v>
       </c>
       <c r="G817" t="str">
-        <v>folio 167r</v>
+        <v>folio 166r</v>
       </c>
       <c r="H817" t="str">
         <v>left margin</v>
@@ -24075,10 +24075,10 @@
     </row>
     <row r="818">
       <c r="A818" t="str">
-        <v>[...]</v>
+        <v>śrī-rā=ma-ceyam·</v>
       </c>
       <c r="B818" t="str">
-        <v/>
+        <v>śrīrāmaceyam·</v>
       </c>
       <c r="C818" t="str">
         <v>Indien 1039</v>
@@ -24093,7 +24093,7 @@
         <v>U2b</v>
       </c>
       <c r="G818" t="str">
-        <v>folio 167v</v>
+        <v>folio 167r</v>
       </c>
       <c r="H818" t="str">
         <v>left margin</v>
@@ -24104,10 +24104,10 @@
     </row>
     <row r="819">
       <c r="A819" t="str">
-        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
+        <v>[...]</v>
       </c>
       <c r="B819" t="str">
-        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
+        <v/>
       </c>
       <c r="C819" t="str">
         <v>Indien 1039</v>
@@ -24122,7 +24122,7 @@
         <v>U2b</v>
       </c>
       <c r="G819" t="str">
-        <v>folio 174r</v>
+        <v>folio 167v</v>
       </c>
       <c r="H819" t="str">
         <v>left margin</v>
@@ -24133,10 +24133,10 @@
     </row>
     <row r="820">
       <c r="A820" t="str">
-        <v>[...]</v>
+        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B820" t="str">
-        <v/>
+        <v>Āḻvār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C820" t="str">
         <v>Indien 1039</v>
@@ -24151,7 +24151,7 @@
         <v>U2b</v>
       </c>
       <c r="G820" t="str">
-        <v>folio 203v</v>
+        <v>folio 174r</v>
       </c>
       <c r="H820" t="str">
         <v>left margin</v>
@@ -24162,10 +24162,10 @@
     </row>
     <row r="821">
       <c r="A821" t="str">
-        <v>śrīrā=maceyam</v>
+        <v>[...]</v>
       </c>
       <c r="B821" t="str">
-        <v>śrīrāmaceyam</v>
+        <v/>
       </c>
       <c r="C821" t="str">
         <v>Indien 1039</v>
@@ -24180,7 +24180,7 @@
         <v>U2b</v>
       </c>
       <c r="G821" t="str">
-        <v>folio 236v</v>
+        <v>folio 203v</v>
       </c>
       <c r="H821" t="str">
         <v>left margin</v>
@@ -24191,10 +24191,10 @@
     </row>
     <row r="822">
       <c r="A822" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>śrīrā=maceyam</v>
       </c>
       <c r="B822" t="str">
-        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
+        <v>śrīrāmaceyam</v>
       </c>
       <c r="C822" t="str">
         <v>Indien 1039</v>
@@ -24209,7 +24209,7 @@
         <v>U2b</v>
       </c>
       <c r="G822" t="str">
-        <v>folio 245v</v>
+        <v>folio 236v</v>
       </c>
       <c r="H822" t="str">
         <v>left margin</v>
@@ -24220,10 +24220,10 @@
     </row>
     <row r="823">
       <c r="A823" t="str">
-        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B823" t="str">
-        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
+        <v>Āḻvārkaḷ tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C823" t="str">
         <v>Indien 1039</v>
@@ -24249,28 +24249,28 @@
     </row>
     <row r="824">
       <c r="A824" t="str">
-        <v>|| rāma ||</v>
+        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="B824" t="str">
-        <v>rāma</v>
+        <v>Emperumāṉār tiruvaṭikaḷē caraṇam</v>
       </c>
       <c r="C824" t="str">
-        <v>Chandra Shum Shere d.247</v>
+        <v>Indien 1039</v>
       </c>
       <c r="D824" t="str">
-        <v>Bodleian Library, University of Oxford</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E824" t="str">
-        <v>Prakīrṇaprakāśa</v>
+        <v>Cīraṅkappurāṇam</v>
       </c>
       <c r="F824" t="str">
-        <v/>
+        <v>U2b</v>
       </c>
       <c r="G824" t="str">
-        <v/>
+        <v>folio 245v</v>
       </c>
       <c r="H824" t="str">
-        <v>marginal</v>
+        <v>left margin</v>
       </c>
       <c r="I824" t="str">
         <v>0</v>
@@ -24278,28 +24278,28 @@
     </row>
     <row r="825">
       <c r="A825" t="str">
-        <v>hariḥ Om</v>
+        <v>|| rāma ||</v>
       </c>
       <c r="B825" t="str">
-        <v>hariḥ Om</v>
+        <v>rāma</v>
       </c>
       <c r="C825" t="str">
-        <v>Sanscrit 290</v>
+        <v>Chandra Shum Shere d.247</v>
       </c>
       <c r="D825" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bodleian Library, University of Oxford</v>
       </c>
       <c r="E825" t="str">
-        <v>Yajurveda Taittirīyasaṃhitā</v>
+        <v>Prakīrṇaprakāśa</v>
       </c>
       <c r="F825" t="str">
-        <v>U3</v>
+        <v/>
       </c>
       <c r="G825" t="str">
-        <v>folio [1]r</v>
+        <v/>
       </c>
       <c r="H825" t="str">
-        <v>left margin</v>
+        <v>marginal</v>
       </c>
       <c r="I825" t="str">
         <v>0</v>
@@ -24307,10 +24307,10 @@
     </row>
     <row r="826">
       <c r="A826" t="str">
-        <v>śrīvedavyāsāya ¿nmaḥ?namaḥ</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B826" t="str">
-        <v>śrīvedavyāsāya nmaḥnamaḥ</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C826" t="str">
         <v>Sanscrit 290</v>
@@ -24328,7 +24328,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H826" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I826" t="str">
         <v>0</v>
@@ -24336,10 +24336,10 @@
     </row>
     <row r="827">
       <c r="A827" t="str">
-        <v>śrīmahāsarasvatyai ¿nmaḥ?namaḥ</v>
+        <v>śrīvedavyāsāya ¿nmaḥ?namaḥ</v>
       </c>
       <c r="B827" t="str">
-        <v>śrīmahāsarasvatyai nmaḥnamaḥ</v>
+        <v>śrīvedavyāsāya nmaḥnamaḥ</v>
       </c>
       <c r="C827" t="str">
         <v>Sanscrit 290</v>
@@ -24365,10 +24365,10 @@
     </row>
     <row r="828">
       <c r="A828" t="str">
-        <v>Avighnam astu</v>
+        <v>śrīmahāsarasvatyai ¿nmaḥ?namaḥ</v>
       </c>
       <c r="B828" t="str">
-        <v>Avighnam astu</v>
+        <v>śrīmahāsarasvatyai nmaḥnamaḥ</v>
       </c>
       <c r="C828" t="str">
         <v>Sanscrit 290</v>
@@ -24383,7 +24383,7 @@
         <v>U3</v>
       </c>
       <c r="G828" t="str">
-        <v>folio [1]v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H828" t="str">
         <v>main text area</v>
@@ -24394,10 +24394,10 @@
     </row>
     <row r="829">
       <c r="A829" t="str">
-        <v>hariḥ Om</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B829" t="str">
-        <v>hariḥ Om</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C829" t="str">
         <v>Sanscrit 290</v>
@@ -24409,13 +24409,13 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F829" t="str">
-        <v>U4</v>
+        <v>U3</v>
       </c>
       <c r="G829" t="str">
-        <v>folio 1r</v>
+        <v>folio [1]v</v>
       </c>
       <c r="H829" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I829" t="str">
         <v>0</v>
@@ -24423,10 +24423,10 @@
     </row>
     <row r="830">
       <c r="A830" t="str">
-        <v>Avighnam astu</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B830" t="str">
-        <v>Avighnam astu</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C830" t="str">
         <v>Sanscrit 290</v>
@@ -24452,10 +24452,10 @@
     </row>
     <row r="831">
       <c r="A831" t="str">
-        <v>hariḥ Om·</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B831" t="str">
-        <v>hariḥ Om·</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C831" t="str">
         <v>Sanscrit 290</v>
@@ -24470,10 +24470,10 @@
         <v>U4</v>
       </c>
       <c r="G831" t="str">
-        <v>folio 342r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H831" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I831" t="str">
         <v>0</v>
@@ -24481,10 +24481,10 @@
     </row>
     <row r="832">
       <c r="A832" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B832" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C832" t="str">
         <v>Sanscrit 290</v>
@@ -24510,10 +24510,10 @@
     </row>
     <row r="833">
       <c r="A833" t="str">
-        <v>śrīgurubhyo namaḥ</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="B833" t="str">
-        <v>śrīgurubhyo namaḥ</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="C833" t="str">
         <v>Sanscrit 290</v>
@@ -24539,10 +24539,10 @@
     </row>
     <row r="834">
       <c r="A834" t="str">
-        <v>śrīvedavyāsāya namaḥ</v>
+        <v>śrīgurubhyo namaḥ</v>
       </c>
       <c r="B834" t="str">
-        <v>śrīvedavyāsāya namaḥ</v>
+        <v>śrīgurubhyo namaḥ</v>
       </c>
       <c r="C834" t="str">
         <v>Sanscrit 290</v>
@@ -24568,10 +24568,10 @@
     </row>
     <row r="835">
       <c r="A835" t="str">
-        <v>Avighnam astu</v>
+        <v>śrīvedavyāsāya namaḥ</v>
       </c>
       <c r="B835" t="str">
-        <v>Avighnam astu</v>
+        <v>śrīvedavyāsāya namaḥ</v>
       </c>
       <c r="C835" t="str">
         <v>Sanscrit 290</v>
@@ -24586,7 +24586,7 @@
         <v>U4</v>
       </c>
       <c r="G835" t="str">
-        <v>folio 342v</v>
+        <v>folio 342r</v>
       </c>
       <c r="H835" t="str">
         <v>main text area</v>
@@ -24597,10 +24597,10 @@
     </row>
     <row r="836">
       <c r="A836" t="str">
-        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="B836" t="str">
-        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
+        <v>Avighnam astu</v>
       </c>
       <c r="C836" t="str">
         <v>Sanscrit 290</v>
@@ -24626,10 +24626,10 @@
     </row>
     <row r="837">
       <c r="A837" t="str">
-        <v>Om·</v>
+        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
       </c>
       <c r="B837" t="str">
-        <v>Om·</v>
+        <v>kailāsanātheśvarasvāmīsahāyaḥ</v>
       </c>
       <c r="C837" t="str">
         <v>Sanscrit 290</v>
@@ -24655,13 +24655,13 @@
     </row>
     <row r="838">
       <c r="A838" t="str">
-        <v>hariḥ Om·</v>
+        <v>Om·</v>
       </c>
       <c r="B838" t="str">
-        <v>hariḥ Om·</v>
+        <v>Om·</v>
       </c>
       <c r="C838" t="str">
-        <v>Sanscrit 291</v>
+        <v>Sanscrit 290</v>
       </c>
       <c r="D838" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
@@ -24670,13 +24670,13 @@
         <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F838" t="str">
-        <v>U2</v>
+        <v>U4</v>
       </c>
       <c r="G838" t="str">
-        <v>folio [1]r</v>
+        <v>folio 342v</v>
       </c>
       <c r="H838" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I838" t="str">
         <v>0</v>
@@ -24702,10 +24702,10 @@
         <v>U2</v>
       </c>
       <c r="G839" t="str">
-        <v>folio 240v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H839" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I839" t="str">
         <v>0</v>
@@ -24713,10 +24713,10 @@
     </row>
     <row r="840">
       <c r="A840" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B840" t="str">
-        <v>śrīkṛṣṇārpaṇam astu</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C840" t="str">
         <v>Sanscrit 291</v>
@@ -24742,10 +24742,10 @@
     </row>
     <row r="841">
       <c r="A841" t="str">
-        <v>śubham astu</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="B841" t="str">
-        <v>śubham astu</v>
+        <v>śrīkṛṣṇārpaṇam astu</v>
       </c>
       <c r="C841" t="str">
         <v>Sanscrit 291</v>
@@ -24771,28 +24771,28 @@
     </row>
     <row r="842">
       <c r="A842" t="str">
-        <v>śrīḥ —</v>
+        <v>śubham astu</v>
       </c>
       <c r="B842" t="str">
-        <v>śrīḥ —</v>
+        <v>śubham astu</v>
       </c>
       <c r="C842" t="str">
-        <v>Sanscrit 612.1</v>
+        <v>Sanscrit 291</v>
       </c>
       <c r="D842" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E842" t="str">
-        <v>Amarakośa with anonymous commentaries</v>
+        <v>Yajurveda Taittirīyasaṃhitā</v>
       </c>
       <c r="F842" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G842" t="str">
-        <v>initial folio, recto</v>
+        <v>folio 240v</v>
       </c>
       <c r="H842" t="str">
-        <v>beginning, marginal, left</v>
+        <v>main text area</v>
       </c>
       <c r="I842" t="str">
         <v>0</v>
@@ -24800,10 +24800,10 @@
     </row>
     <row r="843">
       <c r="A843" t="str">
-        <v>śrīḥ</v>
+        <v>śrīḥ —</v>
       </c>
       <c r="B843" t="str">
-        <v>śrīḥ</v>
+        <v>śrīḥ —</v>
       </c>
       <c r="C843" t="str">
         <v>Sanscrit 612.1</v>
@@ -24815,13 +24815,13 @@
         <v>Amarakośa with anonymous commentaries</v>
       </c>
       <c r="F843" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G843" t="str">
-        <v>folio 1v</v>
+        <v>initial folio, recto</v>
       </c>
       <c r="H843" t="str">
-        <v>beginning, marginal, right</v>
+        <v>beginning, marginal, left</v>
       </c>
       <c r="I843" t="str">
         <v>0</v>
@@ -24829,28 +24829,28 @@
     </row>
     <row r="844">
       <c r="A844" t="str">
-        <v>śrī</v>
+        <v>śrīḥ</v>
       </c>
       <c r="B844" t="str">
-        <v>śrī</v>
+        <v>śrīḥ</v>
       </c>
       <c r="C844" t="str">
-        <v>Sanscrit 616</v>
+        <v>Sanscrit 612.1</v>
       </c>
       <c r="D844" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E844" t="str">
-        <v>Amarakośaviveka</v>
+        <v>Amarakośa with anonymous commentaries</v>
       </c>
       <c r="F844" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G844" t="str">
-        <v>1r</v>
+        <v>folio 1v</v>
       </c>
       <c r="H844" t="str">
-        <v>marginal</v>
+        <v>beginning, marginal, right</v>
       </c>
       <c r="I844" t="str">
         <v>0</v>
@@ -24858,28 +24858,28 @@
     </row>
     <row r="845">
       <c r="A845" t="str">
-        <v>śrīrāmaḥ</v>
+        <v>śrī</v>
       </c>
       <c r="B845" t="str">
-        <v>śrīrāmaḥ</v>
+        <v>śrī</v>
       </c>
       <c r="C845" t="str">
-        <v>Sanscrit 619</v>
+        <v>Sanscrit 616</v>
       </c>
       <c r="D845" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E845" t="str">
-        <v>Amarakośakaumudī</v>
+        <v>Amarakośaviveka</v>
       </c>
       <c r="F845" t="str">
         <v/>
       </c>
       <c r="G845" t="str">
-        <v>folio 1, recto</v>
+        <v>1r</v>
       </c>
       <c r="H845" t="str">
-        <v>beginning</v>
+        <v>marginal</v>
       </c>
       <c r="I845" t="str">
         <v>0</v>
@@ -24887,28 +24887,28 @@
     </row>
     <row r="846">
       <c r="A846" t="str">
-        <v>hariḥ Om</v>
+        <v>śrīrāmaḥ</v>
       </c>
       <c r="B846" t="str">
-        <v>hariḥ Om</v>
+        <v>śrīrāmaḥ</v>
       </c>
       <c r="C846" t="str">
-        <v>Sanscrit 815</v>
+        <v>Sanscrit 619</v>
       </c>
       <c r="D846" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E846" t="str">
-        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+        <v>Amarakośakaumudī</v>
       </c>
       <c r="F846" t="str">
-        <v>U1</v>
+        <v/>
       </c>
       <c r="G846" t="str">
-        <v>folio 1r</v>
+        <v>folio 1, recto</v>
       </c>
       <c r="H846" t="str">
-        <v>left margin 1</v>
+        <v>beginning</v>
       </c>
       <c r="I846" t="str">
         <v>0</v>
@@ -24916,10 +24916,10 @@
     </row>
     <row r="847">
       <c r="A847" t="str">
-        <v>hariḥ Om·</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B847" t="str">
-        <v>hariḥ Om·</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C847" t="str">
         <v>Sanscrit 815</v>
@@ -24934,10 +24934,10 @@
         <v>U1</v>
       </c>
       <c r="G847" t="str">
-        <v>folio 148v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H847" t="str">
-        <v>main text area</v>
+        <v>left margin 1</v>
       </c>
       <c r="I847" t="str">
         <v>0</v>
@@ -24945,10 +24945,10 @@
     </row>
     <row r="848">
       <c r="A848" t="str">
-        <v>Om· {pcl}</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B848" t="str">
-        <v>Om· {pcl}</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C848" t="str">
         <v>Sanscrit 815</v>
@@ -24974,10 +24974,10 @@
     </row>
     <row r="849">
       <c r="A849" t="str">
-        <v>hariḥ Om</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="B849" t="str">
-        <v>hariḥ Om</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="C849" t="str">
         <v>Sanscrit 815</v>
@@ -24989,13 +24989,13 @@
         <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F849" t="str">
-        <v>U3</v>
+        <v>U1</v>
       </c>
       <c r="G849" t="str">
-        <v>folio 149r</v>
+        <v>folio 148v</v>
       </c>
       <c r="H849" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I849" t="str">
         <v>0</v>
@@ -25003,10 +25003,10 @@
     </row>
     <row r="850">
       <c r="A850" t="str">
-        <v>hariḥ Om {pcl}</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B850" t="str">
-        <v>hariḥ Om {pcl}</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C850" t="str">
         <v>Sanscrit 815</v>
@@ -25021,10 +25021,10 @@
         <v>U3</v>
       </c>
       <c r="G850" t="str">
-        <v>folio 155r</v>
+        <v>folio 149r</v>
       </c>
       <c r="H850" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I850" t="str">
         <v>0</v>
@@ -25032,10 +25032,10 @@
     </row>
     <row r="851">
       <c r="A851" t="str">
-        <v>Om {pcl}</v>
+        <v>hariḥ Om {pcl}</v>
       </c>
       <c r="B851" t="str">
-        <v>Om {pcl}</v>
+        <v>hariḥ Om {pcl}</v>
       </c>
       <c r="C851" t="str">
         <v>Sanscrit 815</v>
@@ -25061,10 +25061,10 @@
     </row>
     <row r="852">
       <c r="A852" t="str">
-        <v>hariḥ Om</v>
+        <v>Om {pcl}</v>
       </c>
       <c r="B852" t="str">
-        <v>hariḥ Om</v>
+        <v>Om {pcl}</v>
       </c>
       <c r="C852" t="str">
         <v>Sanscrit 815</v>
@@ -25079,10 +25079,10 @@
         <v>U3</v>
       </c>
       <c r="G852" t="str">
-        <v>folio 155v</v>
+        <v>folio 155r</v>
       </c>
       <c r="H852" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I852" t="str">
         <v>0</v>
@@ -25090,10 +25090,10 @@
     </row>
     <row r="853">
       <c r="A853" t="str">
-        <v>śubham astu</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B853" t="str">
-        <v>śubham astu</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C853" t="str">
         <v>Sanscrit 815</v>
@@ -25119,10 +25119,10 @@
     </row>
     <row r="854">
       <c r="A854" t="str">
-        <v>hari Om·</v>
+        <v>śubham astu</v>
       </c>
       <c r="B854" t="str">
-        <v>hari Om·</v>
+        <v>śubham astu</v>
       </c>
       <c r="C854" t="str">
         <v>Sanscrit 815</v>
@@ -25137,10 +25137,10 @@
         <v>U3</v>
       </c>
       <c r="G854" t="str">
-        <v>folio 286v</v>
+        <v>folio 155v</v>
       </c>
       <c r="H854" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I854" t="str">
         <v>0</v>
@@ -25148,28 +25148,28 @@
     </row>
     <row r="855">
       <c r="A855" t="str">
-        <v>hariḥ Om·</v>
+        <v>hari Om·</v>
       </c>
       <c r="B855" t="str">
-        <v>hariḥ Om·</v>
+        <v>hari Om·</v>
       </c>
       <c r="C855" t="str">
-        <v>Sanscrit 816</v>
+        <v>Sanscrit 815</v>
       </c>
       <c r="D855" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E855" t="str">
-        <v>Mitākṣarā</v>
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F855" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G855" t="str">
-        <v>folio 1r</v>
+        <v>folio 286v</v>
       </c>
       <c r="H855" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I855" t="str">
         <v>0</v>
@@ -25177,10 +25177,10 @@
     </row>
     <row r="856">
       <c r="A856" t="str">
-        <v>hariḥ Om· {pcl}</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B856" t="str">
-        <v>hariḥ Om· {pcl}</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C856" t="str">
         <v>Sanscrit 816</v>
@@ -25195,10 +25195,10 @@
         <v>U2</v>
       </c>
       <c r="G856" t="str">
-        <v>folio 200v</v>
+        <v>folio 1r</v>
       </c>
       <c r="H856" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I856" t="str">
         <v>0</v>
@@ -25206,10 +25206,10 @@
     </row>
     <row r="857">
       <c r="A857" t="str">
-        <v>Om tat sat·</v>
+        <v>hariḥ Om· {pcl}</v>
       </c>
       <c r="B857" t="str">
-        <v>Om tat sat·</v>
+        <v>hariḥ Om· {pcl}</v>
       </c>
       <c r="C857" t="str">
         <v>Sanscrit 816</v>
@@ -25224,7 +25224,7 @@
         <v>U2</v>
       </c>
       <c r="G857" t="str">
-        <v>folio 201r</v>
+        <v>folio 200v</v>
       </c>
       <c r="H857" t="str">
         <v>main text area</v>
@@ -25235,28 +25235,28 @@
     </row>
     <row r="858">
       <c r="A858" t="str">
-        <v>hariḥ Om·</v>
+        <v>Om tat sat·</v>
       </c>
       <c r="B858" t="str">
-        <v>hariḥ Om·</v>
+        <v>Om tat sat·</v>
       </c>
       <c r="C858" t="str">
-        <v>Sanscrit 818</v>
+        <v>Sanscrit 816</v>
       </c>
       <c r="D858" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E858" t="str">
-        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
+        <v>Mitākṣarā</v>
       </c>
       <c r="F858" t="str">
         <v>U2</v>
       </c>
       <c r="G858" t="str">
-        <v>folio 1r</v>
+        <v>folio 201r</v>
       </c>
       <c r="H858" t="str">
-        <v>left margin 1</v>
+        <v>main text area</v>
       </c>
       <c r="I858" t="str">
         <v>0</v>
@@ -25264,10 +25264,10 @@
     </row>
     <row r="859">
       <c r="A859" t="str">
-        <v>hariḥ Om</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B859" t="str">
-        <v>hariḥ Om</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C859" t="str">
         <v>Sanscrit 818</v>
@@ -25279,13 +25279,13 @@
         <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F859" t="str">
-        <v>U4</v>
+        <v>U2</v>
       </c>
       <c r="G859" t="str">
-        <v>folio 88r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H859" t="str">
-        <v>left margin</v>
+        <v>left margin 1</v>
       </c>
       <c r="I859" t="str">
         <v>0</v>
@@ -25293,10 +25293,10 @@
     </row>
     <row r="860">
       <c r="A860" t="str">
-        <v>hariḥ Om·</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="B860" t="str">
-        <v>hariḥ Om·</v>
+        <v>hariḥ Om</v>
       </c>
       <c r="C860" t="str">
         <v>Sanscrit 818</v>
@@ -25311,10 +25311,10 @@
         <v>U4</v>
       </c>
       <c r="G860" t="str">
-        <v>folio 317r</v>
+        <v>folio 88r</v>
       </c>
       <c r="H860" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I860" t="str">
         <v>0</v>
@@ -25322,10 +25322,10 @@
     </row>
     <row r="861">
       <c r="A861" t="str">
-        <v>Om· {pcl}</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="B861" t="str">
-        <v>Om· {pcl}</v>
+        <v>hariḥ Om·</v>
       </c>
       <c r="C861" t="str">
         <v>Sanscrit 818</v>
@@ -25351,28 +25351,28 @@
     </row>
     <row r="862">
       <c r="A862" t="str">
-        <v>śrī</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="B862" t="str">
-        <v>śrī</v>
+        <v>Om· {pcl}</v>
       </c>
       <c r="C862" t="str">
-        <v>Sanscrit 1129</v>
+        <v>Sanscrit 818</v>
       </c>
       <c r="D862" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E862" t="str">
-        <v>Indic Alphabets</v>
+        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F862" t="str">
-        <v>U1a</v>
+        <v>U4</v>
       </c>
       <c r="G862" t="str">
-        <v>folio 1r</v>
+        <v>folio 317r</v>
       </c>
       <c r="H862" t="str">
-        <v/>
+        <v>main text area</v>
       </c>
       <c r="I862" t="str">
         <v>0</v>
@@ -25386,22 +25386,22 @@
         <v>śrī</v>
       </c>
       <c r="C863" t="str">
-        <v>Sanscrit 1146</v>
+        <v>Sanscrit 1129</v>
       </c>
       <c r="D863" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E863" t="str">
-        <v>Brahmasūtra</v>
+        <v>Indic Alphabets</v>
       </c>
       <c r="F863" t="str">
+        <v>U1a</v>
+      </c>
+      <c r="G863" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H863" t="str">
         <v/>
-      </c>
-      <c r="G863" t="str">
-        <v>1r</v>
-      </c>
-      <c r="H863" t="str">
-        <v>marginal</v>
       </c>
       <c r="I863" t="str">
         <v>0</v>
@@ -25409,25 +25409,25 @@
     </row>
     <row r="864">
       <c r="A864" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrī</v>
       </c>
       <c r="B864" t="str">
-        <v>śrīrāmaḥ śaraṇaṃ</v>
+        <v>śrī</v>
       </c>
       <c r="C864" t="str">
-        <v>Sanscrit 1426</v>
+        <v>Sanscrit 1146</v>
       </c>
       <c r="D864" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E864" t="str">
-        <v>Three Vaiṣṇava hymns</v>
+        <v>Brahmasūtra</v>
       </c>
       <c r="F864" t="str">
         <v/>
       </c>
       <c r="G864" t="str">
-        <v>2v</v>
+        <v>1r</v>
       </c>
       <c r="H864" t="str">
         <v>marginal</v>
@@ -25438,28 +25438,28 @@
     </row>
     <row r="865">
       <c r="A865" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ śaraṇaṃ</v>
       </c>
       <c r="B865" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīrāmaḥ śaraṇaṃ</v>
       </c>
       <c r="C865" t="str">
-        <v>Sanscrit 1442.7</v>
+        <v>Sanscrit 1426</v>
       </c>
       <c r="D865" t="str">
-        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+        <v>Bibliothèque nationale de France. Département des Manuscrits.</v>
       </c>
       <c r="E865" t="str">
-        <v>Bengali fragments</v>
+        <v>Three Vaiṣṇava hymns</v>
       </c>
       <c r="F865" t="str">
         <v/>
       </c>
       <c r="G865" t="str">
-        <v>folio 1r</v>
+        <v>2v</v>
       </c>
       <c r="H865" t="str">
-        <v>beginning, marginal, top, left</v>
+        <v>marginal</v>
       </c>
       <c r="I865" t="str">
         <v>0</v>
@@ -25467,7 +25467,7 @@
     </row>
     <row r="866">
       <c r="A866" t="str">
-        <v>śrīhariḥ |</v>
+        <v>śrīhariḥ</v>
       </c>
       <c r="B866" t="str">
         <v>śrīhariḥ</v>
@@ -25482,10 +25482,10 @@
         <v>Bengali fragments</v>
       </c>
       <c r="F866" t="str">
-        <v>U2</v>
+        <v/>
       </c>
       <c r="G866" t="str">
-        <v>folio 2r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H866" t="str">
         <v>beginning, marginal, top, left</v>
@@ -25496,25 +25496,25 @@
     </row>
     <row r="867">
       <c r="A867" t="str">
-        <v>śrīhariḥ</v>
+        <v>śrīhariḥ |</v>
       </c>
       <c r="B867" t="str">
         <v>śrīhariḥ</v>
       </c>
       <c r="C867" t="str">
-        <v>Sanscrit 1442.7a</v>
+        <v>Sanscrit 1442.7</v>
       </c>
       <c r="D867" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E867" t="str">
-        <v>Saṃkrāntadhanaviṣaya</v>
+        <v>Bengali fragments</v>
       </c>
       <c r="F867" t="str">
-        <v/>
+        <v>U2</v>
       </c>
       <c r="G867" t="str">
-        <v>folio 1r</v>
+        <v>folio 2r</v>
       </c>
       <c r="H867" t="str">
         <v>beginning, marginal, top, left</v>
@@ -25525,25 +25525,25 @@
     </row>
     <row r="868">
       <c r="A868" t="str">
-        <v>śrīhariḥ |</v>
+        <v>śrīhariḥ</v>
       </c>
       <c r="B868" t="str">
         <v>śrīhariḥ</v>
       </c>
       <c r="C868" t="str">
-        <v>Sanscrit 1442.7b</v>
+        <v>Sanscrit 1442.7a</v>
       </c>
       <c r="D868" t="str">
         <v>Bibliothèque nationale de France. Département des Manuscrits</v>
       </c>
       <c r="E868" t="str">
-        <v>Mahābhārata – Mokṣadharmaparvan</v>
+        <v>Saṃkrāntadhanaviṣaya</v>
       </c>
       <c r="F868" t="str">
-        <v>U2</v>
+        <v/>
       </c>
       <c r="G868" t="str">
-        <v>folio 2r</v>
+        <v>folio 1r</v>
       </c>
       <c r="H868" t="str">
         <v>beginning, marginal, top, left</v>
@@ -25552,9 +25552,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="869">
+      <c r="A869" t="str">
+        <v>śrīhariḥ |</v>
+      </c>
+      <c r="B869" t="str">
+        <v>śrīhariḥ</v>
+      </c>
+      <c r="C869" t="str">
+        <v>Sanscrit 1442.7b</v>
+      </c>
+      <c r="D869" t="str">
+        <v>Bibliothèque nationale de France. Département des Manuscrits</v>
+      </c>
+      <c r="E869" t="str">
+        <v>Mahābhārata – Mokṣadharmaparvan</v>
+      </c>
+      <c r="F869" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G869" t="str">
+        <v>folio 2r</v>
+      </c>
+      <c r="H869" t="str">
+        <v>beginning, marginal, top, left</v>
+      </c>
+      <c r="I869" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I868"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I869"/>
   </ignoredErrors>
 </worksheet>
 </file>